--- a/SampleOutputReport.xlsx
+++ b/SampleOutputReport.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sklep" r:id="rId3" sheetId="1"/>
+    <sheet name="Total" r:id="rId3" sheetId="1"/>
     <sheet name="BieganieOXELO" r:id="rId4" sheetId="2"/>
     <sheet name="Turystyka" r:id="rId5" sheetId="3"/>
     <sheet name="Woda" r:id="rId6" sheetId="4"/>

--- a/SampleOutputReport.xlsx
+++ b/SampleOutputReport.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="39">
   <si>
     <t>Dzień</t>
   </si>
@@ -128,10 +128,13 @@
     <t>Udział w godzinach</t>
   </si>
   <si>
-    <t>"Idealne" godziny</t>
+    <t>Godziny wg obrotu</t>
   </si>
   <si>
     <t>Różnica godzin</t>
+  </si>
+  <si>
+    <t>Godziny wg celu produktywności: 800.0</t>
   </si>
 </sst>
 </file>
@@ -206,13 +209,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>150586</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -249,13 +252,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>150586</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -292,13 +295,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>150586</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -335,13 +338,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>150586</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -378,13 +381,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>150586</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -421,13 +424,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>150586</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -464,13 +467,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>150586</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -505,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -516,8 +519,9 @@
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.31640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="37.2421875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -543,6 +547,9 @@
       <c r="G2" t="s" s="4">
         <v>37</v>
       </c>
+      <c r="H2" t="s" s="4">
+        <v>38</v>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
@@ -567,6 +574,9 @@
       <c r="G4" t="n" s="2">
         <v>-15.359691731313944</v>
       </c>
+      <c r="H4" t="n" s="2">
+        <v>324.1335435595357</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
@@ -590,6 +600,9 @@
       <c r="G5" t="n" s="2">
         <v>39.694777460374894</v>
       </c>
+      <c r="H5" t="n" s="2">
+        <v>207.1666628265878</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
@@ -613,6 +626,9 @@
       <c r="G6" t="n" s="2">
         <v>9.120148013437927</v>
       </c>
+      <c r="H6" t="n" s="2">
+        <v>172.87273464330738</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
@@ -636,6 +652,9 @@
       <c r="G7" t="n" s="2">
         <v>47.91523119638373</v>
       </c>
+      <c r="H7" t="n" s="2">
+        <v>190.12297852454026</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
@@ -659,6 +678,9 @@
       <c r="G8" t="n" s="2">
         <v>101.10854222100812</v>
       </c>
+      <c r="H8" t="n" s="2">
+        <v>187.66693474764162</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
@@ -682,6 +704,9 @@
       <c r="G9" t="n" s="2">
         <v>15.932206249243563</v>
       </c>
+      <c r="H9" t="n" s="2">
+        <v>295.5880173238273</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
@@ -705,6 +730,9 @@
       <c r="G10" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H10" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
@@ -728,6 +756,9 @@
       <c r="G11" t="n" s="2">
         <v>49.66439522601624</v>
       </c>
+      <c r="H11" t="n" s="2">
+        <v>220.41418510629052</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
@@ -751,6 +782,9 @@
       <c r="G12" t="n" s="2">
         <v>-11.202725728780479</v>
       </c>
+      <c r="H12" t="n" s="2">
+        <v>264.4970221275486</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
@@ -774,6 +808,9 @@
       <c r="G13" t="n" s="2">
         <v>-64.04146994991865</v>
       </c>
+      <c r="H13" t="n" s="2">
+        <v>327.4725035864887</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
@@ -797,6 +834,9 @@
       <c r="G14" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H14" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
@@ -820,6 +860,9 @@
       <c r="G15" t="n" s="2">
         <v>-78.22796301528462</v>
       </c>
+      <c r="H15" t="n" s="2">
+        <v>403.0430813372169</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
@@ -843,6 +886,9 @@
       <c r="G16" t="n" s="2">
         <v>-101.95904519284517</v>
       </c>
+      <c r="H16" t="n" s="2">
+        <v>415.6381776290049</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
@@ -866,6 +912,9 @@
       <c r="G17" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H17" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
@@ -889,6 +938,9 @@
       <c r="G18" t="n" s="2">
         <v>46.74952542699185</v>
       </c>
+      <c r="H18" t="n" s="2">
+        <v>277.0921184193366</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
@@ -912,6 +964,9 @@
       <c r="G19" t="n" s="2">
         <v>13.152685159024713</v>
       </c>
+      <c r="H19" t="n" s="2">
+        <v>201.52154066860845</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
@@ -935,6 +990,9 @@
       <c r="G20" t="n" s="2">
         <v>3.283767336585356</v>
       </c>
+      <c r="H20" t="n" s="2">
+        <v>188.9264443768204</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
@@ -958,6 +1016,9 @@
       <c r="G21" t="n" s="2">
         <v>30.067100669918375</v>
       </c>
+      <c r="H21" t="n" s="2">
+        <v>188.9264443768204</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
@@ -981,6 +1042,9 @@
       <c r="G22" t="n" s="2">
         <v>38.4450231154471</v>
       </c>
+      <c r="H22" t="n" s="2">
+        <v>251.90192583576058</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
@@ -1004,6 +1068,9 @@
       <c r="G23" t="n" s="2">
         <v>-97.63246532682928</v>
       </c>
+      <c r="H23" t="n" s="2">
+        <v>377.8528887536408</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
@@ -1027,6 +1094,9 @@
       <c r="G24" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H24" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
@@ -1050,6 +1120,9 @@
       <c r="G25" t="n" s="2">
         <v>53.29502311544712</v>
       </c>
+      <c r="H25" t="n" s="2">
+        <v>251.90192583576058</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
@@ -1073,6 +1146,9 @@
       <c r="G26" t="n" s="2">
         <v>41.5360184923577</v>
       </c>
+      <c r="H26" t="n" s="2">
+        <v>201.52154066860845</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
@@ -1096,6 +1172,9 @@
       <c r="G27" t="n" s="2">
         <v>20.283767336585356</v>
       </c>
+      <c r="H27" t="n" s="2">
+        <v>188.9264443768204</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
@@ -1119,6 +1198,9 @@
       <c r="G28" t="n" s="2">
         <v>10.58826964813008</v>
       </c>
+      <c r="H28" t="n" s="2">
+        <v>214.11663696039645</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
@@ -1142,6 +1224,9 @@
       <c r="G29" t="n" s="2">
         <v>-22.693721105691054</v>
       </c>
+      <c r="H29" t="n" s="2">
+        <v>314.8774072947006</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
@@ -1165,6 +1250,9 @@
       <c r="G30" t="n" s="2">
         <v>-62.53246532682931</v>
       </c>
+      <c r="H30" t="n" s="2">
+        <v>377.8528887536408</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
@@ -1188,6 +1276,9 @@
       <c r="G31" t="n" s="2">
         <v>-84.15588546081338</v>
       </c>
+      <c r="H31" t="n" s="2">
+        <v>340.0675998782768</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
@@ -1211,6 +1302,9 @@
       <c r="G32" t="n" s="2">
         <v>14.380607604552523</v>
       </c>
+      <c r="H32" t="n" s="2">
+        <v>264.4970221275486</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
@@ -1234,6 +1328,9 @@
       <c r="G33" t="n" s="2">
         <v>2.9450231154471282</v>
       </c>
+      <c r="H33" t="n" s="2">
+        <v>251.90192583576058</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
@@ -1256,6 +1353,9 @@
       </c>
       <c r="G34" t="n" s="3">
         <v>0.0</v>
+      </c>
+      <c r="H34" t="n" s="3">
+        <v>6900.9</v>
       </c>
     </row>
     <row r="35"/>
@@ -1293,7 +1393,7 @@
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.31640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2070,7 +2170,7 @@
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.31640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2847,7 +2947,7 @@
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.31640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3624,7 +3724,7 @@
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.31640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -4401,7 +4501,7 @@
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.31640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -5178,7 +5278,7 @@
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="17.31640625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/SampleOutputReport.xlsx
+++ b/SampleOutputReport.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="40">
   <si>
     <t>Dzień</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Godziny wg celu produktywności: 800.0</t>
+  </si>
+  <si>
+    <t>Godziny wg celu produktywności</t>
   </si>
 </sst>
 </file>
@@ -1382,7 +1385,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1395,6 +1398,7 @@
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="31.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -1420,6 +1424,9 @@
       <c r="G2" t="s" s="4">
         <v>37</v>
       </c>
+      <c r="H2" t="s" s="4">
+        <v>39</v>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
@@ -1444,6 +1451,9 @@
       <c r="G4" t="n" s="2">
         <v>6.342984928757964</v>
       </c>
+      <c r="H4" t="n" s="2">
+        <v>31.115956058551163</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
@@ -1467,6 +1477,9 @@
       <c r="G5" t="n" s="2">
         <v>7.214481684607165</v>
       </c>
+      <c r="H5" t="n" s="2">
+        <v>23.482640995498347</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
@@ -1490,6 +1503,9 @@
       <c r="G6" t="n" s="2">
         <v>-5.6839309520855075</v>
       </c>
+      <c r="H6" t="n" s="2">
+        <v>17.04385233544235</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
@@ -1513,6 +1529,9 @@
       <c r="G7" t="n" s="2">
         <v>1.1523206812383826</v>
       </c>
+      <c r="H7" t="n" s="2">
+        <v>23.555477971290834</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
@@ -1536,6 +1555,9 @@
       <c r="G8" t="n" s="2">
         <v>6.460389410430729</v>
       </c>
+      <c r="H8" t="n" s="2">
+        <v>32.150241114804494</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
@@ -1559,6 +1581,9 @@
       <c r="G9" t="n" s="2">
         <v>5.923533481791516</v>
       </c>
+      <c r="H9" t="n" s="2">
+        <v>37.42363816218067</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
@@ -1582,6 +1607,9 @@
       <c r="G10" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H10" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
@@ -1605,6 +1633,9 @@
       <c r="G11" t="n" s="2">
         <v>-7.647193645467269</v>
       </c>
+      <c r="H11" t="n" s="2">
+        <v>26.221311285295922</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
@@ -1628,6 +1659,9 @@
       <c r="G12" t="n" s="2">
         <v>2.823367625439282</v>
       </c>
+      <c r="H12" t="n" s="2">
+        <v>23.307832253596374</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
@@ -1651,6 +1685,9 @@
       <c r="G13" t="n" s="2">
         <v>-1.675830558979932</v>
       </c>
+      <c r="H13" t="n" s="2">
+        <v>25.114189253250093</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
@@ -1674,6 +1711,9 @@
       <c r="G14" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H14" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
@@ -1697,6 +1737,9 @@
       <c r="G15" t="n" s="2">
         <v>-16.554868380283004</v>
       </c>
+      <c r="H15" t="n" s="2">
+        <v>30.766338574747213</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
@@ -1720,6 +1763,9 @@
       <c r="G16" t="n" s="2">
         <v>-5.634708017166844</v>
       </c>
+      <c r="H16" t="n" s="2">
+        <v>35.576006876244605</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
@@ -1743,6 +1789,9 @@
       <c r="G17" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H17" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
@@ -1766,6 +1815,9 @@
       <c r="G18" t="n" s="2">
         <v>9.243527988555435</v>
       </c>
+      <c r="H18" t="n" s="2">
+        <v>33.35933491295981</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
@@ -1789,6 +1841,9 @@
       <c r="G19" t="n" s="2">
         <v>-11.277434190141502</v>
       </c>
+      <c r="H19" t="n" s="2">
+        <v>18.2262392424738</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
@@ -1812,6 +1867,9 @@
       <c r="G20" t="n" s="2">
         <v>-7.697594553257655</v>
       </c>
+      <c r="H20" t="n" s="2">
+        <v>16.89817838385737</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
@@ -1835,6 +1893,9 @@
       <c r="G21" t="n" s="2">
         <v>-7.697594553257655</v>
       </c>
+      <c r="H21" t="n" s="2">
+        <v>20.799812387141635</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
@@ -1858,6 +1919,9 @@
       <c r="G22" t="n" s="2">
         <v>0.40320726232312154</v>
       </c>
+      <c r="H22" t="n" s="2">
+        <v>29.120222921836966</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
@@ -1881,6 +1945,9 @@
       <c r="G23" t="n" s="2">
         <v>0.6048108934846894</v>
       </c>
+      <c r="H23" t="n" s="2">
+        <v>30.28561453451679</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
@@ -1904,6 +1971,9 @@
       <c r="G24" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H24" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
@@ -1927,6 +1997,9 @@
       <c r="G25" t="n" s="2">
         <v>8.403207262323122</v>
       </c>
+      <c r="H25" t="n" s="2">
+        <v>29.171208804891712</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
@@ -1950,6 +2023,9 @@
       <c r="G26" t="n" s="2">
         <v>4.722565809858498</v>
       </c>
+      <c r="H26" t="n" s="2">
+        <v>22.870810398841442</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
@@ -1973,6 +2049,9 @@
       <c r="G27" t="n" s="2">
         <v>3.3024054467423447</v>
       </c>
+      <c r="H27" t="n" s="2">
+        <v>18.209243948122168</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
@@ -1996,6 +2075,9 @@
       <c r="G28" t="n" s="2">
         <v>2.1427261729746583</v>
       </c>
+      <c r="H28" t="n" s="2">
+        <v>22.404653753769516</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
@@ -2019,6 +2101,9 @@
       <c r="G29" t="n" s="2">
         <v>0.504009077903909</v>
       </c>
+      <c r="H29" t="n" s="2">
+        <v>30.66436680863773</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
@@ -2042,6 +2127,9 @@
       <c r="G30" t="n" s="2">
         <v>9.10481089348469</v>
       </c>
+      <c r="H30" t="n" s="2">
+        <v>36.345650920451845</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
@@ -2065,6 +2153,9 @@
       <c r="G31" t="n" s="2">
         <v>3.3443298041362155</v>
       </c>
+      <c r="H31" t="n" s="2">
+        <v>28.406420559070582</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
@@ -2088,6 +2179,9 @@
       <c r="G32" t="n" s="2">
         <v>6.823367625439282</v>
       </c>
+      <c r="H32" t="n" s="2">
+        <v>25.638615478956012</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
@@ -2111,6 +2205,9 @@
       <c r="G33" t="n" s="2">
         <v>-14.596792737676878</v>
       </c>
+      <c r="H33" t="n" s="2">
+        <v>22.71056905209797</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
@@ -2133,6 +2230,9 @@
       </c>
       <c r="G34" t="n" s="3">
         <v>0.0</v>
+      </c>
+      <c r="H34" t="n" s="3">
+        <v>690.8684269885267</v>
       </c>
     </row>
     <row r="35"/>
@@ -2159,7 +2259,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2172,6 +2272,7 @@
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="31.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -2197,6 +2298,9 @@
       <c r="G2" t="s" s="4">
         <v>37</v>
       </c>
+      <c r="H2" t="s" s="4">
+        <v>39</v>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
@@ -2221,6 +2325,9 @@
       <c r="G4" t="n" s="2">
         <v>-15.454274179942722</v>
       </c>
+      <c r="H4" t="n" s="2">
+        <v>48.32533957696773</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
@@ -2244,6 +2351,9 @@
       <c r="G5" t="n" s="2">
         <v>4.813739607826964</v>
       </c>
+      <c r="H5" t="n" s="2">
+        <v>36.47024690920972</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
@@ -2267,6 +2377,9 @@
       <c r="G6" t="n" s="2">
         <v>5.824254423783042</v>
       </c>
+      <c r="H6" t="n" s="2">
+        <v>26.47034049861996</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
@@ -2290,6 +2403,9 @@
       <c r="G7" t="n" s="2">
         <v>3.0099305322252903</v>
       </c>
+      <c r="H7" t="n" s="2">
+        <v>36.58336802245169</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
@@ -2313,6 +2429,9 @@
       <c r="G8" t="n" s="2">
         <v>15.225535934425757</v>
       </c>
+      <c r="H8" t="n" s="2">
+        <v>49.931659385003634</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
@@ -2336,6 +2455,9 @@
       <c r="G9" t="n" s="2">
         <v>8.051613427991338</v>
       </c>
+      <c r="H9" t="n" s="2">
+        <v>58.12162798372194</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
@@ -2359,6 +2481,9 @@
       <c r="G10" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H10" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
@@ -2382,6 +2507,9 @@
       <c r="G11" t="n" s="2">
         <v>5.650797238419514</v>
       </c>
+      <c r="H11" t="n" s="2">
+        <v>40.723600767107634</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
@@ -2405,6 +2533,9 @@
       <c r="G12" t="n" s="2">
         <v>2.780956686103419</v>
       </c>
+      <c r="H12" t="n" s="2">
+        <v>36.19875623742901</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
@@ -2428,6 +2559,9 @@
       <c r="G13" t="n" s="2">
         <v>-13.747386960062432</v>
       </c>
+      <c r="H13" t="n" s="2">
+        <v>39.00415984582976</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
@@ -2451,6 +2585,9 @@
       <c r="G14" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H14" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
@@ -2474,6 +2611,9 @@
       <c r="G15" t="n" s="2">
         <v>-14.38139933546146</v>
       </c>
+      <c r="H15" t="n" s="2">
+        <v>47.78235823340629</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
@@ -2497,6 +2637,9 @@
       <c r="G16" t="n" s="2">
         <v>-15.487068064694625</v>
       </c>
+      <c r="H16" t="n" s="2">
+        <v>55.25212241115084</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
@@ -2520,6 +2663,9 @@
       <c r="G17" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H17" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
@@ -2543,6 +2689,9 @@
       <c r="G18" t="n" s="2">
         <v>2.675287956870246</v>
       </c>
+      <c r="H18" t="n" s="2">
+        <v>51.809469864820265</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
@@ -2566,6 +2715,9 @@
       <c r="G19" t="n" s="2">
         <v>-0.2906996677307312</v>
       </c>
+      <c r="H19" t="n" s="2">
+        <v>28.306673236914616</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
@@ -2589,6 +2741,9 @@
       <c r="G20" t="n" s="2">
         <v>-4.585030938497557</v>
       </c>
+      <c r="H20" t="n" s="2">
+        <v>26.244098272136032</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
@@ -2612,6 +2767,9 @@
       <c r="G21" t="n" s="2">
         <v>-4.585030938497557</v>
       </c>
+      <c r="H21" t="n" s="2">
+        <v>32.30361923813059</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
@@ -2635,6 +2793,9 @@
       <c r="G22" t="n" s="2">
         <v>9.886625415336585</v>
       </c>
+      <c r="H22" t="n" s="2">
+        <v>45.22582107413786</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
@@ -2658,6 +2819,9 @@
       <c r="G23" t="n" s="2">
         <v>-13.170061876995113</v>
       </c>
+      <c r="H23" t="n" s="2">
+        <v>47.03575888600932</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
@@ -2681,6 +2845,9 @@
       <c r="G24" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H24" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
@@ -2704,6 +2871,9 @@
       <c r="G25" t="n" s="2">
         <v>-3.113374584663415</v>
       </c>
+      <c r="H25" t="n" s="2">
+        <v>45.305005853407245</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
@@ -2727,6 +2897,9 @@
       <c r="G26" t="n" s="2">
         <v>2.3093003322692702</v>
       </c>
+      <c r="H26" t="n" s="2">
+        <v>35.52002955797722</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
@@ -2750,6 +2923,9 @@
       <c r="G27" t="n" s="2">
         <v>9.414969061502443</v>
       </c>
+      <c r="H27" t="n" s="2">
+        <v>28.28027831049141</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
@@ -2773,6 +2949,9 @@
       <c r="G28" t="n" s="2">
         <v>7.203631603036101</v>
       </c>
+      <c r="H28" t="n" s="2">
+        <v>34.79605443322864</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
@@ -2796,6 +2975,9 @@
       <c r="G29" t="n" s="2">
         <v>-1.6417182308292588</v>
       </c>
+      <c r="H29" t="n" s="2">
+        <v>47.62398867486754</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
@@ -2819,6 +3001,9 @@
       <c r="G30" t="n" s="2">
         <v>7.829938123004887</v>
       </c>
+      <c r="H30" t="n" s="2">
+        <v>56.447435507740856</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
@@ -2842,6 +3027,9 @@
       <c r="G31" t="n" s="2">
         <v>11.146944310704392</v>
       </c>
+      <c r="H31" t="n" s="2">
+        <v>44.11723416436661</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
@@ -2865,6 +3053,9 @@
       <c r="G32" t="n" s="2">
         <v>-1.2190433138965808</v>
       </c>
+      <c r="H32" t="n" s="2">
+        <v>39.81863186117191</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
@@ -2888,6 +3079,9 @@
       <c r="G33" t="n" s="2">
         <v>-8.113374584663415</v>
       </c>
+      <c r="H33" t="n" s="2">
+        <v>35.27116310884489</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
@@ -2910,6 +3104,9 @@
       </c>
       <c r="G34" t="n" s="3">
         <v>0.0</v>
+      </c>
+      <c r="H34" t="n" s="3">
+        <v>1072.968841915142</v>
       </c>
     </row>
     <row r="35"/>
@@ -2936,7 +3133,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2949,6 +3146,7 @@
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="31.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -2974,6 +3172,9 @@
       <c r="G2" t="s" s="4">
         <v>37</v>
       </c>
+      <c r="H2" t="s" s="4">
+        <v>39</v>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
@@ -2998,6 +3199,9 @@
       <c r="G4" t="n" s="2">
         <v>0.4105652258577379</v>
       </c>
+      <c r="H4" t="n" s="2">
+        <v>28.682305864027605</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
@@ -3021,6 +3225,9 @@
       <c r="G5" t="n" s="2">
         <v>-0.3857656743195683</v>
       </c>
+      <c r="H5" t="n" s="2">
+        <v>21.646009856185625</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
@@ -3044,6 +3251,9 @@
       <c r="G6" t="n" s="2">
         <v>-4.514535826795992</v>
       </c>
+      <c r="H6" t="n" s="2">
+        <v>15.710813605296018</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
@@ -3067,6 +3277,9 @@
       <c r="G7" t="n" s="2">
         <v>3.5381906315673497</v>
       </c>
+      <c r="H7" t="n" s="2">
+        <v>21.713150085268087</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
@@ -3090,6 +3303,9 @@
       <c r="G8" t="n" s="2">
         <v>8.815438251762405</v>
       </c>
+      <c r="H8" t="n" s="2">
+        <v>29.635697116998557</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
@@ -3113,6 +3329,9 @@
       <c r="G9" t="n" s="2">
         <v>2.6328934638581245</v>
       </c>
+      <c r="H9" t="n" s="2">
+        <v>34.496649702568774</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
@@ -3136,6 +3355,9 @@
       <c r="G10" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H10" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
@@ -3159,6 +3381,9 @@
       <c r="G11" t="n" s="2">
         <v>11.118803315828323</v>
       </c>
+      <c r="H11" t="n" s="2">
+        <v>24.17048246968618</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
@@ -3182,6 +3407,9 @@
       <c r="G12" t="n" s="2">
         <v>-3.8574360210060057</v>
       </c>
+      <c r="H12" t="n" s="2">
+        <v>21.48487330638772</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
@@ -3205,6 +3433,9 @@
       <c r="G13" t="n" s="2">
         <v>-9.966349359340768</v>
       </c>
+      <c r="H13" t="n" s="2">
+        <v>23.149950987632767</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
@@ -3228,6 +3459,9 @@
       <c r="G14" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H14" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
@@ -3251,6 +3485,9 @@
       <c r="G15" t="n" s="2">
         <v>-1.4970453653424869</v>
       </c>
+      <c r="H15" t="n" s="2">
+        <v>28.360032764431786</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
@@ -3274,6 +3511,9 @@
       <c r="G16" t="n" s="2">
         <v>0.08117196699056706</v>
       </c>
+      <c r="H16" t="n" s="2">
+        <v>32.793525891510384</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
@@ -3297,6 +3537,9 @@
       <c r="G17" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H17" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
@@ -3320,6 +3563,9 @@
       <c r="G18" t="n" s="2">
         <v>8.720781311327041</v>
       </c>
+      <c r="H18" t="n" s="2">
+        <v>30.75022491976742</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
@@ -3343,6 +3589,9 @@
       <c r="G19" t="n" s="2">
         <v>1.2514773173287566</v>
       </c>
+      <c r="H19" t="n" s="2">
+        <v>16.800723324068024</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
@@ -3366,6 +3615,9 @@
       <c r="G20" t="n" s="2">
         <v>-0.3267400150042903</v>
       </c>
+      <c r="H20" t="n" s="2">
+        <v>15.576533147131094</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
@@ -3389,6 +3641,9 @@
       <c r="G21" t="n" s="2">
         <v>2.6732599849957097</v>
       </c>
+      <c r="H21" t="n" s="2">
+        <v>19.173011418314914</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
@@ -3412,6 +3667,9 @@
       <c r="G22" t="n" s="2">
         <v>-1.435653353339056</v>
       </c>
+      <c r="H22" t="n" s="2">
+        <v>26.84266358716815</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
@@ -3435,6 +3693,9 @@
       <c r="G23" t="n" s="2">
         <v>-5.653480030008581</v>
       </c>
+      <c r="H23" t="n" s="2">
+        <v>27.91690725248754</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
@@ -3458,6 +3719,9 @@
       <c r="G24" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H24" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
@@ -3481,6 +3745,9 @@
       <c r="G25" t="n" s="2">
         <v>5.564346646660944</v>
       </c>
+      <c r="H25" t="n" s="2">
+        <v>26.889661747525878</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
@@ -3504,6 +3771,9 @@
       <c r="G26" t="n" s="2">
         <v>1.2514773173287566</v>
       </c>
+      <c r="H26" t="n" s="2">
+        <v>21.08203193189295</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
@@ -3527,6 +3797,9 @@
       <c r="G27" t="n" s="2">
         <v>-7.32674001500429</v>
       </c>
+      <c r="H27" t="n" s="2">
+        <v>16.785057270615404</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
@@ -3550,6 +3823,9 @@
       <c r="G28" t="n" s="2">
         <v>-0.1703053503381966</v>
       </c>
+      <c r="H28" t="n" s="2">
+        <v>20.652334465765193</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
@@ -3573,6 +3849,9 @@
       <c r="G29" t="n" s="2">
         <v>-6.544566691673815</v>
       </c>
+      <c r="H29" t="n" s="2">
+        <v>28.26603644371634</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
@@ -3596,6 +3875,9 @@
       <c r="G30" t="n" s="2">
         <v>-1.6534800300085806</v>
       </c>
+      <c r="H30" t="n" s="2">
+        <v>33.502974312148346</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
@@ -3619,6 +3901,9 @@
       <c r="G31" t="n" s="2">
         <v>-8.388132027007728</v>
       </c>
+      <c r="H31" t="n" s="2">
+        <v>26.18468934216003</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
@@ -3642,6 +3927,9 @@
       <c r="G32" t="n" s="2">
         <v>3.1425639789939943</v>
       </c>
+      <c r="H32" t="n" s="2">
+        <v>23.633360637026488</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
@@ -3665,6 +3953,9 @@
       <c r="G33" t="n" s="2">
         <v>2.564346646660944</v>
       </c>
+      <c r="H33" t="n" s="2">
+        <v>20.934323427911533</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
@@ -3687,6 +3978,9 @@
       </c>
       <c r="G34" t="n" s="3">
         <v>0.0</v>
+      </c>
+      <c r="H34" t="n" s="3">
+        <v>636.8340248776922</v>
       </c>
     </row>
     <row r="35"/>
@@ -3713,7 +4007,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3726,6 +4020,7 @@
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="31.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -3751,6 +4046,9 @@
       <c r="G2" t="s" s="4">
         <v>37</v>
       </c>
+      <c r="H2" t="s" s="4">
+        <v>39</v>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
@@ -3775,6 +4073,9 @@
       <c r="G4" t="n" s="2">
         <v>5.342844573706476</v>
       </c>
+      <c r="H4" t="n" s="2">
+        <v>20.488727155537056</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
@@ -3798,6 +4099,9 @@
       <c r="G5" t="n" s="2">
         <v>7.405790429231857</v>
       </c>
+      <c r="H5" t="n" s="2">
+        <v>15.462466373935264</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
@@ -3821,6 +4125,9 @@
       <c r="G6" t="n" s="2">
         <v>3.6493741538514186</v>
       </c>
+      <c r="H6" t="n" s="2">
+        <v>11.22275785204979</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
@@ -3844,6 +4151,9 @@
       <c r="G7" t="n" s="2">
         <v>9.017813896308098</v>
       </c>
+      <c r="H7" t="n" s="2">
+        <v>15.510426877576503</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
@@ -3867,6 +4177,9 @@
       <c r="G8" t="n" s="2">
         <v>21.250111100032505</v>
       </c>
+      <c r="H8" t="n" s="2">
+        <v>21.169766307242636</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
@@ -3890,6 +4203,9 @@
       <c r="G9" t="n" s="2">
         <v>13.94273371483979</v>
       </c>
+      <c r="H9" t="n" s="2">
+        <v>24.642106770868295</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
@@ -3913,6 +4229,9 @@
       <c r="G10" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H10" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
@@ -3936,6 +4255,9 @@
       <c r="G11" t="n" s="2">
         <v>6.152815050373743</v>
       </c>
+      <c r="H11" t="n" s="2">
+        <v>17.26578131084583</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
@@ -3959,6 +4281,9 @@
       <c r="G12" t="n" s="2">
         <v>-6.016621939551502</v>
       </c>
+      <c r="H12" t="n" s="2">
+        <v>15.347361165196293</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
@@ -3982,6 +4307,9 @@
       <c r="G13" t="n" s="2">
         <v>-3.972960496587575</v>
       </c>
+      <c r="H13" t="n" s="2">
+        <v>16.536781655499006</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
@@ -4005,6 +4333,9 @@
       <c r="G14" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H14" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
@@ -4028,6 +4359,9 @@
       <c r="G15" t="n" s="2">
         <v>-8.120566765030865</v>
       </c>
+      <c r="H15" t="n" s="2">
+        <v>20.258516738059107</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
@@ -4051,6 +4385,9 @@
       <c r="G16" t="n" s="2">
         <v>-8.31183447643808</v>
       </c>
+      <c r="H16" t="n" s="2">
+        <v>23.425508661835586</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
@@ -4074,6 +4411,9 @@
       <c r="G17" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H17" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
@@ -4097,6 +4437,9 @@
       <c r="G18" t="n" s="2">
         <v>12.79211034904128</v>
       </c>
+      <c r="H18" t="n" s="2">
+        <v>21.965910667687197</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
@@ -4120,6 +4463,9 @@
       <c r="G19" t="n" s="2">
         <v>0.9397166174845673</v>
       </c>
+      <c r="H19" t="n" s="2">
+        <v>12.001316694492594</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
@@ -4143,6 +4489,9 @@
       <c r="G20" t="n" s="2">
         <v>1.1309843288917847</v>
       </c>
+      <c r="H20" t="n" s="2">
+        <v>11.126836844767313</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
@@ -4166,6 +4515,9 @@
       <c r="G21" t="n" s="2">
         <v>9.130984328891785</v>
       </c>
+      <c r="H21" t="n" s="2">
+        <v>13.695921156482955</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
@@ -4189,6 +4541,9 @@
       <c r="G22" t="n" s="2">
         <v>-8.825354228144292</v>
       </c>
+      <c r="H22" t="n" s="2">
+        <v>19.174609355767117</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
@@ -4212,6 +4567,9 @@
       <c r="G23" t="n" s="2">
         <v>-16.838031342216432</v>
       </c>
+      <c r="H23" t="n" s="2">
+        <v>19.941977414026933</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
@@ -4235,6 +4593,9 @@
       <c r="G24" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H24" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
@@ -4258,6 +4619,9 @@
       <c r="G25" t="n" s="2">
         <v>14.074645771855707</v>
       </c>
+      <c r="H25" t="n" s="2">
+        <v>19.208181708315987</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
@@ -4281,6 +4645,9 @@
       <c r="G26" t="n" s="2">
         <v>3.9397166174845673</v>
       </c>
+      <c r="H26" t="n" s="2">
+        <v>15.059598143348863</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
@@ -4304,6 +4671,9 @@
       <c r="G27" t="n" s="2">
         <v>-5.869015671108215</v>
       </c>
+      <c r="H27" t="n" s="2">
+        <v>11.990125910309605</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
@@ -4327,6 +4697,9 @@
       <c r="G28" t="n" s="2">
         <v>-1.2515510939226466</v>
       </c>
+      <c r="H28" t="n" s="2">
+        <v>14.752650920044939</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
@@ -4350,6 +4723,9 @@
       <c r="G29" t="n" s="2">
         <v>1.2183072148196423</v>
       </c>
+      <c r="H29" t="n" s="2">
+        <v>20.191372032961375</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
@@ -4373,6 +4749,9 @@
       <c r="G30" t="n" s="2">
         <v>-15.73803134221643</v>
       </c>
+      <c r="H30" t="n" s="2">
+        <v>23.932291316977967</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
@@ -4396,6 +4775,9 @@
       <c r="G31" t="n" s="2">
         <v>-22.164228207994796</v>
       </c>
+      <c r="H31" t="n" s="2">
+        <v>18.704596420082982</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
@@ -4419,6 +4801,9 @@
       <c r="G32" t="n" s="2">
         <v>-6.016621939551502</v>
       </c>
+      <c r="H32" t="n" s="2">
+        <v>16.88209728171592</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
@@ -4442,6 +4827,9 @@
       <c r="G33" t="n" s="2">
         <v>-6.825354228144292</v>
       </c>
+      <c r="H33" t="n" s="2">
+        <v>14.954085035338139</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
@@ -4464,6 +4852,9 @@
       </c>
       <c r="G34" t="n" s="3">
         <v>0.0</v>
+      </c>
+      <c r="H34" t="n" s="3">
+        <v>454.9117717709648</v>
       </c>
     </row>
     <row r="35"/>
@@ -4490,7 +4881,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4503,6 +4894,7 @@
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="31.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -4528,6 +4920,9 @@
       <c r="G2" t="s" s="4">
         <v>37</v>
       </c>
+      <c r="H2" t="s" s="4">
+        <v>39</v>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
@@ -4552,6 +4947,9 @@
       <c r="G4" t="n" s="2">
         <v>0.5233509416867754</v>
       </c>
+      <c r="H4" t="n" s="2">
+        <v>21.20752312370526</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
@@ -4575,6 +4973,9 @@
       <c r="G5" t="n" s="2">
         <v>4.160299086417762</v>
       </c>
+      <c r="H5" t="n" s="2">
+        <v>16.00492849972513</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
@@ -4598,6 +4999,9 @@
       <c r="G6" t="n" s="2">
         <v>-1.7210169452755704</v>
       </c>
+      <c r="H6" t="n" s="2">
+        <v>11.616480362703724</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
@@ -4621,6 +5025,9 @@
       <c r="G7" t="n" s="2">
         <v>4.710248824155599</v>
       </c>
+      <c r="H7" t="n" s="2">
+        <v>16.05457157819822</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
@@ -4644,6 +5051,9 @@
       <c r="G8" t="n" s="2">
         <v>10.93360102549973</v>
       </c>
+      <c r="H8" t="n" s="2">
+        <v>21.912454838023177</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
@@ -4667,6 +5077,9 @@
       <c r="G9" t="n" s="2">
         <v>8.119276219257749</v>
       </c>
+      <c r="H9" t="n" s="2">
+        <v>25.506613719475098</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
@@ -4690,6 +5103,9 @@
       <c r="G10" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H10" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
@@ -4713,6 +5129,9 @@
       <c r="G11" t="n" s="2">
         <v>10.955571674244645</v>
       </c>
+      <c r="H11" t="n" s="2">
+        <v>17.871508250313422</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
@@ -4736,6 +5155,9 @@
       <c r="G12" t="n" s="2">
         <v>-3.053313990906421</v>
       </c>
+      <c r="H12" t="n" s="2">
+        <v>15.885785111389708</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
@@ -4759,6 +5181,9 @@
       <c r="G13" t="n" s="2">
         <v>-7.780293512550806</v>
       </c>
+      <c r="H13" t="n" s="2">
+        <v>17.11693345752241</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
@@ -4782,6 +5207,9 @@
       <c r="G14" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H14" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
@@ -4805,6 +5233,9 @@
       <c r="G15" t="n" s="2">
         <v>-21.652668938524073</v>
       </c>
+      <c r="H15" t="n" s="2">
+        <v>20.969236347034414</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
@@ -4828,6 +5259,9 @@
       <c r="G16" t="n" s="2">
         <v>-1.0813981761859424</v>
       </c>
+      <c r="H16" t="n" s="2">
+        <v>24.247334295541016</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
@@ -4851,6 +5285,9 @@
       <c r="G17" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H17" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
@@ -4874,6 +5311,9 @@
       <c r="G18" t="n" s="2">
         <v>5.8012901047647</v>
       </c>
+      <c r="H18" t="n" s="2">
+        <v>22.73652994067652</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
@@ -4897,6 +5337,9 @@
       <c r="G19" t="n" s="2">
         <v>-1.6096678025950375</v>
       </c>
+      <c r="H19" t="n" s="2">
+        <v>12.422353003250299</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
@@ -4920,6 +5363,9 @@
       <c r="G20" t="n" s="2">
         <v>1.8190614350668426</v>
       </c>
+      <c r="H20" t="n" s="2">
+        <v>11.517194205757537</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
@@ -4943,6 +5389,9 @@
       <c r="G21" t="n" s="2">
         <v>2.6023947683998436</v>
       </c>
+      <c r="H21" t="n" s="2">
+        <v>14.176408442632846</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
@@ -4966,6 +5415,9 @@
       <c r="G22" t="n" s="2">
         <v>-4.907918086577546</v>
       </c>
+      <c r="H22" t="n" s="2">
+        <v>19.847302773542513</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
@@ -4989,6 +5441,9 @@
       <c r="G23" t="n" s="2">
         <v>-2.361877129866315</v>
       </c>
+      <c r="H23" t="n" s="2">
+        <v>20.641592029112</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
@@ -5012,6 +5467,9 @@
       <c r="G24" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H24" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
@@ -5035,6 +5493,9 @@
       <c r="G25" t="n" s="2">
         <v>3.442081913422456</v>
       </c>
+      <c r="H25" t="n" s="2">
+        <v>19.88205292847368</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
@@ -5058,6 +5519,9 @@
       <c r="G26" t="n" s="2">
         <v>1.6736655307379635</v>
       </c>
+      <c r="H26" t="n" s="2">
+        <v>15.587926640551151</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
@@ -5081,6 +5545,9 @@
       <c r="G27" t="n" s="2">
         <v>-0.1809385649331574</v>
       </c>
+      <c r="H27" t="n" s="2">
+        <v>12.410769618273209</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
@@ -5104,6 +5571,9 @@
       <c r="G28" t="n" s="2">
         <v>0.528269626409088</v>
       </c>
+      <c r="H28" t="n" s="2">
+        <v>15.270210938323357</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
@@ -5127,6 +5597,9 @@
       <c r="G29" t="n" s="2">
         <v>-4.634897608221927</v>
       </c>
+      <c r="H29" t="n" s="2">
+        <v>20.899736037172083</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
@@ -5150,6 +5623,9 @@
       <c r="G30" t="n" s="2">
         <v>-9.361877129866315</v>
       </c>
+      <c r="H30" t="n" s="2">
+        <v>24.77189615807332</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
@@ -5173,6 +5649,9 @@
       <c r="G31" t="n" s="2">
         <v>-14.925689416879688</v>
       </c>
+      <c r="H31" t="n" s="2">
+        <v>19.360800604506206</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
@@ -5196,6 +5675,9 @@
       <c r="G32" t="n" s="2">
         <v>12.946686009093579</v>
       </c>
+      <c r="H32" t="n" s="2">
+        <v>17.474363622528678</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
@@ -5219,6 +5701,9 @@
       <c r="G33" t="n" s="2">
         <v>5.092081913422454</v>
       </c>
+      <c r="H33" t="n" s="2">
+        <v>15.478711867910347</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
@@ -5241,6 +5726,9 @@
       </c>
       <c r="G34" t="n" s="3">
         <v>0.0</v>
+      </c>
+      <c r="H34" t="n" s="3">
+        <v>470.8712183944148</v>
       </c>
     </row>
     <row r="35"/>
@@ -5267,7 +5755,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5280,6 +5768,7 @@
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="31.08984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1"/>
@@ -5305,6 +5794,9 @@
       <c r="G2" t="s" s="4">
         <v>37</v>
       </c>
+      <c r="H2" t="s" s="4">
+        <v>39</v>
+      </c>
     </row>
     <row r="3"/>
     <row r="4">
@@ -5329,6 +5821,9 @@
       <c r="G4" t="n" s="2">
         <v>-6.322639284702198</v>
       </c>
+      <c r="H4" t="n" s="2">
+        <v>44.32719997167903</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="1">
@@ -5352,6 +5847,9 @@
       <c r="G5" t="n" s="2">
         <v>-4.38152685585095</v>
       </c>
+      <c r="H5" t="n" s="2">
+        <v>33.452924323195965</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="1">
@@ -5375,6 +5873,9 @@
       <c r="G6" t="n" s="2">
         <v>0.6409936219588417</v>
       </c>
+      <c r="H6" t="n" s="2">
+        <v>24.28034829909385</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="1">
@@ -5398,6 +5899,9 @@
       <c r="G7" t="n" s="2">
         <v>9.61159592605452</v>
       </c>
+      <c r="H7" t="n" s="2">
+        <v>33.55668649541432</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="1">
@@ -5421,6 +5925,9 @@
       <c r="G8" t="n" s="2">
         <v>29.042913501040893</v>
       </c>
+      <c r="H8" t="n" s="2">
+        <v>45.800622817179594</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="1">
@@ -5444,6 +5951,9 @@
       <c r="G9" t="n" s="2">
         <v>15.090376879139484</v>
       </c>
+      <c r="H9" t="n" s="2">
+        <v>53.313004085788116</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="1">
@@ -5467,6 +5977,9 @@
       <c r="G10" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H10" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="1">
@@ -5490,6 +6003,9 @@
       <c r="G11" t="n" s="2">
         <v>2.2920125012225228</v>
       </c>
+      <c r="H11" t="n" s="2">
+        <v>37.35438199860592</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="1">
@@ -5513,6 +6029,9 @@
       <c r="G12" t="n" s="2">
         <v>-14.449584998532963</v>
       </c>
+      <c r="H12" t="n" s="2">
+        <v>33.20389510987193</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="1">
@@ -5536,6 +6055,9 @@
       <c r="G13" t="n" s="2">
         <v>-15.509009998183672</v>
       </c>
+      <c r="H13" t="n" s="2">
+        <v>35.777196980887005</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="1">
@@ -5559,6 +6081,9 @@
       <c r="G14" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H14" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="1">
@@ -5582,6 +6107,9 @@
       <c r="G15" t="n" s="2">
         <v>-3.5803199977645193</v>
       </c>
+      <c r="H15" t="n" s="2">
+        <v>43.82914154503094</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="1">
@@ -5605,6 +6133,9 @@
       <c r="G16" t="n" s="2">
         <v>-10.992204997694657</v>
       </c>
+      <c r="H16" t="n" s="2">
+        <v>50.68090365051606</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="1">
@@ -5628,6 +6159,9 @@
       <c r="G17" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H17" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="1">
@@ -5651,6 +6185,9 @@
       <c r="G18" t="n" s="2">
         <v>-0.6614699984631116</v>
       </c>
+      <c r="H18" t="n" s="2">
+        <v>47.5230748760042</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="1">
@@ -5674,6 +6211,9 @@
       <c r="G19" t="n" s="2">
         <v>-2.390159998882261</v>
       </c>
+      <c r="H19" t="n" s="2">
+        <v>25.964754228105132</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="1">
@@ -5697,6 +6237,9 @@
       <c r="G20" t="n" s="2">
         <v>-4.178274998952119</v>
       </c>
+      <c r="H20" t="n" s="2">
+        <v>24.07282395465715</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="1">
@@ -5720,6 +6263,9 @@
       <c r="G21" t="n" s="2">
         <v>10.82172500104788</v>
       </c>
+      <c r="H21" t="n" s="2">
+        <v>29.631017646486686</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="1">
@@ -5743,6 +6289,9 @@
       <c r="G22" t="n" s="2">
         <v>31.662300001397178</v>
       </c>
+      <c r="H22" t="n" s="2">
+        <v>41.48411645289624</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="1">
@@ -5766,6 +6315,9 @@
       <c r="G23" t="n" s="2">
         <v>-14.356549997904239</v>
       </c>
+      <c r="H23" t="n" s="2">
+        <v>43.144311208389844</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="1">
@@ -5789,6 +6341,9 @@
       <c r="G24" t="n" s="2">
         <v>0.0</v>
       </c>
+      <c r="H24" t="n" s="2">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="1">
@@ -5812,6 +6367,9 @@
       <c r="G25" t="n" s="2">
         <v>-1.237699998602828</v>
       </c>
+      <c r="H25" t="n" s="2">
+        <v>41.55674997344909</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="1">
@@ -5835,6 +6393,9 @@
       <c r="G26" t="n" s="2">
         <v>4.609840001117739</v>
       </c>
+      <c r="H26" t="n" s="2">
+        <v>32.58132207656183</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="1">
@@ -5858,6 +6419,9 @@
       <c r="G27" t="n" s="2">
         <v>-4.178274998952119</v>
       </c>
+      <c r="H27" t="n" s="2">
+        <v>25.940543054587447</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="1">
@@ -5881,6 +6445,9 @@
       <c r="G28" t="n" s="2">
         <v>-1.8020449988124057</v>
       </c>
+      <c r="H28" t="n" s="2">
+        <v>31.917244174364395</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="1">
@@ -5904,6 +6471,9 @@
       <c r="G29" t="n" s="2">
         <v>5.202875001746477</v>
       </c>
+      <c r="H29" t="n" s="2">
+        <v>43.68387450392526</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="1">
@@ -5927,6 +6497,9 @@
       <c r="G30" t="n" s="2">
         <v>-0.3565499979042386</v>
       </c>
+      <c r="H30" t="n" s="2">
+        <v>51.777323936956535</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="1">
@@ -5950,6 +6523,9 @@
       <c r="G31" t="n" s="2">
         <v>-7.72089499811382</v>
       </c>
+      <c r="H31" t="n" s="2">
+        <v>40.467247165156415</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="1">
@@ -5973,6 +6549,9 @@
       <c r="G32" t="n" s="2">
         <v>-21.449584998532963</v>
       </c>
+      <c r="H32" t="n" s="2">
+        <v>36.52428462085912</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="1">
@@ -5996,6 +6575,9 @@
       <c r="G33" t="n" s="2">
         <v>4.6623000013971705</v>
       </c>
+      <c r="H33" t="n" s="2">
+        <v>32.35304529768146</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="3">
@@ -6018,6 +6600,9 @@
       </c>
       <c r="G34" t="n" s="3">
         <v>0.0</v>
+      </c>
+      <c r="H34" t="n" s="3">
+        <v>984.1980384473425</v>
       </c>
     </row>
     <row r="35"/>

--- a/SampleOutputReport.xlsx
+++ b/SampleOutputReport.xlsx
@@ -18,99 +18,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="44">
   <si>
     <t>Dzień</t>
   </si>
   <si>
-    <t>2020-06-01</t>
+    <t>2020-07-01</t>
   </si>
   <si>
-    <t>2020-06-02</t>
+    <t>2020-07-02</t>
   </si>
   <si>
-    <t>2020-06-03</t>
+    <t>2020-07-03</t>
   </si>
   <si>
-    <t>2020-06-04</t>
+    <t>2020-07-04</t>
   </si>
   <si>
-    <t>2020-06-05</t>
+    <t>2020-07-05</t>
   </si>
   <si>
-    <t>2020-06-06</t>
+    <t>2020-07-06</t>
   </si>
   <si>
-    <t>2020-06-07</t>
+    <t>2020-07-07</t>
   </si>
   <si>
-    <t>2020-06-08</t>
+    <t>2020-07-08</t>
   </si>
   <si>
-    <t>2020-06-09</t>
+    <t>2020-07-09</t>
   </si>
   <si>
-    <t>2020-06-10</t>
+    <t>2020-07-10</t>
   </si>
   <si>
-    <t>2020-06-11</t>
+    <t>2020-07-11</t>
   </si>
   <si>
-    <t>2020-06-12</t>
+    <t>2020-07-12</t>
   </si>
   <si>
-    <t>2020-06-13</t>
+    <t>2020-07-13</t>
   </si>
   <si>
-    <t>2020-06-14</t>
+    <t>2020-07-14</t>
   </si>
   <si>
-    <t>2020-06-15</t>
+    <t>2020-07-15</t>
   </si>
   <si>
-    <t>2020-06-16</t>
+    <t>2020-07-16</t>
   </si>
   <si>
-    <t>2020-06-17</t>
+    <t>2020-07-17</t>
   </si>
   <si>
-    <t>2020-06-18</t>
+    <t>2020-07-18</t>
   </si>
   <si>
-    <t>2020-06-19</t>
+    <t>2020-07-19</t>
   </si>
   <si>
-    <t>2020-06-20</t>
+    <t>2020-07-20</t>
   </si>
   <si>
-    <t>2020-06-21</t>
+    <t>2020-07-21</t>
   </si>
   <si>
-    <t>2020-06-22</t>
+    <t>2020-07-22</t>
   </si>
   <si>
-    <t>2020-06-23</t>
+    <t>2020-07-23</t>
   </si>
   <si>
-    <t>2020-06-24</t>
+    <t>2020-07-24</t>
   </si>
   <si>
-    <t>2020-06-25</t>
+    <t>2020-07-25</t>
   </si>
   <si>
-    <t>2020-06-26</t>
+    <t>2020-07-26</t>
   </si>
   <si>
-    <t>2020-06-27</t>
+    <t>2020-07-27</t>
   </si>
   <si>
-    <t>2020-06-28</t>
+    <t>2020-07-28</t>
   </si>
   <si>
-    <t>2020-06-29</t>
+    <t>2020-07-29</t>
   </si>
   <si>
-    <t>2020-06-30</t>
+    <t>2020-07-30</t>
+  </si>
+  <si>
+    <t>2020-07-31</t>
   </si>
   <si>
     <t>Sumy:</t>
@@ -122,22 +125,31 @@
     <t>Udział dnia w TO</t>
   </si>
   <si>
-    <t>Suma godzin</t>
+    <t>Zaplanowane godziny</t>
   </si>
   <si>
     <t>Udział w godzinach</t>
   </si>
   <si>
-    <t>Godziny wg obrotu</t>
+    <t>Godziny proporcjonalnie</t>
   </si>
   <si>
-    <t>Różnica godzin</t>
+    <t>wg dziennego obrotu</t>
   </si>
   <si>
-    <t>Godziny wg celu produktywności: 800.0</t>
+    <t>Godziny aby zrealizować</t>
   </si>
   <si>
-    <t>Godziny wg celu produktywności</t>
+    <t>Cel produktywności: 867.0</t>
+  </si>
+  <si>
+    <t>Różnica godzin do</t>
+  </si>
+  <si>
+    <t>celu produktywności</t>
+  </si>
+  <si>
+    <t>godziny wg udziału w TO sklepu</t>
   </si>
 </sst>
 </file>
@@ -520,38 +532,48 @@
     <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.98046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="37.2421875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="F1" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>41</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="4">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3"/>
@@ -560,25 +582,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>257349.0</v>
+        <v>180000.0</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.04661511541972786</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>274.1</v>
+        <v>241.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.044477378631061694</v>
+        <v>0.03451485857500895</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>289.45969173131397</v>
+        <v>208.42838311857395</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>-15.359691731313944</v>
+        <v>208.5720389179112</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>324.1335435595357</v>
+        <v>-32.427961082088814</v>
       </c>
     </row>
     <row r="5">
@@ -586,25 +608,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>164482.0</v>
+        <v>180000.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.02979357764929212</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>224.7</v>
+        <v>214.5</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.036461389924843345</v>
+        <v>0.030719656283566057</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>185.0052225396251</v>
+        <v>208.42838311857395</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>39.694777460374894</v>
+        <v>208.5720389179112</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>207.1666628265878</v>
+        <v>-5.927961082088814</v>
       </c>
     </row>
     <row r="6">
@@ -612,25 +634,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>137254.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.024861612253474184</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>163.5</v>
+        <v>291.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.026530650879892693</v>
+        <v>0.04167561761546724</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>154.37985198656207</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>9.120148013437927</v>
+        <v>231.74670990879017</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>172.87273464330738</v>
+        <v>-59.253290091209834</v>
       </c>
     </row>
     <row r="7">
@@ -638,25 +660,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>150950.0</v>
+        <v>280000.0</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.027342448086481473</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>217.7</v>
+        <v>231.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.03532552107983265</v>
+        <v>0.03308270676691729</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>169.78476880361626</v>
+        <v>324.2219292955595</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>47.91523119638373</v>
+        <v>324.4453938723063</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>190.12297852454026</v>
+        <v>93.44539387230628</v>
       </c>
     </row>
     <row r="8">
@@ -664,25 +686,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>149000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.026989233288411657</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>268.7</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.04360113695062487</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>167.59145777899187</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>101.10854222100812</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>187.66693474764162</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -690,25 +712,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>234685.0</v>
+        <v>220000.0</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.04250985378718718</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>279.9</v>
+        <v>251.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.04541852710264198</v>
+        <v>0.03594701038310061</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>263.9677937507564</v>
+        <v>254.74580158936814</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>15.932206249243563</v>
+        <v>254.9213808996692</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>295.5880173238273</v>
+        <v>3.9213808996692023</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +738,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>7000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>0.0</v>
+        <v>233.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03336913712853563</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>0.0</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>0.0</v>
+        <v>231.74670990879017</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>0.0</v>
+        <v>-1.2532900912098341</v>
       </c>
     </row>
     <row r="11">
@@ -742,25 +764,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>175000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03169876392934255</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>246.5</v>
+        <v>246.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.039998810042162374</v>
+        <v>0.03523093447905478</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>196.83560477398376</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>49.66439522601624</v>
+        <v>231.74670990879017</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>220.41418510629052</v>
+        <v>-14.253290091209834</v>
       </c>
     </row>
     <row r="12">
@@ -768,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>210000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>225.0</v>
+        <v>261.5</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03651007001820095</v>
+        <v>0.03745076978159685</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>236.20272572878048</v>
+        <v>208.42838311857395</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>-11.202725728780479</v>
+        <v>208.5720389179112</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>264.4970221275486</v>
+        <v>-52.927961082088814</v>
       </c>
     </row>
     <row r="13">
@@ -794,25 +816,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>260000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.04709530640930893</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>228.4</v>
+        <v>309.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.03706177774292043</v>
+        <v>0.044253490870032226</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>292.44146994991866</v>
+        <v>277.9045108247652</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>-64.04146994991865</v>
+        <v>278.0960518905482</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>327.4725035864887</v>
+        <v>-30.90394810945179</v>
       </c>
     </row>
     <row r="14">
@@ -820,25 +842,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>7000.0</v>
+        <v>310000.0</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>0.0</v>
+        <v>251.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03594701038310061</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>0.0</v>
+        <v>358.9599931486551</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>0.0</v>
+        <v>359.2074003586248</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>0.0</v>
+        <v>108.2074003586248</v>
       </c>
     </row>
     <row r="15">
@@ -846,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>320000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.05796345404222638</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>281.7</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.04571060766278759</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>359.9279630152846</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>-78.22796301528462</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>403.0430813372169</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -872,25 +894,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>330000.0</v>
+        <v>250000.0</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.05977481198104595</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>269.21666666666704</v>
+        <v>306.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.04368497488918524</v>
+        <v>0.04382384532760473</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>371.1757118595122</v>
+        <v>289.4838654424638</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>-101.95904519284517</v>
+        <v>289.68338738598777</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>415.6381776290049</v>
+        <v>-16.31661261401223</v>
       </c>
     </row>
     <row r="17">
@@ -898,25 +920,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>14000.0</v>
+        <v>210000.0</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>0.0</v>
+        <v>257.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.0</v>
+        <v>0.036806301467955604</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>0.0</v>
+        <v>243.16644697166961</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>0.0</v>
+        <v>243.33404540422973</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>0.0</v>
+        <v>-13.665954595770273</v>
       </c>
     </row>
     <row r="18">
@@ -924,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>220000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.039849874654030636</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>294.2</v>
+        <v>257.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.04773894488602098</v>
+        <v>0.036806301467955604</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>247.45047457300814</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>46.74952542699185</v>
+        <v>231.74670990879017</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>277.0921184193366</v>
+        <v>-25.253290091209834</v>
       </c>
     </row>
     <row r="19">
@@ -950,25 +972,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>160000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>193.11666666666702</v>
+        <v>259.5</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.03133645787414038</v>
+        <v>0.037164339419978515</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>179.9639815076423</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>13.152685159024713</v>
+        <v>231.74670990879017</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>201.52154066860845</v>
+        <v>-27.753290091209834</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +998,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>150000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>172.0</v>
+        <v>291.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.027909920191691393</v>
+        <v>0.04167561761546724</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>168.71623266341464</v>
+        <v>277.9045108247652</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>3.283767336585356</v>
+        <v>278.0960518905482</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>188.9264443768204</v>
+        <v>-12.90394810945179</v>
       </c>
     </row>
     <row r="21">
@@ -1002,25 +1024,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>150000.0</v>
+        <v>280000.0</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>198.78333333333302</v>
+        <v>265.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.032255970748672744</v>
+        <v>0.03795202291442893</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>168.71623266341464</v>
+        <v>324.2219292955595</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>30.067100669918375</v>
+        <v>324.4453938723063</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>188.9264443768204</v>
+        <v>59.44539387230628</v>
       </c>
     </row>
     <row r="22">
@@ -1028,25 +1050,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>200000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>263.4</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.04274112196797391</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>224.95497688455288</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>38.4450231154471</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>251.90192583576058</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1054,25 +1076,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>300000.0</v>
+        <v>250000.0</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>239.8</v>
+        <v>256.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.038911621290509284</v>
+        <v>0.036663086287146436</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>337.4324653268293</v>
+        <v>289.4838654424638</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>-97.63246532682928</v>
+        <v>289.68338738598777</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>377.8528887536408</v>
+        <v>33.68338738598777</v>
       </c>
     </row>
     <row r="24">
@@ -1080,25 +1102,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>14000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>0.0</v>
+        <v>220.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03150733977801647</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>0.0</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>0.0</v>
+        <v>231.74670990879017</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>0.0</v>
+        <v>11.746709908790166</v>
       </c>
     </row>
     <row r="25">
@@ -1109,22 +1131,22 @@
         <v>200000.0</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>278.25</v>
+        <v>223.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.04515078658917518</v>
+        <v>0.031936985320443964</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>224.95497688455288</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>53.29502311544712</v>
+        <v>231.74670990879017</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>251.90192583576058</v>
+        <v>8.746709908790166</v>
       </c>
     </row>
     <row r="26">
@@ -1132,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>160000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>221.5</v>
+        <v>252.5</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.035942135595695604</v>
+        <v>0.03616183315431436</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>179.9639815076423</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>41.5360184923577</v>
+        <v>231.74670990879017</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>201.52154066860845</v>
+        <v>-20.753290091209834</v>
       </c>
     </row>
     <row r="27">
@@ -1158,25 +1180,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>150000.0</v>
+        <v>240000.0</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>189.0</v>
+        <v>283.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.030668458815288797</v>
+        <v>0.04052989616899391</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>168.71623266341464</v>
+        <v>277.9045108247652</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>20.283767336585356</v>
+        <v>278.0960518905482</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>188.9264443768204</v>
+        <v>-4.90394810945179</v>
       </c>
     </row>
     <row r="28">
@@ -1184,25 +1206,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>170000.0</v>
+        <v>280000.0</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.030793084959932764</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>201.8</v>
+        <v>254.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.03274547613187979</v>
+        <v>0.036376655925528106</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>191.21173035186993</v>
+        <v>324.2219292955595</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>10.58826964813008</v>
+        <v>324.4453938723063</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>214.11663696039645</v>
+        <v>70.44539387230628</v>
       </c>
     </row>
     <row r="29">
@@ -1210,25 +1232,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>250000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.04528394847048935</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>258.5</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.04194601377646642</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>281.19372110569105</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>-22.693721105691054</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>314.8774072947006</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1236,25 +1258,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>300000.0</v>
+        <v>250000.0</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>274.9</v>
+        <v>283.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.04460719221334863</v>
+        <v>0.04052989616899391</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>337.4324653268293</v>
+        <v>289.4838654424638</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>-62.53246532682931</v>
+        <v>289.68338738598777</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>377.8528887536408</v>
+        <v>6.683387385987771</v>
       </c>
     </row>
     <row r="31">
@@ -1262,25 +1284,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>270000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.04890666434812851</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>219.533333333333</v>
+        <v>248.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.03562301053924016</v>
+        <v>0.03551736484067311</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>303.68921879414637</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>-84.15588546081338</v>
+        <v>231.74670990879017</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>340.0675998782768</v>
+        <v>-16.253290091209834</v>
       </c>
     </row>
     <row r="32">
@@ -1288,25 +1310,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>210000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>250.583333333333</v>
+        <v>251.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.04066140020175189</v>
+        <v>0.03594701038310061</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>236.20272572878048</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>14.380607604552523</v>
+        <v>231.74670990879017</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>264.4970221275486</v>
+        <v>-19.253290091209834</v>
       </c>
     </row>
     <row r="33">
@@ -1317,51 +1339,76 @@
         <v>200000.0</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>227.9</v>
+        <v>263.5</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.0369806442539911</v>
+        <v>0.03773720014321518</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>224.95497688455288</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>2.9450231154471282</v>
+        <v>231.74670990879017</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>251.90192583576058</v>
+        <v>-31.753290091209834</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="A34" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B34" t="n" s="3">
-        <v>5520720.0</v>
-      </c>
-      <c r="C34" t="n" s="3">
+      <c r="B34" t="n" s="6">
+        <v>240000.0</v>
+      </c>
+      <c r="C34" t="n" s="5">
+        <v>0.03961703532518983</v>
+      </c>
+      <c r="D34" t="n" s="2">
+        <v>284.0</v>
+      </c>
+      <c r="E34" t="n" s="5">
+        <v>0.04067311134980308</v>
+      </c>
+      <c r="F34" t="n" s="2">
+        <v>277.9045108247652</v>
+      </c>
+      <c r="G34" t="n" s="2">
+        <v>278.0960518905482</v>
+      </c>
+      <c r="H34" t="n" s="2">
+        <v>-5.90394810945179</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" t="n" s="3">
+        <v>6058000.0</v>
+      </c>
+      <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="D34" t="n" s="3">
-        <v>6162.6833333333325</v>
-      </c>
-      <c r="E34" t="n" s="3">
+      <c r="D35" t="n" s="3">
+        <v>6982.5</v>
+      </c>
+      <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="F34" t="n" s="3">
-        <v>6162.326654784688</v>
-      </c>
-      <c r="G34" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H34" t="n" s="3">
-        <v>6900.9</v>
-      </c>
-    </row>
-    <row r="35"/>
+      <c r="F35" t="n" s="3">
+        <v>6982.3508344722295</v>
+      </c>
+      <c r="G35" t="n" s="3">
+        <v>6987.312572087659</v>
+      </c>
+      <c r="H35" t="n" s="3">
+        <v>4.812572087658737</v>
+      </c>
+    </row>
     <row r="36"/>
     <row r="37"/>
     <row r="38"/>
@@ -1394,38 +1441,48 @@
     <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.98046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="31.08984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="F1" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>41</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="4">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3"/>
@@ -1434,25 +1491,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>41720.528300656435</v>
+        <v>25255.86001980852</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.04661511541972786</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.054297597042513863</v>
+        <v>0.036566785170137124</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>40.657015071242036</v>
+        <v>29.387431891190268</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>6.342984928757964</v>
+        <v>24.113786858296713</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>31.115956058551163</v>
+        <v>-11.886213141703287</v>
       </c>
     </row>
     <row r="5">
@@ -1460,25 +1517,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>26665.251996116447</v>
+        <v>25255.86001980852</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.02979357764929212</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>33.2</v>
+        <v>36.5</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.03835489833641405</v>
+        <v>0.03707465718638903</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>25.985518315392838</v>
+        <v>29.387431891190268</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>7.214481684607165</v>
+        <v>21.474111965524585</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>23.482640995498347</v>
+        <v>-15.025888034475415</v>
       </c>
     </row>
     <row r="6">
@@ -1486,25 +1543,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>22251.142966859396</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.024861612253474184</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>16.0</v>
+        <v>45.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.018484288354898334</v>
+        <v>0.0457084814626714</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>21.683930952085507</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>-5.6839309520855075</v>
+        <v>32.389524359960674</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>17.04385233544235</v>
+        <v>-12.610475640039326</v>
       </c>
     </row>
     <row r="7">
@@ -1512,25 +1569,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>24471.49103740092</v>
+        <v>39286.893364146585</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.027342448086481473</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>25.0</v>
+        <v>38.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.02888170055452865</v>
+        <v>0.038598273235144746</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>23.847679318761617</v>
+        <v>45.713782941851534</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>1.1523206812383826</v>
+        <v>29.25045151450193</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>23.555477971290834</v>
+        <v>-8.749548485498071</v>
       </c>
     </row>
     <row r="8">
@@ -1538,25 +1595,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>24155.363793128432</v>
+        <v>982.1723341036645</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.026989233288411657</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.03465804066543438</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>23.53961058956927</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>6.460389410430729</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>32.150241114804494</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -1564,25 +1621,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>38046.31913953253</v>
+        <v>30868.273357543745</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.04250985378718718</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>43.0</v>
+        <v>38.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.049676524953789276</v>
+        <v>0.038598273235144746</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>37.076466518208484</v>
+        <v>35.91797231145477</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>5.923533481791516</v>
+        <v>28.96508125582386</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>37.42363816218067</v>
+        <v>-9.034918744176139</v>
       </c>
     </row>
     <row r="10">
@@ -1590,25 +1647,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>1134.8157486704633</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.0</v>
+        <v>0.036566785170137124</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>0.0</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>0.0</v>
+        <v>24.113786858296713</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>0.0</v>
+        <v>-11.886213141703287</v>
       </c>
     </row>
     <row r="11">
@@ -1616,25 +1673,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>28370.393716761584</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03169876392934255</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.02310536044362292</v>
+        <v>0.03047232097511427</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>27.64719364546727</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>-7.647193645467269</v>
+        <v>25.826008410365116</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>26.221311285295922</v>
+        <v>-4.173991589634884</v>
       </c>
     </row>
     <row r="12">
@@ -1642,25 +1699,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>34044.472460113895</v>
+        <v>25255.86001980852</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>36.0</v>
+        <v>43.5</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.041589648798521256</v>
+        <v>0.04418486541391569</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>33.17663237456072</v>
+        <v>29.387431891190268</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>2.823367625439282</v>
+        <v>29.17910894983241</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>23.307832253596374</v>
+        <v>-14.320891050167589</v>
       </c>
     </row>
     <row r="13">
@@ -1668,25 +1725,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>42150.29923633149</v>
+        <v>33674.48002641135</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.04709530640930893</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>39.4</v>
+        <v>38.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.045517560073937154</v>
+        <v>0.038598273235144746</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>41.07583055897993</v>
+        <v>39.18324252158702</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>-1.675830558979932</v>
+        <v>34.101745912029074</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>25.114189253250093</v>
+        <v>-3.898254087970926</v>
       </c>
     </row>
     <row r="14">
@@ -1694,25 +1751,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>1134.8157486704633</v>
+        <v>43496.203367448</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03961401726764855</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>0.0</v>
+        <v>50.6116882570499</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>0.0</v>
+        <v>31.105358195909368</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>0.0</v>
+        <v>-7.894641804090632</v>
       </c>
     </row>
     <row r="15">
@@ -1720,25 +1777,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>51877.29136779261</v>
+        <v>982.1723341036645</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.05796345404222638</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.03927911275415896</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>50.554868380283004</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>-16.554868380283004</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>30.766338574747213</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -1746,25 +1803,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>53498.45672303613</v>
+        <v>35077.583360845165</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.05977481198104595</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>46.5</v>
+        <v>46.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.05371996303142329</v>
+        <v>0.046724225495175215</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>52.134708017166844</v>
+        <v>40.815877626653155</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>-5.634708017166844</v>
+        <v>33.245635135994874</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>35.576006876244605</v>
+        <v>-12.754364864005126</v>
       </c>
     </row>
     <row r="17">
@@ -1772,25 +1829,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>2269.6314973409267</v>
+        <v>29465.17002310994</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03961401726764855</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>0.0</v>
+        <v>34.28533720638865</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>0.0</v>
+        <v>27.39554483309449</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>0.0</v>
+        <v>-11.60445516690551</v>
       </c>
     </row>
     <row r="18">
@@ -1798,25 +1855,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>35665.63781535742</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.039849874654030636</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>44.0</v>
+        <v>29.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.05083179297597042</v>
+        <v>0.029456576942610464</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>34.756472011444565</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>9.243527988555435</v>
+        <v>26.25406379838222</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>33.35933491295981</v>
+        <v>-2.7459362016177806</v>
       </c>
     </row>
     <row r="19">
@@ -1824,25 +1881,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>25938.645683896306</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>14.0</v>
+        <v>33.5</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.016173752310536044</v>
+        <v>0.0340274250888776</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>25.277434190141502</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>-11.277434190141502</v>
+        <v>27.752257656442072</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>18.2262392424738</v>
+        <v>-5.747742343557928</v>
       </c>
     </row>
     <row r="20">
@@ -1850,25 +1907,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>24317.480328652782</v>
+        <v>33674.48002641135</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>16.0</v>
+        <v>30.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.018484288354898334</v>
+        <v>0.03047232097511427</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>23.697594553257655</v>
+        <v>39.18324252158702</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>-7.697594553257655</v>
+        <v>32.389524359960674</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>16.89817838385737</v>
+        <v>2.3895243599606744</v>
       </c>
     </row>
     <row r="21">
@@ -1876,25 +1933,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>24317.480328652782</v>
+        <v>39286.893364146585</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>16.0</v>
+        <v>44.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.018484288354898334</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>23.697594553257655</v>
+        <v>45.713782941851534</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>-7.697594553257655</v>
+        <v>33.10295000665584</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>20.799812387141635</v>
+        <v>-10.897049993344162</v>
       </c>
     </row>
     <row r="22">
@@ -1902,25 +1959,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>32423.307104870382</v>
+        <v>982.1723341036645</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.03696857670979667</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>31.59679273767688</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>0.40320726232312154</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>29.120222921836966</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1928,25 +1985,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>48634.960657305564</v>
+        <v>35077.583360845165</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>48.0</v>
+        <v>30.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.05545286506469501</v>
+        <v>0.03047232097511427</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>47.39518910651531</v>
+        <v>40.815877626653155</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>0.6048108934846894</v>
+        <v>28.394340738467726</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>30.28561453451679</v>
+        <v>-1.6056592615322742</v>
       </c>
     </row>
     <row r="24">
@@ -1954,25 +2011,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>2269.6314973409267</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03047232097511427</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>0.0</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>0.0</v>
+        <v>22.25888017688927</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>0.0</v>
+        <v>-7.741119823110729</v>
       </c>
     </row>
     <row r="25">
@@ -1980,25 +2037,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>32423.307104870382</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>40.0</v>
+        <v>38.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.04621072088724584</v>
+        <v>0.038598273235144746</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>31.59679273767688</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>8.403207262323122</v>
+        <v>22.686935564906374</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>29.171208804891712</v>
+        <v>-15.313064435093626</v>
       </c>
     </row>
     <row r="26">
@@ -2006,25 +2063,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>25938.645683896306</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>30.0</v>
+        <v>33.5</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.03465804066543438</v>
+        <v>0.0340274250888776</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>25.277434190141502</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>4.722565809858498</v>
+        <v>26.89614688040787</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>22.870810398841442</v>
+        <v>-6.603853119592131</v>
       </c>
     </row>
     <row r="27">
@@ -2032,25 +2089,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>24317.480328652782</v>
+        <v>33674.48002641135</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.031192236598890942</v>
+        <v>0.03148806500761808</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>23.697594553257655</v>
+        <v>39.18324252158702</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>3.3024054467423447</v>
+        <v>31.2480433252484</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>18.209243948122168</v>
+        <v>0.24804332524839978</v>
       </c>
     </row>
     <row r="28">
@@ -2058,25 +2115,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>27559.811039139822</v>
+        <v>39286.893364146585</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.030793084959932764</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>29.0</v>
+        <v>43.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.033502772643253236</v>
+        <v>0.04367699339766379</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>26.85727382702534</v>
+        <v>45.713782941851534</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>2.1427261729746583</v>
+        <v>31.676098713265503</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>22.404653753769516</v>
+        <v>-11.323901286734497</v>
       </c>
     </row>
     <row r="29">
@@ -2084,25 +2141,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>40529.13388108797</v>
+        <v>982.1723341036645</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.04528394847048935</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.04621072088724584</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>39.49599092209609</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>0.504009077903909</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>30.66436680863773</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -2110,25 +2167,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>48634.960657305564</v>
+        <v>35077.583360845165</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>56.5</v>
+        <v>38.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.06527264325323474</v>
+        <v>0.038598273235144746</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>47.39518910651531</v>
+        <v>40.815877626653155</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>9.10481089348469</v>
+        <v>29.963877161197097</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>36.345650920451845</v>
+        <v>-8.036122838802903</v>
       </c>
     </row>
     <row r="31">
@@ -2136,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>43771.464591575015</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.04890666434812851</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>46.0</v>
+        <v>30.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.05314232902033272</v>
+        <v>0.03047232097511427</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>42.655670195863784</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>3.3443298041362155</v>
+        <v>24.969897634330913</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>28.406420559070582</v>
+        <v>-5.030102365669087</v>
       </c>
     </row>
     <row r="32">
@@ -2162,25 +2219,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>34044.472460113895</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>40.0</v>
+        <v>34.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.04621072088724584</v>
+        <v>0.03453529710512951</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>33.17663237456072</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>6.823367625439282</v>
+        <v>26.539434057060287</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>25.638615478956012</v>
+        <v>-7.460565942939713</v>
       </c>
     </row>
     <row r="33">
@@ -2188,55 +2245,84 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>32423.307104870382</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>17.0</v>
+        <v>34.5</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.01963955637707948</v>
+        <v>0.03504316912138141</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>31.59679273767688</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>-14.596792737676878</v>
+        <v>28.465683303137244</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>22.71056905209797</v>
+        <v>-6.034316696862756</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="A34" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B34" t="n" s="3">
-        <v>895000.0</v>
-      </c>
-      <c r="C34" t="n" s="3">
+      <c r="B34" t="n" s="6">
+        <v>33674.48002641135</v>
+      </c>
+      <c r="C34" t="n" s="5">
+        <v>0.03961703532518983</v>
+      </c>
+      <c r="D34" t="n" s="2">
+        <v>41.0</v>
+      </c>
+      <c r="E34" t="n" s="5">
+        <v>0.04164550533265617</v>
+      </c>
+      <c r="F34" t="n" s="2">
+        <v>39.18324252158702</v>
+      </c>
+      <c r="G34" t="n" s="2">
+        <v>30.534617678553232</v>
+      </c>
+      <c r="H34" t="n" s="2">
+        <v>-10.465382321446768</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" t="n" s="3">
+        <v>850000.0</v>
+      </c>
+      <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="D34" t="n" s="3">
-        <v>865.6</v>
-      </c>
-      <c r="E34" t="n" s="3">
+      <c r="D35" t="n" s="3">
+        <v>984.5</v>
+      </c>
+      <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="F34" t="n" s="3">
-        <v>865.5499015388252</v>
-      </c>
-      <c r="G34" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H34" t="n" s="3">
-        <v>690.8684269885267</v>
-      </c>
-    </row>
-    <row r="35"/>
-    <row r="36"/>
+      <c r="F35" t="n" s="3">
+        <v>984.4789683548734</v>
+      </c>
+      <c r="G35" t="n" s="3">
+        <v>764.2928953045346</v>
+      </c>
+      <c r="H35" t="n" s="3">
+        <v>-220.20710469546543</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
     <row r="37"/>
     <row r="38"/>
     <row r="39"/>
@@ -2268,38 +2354,48 @@
     <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.98046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="31.08984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="F1" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>41</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="4">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3"/>
@@ -2308,25 +2404,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>64795.010433421725</v>
+        <v>54968.63651370089</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.04661511541972786</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>13.0</v>
+        <v>28.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.02145922746781116</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>28.454274179942722</v>
+        <v>26.447196196642537</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>-15.454274179942722</v>
+        <v>52.48294786805755</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>48.32533957696773</v>
+        <v>24.48294786805755</v>
       </c>
     </row>
     <row r="5">
@@ -2334,25 +2430,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>41413.07293251605</v>
+        <v>54968.63651370089</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.02979357764929212</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>23.0</v>
+        <v>12.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.037966325519973594</v>
+        <v>0.013544018058690745</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>18.186260392173036</v>
+        <v>26.447196196642537</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>4.813739607826964</v>
+        <v>46.73777310143587</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>36.47024690920972</v>
+        <v>34.73777310143587</v>
       </c>
     </row>
     <row r="6">
@@ -2360,25 +2456,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>34557.64103232911</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.024861612253474184</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>21.0</v>
+        <v>38.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.034664905909541105</v>
+        <v>0.04288939051918736</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>15.175745576216958</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>5.824254423783042</v>
+        <v>70.49484713638499</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>26.47034049861996</v>
+        <v>32.49484713638499</v>
       </c>
     </row>
     <row r="7">
@@ -2386,25 +2482,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>38006.00284020925</v>
+        <v>85506.7679102014</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.027342448086481473</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>19.7</v>
+        <v>38.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.03251898316275999</v>
+        <v>0.04288939051918736</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>16.69006946777471</v>
+        <v>41.14008297255506</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>3.0099305322252903</v>
+        <v>63.662747413915966</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>36.58336802245169</v>
+        <v>25.662747413915966</v>
       </c>
     </row>
     <row r="8">
@@ -2412,25 +2508,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>37515.0342708922</v>
+        <v>2137.6691977550345</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.026989233288411657</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>31.7</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.05232750082535491</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>16.474464065574242</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>15.225535934425757</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>49.931659385003634</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -2438,25 +2534,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>59088.69676419018</v>
+        <v>67183.88907230108</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.04250985378718718</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>34.0</v>
+        <v>25.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.05612413337735227</v>
+        <v>0.028216704288939052</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>25.948386572008662</v>
+        <v>32.32435090700754</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>8.051613427991338</v>
+        <v>63.041647439146054</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>58.12162798372194</v>
+        <v>38.041647439146054</v>
       </c>
     </row>
     <row r="10">
@@ -2464,25 +2560,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>1762.451274471446</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03611738148984198</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>0.0</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>0.0</v>
+        <v>52.48294786805755</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>0.0</v>
+        <v>20.48294786805755</v>
       </c>
     </row>
     <row r="11">
@@ -2490,25 +2586,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>44061.28186178615</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03169876392934255</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>25.0</v>
+        <v>34.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03837471783295711</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>19.349202761580486</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>5.650797238419514</v>
+        <v>56.20954771667702</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>40.723600767107634</v>
+        <v>22.209547716677022</v>
       </c>
     </row>
     <row r="12">
@@ -2516,25 +2612,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>52873.53823414337</v>
+        <v>54968.63651370089</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.04291845493562232</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>23.21904331389658</v>
+        <v>26.447196196642537</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>2.780956686103419</v>
+        <v>63.507472420223486</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>36.19875623742901</v>
+        <v>35.507472420223486</v>
       </c>
     </row>
     <row r="13">
@@ -2542,25 +2638,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>65462.475908939414</v>
+        <v>73291.51535160118</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.04709530640930893</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>15.0</v>
+        <v>44.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.024760647078243648</v>
+        <v>0.04966139954853273</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>28.747386960062432</v>
+        <v>35.262928262190044</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>-13.747386960062432</v>
+        <v>74.22144698500446</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>39.00415984582976</v>
+        <v>30.221446985004462</v>
       </c>
     </row>
     <row r="14">
@@ -2568,25 +2664,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>1762.451274471446</v>
+        <v>94668.20732915153</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04740406320541761</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>0.0</v>
+        <v>45.54794900532881</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>0.0</v>
+        <v>67.6998972499204</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>0.0</v>
+        <v>25.699897249920397</v>
       </c>
     </row>
     <row r="15">
@@ -2594,25 +2690,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>80569.20111869466</v>
+        <v>2137.6691977550345</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.05796345404222638</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>21.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.034664905909541105</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>35.38139933546146</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>-14.38139933546146</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>47.78235823340629</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -2620,25 +2716,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>83086.98865365387</v>
+        <v>76345.32849125125</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.05977481198104595</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>21.0</v>
+        <v>35.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.034664905909541105</v>
+        <v>0.039503386004514675</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>36.487068064694625</v>
+        <v>36.7322169397813</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>-15.487068064694625</v>
+        <v>72.35814706069473</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>55.25212241115084</v>
+        <v>37.35814706069473</v>
       </c>
     </row>
     <row r="17">
@@ -2646,25 +2742,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>3524.902548942892</v>
+        <v>64130.075932651045</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>0.0</v>
+        <v>30.855062229416294</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>0.0</v>
+        <v>59.625597577911535</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>0.0</v>
+        <v>31.625597577911535</v>
       </c>
     </row>
     <row r="18">
@@ -2672,25 +2768,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>55391.32576910259</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.039849874654030636</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>27.0</v>
+        <v>36.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.044569164740838565</v>
+        <v>0.040632054176072234</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>24.324712043129754</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>2.675287956870246</v>
+        <v>57.141197678831894</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>51.809469864820265</v>
+        <v>21.141197678831894</v>
       </c>
     </row>
     <row r="19">
@@ -2698,25 +2794,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>40284.60055934733</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>17.4</v>
+        <v>34.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.02872235061076263</v>
+        <v>0.03837471783295711</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>17.69069966773073</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>-0.2906996677307312</v>
+        <v>60.401972546373926</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>28.306673236914616</v>
+        <v>26.401972546373926</v>
       </c>
     </row>
     <row r="20">
@@ -2724,25 +2820,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>37766.813024388124</v>
+        <v>73291.51535160118</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>12.0</v>
+        <v>34.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.019808517662594918</v>
+        <v>0.03837471783295711</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>16.585030938497557</v>
+        <v>35.262928262190044</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>-4.585030938497557</v>
+        <v>70.49484713638499</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>26.244098272136032</v>
+        <v>36.49484713638499</v>
       </c>
     </row>
     <row r="21">
@@ -2750,25 +2846,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>37766.813024388124</v>
+        <v>85506.7679102014</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>12.0</v>
+        <v>40.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.019808517662594918</v>
+        <v>0.045146726862302484</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>16.585030938497557</v>
+        <v>41.14008297255506</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>-4.585030938497557</v>
+        <v>72.04759707330977</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>32.30361923813059</v>
+        <v>32.047597073309774</v>
       </c>
     </row>
     <row r="22">
@@ -2776,25 +2872,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>50355.750699184166</v>
+        <v>2137.6691977550345</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.05282271376691978</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>22.113374584663415</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>9.886625415336585</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>45.22582107413786</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -2802,25 +2898,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>75533.62604877625</v>
+        <v>76345.32849125125</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>20.0</v>
+        <v>32.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.033014196104324864</v>
+        <v>0.03611738148984198</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>33.17006187699511</v>
+        <v>36.7322169397813</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>-13.170061876995113</v>
+        <v>61.79944748960623</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>47.03575888600932</v>
+        <v>29.79944748960623</v>
       </c>
     </row>
     <row r="24">
@@ -2828,25 +2924,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>3524.902548942892</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>0.0</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>0.0</v>
+        <v>48.445798032053126</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>0.0</v>
+        <v>20.445798032053126</v>
       </c>
     </row>
     <row r="25">
@@ -2854,25 +2950,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>50355.750699184166</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>19.0</v>
+        <v>32.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.031363486299108616</v>
+        <v>0.03611738148984198</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>22.113374584663415</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>-3.113374584663415</v>
+        <v>49.37744799420799</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>45.305005853407245</v>
+        <v>17.37744799420799</v>
       </c>
     </row>
     <row r="26">
@@ -2880,25 +2976,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>40284.60055934733</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.033014196104324864</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>17.69069966773073</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>2.3093003322692702</v>
+        <v>58.53867262206419</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>35.52002955797722</v>
+        <v>30.53867262206419</v>
       </c>
     </row>
     <row r="27">
@@ -2906,25 +3002,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>37766.813024388124</v>
+        <v>73291.51535160118</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.04291845493562232</v>
+        <v>0.040632054176072234</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>16.585030938497557</v>
+        <v>35.262928262190044</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>9.414969061502443</v>
+        <v>68.01044723730534</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>28.28027831049141</v>
+        <v>32.01044723730534</v>
       </c>
     </row>
     <row r="28">
@@ -2932,25 +3028,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>42802.38809430654</v>
+        <v>85506.7679102014</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.030793084959932764</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>26.0</v>
+        <v>36.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.04291845493562232</v>
+        <v>0.040632054176072234</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>18.7963683969639</v>
+        <v>41.14008297255506</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>7.203631603036101</v>
+        <v>68.94209719946022</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>34.79605443322864</v>
+        <v>32.94209719946022</v>
       </c>
     </row>
     <row r="29">
@@ -2958,25 +3054,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>62944.6883739802</v>
+        <v>2137.6691977550345</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.04528394847048935</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.04291845493562232</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>27.64171823082926</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>-1.6417182308292588</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>47.62398867486754</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -2984,25 +3080,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>75533.62604877625</v>
+        <v>76345.32849125125</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>41.0</v>
+        <v>28.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.06767910201386597</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>33.17006187699511</v>
+        <v>36.7322169397813</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>7.829938123004887</v>
+        <v>65.21549735084075</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>56.447435507740856</v>
+        <v>37.21549735084075</v>
       </c>
     </row>
     <row r="31">
@@ -3010,25 +3106,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>67980.26344389863</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.04890666434812851</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>41.0</v>
+        <v>34.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.06767910201386597</v>
+        <v>0.03837471783295711</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>29.85305568929561</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>11.146944310704392</v>
+        <v>54.346247792367286</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>44.11723416436661</v>
+        <v>20.346247792367286</v>
       </c>
     </row>
     <row r="32">
@@ -3036,25 +3132,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>52873.53823414337</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>22.0</v>
+        <v>36.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.036315615714757346</v>
+        <v>0.040632054176072234</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>23.21904331389658</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>-1.2190433138965808</v>
+        <v>57.762297653601806</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>39.81863186117191</v>
+        <v>21.762297653601806</v>
       </c>
     </row>
     <row r="33">
@@ -3062,55 +3158,84 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>50355.750699184166</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>14.0</v>
+        <v>36.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.023109937273027403</v>
+        <v>0.040632054176072234</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>22.113374584663415</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>-8.113374584663415</v>
+        <v>61.95472248329871</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>35.27116310884489</v>
+        <v>25.95472248329871</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="A34" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B34" t="n" s="3">
-        <v>1390000.0</v>
-      </c>
-      <c r="C34" t="n" s="3">
+      <c r="B34" t="n" s="6">
+        <v>73291.51535160118</v>
+      </c>
+      <c r="C34" t="n" s="5">
+        <v>0.03961703532518983</v>
+      </c>
+      <c r="D34" t="n" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="E34" t="n" s="5">
+        <v>0.03611738148984198</v>
+      </c>
+      <c r="F34" t="n" s="2">
+        <v>35.262928262190044</v>
+      </c>
+      <c r="G34" t="n" s="2">
+        <v>66.45769730038057</v>
+      </c>
+      <c r="H34" t="n" s="2">
+        <v>34.45769730038057</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" t="n" s="3">
+        <v>1850000.0</v>
+      </c>
+      <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="D34" t="n" s="3">
-        <v>605.8</v>
-      </c>
-      <c r="E34" t="n" s="3">
+      <c r="D35" t="n" s="3">
+        <v>886.0</v>
+      </c>
+      <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="F34" t="n" s="3">
-        <v>605.7649380224356</v>
-      </c>
-      <c r="G34" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H34" t="n" s="3">
-        <v>1072.968841915142</v>
-      </c>
-    </row>
-    <row r="35"/>
-    <row r="36"/>
+      <c r="F35" t="n" s="3">
+        <v>885.9810725875252</v>
+      </c>
+      <c r="G35" t="n" s="3">
+        <v>1663.4610074275165</v>
+      </c>
+      <c r="H35" t="n" s="3">
+        <v>777.4610074275165</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
     <row r="37"/>
     <row r="38"/>
     <row r="39"/>
@@ -3142,38 +3267,48 @@
     <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.98046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="31.08984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="F1" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>41</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="4">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3"/>
@@ -3182,25 +3317,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>38457.470221275486</v>
+        <v>29861.340376361837</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.04661511541972786</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>37.0</v>
+        <v>27.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.04749679075738126</v>
+        <v>0.030405405405405407</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>36.58943477414226</v>
+        <v>26.506896413790713</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>0.4105652258577379</v>
+        <v>28.51100681480964</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>28.682305864027605</v>
+        <v>1.5110068148096403</v>
       </c>
     </row>
     <row r="5">
@@ -3208,25 +3343,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>24579.701560666</v>
+        <v>29861.340376361837</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.02979357764929212</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.029525032092426188</v>
+        <v>0.028153153153153154</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>23.38576567431957</v>
+        <v>26.506896413790713</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>-0.3857656743195683</v>
+        <v>25.389979441590835</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>21.646009856185625</v>
+        <v>0.3899794415908353</v>
       </c>
     </row>
     <row r="6">
@@ -3234,25 +3369,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>20510.830109116203</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.024861612253474184</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>15.0</v>
+        <v>32.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.019255455712451863</v>
+        <v>0.036036036036036036</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>19.514535826795992</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>-4.514535826795992</v>
+        <v>38.295849390306444</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>15.710813605296018</v>
+        <v>6.295849390306444</v>
       </c>
     </row>
     <row r="7">
@@ -3260,25 +3395,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>22557.519671347214</v>
+        <v>46450.97391878508</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.027342448086481473</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.03209242618741977</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>21.46180936843265</v>
+        <v>41.23294997700778</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>3.5381906315673497</v>
+        <v>34.5843573789111</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>21.713150085268087</v>
+        <v>4.5843573789111005</v>
       </c>
     </row>
     <row r="8">
@@ -3286,25 +3421,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>22266.117462939616</v>
+        <v>1161.274347969627</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.026989233288411657</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.038510911424903725</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>21.184561748237595</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>8.815438251762405</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>29.635697116998557</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -3312,25 +3447,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>35070.62937442942</v>
+        <v>36497.193793331135</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.04250985378718718</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>36.0</v>
+        <v>41.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.04621309370988447</v>
+        <v>0.04617117117117117</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>33.367106536141875</v>
+        <v>32.39731783907754</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>2.6328934638581245</v>
+        <v>34.2469490142388</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>34.496649702568774</v>
+        <v>-6.753050985761199</v>
       </c>
     </row>
     <row r="10">
@@ -3338,25 +3473,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>1046.0592096683042</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.0</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>0.0</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>0.0</v>
+        <v>28.51100681480964</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>0.0</v>
+        <v>-1.4889931851903597</v>
       </c>
     </row>
     <row r="11">
@@ -3364,25 +3499,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>26151.480241707606</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03169876392934255</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.04621309370988447</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>24.881196684171677</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>11.118803315828323</v>
+        <v>30.53545700284346</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>24.17048246968618</v>
+        <v>0.5354570028434615</v>
       </c>
     </row>
     <row r="12">
@@ -3390,25 +3525,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>31381.77629004912</v>
+        <v>29861.340376361837</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>26.0</v>
+        <v>33.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03337612323491656</v>
+        <v>0.037162162162162164</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>29.857436021006006</v>
+        <v>26.506896413790713</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>-3.8574360210060057</v>
+        <v>34.50000528774303</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>21.48487330638772</v>
+        <v>1.5000052877430292</v>
       </c>
     </row>
     <row r="13">
@@ -3416,25 +3551,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>38853.62778767987</v>
+        <v>39815.12050181578</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.04709530640930893</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.03465982028241335</v>
+        <v>0.0259009009009009</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>36.96634935934077</v>
+        <v>35.342528551720946</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>-9.966349359340768</v>
+        <v>40.32029957834026</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>23.149950987632767</v>
+        <v>17.32029957834026</v>
       </c>
     </row>
     <row r="14">
@@ -3442,25 +3577,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>1046.0592096683042</v>
+        <v>51427.86398151205</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04391891891891892</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>0.0</v>
+        <v>45.650766045972894</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>0.0</v>
+        <v>36.777511749281075</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>0.0</v>
+        <v>-2.222488250718925</v>
       </c>
     </row>
     <row r="15">
@@ -3468,25 +3603,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>47819.84958483676</v>
+        <v>1161.274347969627</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.05796345404222638</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.05648267008985879</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>45.49704536534249</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>-1.4970453653424869</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>28.360032764431786</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -3494,25 +3629,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>49314.21988436291</v>
+        <v>41474.0838560581</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.05977481198104595</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.06033376123234917</v>
+        <v>0.04842342342342342</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>46.91882803300943</v>
+        <v>36.81513390804266</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>0.08117196699056706</v>
+        <v>39.30807448432335</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>32.793525891510384</v>
+        <v>-3.691925515676651</v>
       </c>
     </row>
     <row r="17">
@@ -3520,25 +3655,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>2092.1184193366084</v>
+        <v>34838.23043908881</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.0</v>
+        <v>0.037162162162162164</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>0.0</v>
+        <v>30.924712482755837</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>0.0</v>
+        <v>32.39120300854113</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>0.0</v>
+        <v>-0.6087969914588669</v>
       </c>
     </row>
     <row r="18">
@@ -3546,25 +3681,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>32876.14658957528</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.039849874654030636</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>40.0</v>
+        <v>25.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.051347881899871634</v>
+        <v>0.028153153153153154</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>31.27921868867296</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>8.720781311327041</v>
+        <v>31.041569549851918</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>30.75022491976742</v>
+        <v>6.041569549851918</v>
       </c>
     </row>
     <row r="19">
@@ -3572,25 +3707,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>23909.92479241838</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.03080872913992298</v>
+        <v>0.03490990990990991</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>22.748522682671243</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>1.2514773173287566</v>
+        <v>32.81296346438151</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>16.800723324068024</v>
+        <v>1.812963464381511</v>
       </c>
     </row>
     <row r="20">
@@ -3598,25 +3733,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>22415.55449289223</v>
+        <v>39815.12050181578</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>21.0</v>
+        <v>31.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.026957637997432605</v>
+        <v>0.03490990990990991</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>21.32674001500429</v>
+        <v>35.342528551720946</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>-0.3267400150042903</v>
+        <v>38.295849390306444</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>15.576533147131094</v>
+        <v>7.295849390306444</v>
       </c>
     </row>
     <row r="21">
@@ -3624,25 +3759,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>22415.55449289223</v>
+        <v>46450.97391878508</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>24.0</v>
+        <v>47.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.03080872913992298</v>
+        <v>0.05292792792792793</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>21.32674001500429</v>
+        <v>41.23294997700778</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>2.6732599849957097</v>
+        <v>39.1393703019872</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>19.173011418314914</v>
+        <v>-7.860629698012801</v>
       </c>
     </row>
     <row r="22">
@@ -3650,25 +3785,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>29887.405990522977</v>
+        <v>1161.274347969627</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.03465982028241335</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>28.435653353339056</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>-1.435653353339056</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>26.84266358716815</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -3676,25 +3811,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>44831.10898578446</v>
+        <v>41474.0838560581</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>37.0</v>
+        <v>44.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.04749679075738126</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>42.65348003000858</v>
+        <v>36.81513390804266</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>-5.653480030008581</v>
+        <v>33.572132284894195</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>27.91690725248754</v>
+        <v>-10.427867715105805</v>
       </c>
     </row>
     <row r="24">
@@ -3702,25 +3837,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>2092.1184193366084</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0</v>
+        <v>0.036036036036036036</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>0.0</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>0.0</v>
+        <v>26.31785244443967</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>0.0</v>
+        <v>-5.682147555560331</v>
       </c>
     </row>
     <row r="25">
@@ -3728,25 +3863,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>29887.405990522977</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>34.0</v>
+        <v>21.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.043645699614890884</v>
+        <v>0.02364864864864865</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>28.435653353339056</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>5.564346646660944</v>
+        <v>26.823964991448126</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>26.889661747525878</v>
+        <v>5.8239649914481255</v>
       </c>
     </row>
     <row r="26">
@@ -3754,25 +3889,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>23909.92479241838</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.03080872913992298</v>
+        <v>0.036036036036036036</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>22.748522682671243</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>1.2514773173287566</v>
+        <v>31.800738370364602</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>21.08203193189295</v>
+        <v>-0.19926162963539795</v>
       </c>
     </row>
     <row r="27">
@@ -3780,25 +3915,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>22415.55449289223</v>
+        <v>39815.12050181578</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>14.0</v>
+        <v>32.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.01797175866495507</v>
+        <v>0.036036036036036036</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>21.32674001500429</v>
+        <v>35.342528551720946</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>-7.32674001500429</v>
+        <v>36.946215931617225</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>16.785057270615404</v>
+        <v>4.946215931617225</v>
       </c>
     </row>
     <row r="28">
@@ -3806,25 +3941,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>25404.29509194453</v>
+        <v>46450.97391878508</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.030793084959932764</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.03080872913992298</v>
+        <v>0.04279279279279279</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>24.170305350338197</v>
+        <v>41.23294997700778</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>-0.1703053503381966</v>
+        <v>37.45232847862568</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>20.652334465765193</v>
+        <v>-0.5476715213743191</v>
       </c>
     </row>
     <row r="29">
@@ -3832,25 +3967,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>37359.257488153715</v>
+        <v>1161.274347969627</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.04528394847048935</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.037227214377406934</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>35.544566691673815</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>-6.544566691673815</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>28.26603644371634</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -3858,25 +3993,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>44831.10898578446</v>
+        <v>41474.0838560581</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.05263157894736842</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>42.65348003000858</v>
+        <v>36.81513390804266</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>-1.6534800300085806</v>
+        <v>35.42787829059186</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>33.502974312148346</v>
+        <v>-8.572121709408137</v>
       </c>
     </row>
     <row r="31">
@@ -3884,25 +4019,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>40347.99808720602</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.04890666434812851</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
         <v>30.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.038510911424903725</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>38.38813202700773</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>-8.388132027007728</v>
+        <v>29.523231908826553</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>26.18468934216003</v>
+        <v>-0.4767680911734473</v>
       </c>
     </row>
     <row r="32">
@@ -3910,25 +4045,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>31381.77629004912</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>33.0</v>
+        <v>32.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.04236200256739409</v>
+        <v>0.036036036036036036</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>29.857436021006006</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>3.1425639789939943</v>
+        <v>31.37897791452422</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>23.633360637026488</v>
+        <v>-0.6210220854757793</v>
       </c>
     </row>
     <row r="33">
@@ -3936,55 +4071,84 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>29887.405990522977</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.03979460847240052</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>28.435653353339056</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>2.564346646660944</v>
+        <v>33.65648437606227</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>20.934323427911533</v>
+        <v>3.6564843760622665</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="A34" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B34" t="n" s="3">
-        <v>825000.0</v>
-      </c>
-      <c r="C34" t="n" s="3">
+      <c r="B34" t="n" s="6">
+        <v>39815.12050181578</v>
+      </c>
+      <c r="C34" t="n" s="5">
+        <v>0.03961703532518983</v>
+      </c>
+      <c r="D34" t="n" s="2">
+        <v>33.0</v>
+      </c>
+      <c r="E34" t="n" s="5">
+        <v>0.037162162162162164</v>
+      </c>
+      <c r="F34" t="n" s="2">
+        <v>35.342528551720946</v>
+      </c>
+      <c r="G34" t="n" s="2">
+        <v>36.10269501993647</v>
+      </c>
+      <c r="H34" t="n" s="2">
+        <v>3.102695019936469</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" t="n" s="3">
+        <v>1005000.0</v>
+      </c>
+      <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="D34" t="n" s="3">
-        <v>779.0</v>
-      </c>
-      <c r="E34" t="n" s="3">
+      <c r="D35" t="n" s="3">
+        <v>888.0</v>
+      </c>
+      <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="F34" t="n" s="3">
-        <v>778.9549137000288</v>
-      </c>
-      <c r="G34" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H34" t="n" s="3">
-        <v>636.8340248776922</v>
-      </c>
-    </row>
-    <row r="35"/>
-    <row r="36"/>
+      <c r="F35" t="n" s="3">
+        <v>887.9810298619891</v>
+      </c>
+      <c r="G35" t="n" s="3">
+        <v>903.6639526835967</v>
+      </c>
+      <c r="H35" t="n" s="3">
+        <v>15.663952683596676</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
     <row r="37"/>
     <row r="38"/>
     <row r="39"/>
@@ -4016,38 +4180,48 @@
     <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.98046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="31.08984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="F1" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>41</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="4">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3"/>
@@ -4056,25 +4230,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>27471.452894731123</v>
+        <v>18605.33839551007</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.04661511541972786</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>36.0</v>
+        <v>19.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.05515550789030182</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>30.657155426293524</v>
+        <v>14.95490439561841</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>5.342844573706476</v>
+        <v>17.764002656964973</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>20.488727155537056</v>
+        <v>-1.2359973430350273</v>
       </c>
     </row>
     <row r="5">
@@ -4082,25 +4256,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>17558.10014816908</v>
+        <v>18605.33839551007</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.02979357764929212</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
         <v>27.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.04136663091772636</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>19.594209570768143</v>
+        <v>14.95490439561841</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>7.405790429231857</v>
+        <v>15.819422484456974</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>15.462466373935264</v>
+        <v>-11.180577515543026</v>
       </c>
     </row>
     <row r="6">
@@ -4108,25 +4282,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>14651.569641278673</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.024861612253474184</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.030641948827945454</v>
+        <v>0.06187624750499002</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>16.35062584614858</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>3.6493741538514186</v>
+        <v>23.860524278881947</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>11.22275785204979</v>
+        <v>-7.139475721118053</v>
       </c>
     </row>
     <row r="7">
@@ -4134,25 +4308,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>16113.588218565694</v>
+        <v>28941.637504126775</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.027342448086481473</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.04136663091772636</v>
+        <v>0.023952095808383235</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>17.9821861036919</v>
+        <v>23.263184615406416</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>9.017813896308098</v>
+        <v>21.548050560223782</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>15.510426877576503</v>
+        <v>9.548050560223782</v>
       </c>
     </row>
     <row r="8">
@@ -4160,25 +4334,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>15905.4299076932</v>
+        <v>723.5409376031694</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.026989233288411657</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>39.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.05975180021449364</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>17.749888899967495</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>21.250111100032505</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>21.169766307242636</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -4186,25 +4360,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>25052.119583134085</v>
+        <v>22739.85803895675</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.04250985378718718</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>41.9</v>
+        <v>15.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.06419488279454573</v>
+        <v>0.029940119760479042</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>27.95726628516021</v>
+        <v>18.278216483533612</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>13.94273371483979</v>
+        <v>21.337825676709404</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>24.642106770868295</v>
+        <v>6.337825676709404</v>
       </c>
     </row>
     <row r="10">
@@ -4212,25 +4386,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>747.234962106392</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.0</v>
+        <v>0.013972055888223553</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>0.0</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>0.0</v>
+        <v>17.764002656964973</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>0.0</v>
+        <v>10.764002656964973</v>
       </c>
     </row>
     <row r="11">
@@ -4238,25 +4412,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>18680.8740526598</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03169876392934255</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>27.0</v>
+        <v>19.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.04136663091772636</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>20.847184949626257</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>6.152815050373743</v>
+        <v>19.025351958051242</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>17.26578131084583</v>
+        <v>0.025351958051242462</v>
       </c>
     </row>
     <row r="12">
@@ -4264,25 +4438,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>22417.048863191758</v>
+        <v>18605.33839551007</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
         <v>19.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.02910985138654818</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>25.016621939551502</v>
+        <v>14.95490439561841</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>-6.016621939551502</v>
+        <v>21.49549433934519</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>15.347361165196293</v>
+        <v>2.495494339345189</v>
       </c>
     </row>
     <row r="13">
@@ -4290,25 +4464,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>27754.441449665985</v>
+        <v>24807.11786068009</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.04709530640930893</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.04136663091772636</v>
+        <v>0.06187624750499002</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>30.972960496587575</v>
+        <v>19.93987252749121</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>-3.972960496587575</v>
+        <v>25.121873579968216</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>16.536781655499006</v>
+        <v>-5.8781264200317835</v>
       </c>
     </row>
     <row r="14">
@@ -4316,25 +4490,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>747.234962106392</v>
+        <v>32042.527236711783</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.0</v>
+        <v>0.023952095808383235</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>0.0</v>
+        <v>25.755668681342815</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>0.0</v>
+        <v>22.914512303067244</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>0.0</v>
+        <v>10.914512303067244</v>
       </c>
     </row>
     <row r="15">
@@ -4342,25 +4516,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>34159.31255343506</v>
+        <v>723.5409376031694</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.05796345404222638</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.04596292324191818</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>38.120566765030865</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>-8.120566765030865</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>20.258516738059107</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -4368,25 +4542,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>35226.7910707299</v>
+        <v>25840.747771541763</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.05977481198104595</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.04749502068331546</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>39.31183447643808</v>
+        <v>20.770700549470014</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>-8.31183447643808</v>
+        <v>24.49119892942508</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>23.425508661835586</v>
+        <v>-2.5088010705749184</v>
       </c>
     </row>
     <row r="17">
@@ -4394,25 +4568,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>1494.469924212784</v>
+        <v>21706.22812809508</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>0.0</v>
+        <v>17.447388461554812</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>0.0</v>
+        <v>20.181588817380323</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>0.0</v>
+        <v>1.181588817380323</v>
       </c>
     </row>
     <row r="18">
@@ -4420,25 +4594,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>23484.527380486605</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.039849874654030636</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>39.0</v>
+        <v>19.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.05975180021449364</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>26.20788965095872</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>12.79211034904128</v>
+        <v>19.34068928332281</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>21.965910667687197</v>
+        <v>0.3406892833228099</v>
       </c>
     </row>
     <row r="19">
@@ -4446,25 +4620,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>17079.65627671753</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.030641948827945454</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>19.060283382515433</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>0.9397166174845673</v>
+        <v>20.444369921773298</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>12.001316694492594</v>
+        <v>1.4443699217732977</v>
       </c>
     </row>
     <row r="20">
@@ -4472,25 +4646,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>16012.177759422684</v>
+        <v>24807.11786068009</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>19.0</v>
+        <v>31.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.02910985138654818</v>
+        <v>0.06187624750499002</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>17.869015671108215</v>
+        <v>19.93987252749121</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>1.1309843288917847</v>
+        <v>23.860524278881947</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>11.126836844767313</v>
+        <v>-7.139475721118053</v>
       </c>
     </row>
     <row r="21">
@@ -4498,25 +4672,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>16012.177759422684</v>
+        <v>28941.637504126775</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.04136663091772636</v>
+        <v>0.03992015968063872</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>17.869015671108215</v>
+        <v>23.263184615406416</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>9.130984328891785</v>
+        <v>24.386086487667892</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>13.695921156482955</v>
+        <v>4.386086487667892</v>
       </c>
     </row>
     <row r="22">
@@ -4524,25 +4698,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>21349.570345896915</v>
+        <v>723.5409376031694</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.02298146162095909</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>23.825354228144292</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>-8.825354228144292</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>19.174609355767117</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -4550,25 +4724,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>32024.35551884537</v>
+        <v>25840.747771541763</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>18.9</v>
+        <v>19.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.028956641642408455</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>35.73803134221643</v>
+        <v>20.770700549470014</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>-16.838031342216432</v>
+        <v>20.917375909680647</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>19.941977414026933</v>
+        <v>1.917375909680647</v>
       </c>
     </row>
     <row r="24">
@@ -4576,25 +4750,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>1494.469924212784</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0</v>
+        <v>0.013972055888223553</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>0.0</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>0.0</v>
+        <v>16.397540914121514</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>0.0</v>
+        <v>9.397540914121514</v>
       </c>
     </row>
     <row r="25">
@@ -4602,25 +4776,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>21349.570345896915</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>37.9</v>
+        <v>7.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.05806649302895663</v>
+        <v>0.013972055888223553</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>23.825354228144292</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>14.074645771855707</v>
+        <v>16.71287823939308</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>19.208181708315987</v>
+        <v>9.712878239393081</v>
       </c>
     </row>
     <row r="26">
@@ -4628,25 +4802,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>17079.65627671753</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>23.0</v>
+        <v>7.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.03523824115213727</v>
+        <v>0.013972055888223553</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>19.060283382515433</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>3.9397166174845673</v>
+        <v>19.813695271230163</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>15.059598143348863</v>
+        <v>12.813695271230163</v>
       </c>
     </row>
     <row r="27">
@@ -4654,25 +4828,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>16012.177759422684</v>
+        <v>24807.11786068009</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.018385169296767274</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>17.869015671108215</v>
+        <v>19.93987252749121</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>-5.869015671108215</v>
+        <v>23.019624744824434</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>11.990125910309605</v>
+        <v>4.0196247448244335</v>
       </c>
     </row>
     <row r="28">
@@ -4680,25 +4854,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>18147.134794012374</v>
+        <v>28941.637504126775</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.030793084959932764</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.02910985138654818</v>
+        <v>0.023952095808383235</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>20.251551093922647</v>
+        <v>23.263184615406416</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>-1.2515510939226466</v>
+        <v>23.334962070096</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>14.752650920044939</v>
+        <v>11.334962070096001</v>
       </c>
     </row>
     <row r="29">
@@ -4706,25 +4880,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>26686.962932371138</v>
+        <v>723.5409376031694</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.04528394847048935</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.04749502068331546</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>29.781692785180358</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>1.2183072148196423</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>20.191372032961375</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -4732,25 +4906,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>32024.35551884537</v>
+        <v>25840.747771541763</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>20.0</v>
+        <v>31.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.030641948827945454</v>
+        <v>0.06187624750499002</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>35.73803134221643</v>
+        <v>20.770700549470014</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>-15.73803134221643</v>
+        <v>22.073612769009728</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>23.932291316977967</v>
+        <v>-8.926387230990272</v>
       </c>
     </row>
     <row r="31">
@@ -4758,25 +4932,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>28821.91996696083</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.04890666434812851</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.015320974413972727</v>
+        <v>0.013972055888223553</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>32.164228207994796</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>-22.164228207994796</v>
+        <v>18.394677307508108</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>18.704596420082982</v>
+        <v>11.394677307508108</v>
       </c>
     </row>
     <row r="32">
@@ -4784,25 +4958,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>22417.048863191758</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
         <v>19.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.02910985138654818</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>25.016621939551502</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>-6.016621939551502</v>
+        <v>19.550914166837188</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>16.88209728171592</v>
+        <v>0.5509141668371882</v>
       </c>
     </row>
     <row r="33">
@@ -4810,55 +4984,84 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>21349.570345896915</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>17.0</v>
+        <v>19.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.026045656503753636</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>23.825354228144292</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>-6.825354228144292</v>
+        <v>20.969932130559243</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>14.954085035338139</v>
+        <v>1.9699321305592434</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="A34" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B34" t="n" s="3">
-        <v>589325.0</v>
-      </c>
-      <c r="C34" t="n" s="3">
+      <c r="B34" t="n" s="6">
+        <v>24807.11786068009</v>
+      </c>
+      <c r="C34" t="n" s="5">
+        <v>0.03961703532518983</v>
+      </c>
+      <c r="D34" t="n" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="E34" t="n" s="5">
+        <v>0.05389221556886228</v>
+      </c>
+      <c r="F34" t="n" s="2">
+        <v>19.93987252749121</v>
+      </c>
+      <c r="G34" t="n" s="2">
+        <v>22.494062536038488</v>
+      </c>
+      <c r="H34" t="n" s="2">
+        <v>-4.505937463961512</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" t="n" s="3">
+        <v>626173.0</v>
+      </c>
+      <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="D34" t="n" s="3">
-        <v>652.7</v>
-      </c>
-      <c r="E34" t="n" s="3">
+      <c r="D35" t="n" s="3">
+        <v>501.0</v>
+      </c>
+      <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="F34" t="n" s="3">
-        <v>652.6622235840937</v>
-      </c>
-      <c r="G34" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H34" t="n" s="3">
-        <v>454.9117717709648</v>
-      </c>
-    </row>
-    <row r="35"/>
-    <row r="36"/>
+      <c r="F35" t="n" s="3">
+        <v>500.9892972532167</v>
+      </c>
+      <c r="G35" t="n" s="3">
+        <v>563.0347942723839</v>
+      </c>
+      <c r="H35" t="n" s="3">
+        <v>62.03479427238392</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
     <row r="37"/>
     <row r="38"/>
     <row r="39"/>
@@ -4890,38 +5093,48 @@
     <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.98046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="31.08984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="F1" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>41</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="4">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3"/>
@@ -4930,25 +5143,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>28435.220406033997</v>
+        <v>19461.868603499504</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.04661511541972786</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
         <v>30.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.04780368619535748</v>
+        <v>0.02827521206409048</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>29.476649058313225</v>
+        <v>31.67096519710805</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>0.5233509416867754</v>
+        <v>18.58180046139335</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>21.20752312370526</v>
+        <v>-11.41819953860665</v>
       </c>
     </row>
     <row r="5">
@@ -4956,25 +5169,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>18174.082366068193</v>
+        <v>19461.868603499504</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.02979357764929212</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
         <v>23.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.03664949274977407</v>
+        <v>0.021677662582469368</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>18.839700913582238</v>
+        <v>31.67096519710805</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>4.160299086417762</v>
+        <v>16.547698044021885</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>16.00492849972513</v>
+        <v>-6.452301955978115</v>
       </c>
     </row>
     <row r="6">
@@ -4982,25 +5195,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>15165.583474619252</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.024861612253474184</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>14.0</v>
+        <v>38.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.02230838689116682</v>
+        <v>0.03581526861451461</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>15.72101694527557</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>-1.7210169452755704</v>
+        <v>24.95898641855793</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>11.616480362703724</v>
+        <v>-13.04101358144207</v>
       </c>
     </row>
     <row r="7">
@@ -5008,25 +5221,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>16678.893332753698</v>
+        <v>30274.0178276659</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.027342448086481473</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>22.0</v>
+        <v>34.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.03505603654326215</v>
+        <v>0.03204524033930255</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>17.2897511758444</v>
+        <v>49.26594586216808</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>4.710248824155599</v>
+        <v>22.54005381411619</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>16.05457157819822</v>
+        <v>-11.459946185883808</v>
       </c>
     </row>
     <row r="8">
@@ -5034,25 +5247,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>16463.43230593111</v>
+        <v>756.8504456916473</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.026989233288411657</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.04461677378233364</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>17.06639897450027</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>10.93360102549973</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>21.912454838023177</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -5060,25 +5273,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>25931.010810184176</v>
+        <v>23786.728293166063</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.04250985378718718</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>35.0</v>
+        <v>45.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.05577096722791706</v>
+        <v>0.04241281809613572</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>26.88072378074225</v>
+        <v>38.70895746313206</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>8.119276219257749</v>
+        <v>22.320150850076033</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>25.506613719475098</v>
+        <v>-22.679849149923967</v>
       </c>
     </row>
     <row r="10">
@@ -5086,25 +5299,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>773.4498398759582</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>0.0</v>
+        <v>41.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03864278982092366</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>0.0</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>0.0</v>
+        <v>18.58180046139335</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>0.0</v>
+        <v>-22.41819953860665</v>
       </c>
     </row>
     <row r="11">
@@ -5112,25 +5325,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>19336.245996898957</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03169876392934255</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>31.0</v>
+        <v>44.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.04939714240186939</v>
+        <v>0.04147031102733271</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>20.044428325755355</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>10.955571674244645</v>
+        <v>19.901218245634297</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>17.871508250313422</v>
+        <v>-24.098781754365703</v>
       </c>
     </row>
     <row r="12">
@@ -5138,25 +5351,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>23203.495196278745</v>
+        <v>19461.868603499504</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>21.0</v>
+        <v>38.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03346258033675023</v>
+        <v>0.03581526861451461</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>24.05331399090642</v>
+        <v>31.67096519710805</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>-3.053313990906421</v>
+        <v>22.485078073106152</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>15.885785111389708</v>
+        <v>-15.514921926893848</v>
       </c>
     </row>
     <row r="13">
@@ -5164,25 +5377,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>28728.136909678447</v>
+        <v>25949.158137999337</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.04709530640930893</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>22.0</v>
+        <v>44.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.03505603654326215</v>
+        <v>0.04147031102733271</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>29.780293512550806</v>
+        <v>42.22795359614406</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>-7.780293512550806</v>
+        <v>26.27840420279888</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>17.11693345752241</v>
+        <v>-17.72159579720112</v>
       </c>
     </row>
     <row r="14">
@@ -5190,25 +5403,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>773.4498398759582</v>
+        <v>33517.66259491581</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.0</v>
+        <v>0.027332704995287466</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>0.0</v>
+        <v>54.54444006168608</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>0.0</v>
+        <v>23.96942308037722</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>0.0</v>
+        <v>-5.030576919622781</v>
       </c>
     </row>
     <row r="15">
@@ -5216,25 +5429,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>35357.706965758094</v>
+        <v>756.8504456916473</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.05796345404222638</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>15.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.02390184309767874</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>36.65266893852407</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>-21.652668938524073</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>20.969236347034414</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -5242,25 +5455,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>36462.63530843803</v>
+        <v>27030.37306041598</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.05977481198104595</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>36.716666666667</v>
+        <v>45.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.05850640038242971</v>
+        <v>0.04241281809613572</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>37.798064842852945</v>
+        <v>43.987451662650074</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>-1.0813981761859424</v>
+        <v>25.618695310678405</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>24.247334295541016</v>
+        <v>-19.381304689321595</v>
       </c>
     </row>
     <row r="17">
@@ -5268,25 +5481,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>1546.8996797519164</v>
+        <v>22705.513370749424</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03958529688972667</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>0.0</v>
+        <v>36.94945939662606</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>0.0</v>
+        <v>21.110684547855165</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>0.0</v>
+        <v>-20.889315452144835</v>
       </c>
     </row>
     <row r="18">
@@ -5294,25 +5507,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>24308.423538958687</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.039849874654030636</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>31.0</v>
+        <v>43.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.04939714240186939</v>
+        <v>0.04052780395852969</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>25.1987098952353</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>5.8012901047647</v>
+        <v>20.231072691694532</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>22.73652994067652</v>
+        <v>-22.768927308305468</v>
       </c>
     </row>
     <row r="19">
@@ -5320,25 +5533,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>17678.853482879047</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>16.716666666667</v>
+        <v>42.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.02663727625219139</v>
+        <v>0.03958529688972667</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>18.326334469262036</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>-1.6096678025950375</v>
+        <v>21.385563252905364</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>12.422353003250299</v>
+        <v>-20.614436747094636</v>
       </c>
     </row>
     <row r="20">
@@ -5346,25 +5559,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>16573.925140199102</v>
+        <v>25949.158137999337</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>19.0</v>
+        <v>46.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.0302756679237264</v>
+        <v>0.043355325164938736</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>17.180938564933157</v>
+        <v>42.22795359614406</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>1.8190614350668426</v>
+        <v>24.95898641855793</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>11.517194205757537</v>
+        <v>-21.04101358144207</v>
       </c>
     </row>
     <row r="21">
@@ -5372,25 +5585,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>16573.925140199102</v>
+        <v>30274.0178276659</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>19.783333333333</v>
+        <v>36.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.03152387528549354</v>
+        <v>0.033930254476908575</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>17.180938564933157</v>
+        <v>49.26594586216808</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>2.6023947683998436</v>
+        <v>25.508743828658325</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>14.176408442632846</v>
+        <v>-10.491256171341675</v>
       </c>
     </row>
     <row r="22">
@@ -5398,25 +5611,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>22098.566853598808</v>
+        <v>756.8504456916473</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>18.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.028682211717214485</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>22.907918086577546</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>-4.907918086577546</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>19.847302773542513</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -5424,25 +5637,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>33147.850280398205</v>
+        <v>27030.37306041598</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>32.0</v>
+        <v>45.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.05099059860838131</v>
+        <v>0.04241281809613572</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>34.361877129866315</v>
+        <v>43.987451662650074</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>-2.361877129866315</v>
+        <v>21.880344921995718</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>20.641592029112</v>
+        <v>-23.119655078004282</v>
       </c>
     </row>
     <row r="24">
@@ -5450,25 +5663,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>1546.8996797519164</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0</v>
+        <v>0.033930254476908575</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>0.0</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>0.0</v>
+        <v>17.152431195132323</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>0.0</v>
+        <v>-18.847568804867677</v>
       </c>
     </row>
     <row r="25">
@@ -5476,25 +5689,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>22098.566853598808</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>26.35</v>
+        <v>29.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.041987571041588984</v>
+        <v>0.027332704995287466</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>22.907918086577546</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>3.442081913422456</v>
+        <v>17.482285641192558</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>19.88205292847368</v>
+        <v>-11.517714358807442</v>
       </c>
     </row>
     <row r="26">
@@ -5502,25 +5715,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>17678.853482879047</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>20.0</v>
+        <v>45.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.03186912413023832</v>
+        <v>0.04241281809613572</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>18.326334469262036</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>1.6736655307379635</v>
+        <v>20.72585436078489</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>15.587926640551151</v>
+        <v>-24.27414563921511</v>
       </c>
     </row>
     <row r="27">
@@ -5528,25 +5741,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>16573.925140199102</v>
+        <v>25949.158137999337</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>17.0</v>
+        <v>46.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.02708875551070257</v>
+        <v>0.043355325164938736</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>17.180938564933157</v>
+        <v>42.22795359614406</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>-0.1809385649331574</v>
+        <v>24.079374562397298</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>12.410769618273209</v>
+        <v>-21.920625437602702</v>
       </c>
     </row>
     <row r="28">
@@ -5554,25 +5767,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>18783.781825558985</v>
+        <v>30274.0178276659</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.030793084959932764</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>20.0</v>
+        <v>32.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.03186912413023832</v>
+        <v>0.030160226201696512</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>19.471730373590912</v>
+        <v>49.26594586216808</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>0.528269626409088</v>
+        <v>24.409229008457533</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>15.270210938323357</v>
+        <v>-7.590770991542467</v>
       </c>
     </row>
     <row r="29">
@@ -5580,25 +5793,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>27623.208566998506</v>
+        <v>756.8504456916473</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.04528394847048935</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.03824294895628598</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>28.634897608221927</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>-4.634897608221927</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>20.899736037172083</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -5606,25 +5819,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>33147.850280398205</v>
+        <v>27030.37306041598</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>25.0</v>
+        <v>38.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.0398364051627979</v>
+        <v>0.03581526861451461</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>34.361877129866315</v>
+        <v>43.987451662650074</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>-9.361877129866315</v>
+        <v>23.089811224216586</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>24.77189615807332</v>
+        <v>-14.910188775783414</v>
       </c>
     </row>
     <row r="31">
@@ -5632,25 +5845,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>29833.06525235839</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.04890666434812851</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>16.0</v>
+        <v>43.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.025495299304190654</v>
+        <v>0.04052780395852969</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>30.92568941687969</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>-14.925689416879688</v>
+        <v>19.241509353513823</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>19.360800604506206</v>
+        <v>-23.758490646486177</v>
       </c>
     </row>
     <row r="32">
@@ -5658,25 +5871,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>23203.495196278745</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>37.0</v>
+        <v>36.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.05895787964094089</v>
+        <v>0.033930254476908575</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>24.05331399090642</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>12.946686009093579</v>
+        <v>20.45097565573469</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>17.474363622528678</v>
+        <v>-15.549024344265309</v>
       </c>
     </row>
     <row r="33">
@@ -5684,55 +5897,84 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>22098.566853598808</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>28.0</v>
+        <v>45.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.04461677378233364</v>
+        <v>0.04241281809613572</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>22.907918086577546</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>5.092081913422454</v>
+        <v>21.935320663005758</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>15.478711867910347</v>
+        <v>-23.064679336994242</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="A34" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B34" t="n" s="3">
-        <v>610000.0</v>
-      </c>
-      <c r="C34" t="n" s="3">
+      <c r="B34" t="n" s="6">
+        <v>25949.158137999337</v>
+      </c>
+      <c r="C34" t="n" s="5">
+        <v>0.03961703532518983</v>
+      </c>
+      <c r="D34" t="n" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="E34" t="n" s="5">
+        <v>0.043355325164938736</v>
+      </c>
+      <c r="F34" t="n" s="2">
+        <v>42.22795359614406</v>
+      </c>
+      <c r="G34" t="n" s="2">
+        <v>23.529617152296904</v>
+      </c>
+      <c r="H34" t="n" s="2">
+        <v>-22.470382847703096</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" t="n" s="3">
+        <v>655000.0</v>
+      </c>
+      <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="D34" t="n" s="3">
-        <v>627.56666666667</v>
-      </c>
-      <c r="E34" t="n" s="3">
+      <c r="D35" t="n" s="3">
+        <v>1061.0</v>
+      </c>
+      <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="F34" t="n" s="3">
-        <v>627.5303448964706</v>
-      </c>
-      <c r="G34" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H34" t="n" s="3">
-        <v>470.8712183944148</v>
-      </c>
-    </row>
-    <row r="35"/>
-    <row r="36"/>
+      <c r="F35" t="n" s="3">
+        <v>1060.9773341031196</v>
+      </c>
+      <c r="G35" t="n" s="3">
+        <v>588.9551134405531</v>
+      </c>
+      <c r="H35" t="n" s="3">
+        <v>-472.0448865594469</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
     <row r="37"/>
     <row r="38"/>
     <row r="39"/>
@@ -5764,38 +6006,48 @@
     <col min="1" max="1" width="11.3046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="13.98046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.44921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.65234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="18.40625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.578125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="31.08984375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="F1" t="s" s="3">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s" s="3">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s" s="3">
+        <v>41</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="4">
         <v>0</v>
       </c>
       <c r="B2" t="s" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="4">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3"/>
@@ -5804,25 +6056,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>59434.27216015302</v>
+        <v>28821.393199075603</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.04661511541972786</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>50.6</v>
+        <v>29.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.041752619853123195</v>
+        <v>0.027992277992277992</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>56.9226392847022</v>
+        <v>30.924712482755833</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>-6.322639284702198</v>
+        <v>27.518086179468014</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>44.32719997167903</v>
+        <v>-1.481913820531986</v>
       </c>
     </row>
     <row r="5">
@@ -5830,25 +6082,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>37986.81150284746</v>
+        <v>28821.393199075603</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.02979357764929212</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.026404818879445496</v>
+        <v>0.026061776061776062</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>36.38152685585095</v>
+        <v>30.924712482755833</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>-4.38152685585095</v>
+        <v>24.505751301833943</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>33.452924323195965</v>
+        <v>-2.494248698166057</v>
       </c>
     </row>
     <row r="6">
@@ -5856,25 +6108,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>31698.555623179585</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.024861612253474184</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>31.0</v>
+        <v>43.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.025579668289462825</v>
+        <v>0.041505791505791506</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>30.35900637804116</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.6409936219588417</v>
+        <v>36.96216309313159</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>24.28034829909385</v>
+        <v>-6.037836906868407</v>
       </c>
     </row>
     <row r="7">
@@ -5882,25 +6134,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>34861.62131026388</v>
+        <v>44833.278309673165</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.027342448086481473</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>43.0</v>
+        <v>53.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.03548147536925489</v>
+        <v>0.05115830115830116</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>33.38840407394548</v>
+        <v>48.105108306509074</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>9.61159592605452</v>
+        <v>33.379927022431616</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>33.55668649541432</v>
+        <v>-19.620072977568384</v>
       </c>
     </row>
     <row r="8">
@@ -5908,25 +6160,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>34411.27244272486</v>
+        <v>1120.831957741829</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.026989233288411657</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>62.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.05115933657892565</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>32.95708649895911</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>29.042913501040893</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>45.800622817179594</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -5934,25 +6186,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>54200.06357866365</v>
+        <v>35226.14724331463</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.04250985378718718</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>67.0</v>
+        <v>39.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.05528508952883901</v>
+        <v>0.037644787644787646</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>51.909623120860516</v>
+        <v>37.796870812257126</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>15.090376879139484</v>
+        <v>33.05426919782253</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>53.313004085788116</v>
+        <v>-5.945730802177472</v>
       </c>
     </row>
     <row r="10">
@@ -5960,25 +6212,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>1616.6369603964702</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.0</v>
+        <v>0.0222007722007722</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>0.0</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>0.0</v>
+        <v>27.518086179468014</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>0.0</v>
+        <v>4.518086179468014</v>
       </c>
     </row>
     <row r="11">
@@ -5986,25 +6238,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>40415.92400991175</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03169876392934255</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>41.0</v>
+        <v>24.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.03383117418928954</v>
+        <v>0.023166023166023165</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>38.70798749877748</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>2.2920125012225228</v>
+        <v>29.472033127122547</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>37.35438199860592</v>
+        <v>5.472033127122547</v>
       </c>
     </row>
     <row r="12">
@@ -6012,25 +6264,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>48499.1088118941</v>
+        <v>28821.393199075603</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>32.0</v>
+        <v>43.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.026404818879445496</v>
+        <v>0.041505791505791506</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>46.44958499853296</v>
+        <v>30.924712482755833</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>-14.449584998532963</v>
+        <v>33.29851256627934</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>33.20389510987193</v>
+        <v>-9.701487433720658</v>
       </c>
     </row>
     <row r="13">
@@ -6038,25 +6290,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>60046.51567186889</v>
+        <v>38428.524265434135</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.04709530640930893</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>42.0</v>
+        <v>59.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.03465632477927221</v>
+        <v>0.05694980694980695</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>57.50900999818367</v>
+        <v>41.23294997700777</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>-15.509009998183672</v>
+        <v>38.91611004078613</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>35.777196980887005</v>
+        <v>-20.08388995921387</v>
       </c>
     </row>
     <row r="14">
@@ -6064,25 +6316,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>1616.6369603964702</v>
+        <v>49636.843842852424</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.001267950557173702</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>0.0</v>
+        <v>57.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.0</v>
+        <v>0.05501930501930502</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>0.0</v>
+        <v>53.259227053635044</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>0.0</v>
+        <v>35.49670288239069</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>0.0</v>
+        <v>-21.503297117609307</v>
       </c>
     </row>
     <row r="15">
@@ -6090,25 +6342,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>73903.40390383864</v>
+        <v>1120.831957741829</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.05796345404222638</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>67.2</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.05545011964683554</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>70.78031999776452</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>-3.5803199977645193</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>43.82914154503094</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -6116,25 +6368,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>76212.88527583359</v>
+        <v>40029.71277649389</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.05977481198104595</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>62.0</v>
+        <v>37.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.05115933657892565</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>72.99220499769466</v>
+        <v>42.9509895593831</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>-10.992204997694657</v>
+        <v>37.93913656695886</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>50.68090365051606</v>
+        <v>0.939136566958858</v>
       </c>
     </row>
     <row r="17">
@@ -6142,25 +6394,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>3233.2739207929403</v>
+        <v>33624.95873225487</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.0</v>
+        <v>0.029922779922779922</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>0.0</v>
+        <v>36.07883122988181</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>0.0</v>
+        <v>31.26315116247254</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>0.0</v>
+        <v>0.2631511624725391</v>
       </c>
     </row>
     <row r="18">
@@ -6168,25 +6420,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>50808.59018388906</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.039849874654030636</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>48.0</v>
+        <v>32.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.03960722831916825</v>
+        <v>0.03088803088803089</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>48.66146999846311</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>-0.6614699984631116</v>
+        <v>29.960519864036183</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>47.5230748760042</v>
+        <v>-2.0394801359638173</v>
       </c>
     </row>
     <row r="19">
@@ -6194,25 +6446,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>36951.70195191932</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>33.0</v>
+        <v>35.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.02722996946942817</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>35.39015999888226</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>-2.390159998882261</v>
+        <v>31.670223443233898</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>25.964754228105132</v>
+        <v>-3.3297765567661024</v>
       </c>
     </row>
     <row r="20">
@@ -6220,25 +6472,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>34642.22057992435</v>
+        <v>38428.524265434135</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>29.0</v>
+        <v>55.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.02392936710949748</v>
+        <v>0.05308880308880309</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>33.17827499895212</v>
+        <v>41.23294997700777</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>-4.178274998952119</v>
+        <v>36.96216309313159</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>24.07282395465715</v>
+        <v>-18.037836906868407</v>
       </c>
     </row>
     <row r="21">
@@ -6246,25 +6498,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>34642.22057992435</v>
+        <v>44833.278309673165</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.03630662595923756</v>
+        <v>0.04343629343629344</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>33.17827499895212</v>
+        <v>48.105108306509074</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>10.82172500104788</v>
+        <v>37.77630765465432</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>29.631017646486686</v>
+        <v>-7.2236923453456825</v>
       </c>
     </row>
     <row r="22">
@@ -6272,25 +6524,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>46189.627439899145</v>
+        <v>1120.831957741829</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>75.9</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.06262892977968479</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>44.23769999860283</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>31.662300001397178</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>41.48411645289624</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -6298,25 +6550,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>69284.4411598487</v>
+        <v>40029.71277649389</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>52.0</v>
+        <v>29.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.04290783067909893</v>
+        <v>0.027992277992277992</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>66.35654999790424</v>
+        <v>42.9509895593831</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>-14.356549997904239</v>
+        <v>32.40295354860435</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>43.144311208389844</v>
+        <v>3.4029535486043514</v>
       </c>
     </row>
     <row r="24">
@@ -6324,25 +6576,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>3233.2739207929403</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.002535901114347404</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0</v>
+        <v>0.0222007722007722</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>0.0</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>0.0</v>
+        <v>25.401310319508937</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>0.0</v>
+        <v>2.401310319508937</v>
       </c>
     </row>
     <row r="25">
@@ -6350,25 +6602,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>46189.627439899145</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>43.0</v>
+        <v>32.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.03548147536925489</v>
+        <v>0.03088803088803089</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>44.23769999860283</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>-1.237699998602828</v>
+        <v>25.88979705642257</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>41.55674997344909</v>
+        <v>-6.1102029435774305</v>
       </c>
     </row>
     <row r="26">
@@ -6376,25 +6628,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>36951.70195191932</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.02898172702111319</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>40.0</v>
+        <v>43.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.03300602359930687</v>
+        <v>0.041505791505791506</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>35.39015999888226</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>4.609840001117739</v>
+        <v>30.693249969406633</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>32.58132207656183</v>
+        <v>-12.306750030593367</v>
       </c>
     </row>
     <row r="27">
@@ -6402,25 +6654,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>34642.22057992435</v>
+        <v>38428.524265434135</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.027170369082293613</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>29.0</v>
+        <v>55.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.02392936710949748</v>
+        <v>0.05308880308880309</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>33.17827499895212</v>
+        <v>41.23294997700777</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>-4.178274998952119</v>
+        <v>35.65953179469524</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>25.940543054587447</v>
+        <v>-19.34046820530476</v>
       </c>
     </row>
     <row r="28">
@@ -6428,25 +6680,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>39261.18332391427</v>
+        <v>44833.278309673165</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.030793084959932764</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>35.8</v>
+        <v>61.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.02954039112137965</v>
+        <v>0.05888030888030888</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>37.6020449988124</v>
+        <v>48.105108306509074</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>-1.8020449988124057</v>
+        <v>36.14801853160887</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>31.917244174364395</v>
+        <v>-24.85198146839113</v>
       </c>
     </row>
     <row r="29">
@@ -6454,25 +6706,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>57737.03429987393</v>
+        <v>1120.831957741829</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.04528394847048935</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>60.5</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.049921610693951644</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>55.29712499825352</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>5.202875001746477</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>43.68387450392526</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -6480,25 +6732,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>69284.4411598487</v>
+        <v>40029.71277649389</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.054340738164587225</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>66.0</v>
+        <v>31.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.05445993893885634</v>
+        <v>0.029922779922779922</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>66.35654999790424</v>
+        <v>42.9509895593831</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>-0.3565499979042386</v>
+        <v>34.19407158395434</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>51.777323936956535</v>
+        <v>3.19407158395434</v>
       </c>
     </row>
     <row r="31">
@@ -6506,25 +6758,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>62355.99704386385</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.04890666434812851</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>52.0</v>
+        <v>31.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.04290783067909893</v>
+        <v>0.029922779922779922</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>59.72089499811382</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>-7.72089499811382</v>
+        <v>28.495059653295282</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>40.467247165156415</v>
+        <v>-2.5049403467047178</v>
       </c>
     </row>
     <row r="32">
@@ -6532,25 +6784,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>48499.1088118941</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03803851671521106</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.020628764749566795</v>
+        <v>0.027992277992277992</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>46.44958499853296</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>-21.449584998532963</v>
+        <v>30.28617768864527</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>36.52428462085912</v>
+        <v>1.286177688645271</v>
       </c>
     </row>
     <row r="33">
@@ -6558,55 +6810,84 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>46189.627439899145</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03622715877639149</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>48.9</v>
+        <v>35.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.04034986385015265</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>44.23769999860283</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>4.6623000013971705</v>
+        <v>32.48436800475662</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>32.35304529768146</v>
+        <v>-2.515631995243382</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="3">
+      <c r="A34" t="s" s="1">
         <v>31</v>
       </c>
-      <c r="B34" t="n" s="3">
-        <v>1275000.0</v>
-      </c>
-      <c r="C34" t="n" s="3">
+      <c r="B34" t="n" s="6">
+        <v>38428.524265434135</v>
+      </c>
+      <c r="C34" t="n" s="5">
+        <v>0.03961703532518983</v>
+      </c>
+      <c r="D34" t="n" s="2">
+        <v>35.0</v>
+      </c>
+      <c r="E34" t="n" s="5">
+        <v>0.033783783783783786</v>
+      </c>
+      <c r="F34" t="n" s="2">
+        <v>41.23294997700777</v>
+      </c>
+      <c r="G34" t="n" s="2">
+        <v>34.84538723317252</v>
+      </c>
+      <c r="H34" t="n" s="2">
+        <v>-0.15461276682748348</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="3">
+        <v>32</v>
+      </c>
+      <c r="B35" t="n" s="3">
+        <v>970000.0</v>
+      </c>
+      <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="D34" t="n" s="3">
-        <v>1211.9</v>
-      </c>
-      <c r="E34" t="n" s="3">
+      <c r="D35" t="n" s="3">
+        <v>1036.0</v>
+      </c>
+      <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
-      <c r="F34" t="n" s="3">
-        <v>1211.8298586817266</v>
-      </c>
-      <c r="G34" t="n" s="3">
-        <v>0.0</v>
-      </c>
-      <c r="H34" t="n" s="3">
-        <v>984.1980384473425</v>
-      </c>
-    </row>
-    <row r="35"/>
-    <row r="36"/>
+      <c r="F35" t="n" s="3">
+        <v>1035.9778681723205</v>
+      </c>
+      <c r="G35" t="n" s="3">
+        <v>872.1930687592924</v>
+      </c>
+      <c r="H35" t="n" s="3">
+        <v>-163.80693124070763</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="G36" t="s" s="4">
+        <v>43</v>
+      </c>
+    </row>
     <row r="37"/>
     <row r="38"/>
     <row r="39"/>

--- a/SampleOutputReport.xlsx
+++ b/SampleOutputReport.xlsx
@@ -588,19 +588,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>241.0</v>
+        <v>242.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.03451485857500895</v>
+        <v>0.03564327270049341</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>208.42838311857395</v>
+        <v>202.66731216377482</v>
       </c>
       <c r="G4" t="n" s="2">
         <v>208.5720389179112</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-32.427961082088814</v>
+        <v>-33.427961082088814</v>
       </c>
     </row>
     <row r="5">
@@ -614,19 +614,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>214.5</v>
+        <v>207.5</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.030719656283566057</v>
+        <v>0.03056189704691067</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>208.42838311857395</v>
+        <v>202.66731216377482</v>
       </c>
       <c r="G5" t="n" s="2">
         <v>208.5720389179112</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-5.927961082088814</v>
+        <v>1.0720389179111862</v>
       </c>
     </row>
     <row r="6">
@@ -640,19 +640,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>291.0</v>
+        <v>284.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.04167561761546724</v>
+        <v>0.04182929523528978</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G6" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-59.253290091209834</v>
+        <v>-52.253290091209834</v>
       </c>
     </row>
     <row r="7">
@@ -669,10 +669,10 @@
         <v>231.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.03308270676691729</v>
+        <v>0.03402312394138007</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>324.2219292955595</v>
+        <v>315.260263365872</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>324.4453938723063</v>
@@ -718,19 +718,19 @@
         <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>251.0</v>
+        <v>238.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.03594701038310061</v>
+        <v>0.03505412769717947</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>254.74580158936814</v>
+        <v>247.70449264461368</v>
       </c>
       <c r="G9" t="n" s="2">
         <v>254.9213808996692</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>3.9213808996692023</v>
+        <v>16.921380899669202</v>
       </c>
     </row>
     <row r="10">
@@ -744,19 +744,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>233.0</v>
+        <v>223.75</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.03336913712853563</v>
+        <v>0.03295529862287355</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G10" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-1.2532900912098341</v>
+        <v>7.996709908790166</v>
       </c>
     </row>
     <row r="11">
@@ -770,19 +770,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>246.0</v>
+        <v>241.25</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.03523093447905478</v>
+        <v>0.03553280801237205</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G11" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-14.253290091209834</v>
+        <v>-9.503290091209834</v>
       </c>
     </row>
     <row r="12">
@@ -796,19 +796,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>261.5</v>
+        <v>244.5</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03745076978159685</v>
+        <v>0.03601148832756462</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>208.42838311857395</v>
+        <v>202.66731216377482</v>
       </c>
       <c r="G12" t="n" s="2">
         <v>208.5720389179112</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-52.927961082088814</v>
+        <v>-35.927961082088814</v>
       </c>
     </row>
     <row r="13">
@@ -822,19 +822,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>309.0</v>
+        <v>300.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.044253490870032226</v>
+        <v>0.04418587524854555</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>277.9045108247652</v>
+        <v>270.2230828850331</v>
       </c>
       <c r="G13" t="n" s="2">
         <v>278.0960518905482</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-30.90394810945179</v>
+        <v>-21.90394810945179</v>
       </c>
     </row>
     <row r="14">
@@ -848,19 +848,19 @@
         <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>251.0</v>
+        <v>263.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.03594701038310061</v>
+        <v>0.0387362839678916</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>358.9599931486551</v>
+        <v>349.03814872650105</v>
       </c>
       <c r="G14" t="n" s="2">
         <v>359.2074003586248</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>108.2074003586248</v>
+        <v>96.2074003586248</v>
       </c>
     </row>
     <row r="15">
@@ -900,19 +900,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>306.0</v>
+        <v>305.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.04382384532760473</v>
+        <v>0.04492230650268798</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>289.4838654424638</v>
+        <v>281.4823780052429</v>
       </c>
       <c r="G16" t="n" s="2">
         <v>289.68338738598777</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-16.31661261401223</v>
+        <v>-15.316612614012229</v>
       </c>
     </row>
     <row r="17">
@@ -926,19 +926,19 @@
         <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>257.0</v>
+        <v>248.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.036806301467955604</v>
+        <v>0.03652699020546432</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>243.16644697166961</v>
+        <v>236.445197524404</v>
       </c>
       <c r="G17" t="n" s="2">
         <v>243.33404540422973</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-13.665954595770273</v>
+        <v>-4.665954595770273</v>
       </c>
     </row>
     <row r="18">
@@ -952,19 +952,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>257.0</v>
+        <v>256.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.036806301467955604</v>
+        <v>0.0377052802120922</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G18" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-25.253290091209834</v>
+        <v>-24.253290091209834</v>
       </c>
     </row>
     <row r="19">
@@ -978,19 +978,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>259.5</v>
+        <v>262.5</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.037164339419978515</v>
+        <v>0.03866264084247736</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G19" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-27.753290091209834</v>
+        <v>-30.753290091209834</v>
       </c>
     </row>
     <row r="20">
@@ -1004,19 +1004,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>291.0</v>
+        <v>278.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.04167561761546724</v>
+        <v>0.04094557773031887</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>277.9045108247652</v>
+        <v>270.2230828850331</v>
       </c>
       <c r="G20" t="n" s="2">
         <v>278.0960518905482</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>-12.90394810945179</v>
+        <v>0.0960518905482104</v>
       </c>
     </row>
     <row r="21">
@@ -1030,19 +1030,19 @@
         <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>265.0</v>
+        <v>271.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.03795202291442893</v>
+        <v>0.03991457397451948</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>324.2219292955595</v>
+        <v>315.260263365872</v>
       </c>
       <c r="G21" t="n" s="2">
         <v>324.4453938723063</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>59.44539387230628</v>
+        <v>53.44539387230628</v>
       </c>
     </row>
     <row r="22">
@@ -1082,19 +1082,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>256.0</v>
+        <v>239.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.036663086287146436</v>
+        <v>0.03520141394800795</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>289.4838654424638</v>
+        <v>281.4823780052429</v>
       </c>
       <c r="G23" t="n" s="2">
         <v>289.68338738598777</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>33.68338738598777</v>
+        <v>50.68338738598777</v>
       </c>
     </row>
     <row r="24">
@@ -1108,19 +1108,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>220.0</v>
+        <v>203.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.03150733977801647</v>
+        <v>0.02989910891818249</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G24" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>11.746709908790166</v>
+        <v>28.746709908790166</v>
       </c>
     </row>
     <row r="25">
@@ -1134,19 +1134,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>223.0</v>
+        <v>206.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.031936985320443964</v>
+        <v>0.030340967670667945</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G25" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>8.746709908790166</v>
+        <v>25.746709908790166</v>
       </c>
     </row>
     <row r="26">
@@ -1160,19 +1160,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>252.5</v>
+        <v>235.5</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.03616183315431436</v>
+        <v>0.03468591207010826</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G26" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-20.753290091209834</v>
+        <v>-3.753290091209834</v>
       </c>
     </row>
     <row r="27">
@@ -1186,19 +1186,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>283.0</v>
+        <v>266.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.04052989616899391</v>
+        <v>0.039178142720377056</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>277.9045108247652</v>
+        <v>270.2230828850331</v>
       </c>
       <c r="G27" t="n" s="2">
         <v>278.0960518905482</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>-4.90394810945179</v>
+        <v>12.09605189054821</v>
       </c>
     </row>
     <row r="28">
@@ -1212,19 +1212,19 @@
         <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>254.0</v>
+        <v>258.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.036376655925528106</v>
+        <v>0.03799985271374917</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>324.2219292955595</v>
+        <v>315.260263365872</v>
       </c>
       <c r="G28" t="n" s="2">
         <v>324.4453938723063</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>70.44539387230628</v>
+        <v>66.44539387230628</v>
       </c>
     </row>
     <row r="29">
@@ -1264,19 +1264,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>283.0</v>
+        <v>272.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.04052989616899391</v>
+        <v>0.04006186022534797</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>289.4838654424638</v>
+        <v>281.4823780052429</v>
       </c>
       <c r="G30" t="n" s="2">
         <v>289.68338738598777</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>6.683387385987771</v>
+        <v>17.68338738598777</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>248.0</v>
+        <v>251.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.03551736484067311</v>
+        <v>0.036968848957949774</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G31" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-16.253290091209834</v>
+        <v>-19.253290091209834</v>
       </c>
     </row>
     <row r="32">
@@ -1316,19 +1316,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>251.0</v>
+        <v>242.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.03594701038310061</v>
+        <v>0.03564327270049341</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G32" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-19.253290091209834</v>
+        <v>-10.253290091209834</v>
       </c>
     </row>
     <row r="33">
@@ -1342,19 +1342,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>263.5</v>
+        <v>254.5</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.03773720014321518</v>
+        <v>0.03748435083584947</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G33" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-31.753290091209834</v>
+        <v>-22.753290091209834</v>
       </c>
     </row>
     <row r="34">
@@ -1368,19 +1368,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>284.0</v>
+        <v>267.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.04067311134980308</v>
+        <v>0.039325428971205535</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>277.9045108247652</v>
+        <v>270.2230828850331</v>
       </c>
       <c r="G34" t="n" s="2">
         <v>278.0960518905482</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-5.90394810945179</v>
+        <v>11.09605189054821</v>
       </c>
     </row>
     <row r="35">
@@ -1394,19 +1394,19 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>6982.5</v>
+        <v>6789.5</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>6982.3508344722295</v>
+        <v>6789.354957486456</v>
       </c>
       <c r="G35" t="n" s="3">
         <v>6987.312572087659</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>4.812572087658737</v>
+        <v>197.81257208765874</v>
       </c>
     </row>
     <row r="36"/>
@@ -1500,16 +1500,16 @@
         <v>36.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.036566785170137124</v>
+        <v>0.03748047891723061</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>29.387431891190268</v>
+        <v>28.67102928541214</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>24.113786858296713</v>
+        <v>24.256471987635745</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-11.886213141703287</v>
+        <v>-11.743528012364255</v>
       </c>
     </row>
     <row r="5">
@@ -1526,16 +1526,16 @@
         <v>36.5</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.03707465718638903</v>
+        <v>0.03800104112441437</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>29.387431891190268</v>
+        <v>28.67102928541214</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>21.474111965524585</v>
+        <v>20.47531606015135</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-15.025888034475415</v>
+        <v>-16.02468393984865</v>
       </c>
     </row>
     <row r="6">
@@ -1552,16 +1552,16 @@
         <v>45.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.0457084814626714</v>
+        <v>0.04685059864653826</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>32.389524359960674</v>
+        <v>31.390728454587435</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-12.610475640039326</v>
+        <v>-13.609271545412565</v>
       </c>
     </row>
     <row r="7">
@@ -1578,10 +1578,10 @@
         <v>38.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.038598273235144746</v>
+        <v>0.03956272774596564</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>45.713782941851534</v>
+        <v>44.59937888841889</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>29.25045151450193</v>
@@ -1630,16 +1630,16 @@
         <v>38.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.038598273235144746</v>
+        <v>0.03956272774596564</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>35.91797231145477</v>
+        <v>35.04236912661484</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>28.96508125582386</v>
+        <v>27.110174574416423</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-9.034918744176139</v>
+        <v>-10.889825425583577</v>
       </c>
     </row>
     <row r="10">
@@ -1656,16 +1656,16 @@
         <v>36.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.036566785170137124</v>
+        <v>0.03748047891723061</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>24.113786858296713</v>
+        <v>22.79394941191065</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-11.886213141703287</v>
+        <v>-13.20605058808935</v>
       </c>
     </row>
     <row r="11">
@@ -1682,16 +1682,16 @@
         <v>30.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.03047232097511427</v>
+        <v>0.031233732431025507</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>25.826008410365116</v>
+        <v>25.148254046004705</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-4.173991589634884</v>
+        <v>-4.8517459539952945</v>
       </c>
     </row>
     <row r="12">
@@ -1705,19 +1705,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>43.5</v>
+        <v>35.5</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.04418486541391569</v>
+        <v>0.03695991671004685</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>29.387431891190268</v>
+        <v>28.67102928541214</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>29.17910894983241</v>
+        <v>26.753461751068837</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-14.320891050167589</v>
+        <v>-8.746538248931163</v>
       </c>
     </row>
     <row r="13">
@@ -1734,16 +1734,16 @@
         <v>38.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.038598273235144746</v>
+        <v>0.03956272774596564</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>39.18324252158702</v>
+        <v>38.228039047216186</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>34.101745912029074</v>
+        <v>32.817579747977774</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-3.898254087970926</v>
+        <v>-5.182420252022226</v>
       </c>
     </row>
     <row r="14">
@@ -1760,16 +1760,16 @@
         <v>39.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.03961401726764855</v>
+        <v>0.04060385216033316</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>50.6116882570499</v>
+        <v>49.3778837693209</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>31.105358195909368</v>
+        <v>32.817579747977774</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-7.894641804090632</v>
+        <v>-6.182420252022226</v>
       </c>
     </row>
     <row r="15">
@@ -1812,16 +1812,16 @@
         <v>46.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.046724225495175215</v>
+        <v>0.04789172306090578</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>40.815877626653155</v>
+        <v>39.82087400751686</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>33.245635135994874</v>
+        <v>33.10295000665584</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-12.754364864005126</v>
+        <v>-12.897049993344162</v>
       </c>
     </row>
     <row r="17">
@@ -1838,16 +1838,16 @@
         <v>39.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.03961401726764855</v>
+        <v>0.04060385216033316</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>34.28533720638865</v>
+        <v>33.449534166314166</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>27.39554483309449</v>
+        <v>26.111378669043184</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-11.60445516690551</v>
+        <v>-12.888621330956816</v>
       </c>
     </row>
     <row r="18">
@@ -1864,16 +1864,16 @@
         <v>29.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.029456576942610464</v>
+        <v>0.03019260801665799</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>26.25406379838222</v>
+        <v>26.111378669043184</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-2.7459362016177806</v>
+        <v>-2.8886213309568163</v>
       </c>
     </row>
     <row r="19">
@@ -1890,16 +1890,16 @@
         <v>33.5</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.0340274250888776</v>
+        <v>0.034877667881311816</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>27.752257656442072</v>
+        <v>28.180313044459176</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-5.747742343557928</v>
+        <v>-5.319686955540824</v>
       </c>
     </row>
     <row r="20">
@@ -1916,16 +1916,16 @@
         <v>30.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.03047232097511427</v>
+        <v>0.031233732431025507</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>39.18324252158702</v>
+        <v>38.228039047216186</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>32.389524359960674</v>
+        <v>31.676098713265503</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>2.3895243599606744</v>
+        <v>1.6760987132655032</v>
       </c>
     </row>
     <row r="21">
@@ -1942,16 +1942,16 @@
         <v>44.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.0446927374301676</v>
+        <v>0.045809474232170744</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>45.713782941851534</v>
+        <v>44.59937888841889</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>33.10295000665584</v>
+        <v>33.959060782690045</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-10.897049993344162</v>
+        <v>-10.040939217309955</v>
       </c>
     </row>
     <row r="22">
@@ -1994,16 +1994,16 @@
         <v>30.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.03047232097511427</v>
+        <v>0.031233732431025507</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>40.815877626653155</v>
+        <v>39.82087400751686</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>28.394340738467726</v>
+        <v>27.110174574416423</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-1.6056592615322742</v>
+        <v>-2.8898254255835774</v>
       </c>
     </row>
     <row r="24">
@@ -2020,16 +2020,16 @@
         <v>30.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.03047232097511427</v>
+        <v>0.031233732431025507</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>22.25888017688927</v>
+        <v>20.974714012837968</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-7.741119823110729</v>
+        <v>-9.025285987162032</v>
       </c>
     </row>
     <row r="25">
@@ -2046,16 +2046,16 @@
         <v>38.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.038598273235144746</v>
+        <v>0.03956272774596564</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>22.686935564906374</v>
+        <v>21.402769400855068</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-15.313064435093626</v>
+        <v>-16.597230599144932</v>
       </c>
     </row>
     <row r="26">
@@ -2072,16 +2072,16 @@
         <v>33.5</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.0340274250888776</v>
+        <v>0.034877667881311816</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>26.89614688040787</v>
+        <v>25.611980716356566</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-6.603853119592131</v>
+        <v>-7.888019283643434</v>
       </c>
     </row>
     <row r="27">
@@ -2098,16 +2098,16 @@
         <v>31.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.03148806500761808</v>
+        <v>0.032274856845393024</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>39.18324252158702</v>
+        <v>38.228039047216186</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>31.2480433252484</v>
+        <v>29.963877161197097</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>0.24804332524839978</v>
+        <v>-1.0361228388029033</v>
       </c>
     </row>
     <row r="28">
@@ -2124,16 +2124,16 @@
         <v>43.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.04367699339766379</v>
+        <v>0.04476834981780323</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>45.713782941851534</v>
+        <v>44.59937888841889</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>31.676098713265503</v>
+        <v>32.24683923062164</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-11.323901286734497</v>
+        <v>-10.753160769378361</v>
       </c>
     </row>
     <row r="29">
@@ -2173,19 +2173,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>38.0</v>
+        <v>30.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.038598273235144746</v>
+        <v>0.031233732431025507</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>40.815877626653155</v>
+        <v>39.82087400751686</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>29.963877161197097</v>
+        <v>28.394340738467726</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-8.036122838802903</v>
+        <v>-1.6056592615322742</v>
       </c>
     </row>
     <row r="31">
@@ -2202,16 +2202,16 @@
         <v>30.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.03047232097511427</v>
+        <v>0.031233732431025507</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>24.969897634330913</v>
+        <v>25.397953022348016</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-5.030102365669087</v>
+        <v>-4.602046977651984</v>
       </c>
     </row>
     <row r="32">
@@ -2228,16 +2228,16 @@
         <v>34.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.03453529710512951</v>
+        <v>0.035398230088495575</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>26.539434057060287</v>
+        <v>25.25526789300898</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-7.460565942939713</v>
+        <v>-8.74473210699102</v>
       </c>
     </row>
     <row r="33">
@@ -2254,16 +2254,16 @@
         <v>34.5</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.03504316912138141</v>
+        <v>0.03591879229567933</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>28.465683303137244</v>
+        <v>27.181517139085937</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-6.034316696862756</v>
+        <v>-7.318482860914063</v>
       </c>
     </row>
     <row r="34">
@@ -2277,19 +2277,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>41.0</v>
+        <v>33.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.04164550533265617</v>
+        <v>0.03435710567412806</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>39.18324252158702</v>
+        <v>38.228039047216186</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>30.534617678553232</v>
+        <v>28.108970479789658</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-10.465382321446768</v>
+        <v>-4.891029520210342</v>
       </c>
     </row>
     <row r="35">
@@ -2303,19 +2303,19 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>984.5</v>
+        <v>960.5</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>984.4789683548734</v>
+        <v>960.4794810613063</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>764.2928953045346</v>
+        <v>743.6035515503746</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-220.20710469546543</v>
+        <v>-216.89644844962538</v>
       </c>
     </row>
     <row r="36">
@@ -2413,16 +2413,16 @@
         <v>28.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.03160270880361174</v>
+        <v>0.0307776861775213</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>26.447196196642537</v>
+        <v>27.15613627527714</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>52.48294786805755</v>
+        <v>52.79349785544251</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>24.48294786805755</v>
+        <v>24.79349785544251</v>
       </c>
     </row>
     <row r="5">
@@ -2439,16 +2439,16 @@
         <v>12.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.013544018058690745</v>
+        <v>0.013190436933223413</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>26.447196196642537</v>
+        <v>27.15613627527714</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>46.73777310143587</v>
+        <v>44.563923189741175</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>34.73777310143587</v>
+        <v>32.563923189741175</v>
       </c>
     </row>
     <row r="6">
@@ -2465,16 +2465,16 @@
         <v>38.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.04288939051918736</v>
+        <v>0.041769716955207474</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>70.49484713638499</v>
+        <v>68.3209972246903</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>32.49484713638499</v>
+        <v>30.320997224690302</v>
       </c>
     </row>
     <row r="7">
@@ -2491,10 +2491,10 @@
         <v>38.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.04288939051918736</v>
+        <v>0.041769716955207474</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>41.14008297255506</v>
+        <v>42.24287865043111</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>63.662747413915966</v>
@@ -2543,16 +2543,16 @@
         <v>25.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.028216704288939052</v>
+        <v>0.027480076944215445</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>32.32435090700754</v>
+        <v>33.19083322533873</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>63.041647439146054</v>
+        <v>59.00449760314163</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>38.041647439146054</v>
+        <v>34.00449760314163</v>
       </c>
     </row>
     <row r="10">
@@ -2566,19 +2566,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>32.0</v>
+        <v>35.75</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.03611738148984198</v>
+        <v>0.039296510030228084</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>52.48294786805755</v>
+        <v>49.61036048474671</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>20.48294786805755</v>
+        <v>13.860360484746707</v>
       </c>
     </row>
     <row r="11">
@@ -2595,16 +2595,16 @@
         <v>34.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.03837471783295711</v>
+        <v>0.037372904644133</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>56.20954771667702</v>
+        <v>54.73443527659848</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>22.209547716677022</v>
+        <v>20.734435276598482</v>
       </c>
     </row>
     <row r="12">
@@ -2621,16 +2621,16 @@
         <v>28.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03160270880361174</v>
+        <v>0.0307776861775213</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>26.447196196642537</v>
+        <v>27.15613627527714</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>63.507472420223486</v>
+        <v>58.22812263467924</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>35.507472420223486</v>
+        <v>30.228122634679238</v>
       </c>
     </row>
     <row r="13">
@@ -2647,16 +2647,16 @@
         <v>44.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.04966139954853273</v>
+        <v>0.04836493542181918</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>35.262928262190044</v>
+        <v>36.208181700369515</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>74.22144698500446</v>
+        <v>71.42649709853987</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>30.221446985004462</v>
+        <v>27.42649709853987</v>
       </c>
     </row>
     <row r="14">
@@ -2673,16 +2673,16 @@
         <v>42.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.04740406320541761</v>
+        <v>0.046166529266281946</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>45.54794900532881</v>
+        <v>46.768901362977296</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>67.6998972499204</v>
+        <v>71.42649709853987</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>25.699897249920397</v>
+        <v>29.42649709853987</v>
       </c>
     </row>
     <row r="15">
@@ -2725,16 +2725,16 @@
         <v>35.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.039503386004514675</v>
+        <v>0.03847210772190162</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>36.7322169397813</v>
+        <v>37.71685593788492</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>72.35814706069473</v>
+        <v>72.04759707330977</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>37.35814706069473</v>
+        <v>37.047597073309774</v>
       </c>
     </row>
     <row r="17">
@@ -2751,16 +2751,16 @@
         <v>28.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.03160270880361174</v>
+        <v>0.0307776861775213</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>30.855062229416294</v>
+        <v>31.682158987823335</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>59.625597577911535</v>
+        <v>56.830647691446934</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>31.625597577911535</v>
+        <v>28.830647691446934</v>
       </c>
     </row>
     <row r="18">
@@ -2777,16 +2777,16 @@
         <v>36.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.040632054176072234</v>
+        <v>0.03957131079967024</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>57.141197678831894</v>
+        <v>56.830647691446934</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>21.141197678831894</v>
+        <v>20.830647691446934</v>
       </c>
     </row>
     <row r="19">
@@ -2803,16 +2803,16 @@
         <v>34.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.03837471783295711</v>
+        <v>0.037372904644133</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>60.401972546373926</v>
+        <v>61.3336225085288</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>26.401972546373926</v>
+        <v>27.333622508528798</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +2826,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.03837471783295711</v>
+        <v>0.041769716955207474</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>35.262928262190044</v>
+        <v>36.208181700369515</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>70.49484713638499</v>
+        <v>68.94209719946022</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>36.49484713638499</v>
+        <v>30.94209719946022</v>
       </c>
     </row>
     <row r="21">
@@ -2852,19 +2852,19 @@
         <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.045146726862302484</v>
+        <v>0.05056334157735642</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>41.14008297255506</v>
+        <v>42.24287865043111</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>72.04759707330977</v>
+        <v>73.91089699761952</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>32.047597073309774</v>
+        <v>27.910896997619517</v>
       </c>
     </row>
     <row r="22">
@@ -2907,16 +2907,16 @@
         <v>32.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.03611738148984198</v>
+        <v>0.035174498488595766</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>36.7322169397813</v>
+        <v>37.71685593788492</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>61.79944748960623</v>
+        <v>59.00449760314163</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>29.79944748960623</v>
+        <v>27.00449760314163</v>
       </c>
     </row>
     <row r="24">
@@ -2933,16 +2933,16 @@
         <v>28.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.03160270880361174</v>
+        <v>0.0307776861775213</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>48.445798032053126</v>
+        <v>45.65084814558852</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>20.445798032053126</v>
+        <v>17.65084814558852</v>
       </c>
     </row>
     <row r="25">
@@ -2959,16 +2959,16 @@
         <v>32.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.03611738148984198</v>
+        <v>0.035174498488595766</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>49.37744799420799</v>
+        <v>46.58249810774339</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>17.37744799420799</v>
+        <v>14.58249810774339</v>
       </c>
     </row>
     <row r="26">
@@ -2985,16 +2985,16 @@
         <v>28.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.03160270880361174</v>
+        <v>0.0307776861775213</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>58.53867262206419</v>
+        <v>55.74372273559959</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>30.53867262206419</v>
+        <v>27.74372273559959</v>
       </c>
     </row>
     <row r="27">
@@ -3011,16 +3011,16 @@
         <v>36.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.040632054176072234</v>
+        <v>0.03957131079967024</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>35.262928262190044</v>
+        <v>36.208181700369515</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>68.01044723730534</v>
+        <v>65.21549735084075</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>32.01044723730534</v>
+        <v>29.21549735084075</v>
       </c>
     </row>
     <row r="28">
@@ -3034,19 +3034,19 @@
         <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>36.0</v>
+        <v>40.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.040632054176072234</v>
+        <v>0.04396812311074471</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>41.14008297255506</v>
+        <v>42.24287865043111</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>68.94209719946022</v>
+        <v>70.18429714900005</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>32.94209719946022</v>
+        <v>30.184297149000045</v>
       </c>
     </row>
     <row r="29">
@@ -3086,19 +3086,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>28.0</v>
+        <v>34.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.03160270880361174</v>
+        <v>0.037372904644133</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>36.7322169397813</v>
+        <v>37.71685593788492</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>65.21549735084075</v>
+        <v>61.79944748960623</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>37.21549735084075</v>
+        <v>27.79944748960623</v>
       </c>
     </row>
     <row r="31">
@@ -3115,16 +3115,16 @@
         <v>34.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.03837471783295711</v>
+        <v>0.037372904644133</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>54.346247792367286</v>
+        <v>55.27789775452216</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>20.346247792367286</v>
+        <v>21.277897754522158</v>
       </c>
     </row>
     <row r="32">
@@ -3141,16 +3141,16 @@
         <v>36.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.040632054176072234</v>
+        <v>0.03957131079967024</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>57.762297653601806</v>
+        <v>54.9673477671372</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>21.762297653601806</v>
+        <v>18.9673477671372</v>
       </c>
     </row>
     <row r="33">
@@ -3167,16 +3167,16 @@
         <v>36.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.040632054176072234</v>
+        <v>0.03957131079967024</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>61.95472248329871</v>
+        <v>59.1597725968341</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>25.95472248329871</v>
+        <v>23.159772596834102</v>
       </c>
     </row>
     <row r="34">
@@ -3193,16 +3193,16 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.03611738148984198</v>
+        <v>0.035174498488595766</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>35.262928262190044</v>
+        <v>36.208181700369515</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>66.45769730038057</v>
+        <v>61.17834751483632</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>34.45769730038057</v>
+        <v>29.178347514836318</v>
       </c>
     </row>
     <row r="35">
@@ -3216,19 +3216,19 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>886.0</v>
+        <v>909.75</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>885.9810725875252</v>
+        <v>909.7305652217841</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>1663.4610074275165</v>
+        <v>1618.4312592566978</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>777.4610074275165</v>
+        <v>708.6812592566978</v>
       </c>
     </row>
     <row r="36">
@@ -3332,10 +3332,10 @@
         <v>26.506896413790713</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>28.51100681480964</v>
+        <v>28.679710997145794</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>1.5110068148096403</v>
+        <v>1.6797109971457935</v>
       </c>
     </row>
     <row r="5">
@@ -3358,10 +3358,10 @@
         <v>26.506896413790713</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>25.389979441590835</v>
+        <v>24.209050165237773</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>0.3899794415908353</v>
+        <v>-0.7909498347622268</v>
       </c>
     </row>
     <row r="6">
@@ -3384,10 +3384,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>38.295849390306444</v>
+        <v>37.11492011395338</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>6.295849390306444</v>
+        <v>5.1149201139533815</v>
       </c>
     </row>
     <row r="7">
@@ -3462,10 +3462,10 @@
         <v>32.39731783907754</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>34.2469490142388</v>
+        <v>32.05379464386883</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-6.753050985761199</v>
+        <v>-8.946205356131173</v>
       </c>
     </row>
     <row r="10">
@@ -3488,10 +3488,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>28.51100681480964</v>
+        <v>26.95049312820024</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-1.4889931851903597</v>
+        <v>-3.0495068717997604</v>
       </c>
     </row>
     <row r="11">
@@ -3514,10 +3514,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>30.53545700284346</v>
+        <v>29.73411213674674</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>0.5354570028434615</v>
+        <v>-0.2658878632532584</v>
       </c>
     </row>
     <row r="12">
@@ -3540,10 +3540,10 @@
         <v>26.506896413790713</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>34.50000528774303</v>
+        <v>31.63203418802845</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>1.5000052877430292</v>
+        <v>-1.3679658119715512</v>
       </c>
     </row>
     <row r="13">
@@ -3566,10 +3566,10 @@
         <v>35.342528551720946</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>40.32029957834026</v>
+        <v>38.8019619373149</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>17.32029957834026</v>
+        <v>15.8019619373149</v>
       </c>
     </row>
     <row r="14">
@@ -3592,10 +3592,10 @@
         <v>45.650766045972894</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>36.777511749281075</v>
+        <v>38.8019619373149</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-2.222488250718925</v>
+        <v>-0.19803806268510016</v>
       </c>
     </row>
     <row r="15">
@@ -3644,10 +3644,10 @@
         <v>36.81513390804266</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>39.30807448432335</v>
+        <v>39.1393703019872</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-3.691925515676651</v>
+        <v>-3.8606296980128008</v>
       </c>
     </row>
     <row r="17">
@@ -3670,10 +3670,10 @@
         <v>30.924712482755837</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>32.39120300854113</v>
+        <v>30.872865367515764</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-0.6087969914588669</v>
+        <v>-2.1271346324842355</v>
       </c>
     </row>
     <row r="18">
@@ -3696,10 +3696,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>31.041569549851918</v>
+        <v>30.872865367515764</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>6.041569549851918</v>
+        <v>5.8728653675157645</v>
       </c>
     </row>
     <row r="19">
@@ -3722,10 +3722,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>32.81296346438151</v>
+        <v>33.31907601138997</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>1.812963464381511</v>
+        <v>2.319076011389967</v>
       </c>
     </row>
     <row r="20">
@@ -3748,10 +3748,10 @@
         <v>35.342528551720946</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>38.295849390306444</v>
+        <v>37.45232847862568</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>7.295849390306444</v>
+        <v>6.452328478625681</v>
       </c>
     </row>
     <row r="21">
@@ -3774,10 +3774,10 @@
         <v>41.23294997700778</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>39.1393703019872</v>
+        <v>40.15159539600411</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-7.860629698012801</v>
+        <v>-6.848404603995888</v>
       </c>
     </row>
     <row r="22">
@@ -3826,10 +3826,10 @@
         <v>36.81513390804266</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>33.572132284894195</v>
+        <v>32.05379464386883</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-10.427867715105805</v>
+        <v>-11.946205356131173</v>
       </c>
     </row>
     <row r="24">
@@ -3852,10 +3852,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>26.31785244443967</v>
+        <v>24.799514803414304</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-5.682147555560331</v>
+        <v>-7.200485196585696</v>
       </c>
     </row>
     <row r="25">
@@ -3878,10 +3878,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>26.823964991448126</v>
+        <v>25.30562735042276</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>5.8239649914481255</v>
+        <v>4.3056273504227605</v>
       </c>
     </row>
     <row r="26">
@@ -3904,10 +3904,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>31.800738370364602</v>
+        <v>30.282400729339233</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-0.19926162963539795</v>
+        <v>-1.7175992706607666</v>
       </c>
     </row>
     <row r="27">
@@ -3930,10 +3930,10 @@
         <v>35.342528551720946</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>36.946215931617225</v>
+        <v>35.42787829059186</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>4.946215931617225</v>
+        <v>3.427878290591863</v>
       </c>
     </row>
     <row r="28">
@@ -3956,10 +3956,10 @@
         <v>41.23294997700778</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>37.45232847862568</v>
+        <v>38.12714520797029</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-0.5476715213743191</v>
+        <v>0.12714520797028683</v>
       </c>
     </row>
     <row r="29">
@@ -4008,10 +4008,10 @@
         <v>36.81513390804266</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>35.42787829059186</v>
+        <v>33.572132284894195</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-8.572121709408137</v>
+        <v>-10.427867715105805</v>
       </c>
     </row>
     <row r="31">
@@ -4034,10 +4034,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>29.523231908826553</v>
+        <v>30.02934445583501</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-0.4767680911734473</v>
+        <v>0.029344455835008887</v>
       </c>
     </row>
     <row r="32">
@@ -4060,10 +4060,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>31.37897791452422</v>
+        <v>29.860640273498856</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-0.6210220854757793</v>
+        <v>-2.1393597265011444</v>
       </c>
     </row>
     <row r="33">
@@ -4086,10 +4086,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>33.65648437606227</v>
+        <v>32.138146735036905</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>3.6564843760622665</v>
+        <v>2.138146735036905</v>
       </c>
     </row>
     <row r="34">
@@ -4112,10 +4112,10 @@
         <v>35.342528551720946</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>36.10269501993647</v>
+        <v>33.23472392022189</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>3.102695019936469</v>
+        <v>0.2347239202218887</v>
       </c>
     </row>
     <row r="35">
@@ -4138,10 +4138,10 @@
         <v>887.9810298619891</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>903.6639526835967</v>
+        <v>879.2018462448547</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>15.663952683596676</v>
+        <v>-8.798153755145336</v>
       </c>
     </row>
     <row r="36">
@@ -4236,19 +4236,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.04898958971218616</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>14.95490439561841</v>
+        <v>13.788187446518148</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>17.764002656964973</v>
+        <v>17.869115098722162</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-1.2359973430350273</v>
+        <v>-2.130884901277838</v>
       </c>
     </row>
     <row r="5">
@@ -4262,19 +4262,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.05389221556886228</v>
+        <v>0.04898958971218616</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>14.95490439561841</v>
+        <v>13.788187446518148</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>15.819422484456974</v>
+        <v>15.083635392156648</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-11.180577515543026</v>
+        <v>-4.916364607843352</v>
       </c>
     </row>
     <row r="6">
@@ -4288,19 +4288,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.06187624750499002</v>
+        <v>0.05878750765462339</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>23.860524278881947</v>
+        <v>23.124737186581623</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-7.139475721118053</v>
+        <v>-0.8752628134183773</v>
       </c>
     </row>
     <row r="7">
@@ -4317,10 +4317,10 @@
         <v>12.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.023952095808383235</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>23.263184615406416</v>
+        <v>21.448291583472674</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>21.548050560223782</v>
@@ -4366,19 +4366,19 @@
         <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.029940119760479042</v>
+        <v>0.019595835884874464</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>18.278216483533612</v>
+        <v>16.852229101299958</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>21.337825676709404</v>
+        <v>19.971363933865945</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>6.337825676709404</v>
+        <v>11.971363933865945</v>
       </c>
     </row>
     <row r="10">
@@ -4392,19 +4392,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.013972055888223553</v>
+        <v>0.0</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>17.764002656964973</v>
+        <v>16.791712570710974</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>10.764002656964973</v>
+        <v>16.791712570710974</v>
       </c>
     </row>
     <row r="11">
@@ -4418,19 +4418,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>19.0</v>
+        <v>20.25</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.049601959583588484</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>19.025351958051242</v>
+        <v>18.526067859704593</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>0.025351958051242462</v>
+        <v>-1.7239321402954069</v>
       </c>
     </row>
     <row r="12">
@@ -4444,19 +4444,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>14.95490439561841</v>
+        <v>13.788187446518148</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>21.49549433934519</v>
+        <v>19.708582829472974</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>2.495494339345189</v>
+        <v>7.708582829472974</v>
       </c>
     </row>
     <row r="13">
@@ -4470,19 +4470,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.06187624750499002</v>
+        <v>0.05878750765462339</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>19.93987252749121</v>
+        <v>18.38424992869086</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>25.121873579968216</v>
+        <v>24.175861604153514</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-5.8781264200317835</v>
+        <v>0.17586160415351415</v>
       </c>
     </row>
     <row r="14">
@@ -4496,19 +4496,19 @@
         <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.023952095808383235</v>
+        <v>0.05878750765462339</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>25.755668681342815</v>
+        <v>23.74632282455903</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>22.914512303067244</v>
+        <v>24.175861604153514</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>10.914512303067244</v>
+        <v>0.17586160415351415</v>
       </c>
     </row>
     <row r="15">
@@ -4548,19 +4548,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>27.0</v>
+        <v>28.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.05389221556886228</v>
+        <v>0.06858542559706063</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>20.770700549470014</v>
+        <v>19.150260342386314</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>24.49119892942508</v>
+        <v>24.386086487667892</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-2.5088010705749184</v>
+        <v>-3.6139135123321076</v>
       </c>
     </row>
     <row r="17">
@@ -4574,19 +4574,19 @@
         <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>17.447388461554812</v>
+        <v>16.086218687604507</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>20.181588817380323</v>
+        <v>19.23557684156562</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>1.181588817380323</v>
+        <v>7.235576841565621</v>
       </c>
     </row>
     <row r="18">
@@ -4600,19 +4600,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.04898958971218616</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>19.34068928332281</v>
+        <v>19.23557684156562</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>0.3406892833228099</v>
+        <v>-0.7644231584343792</v>
       </c>
     </row>
     <row r="19">
@@ -4626,19 +4626,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>19.0</v>
+        <v>24.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.05878750765462339</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>20.444369921773298</v>
+        <v>20.759707247044865</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>1.4443699217732977</v>
+        <v>-3.240292752955135</v>
       </c>
     </row>
     <row r="20">
@@ -4652,19 +4652,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.06187624750499002</v>
+        <v>0.05878750765462339</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>19.93987252749121</v>
+        <v>18.38424992869086</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>23.860524278881947</v>
+        <v>23.334962070096</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>-7.139475721118053</v>
+        <v>-0.665037929903999</v>
       </c>
     </row>
     <row r="21">
@@ -4681,16 +4681,16 @@
         <v>20.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.03992015968063872</v>
+        <v>0.04898958971218616</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>23.263184615406416</v>
+        <v>21.448291583472674</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>24.386086487667892</v>
+        <v>25.016761138211027</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>4.386086487667892</v>
+        <v>5.016761138211027</v>
       </c>
     </row>
     <row r="22">
@@ -4730,19 +4730,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>20.770700549470014</v>
+        <v>19.150260342386314</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>20.917375909680647</v>
+        <v>19.971363933865945</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>1.917375909680647</v>
+        <v>7.971363933865945</v>
       </c>
     </row>
     <row r="24">
@@ -4756,19 +4756,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.013972055888223553</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>0.0</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>16.397540914121514</v>
+        <v>15.45152893830681</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>9.397540914121514</v>
+        <v>15.45152893830681</v>
       </c>
     </row>
     <row r="25">
@@ -4782,19 +4782,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.013972055888223553</v>
+        <v>0.0</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>16.71287823939308</v>
+        <v>15.766866263578379</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>9.712878239393081</v>
+        <v>15.766866263578379</v>
       </c>
     </row>
     <row r="26">
@@ -4808,19 +4808,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>7.0</v>
+        <v>0.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.013972055888223553</v>
+        <v>0.0</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>0.0</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>19.813695271230163</v>
+        <v>18.86768329541546</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>12.813695271230163</v>
+        <v>18.86768329541546</v>
       </c>
     </row>
     <row r="27">
@@ -4834,19 +4834,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>19.93987252749121</v>
+        <v>18.38424992869086</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>23.019624744824434</v>
+        <v>22.073612769009728</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>4.0196247448244335</v>
+        <v>10.073612769009728</v>
       </c>
     </row>
     <row r="28">
@@ -4863,16 +4863,16 @@
         <v>12.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.023952095808383235</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>23.263184615406416</v>
+        <v>21.448291583472674</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>23.334962070096</v>
+        <v>23.755411837124758</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>11.334962070096001</v>
+        <v>11.755411837124758</v>
       </c>
     </row>
     <row r="29">
@@ -4912,19 +4912,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>31.0</v>
+        <v>24.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.06187624750499002</v>
+        <v>0.05878750765462339</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>20.770700549470014</v>
+        <v>19.150260342386314</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>22.073612769009728</v>
+        <v>20.917375909680647</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-8.926387230990272</v>
+        <v>-3.082624090319353</v>
       </c>
     </row>
     <row r="31">
@@ -4938,19 +4938,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.013972055888223553</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>18.394677307508108</v>
+        <v>18.710014632779675</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>11.394677307508108</v>
+        <v>6.710014632779675</v>
       </c>
     </row>
     <row r="32">
@@ -4964,19 +4964,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>19.550914166837188</v>
+        <v>18.604902191022486</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>0.5509141668371882</v>
+        <v>6.604902191022486</v>
       </c>
     </row>
     <row r="33">
@@ -4990,19 +4990,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>20.969932130559243</v>
+        <v>20.02392015474454</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>1.9699321305592434</v>
+        <v>8.023920154744541</v>
       </c>
     </row>
     <row r="34">
@@ -5016,19 +5016,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.05389221556886228</v>
+        <v>0.04898958971218616</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>19.93987252749121</v>
+        <v>18.38424992869086</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>22.494062536038488</v>
+        <v>20.70715102616627</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-4.505937463961512</v>
+        <v>0.7071510261662688</v>
       </c>
     </row>
     <row r="35">
@@ -5042,19 +5042,19 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>501.0</v>
+        <v>408.25</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>500.9892972532167</v>
+        <v>400.62344636272167</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>563.0347942723839</v>
+        <v>547.7934902175914</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>62.03479427238392</v>
+        <v>139.5434902175914</v>
       </c>
     </row>
     <row r="36">
@@ -5152,16 +5152,16 @@
         <v>30.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.02827521206409048</v>
+        <v>0.031880977683315624</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>31.67096519710805</v>
+        <v>28.08895216821741</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>18.58180046139335</v>
+        <v>18.691751943413426</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-11.41819953860665</v>
+        <v>-11.308248056586574</v>
       </c>
     </row>
     <row r="5">
@@ -5178,16 +5178,16 @@
         <v>23.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.021677662582469368</v>
+        <v>0.024442082890541977</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>31.67096519710805</v>
+        <v>28.08895216821741</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>16.547698044021885</v>
+        <v>15.778037669881334</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-6.452301955978115</v>
+        <v>-7.221962330118666</v>
       </c>
     </row>
     <row r="6">
@@ -5204,16 +5204,16 @@
         <v>38.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.03581526861451461</v>
+        <v>0.040382571732199786</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>24.95898641855793</v>
+        <v>24.189326044417378</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-13.04101358144207</v>
+        <v>-13.810673955582622</v>
       </c>
     </row>
     <row r="7">
@@ -5230,10 +5230,10 @@
         <v>34.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.03204524033930255</v>
+        <v>0.036131774707757705</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>49.26594586216808</v>
+        <v>43.69392559500486</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>22.54005381411619</v>
@@ -5279,19 +5279,19 @@
         <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.04241281809613572</v>
+        <v>0.04144527098831031</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>38.70895746313206</v>
+        <v>34.33094153893239</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>22.320150850076033</v>
+        <v>20.890781583815006</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-22.679849149923967</v>
+        <v>-18.109218416184994</v>
       </c>
     </row>
     <row r="10">
@@ -5305,19 +5305,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>41.0</v>
+        <v>35.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.03864278982092366</v>
+        <v>0.03719447396386823</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>18.58180046139335</v>
+        <v>17.564749252707617</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-22.41819953860665</v>
+        <v>-17.435250747292383</v>
       </c>
     </row>
     <row r="11">
@@ -5331,19 +5331,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.04147031102733271</v>
+        <v>0.040382571732199786</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>19.901218245634297</v>
+        <v>19.37894870603892</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-24.098781754365703</v>
+        <v>-18.62105129396108</v>
       </c>
     </row>
     <row r="12">
@@ -5357,19 +5357,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>38.0</v>
+        <v>32.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03581526861451461</v>
+        <v>0.03400637619553666</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>31.67096519710805</v>
+        <v>28.08895216821741</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>22.485078073106152</v>
+        <v>20.61590287876481</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-15.514921926893848</v>
+        <v>-11.38409712123519</v>
       </c>
     </row>
     <row r="13">
@@ -5383,19 +5383,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>44.0</v>
+        <v>38.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.04147031102733271</v>
+        <v>0.040382571732199786</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>42.22795359614406</v>
+        <v>37.45193622428988</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>26.27840420279888</v>
+        <v>25.288840864618166</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-17.72159579720112</v>
+        <v>-12.711159135381834</v>
       </c>
     </row>
     <row r="14">
@@ -5412,16 +5412,16 @@
         <v>29.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.027332704995287466</v>
+        <v>0.030818278427205102</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>54.54444006168608</v>
+        <v>48.375417623041095</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>23.96942308037722</v>
+        <v>25.288840864618166</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-5.030576919622781</v>
+        <v>-3.711159135381834</v>
       </c>
     </row>
     <row r="15">
@@ -5461,19 +5461,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.04241281809613572</v>
+        <v>0.04144527098831031</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>43.987451662650074</v>
+        <v>39.01243356696863</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>25.618695310678405</v>
+        <v>25.508743828658325</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-19.381304689321595</v>
+        <v>-13.491256171341675</v>
       </c>
     </row>
     <row r="17">
@@ -5487,19 +5487,19 @@
         <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>42.0</v>
+        <v>36.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.03958529688972667</v>
+        <v>0.03825717321997875</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>36.94945939662606</v>
+        <v>32.77044419625365</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>21.110684547855165</v>
+        <v>20.121121209674453</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-20.889315452144835</v>
+        <v>-15.878878790325547</v>
       </c>
     </row>
     <row r="18">
@@ -5513,19 +5513,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.04052780395852969</v>
+        <v>0.039319872476089264</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>20.231072691694532</v>
+        <v>20.121121209674453</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-22.768927308305468</v>
+        <v>-16.878878790325547</v>
       </c>
     </row>
     <row r="19">
@@ -5539,19 +5539,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>42.0</v>
+        <v>36.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.03958529688972667</v>
+        <v>0.03825717321997875</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>21.385563252905364</v>
+        <v>21.7154176989656</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-20.614436747094636</v>
+        <v>-14.284582301034401</v>
       </c>
     </row>
     <row r="20">
@@ -5565,19 +5565,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>46.0</v>
+        <v>40.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.043355325164938736</v>
+        <v>0.04250797024442083</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>42.22795359614406</v>
+        <v>37.45193622428988</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>24.95898641855793</v>
+        <v>24.409229008457533</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>-21.04101358144207</v>
+        <v>-15.590770991542467</v>
       </c>
     </row>
     <row r="21">
@@ -5594,16 +5594,16 @@
         <v>36.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.033930254476908575</v>
+        <v>0.03825717321997875</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>49.26594586216808</v>
+        <v>43.69392559500486</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>25.508743828658325</v>
+        <v>26.1684527207788</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-10.491256171341675</v>
+        <v>-9.831547279221201</v>
       </c>
     </row>
     <row r="22">
@@ -5643,19 +5643,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.04241281809613572</v>
+        <v>0.04144527098831031</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>43.987451662650074</v>
+        <v>39.01243356696863</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>21.880344921995718</v>
+        <v>20.890781583815006</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-23.119655078004282</v>
+        <v>-18.109218416184994</v>
       </c>
     </row>
     <row r="24">
@@ -5669,19 +5669,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.033930254476908575</v>
+        <v>0.031880977683315624</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>17.152431195132323</v>
+        <v>16.16286785695161</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-18.847568804867677</v>
+        <v>-13.83713214304839</v>
       </c>
     </row>
     <row r="25">
@@ -5695,19 +5695,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>29.0</v>
+        <v>23.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.027332704995287466</v>
+        <v>0.024442082890541977</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>17.482285641192558</v>
+        <v>16.49272230301185</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-11.517714358807442</v>
+        <v>-6.507277696988151</v>
       </c>
     </row>
     <row r="26">
@@ -5721,19 +5721,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.04241281809613572</v>
+        <v>0.04144527098831031</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>20.72585436078489</v>
+        <v>19.736291022604178</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-24.27414563921511</v>
+        <v>-19.263708977395822</v>
       </c>
     </row>
     <row r="27">
@@ -5747,19 +5747,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>46.0</v>
+        <v>40.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.043355325164938736</v>
+        <v>0.04250797024442083</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>42.22795359614406</v>
+        <v>37.45193622428988</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>24.079374562397298</v>
+        <v>23.089811224216586</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>-21.920625437602702</v>
+        <v>-16.910188775783414</v>
       </c>
     </row>
     <row r="28">
@@ -5776,16 +5776,16 @@
         <v>32.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.030160226201696512</v>
+        <v>0.03400637619553666</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>49.26594586216808</v>
+        <v>43.69392559500486</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>24.409229008457533</v>
+        <v>24.84903493653785</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-7.590770991542467</v>
+        <v>-7.150965063462149</v>
       </c>
     </row>
     <row r="29">
@@ -5825,19 +5825,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>38.0</v>
+        <v>32.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.03581526861451461</v>
+        <v>0.03400637619553666</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>43.987451662650074</v>
+        <v>39.01243356696863</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>23.089811224216586</v>
+        <v>21.880344921995718</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-14.910188775783414</v>
+        <v>-10.119655078004282</v>
       </c>
     </row>
     <row r="31">
@@ -5851,19 +5851,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>43.0</v>
+        <v>37.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.04052780395852969</v>
+        <v>0.039319872476089264</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>19.241509353513823</v>
+        <v>19.57136379957406</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-23.758490646486177</v>
+        <v>-17.42863620042594</v>
       </c>
     </row>
     <row r="32">
@@ -5877,19 +5877,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.033930254476908575</v>
+        <v>0.031880977683315624</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>20.45097565573469</v>
+        <v>19.46141231755398</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-15.549024344265309</v>
+        <v>-10.538587682446021</v>
       </c>
     </row>
     <row r="33">
@@ -5903,19 +5903,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>45.0</v>
+        <v>39.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.04241281809613572</v>
+        <v>0.04144527098831031</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>21.935320663005758</v>
+        <v>20.945757324825045</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-23.064679336994242</v>
+        <v>-18.054242675174955</v>
       </c>
     </row>
     <row r="34">
@@ -5929,19 +5929,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>46.0</v>
+        <v>40.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.043355325164938736</v>
+        <v>0.04250797024442083</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>42.22795359614406</v>
+        <v>37.45193622428988</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>23.529617152296904</v>
+        <v>21.66044195795556</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-22.470382847703096</v>
+        <v>-18.33955804204444</v>
       </c>
     </row>
     <row r="35">
@@ -5955,19 +5955,19 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>1061.0</v>
+        <v>941.0</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>1060.9773341031196</v>
+        <v>940.9798976352835</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>588.9551134405531</v>
+        <v>573.0121485476416</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-472.0448865594469</v>
+        <v>-367.9878514523584</v>
       </c>
     </row>
     <row r="36">
@@ -6065,16 +6065,16 @@
         <v>29.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.027992277992277992</v>
+        <v>0.026268115942028984</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>30.924712482755833</v>
+        <v>32.95451986579386</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>27.518086179468014</v>
+        <v>27.680915091772558</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-1.481913820531986</v>
+        <v>-1.3190849082274418</v>
       </c>
     </row>
     <row r="5">
@@ -6091,16 +6091,16 @@
         <v>27.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.026061776061776062</v>
+        <v>0.024456521739130436</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>30.924712482755833</v>
+        <v>32.95451986579386</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>24.505751301833943</v>
+        <v>23.36594891570213</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-2.494248698166057</v>
+        <v>-3.6340510842978695</v>
       </c>
     </row>
     <row r="6">
@@ -6117,16 +6117,16 @@
         <v>43.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.041505791505791506</v>
+        <v>0.03894927536231884</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>36.96216309313159</v>
+        <v>35.82236070699978</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-6.037836906868407</v>
+        <v>-7.177639293000219</v>
       </c>
     </row>
     <row r="7">
@@ -6143,10 +6143,10 @@
         <v>53.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.05115830115830116</v>
+        <v>0.04800724637681159</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>48.105108306509074</v>
+        <v>51.26258645790156</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>33.379927022431616</v>
@@ -6195,16 +6195,16 @@
         <v>39.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.037644787644787646</v>
+        <v>0.035326086956521736</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>37.796870812257126</v>
+        <v>40.27774650263694</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>33.05426919782253</v>
+        <v>30.937493337863447</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-5.945730802177472</v>
+        <v>-8.062506662136553</v>
       </c>
     </row>
     <row r="10">
@@ -6221,16 +6221,16 @@
         <v>23.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.0222007722007722</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>27.518086179468014</v>
+        <v>26.011918740650977</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>4.518086179468014</v>
+        <v>3.0119187406509766</v>
       </c>
     </row>
     <row r="11">
@@ -6247,16 +6247,16 @@
         <v>24.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.023166023166023165</v>
+        <v>0.021739130434782608</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>29.472033127122547</v>
+        <v>28.698595793675963</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>5.472033127122547</v>
+        <v>4.698595793675963</v>
       </c>
     </row>
     <row r="12">
@@ -6270,19 +6270,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.041505791505791506</v>
+        <v>0.042572463768115944</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>30.924712482755833</v>
+        <v>32.95451986579386</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>33.29851256627934</v>
+        <v>30.53042105710209</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-9.701487433720658</v>
+        <v>-16.46957894289791</v>
       </c>
     </row>
     <row r="13">
@@ -6296,19 +6296,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>59.0</v>
+        <v>63.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.05694980694980695</v>
+        <v>0.057065217391304345</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>41.23294997700777</v>
+        <v>43.939359821058474</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>38.91611004078613</v>
+        <v>37.45064983004523</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-20.08388995921387</v>
+        <v>-25.54935016995477</v>
       </c>
     </row>
     <row r="14">
@@ -6325,16 +6325,16 @@
         <v>57.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.05501930501930502</v>
+        <v>0.051630434782608696</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>53.259227053635044</v>
+        <v>56.755006435533865</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>35.49670288239069</v>
+        <v>37.45064983004523</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-21.503297117609307</v>
+        <v>-19.54935016995477</v>
       </c>
     </row>
     <row r="15">
@@ -6374,19 +6374,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>37.0</v>
+        <v>41.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.03571428571428571</v>
+        <v>0.03713768115942029</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>42.9509895593831</v>
+        <v>45.77016648026925</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>37.93913656695886</v>
+        <v>37.77630765465432</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>0.939136566958858</v>
+        <v>-3.2236923453456825</v>
       </c>
     </row>
     <row r="17">
@@ -6400,19 +6400,19 @@
         <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.029922779922779922</v>
+        <v>0.03170289855072464</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>36.07883122988181</v>
+        <v>38.44693984342617</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>31.26315116247254</v>
+        <v>29.79769095173164</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>0.2631511624725391</v>
+        <v>-5.202309048268361</v>
       </c>
     </row>
     <row r="18">
@@ -6426,19 +6426,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.03088803088803089</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>29.960519864036183</v>
+        <v>29.79769095173164</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-2.0394801359638173</v>
+        <v>-6.202309048268361</v>
       </c>
     </row>
     <row r="19">
@@ -6452,19 +6452,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.033783783783783786</v>
+        <v>0.035326086956521736</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>31.670223443233898</v>
+        <v>32.15871018014753</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-3.3297765567661024</v>
+        <v>-6.84128981985247</v>
       </c>
     </row>
     <row r="20">
@@ -6478,19 +6478,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.05308880308880309</v>
+        <v>0.05344202898550725</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>41.23294997700777</v>
+        <v>43.939359821058474</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>36.96216309313159</v>
+        <v>36.14801853160887</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>-18.037836906868407</v>
+        <v>-22.85198146839113</v>
       </c>
     </row>
     <row r="21">
@@ -6507,16 +6507,16 @@
         <v>45.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.04343629343629344</v>
+        <v>0.04076086956521739</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>48.105108306509074</v>
+        <v>51.26258645790156</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>37.77630765465432</v>
+        <v>38.75328112848158</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-7.2236923453456825</v>
+        <v>-6.246718871518418</v>
       </c>
     </row>
     <row r="22">
@@ -6556,19 +6556,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.027992277992277992</v>
+        <v>0.029891304347826088</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>42.9509895593831</v>
+        <v>45.77016648026925</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>32.40295354860435</v>
+        <v>30.937493337863447</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>3.4029535486043514</v>
+        <v>-2.0625066621365526</v>
       </c>
     </row>
     <row r="24">
@@ -6582,19 +6582,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0222007722007722</v>
+        <v>0.024456521739130436</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>25.401310319508937</v>
+        <v>23.935850108768037</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>2.401310319508937</v>
+        <v>-3.0641498912319634</v>
       </c>
     </row>
     <row r="25">
@@ -6608,19 +6608,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.03088803088803089</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>25.88979705642257</v>
+        <v>24.42433684568167</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-6.1102029435774305</v>
+        <v>-11.575663154318331</v>
       </c>
     </row>
     <row r="26">
@@ -6634,19 +6634,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>43.0</v>
+        <v>47.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.041505791505791506</v>
+        <v>0.042572463768115944</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>30.693249969406633</v>
+        <v>29.227789758665732</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-12.306750030593367</v>
+        <v>-17.772210241334268</v>
       </c>
     </row>
     <row r="27">
@@ -6660,19 +6660,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.05308880308880309</v>
+        <v>0.05344202898550725</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>41.23294997700777</v>
+        <v>43.939359821058474</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>35.65953179469524</v>
+        <v>34.19407158395434</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>-19.34046820530476</v>
+        <v>-24.80592841604566</v>
       </c>
     </row>
     <row r="28">
@@ -6689,16 +6689,16 @@
         <v>61.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.05888030888030888</v>
+        <v>0.0552536231884058</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>48.105108306509074</v>
+        <v>51.26258645790156</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>36.14801853160887</v>
+        <v>36.799334180827046</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-24.85198146839113</v>
+        <v>-24.200665819172954</v>
       </c>
     </row>
     <row r="29">
@@ -6738,19 +6738,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.029922779922779922</v>
+        <v>0.03170289855072464</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>42.9509895593831</v>
+        <v>45.77016648026925</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>34.19407158395434</v>
+        <v>32.40295354860435</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>3.19407158395434</v>
+        <v>-2.5970464513956486</v>
       </c>
     </row>
     <row r="31">
@@ -6764,19 +6764,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>31.0</v>
+        <v>35.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.029922779922779922</v>
+        <v>0.03170289855072464</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>28.495059653295282</v>
+        <v>28.983546390208915</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-2.5049403467047178</v>
+        <v>-6.0164536097910855</v>
       </c>
     </row>
     <row r="32">
@@ -6790,19 +6790,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>29.0</v>
+        <v>33.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.027992277992277992</v>
+        <v>0.029891304347826088</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>30.28617768864527</v>
+        <v>28.82071747790437</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>1.286177688645271</v>
+        <v>-4.17928252209563</v>
       </c>
     </row>
     <row r="33">
@@ -6816,19 +6816,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.033783783783783786</v>
+        <v>0.035326086956521736</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>32.48436800475662</v>
+        <v>31.01890779401572</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-2.515631995243382</v>
+        <v>-7.981092205984279</v>
       </c>
     </row>
     <row r="34">
@@ -6842,19 +6842,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.033783783783783786</v>
+        <v>0.035326086956521736</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>41.23294997700777</v>
+        <v>43.939359821058474</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>34.84538723317252</v>
+        <v>32.07729572399526</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-0.15461276682748348</v>
+        <v>-6.922704276004737</v>
       </c>
     </row>
     <row r="35">
@@ -6868,19 +6868,19 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>1036.0</v>
+        <v>1104.0</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>1035.9778681723205</v>
+        <v>1103.9764155040943</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>872.1930687592924</v>
+        <v>848.5828764751335</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-163.80693124070763</v>
+        <v>-255.4171235248665</v>
       </c>
     </row>
     <row r="36">

--- a/SampleOutputReport.xlsx
+++ b/SampleOutputReport.xlsx
@@ -588,19 +588,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>242.0</v>
+        <v>241.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.03564327270049341</v>
+        <v>0.03451485857500895</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>202.66731216377482</v>
+        <v>208.42838311857395</v>
       </c>
       <c r="G4" t="n" s="2">
         <v>208.5720389179112</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-33.427961082088814</v>
+        <v>-32.427961082088814</v>
       </c>
     </row>
     <row r="5">
@@ -614,19 +614,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>207.5</v>
+        <v>214.5</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.03056189704691067</v>
+        <v>0.030719656283566057</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>202.66731216377482</v>
+        <v>208.42838311857395</v>
       </c>
       <c r="G5" t="n" s="2">
         <v>208.5720389179112</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>1.0720389179111862</v>
+        <v>-5.927961082088814</v>
       </c>
     </row>
     <row r="6">
@@ -640,19 +640,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>284.0</v>
+        <v>291.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.04182929523528978</v>
+        <v>0.04167561761546724</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>225.18590240419422</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G6" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-52.253290091209834</v>
+        <v>-59.253290091209834</v>
       </c>
     </row>
     <row r="7">
@@ -669,10 +669,10 @@
         <v>231.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.03402312394138007</v>
+        <v>0.03308270676691729</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>315.260263365872</v>
+        <v>324.2219292955595</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>324.4453938723063</v>
@@ -718,19 +718,19 @@
         <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>238.0</v>
+        <v>251.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.03505412769717947</v>
+        <v>0.03594701038310061</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>247.70449264461368</v>
+        <v>254.74580158936814</v>
       </c>
       <c r="G9" t="n" s="2">
         <v>254.9213808996692</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>16.921380899669202</v>
+        <v>3.9213808996692023</v>
       </c>
     </row>
     <row r="10">
@@ -744,19 +744,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>223.75</v>
+        <v>233.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.03295529862287355</v>
+        <v>0.03336913712853563</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>225.18590240419422</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G10" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>7.996709908790166</v>
+        <v>-1.2532900912098341</v>
       </c>
     </row>
     <row r="11">
@@ -770,19 +770,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>241.25</v>
+        <v>246.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.03553280801237205</v>
+        <v>0.03523093447905478</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>225.18590240419422</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G11" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-9.503290091209834</v>
+        <v>-14.253290091209834</v>
       </c>
     </row>
     <row r="12">
@@ -796,19 +796,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>244.5</v>
+        <v>261.5</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03601148832756462</v>
+        <v>0.03745076978159685</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>202.66731216377482</v>
+        <v>208.42838311857395</v>
       </c>
       <c r="G12" t="n" s="2">
         <v>208.5720389179112</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-35.927961082088814</v>
+        <v>-52.927961082088814</v>
       </c>
     </row>
     <row r="13">
@@ -822,19 +822,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>300.0</v>
+        <v>309.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.04418587524854555</v>
+        <v>0.044253490870032226</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>270.2230828850331</v>
+        <v>277.9045108247652</v>
       </c>
       <c r="G13" t="n" s="2">
         <v>278.0960518905482</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-21.90394810945179</v>
+        <v>-30.90394810945179</v>
       </c>
     </row>
     <row r="14">
@@ -848,19 +848,19 @@
         <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>263.0</v>
+        <v>251.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.0387362839678916</v>
+        <v>0.03594701038310061</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>349.03814872650105</v>
+        <v>358.9599931486551</v>
       </c>
       <c r="G14" t="n" s="2">
         <v>359.2074003586248</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>96.2074003586248</v>
+        <v>108.2074003586248</v>
       </c>
     </row>
     <row r="15">
@@ -900,19 +900,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>305.0</v>
+        <v>306.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.04492230650268798</v>
+        <v>0.04382384532760473</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>281.4823780052429</v>
+        <v>289.4838654424638</v>
       </c>
       <c r="G16" t="n" s="2">
         <v>289.68338738598777</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-15.316612614012229</v>
+        <v>-16.31661261401223</v>
       </c>
     </row>
     <row r="17">
@@ -926,19 +926,19 @@
         <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>248.0</v>
+        <v>257.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.03652699020546432</v>
+        <v>0.036806301467955604</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>236.445197524404</v>
+        <v>243.16644697166961</v>
       </c>
       <c r="G17" t="n" s="2">
         <v>243.33404540422973</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-4.665954595770273</v>
+        <v>-13.665954595770273</v>
       </c>
     </row>
     <row r="18">
@@ -952,19 +952,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>256.0</v>
+        <v>257.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.0377052802120922</v>
+        <v>0.036806301467955604</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>225.18590240419422</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G18" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-24.253290091209834</v>
+        <v>-25.253290091209834</v>
       </c>
     </row>
     <row r="19">
@@ -978,19 +978,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>262.5</v>
+        <v>259.5</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.03866264084247736</v>
+        <v>0.037164339419978515</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>225.18590240419422</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G19" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-30.753290091209834</v>
+        <v>-27.753290091209834</v>
       </c>
     </row>
     <row r="20">
@@ -1004,19 +1004,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>278.0</v>
+        <v>291.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.04094557773031887</v>
+        <v>0.04167561761546724</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>270.2230828850331</v>
+        <v>277.9045108247652</v>
       </c>
       <c r="G20" t="n" s="2">
         <v>278.0960518905482</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>0.0960518905482104</v>
+        <v>-12.90394810945179</v>
       </c>
     </row>
     <row r="21">
@@ -1030,19 +1030,19 @@
         <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>271.0</v>
+        <v>265.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.03991457397451948</v>
+        <v>0.03795202291442893</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>315.260263365872</v>
+        <v>324.2219292955595</v>
       </c>
       <c r="G21" t="n" s="2">
         <v>324.4453938723063</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>53.44539387230628</v>
+        <v>59.44539387230628</v>
       </c>
     </row>
     <row r="22">
@@ -1082,19 +1082,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>239.0</v>
+        <v>256.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.03520141394800795</v>
+        <v>0.036663086287146436</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>281.4823780052429</v>
+        <v>289.4838654424638</v>
       </c>
       <c r="G23" t="n" s="2">
         <v>289.68338738598777</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>50.68338738598777</v>
+        <v>33.68338738598777</v>
       </c>
     </row>
     <row r="24">
@@ -1108,19 +1108,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>203.0</v>
+        <v>220.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.02989910891818249</v>
+        <v>0.03150733977801647</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>225.18590240419422</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G24" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>28.746709908790166</v>
+        <v>11.746709908790166</v>
       </c>
     </row>
     <row r="25">
@@ -1134,19 +1134,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>206.0</v>
+        <v>223.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.030340967670667945</v>
+        <v>0.031936985320443964</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>225.18590240419422</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G25" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>25.746709908790166</v>
+        <v>8.746709908790166</v>
       </c>
     </row>
     <row r="26">
@@ -1160,19 +1160,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>235.5</v>
+        <v>252.5</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.03468591207010826</v>
+        <v>0.03616183315431436</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>225.18590240419422</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G26" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-3.753290091209834</v>
+        <v>-20.753290091209834</v>
       </c>
     </row>
     <row r="27">
@@ -1186,19 +1186,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>266.0</v>
+        <v>283.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.039178142720377056</v>
+        <v>0.04052989616899391</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>270.2230828850331</v>
+        <v>277.9045108247652</v>
       </c>
       <c r="G27" t="n" s="2">
         <v>278.0960518905482</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>12.09605189054821</v>
+        <v>-4.90394810945179</v>
       </c>
     </row>
     <row r="28">
@@ -1212,19 +1212,19 @@
         <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>258.0</v>
+        <v>254.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.03799985271374917</v>
+        <v>0.036376655925528106</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>315.260263365872</v>
+        <v>324.2219292955595</v>
       </c>
       <c r="G28" t="n" s="2">
         <v>324.4453938723063</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>66.44539387230628</v>
+        <v>70.44539387230628</v>
       </c>
     </row>
     <row r="29">
@@ -1264,19 +1264,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>272.0</v>
+        <v>283.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.04006186022534797</v>
+        <v>0.04052989616899391</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>281.4823780052429</v>
+        <v>289.4838654424638</v>
       </c>
       <c r="G30" t="n" s="2">
         <v>289.68338738598777</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>17.68338738598777</v>
+        <v>6.683387385987771</v>
       </c>
     </row>
     <row r="31">
@@ -1290,19 +1290,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>251.0</v>
+        <v>248.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.036968848957949774</v>
+        <v>0.03551736484067311</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>225.18590240419422</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G31" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-19.253290091209834</v>
+        <v>-16.253290091209834</v>
       </c>
     </row>
     <row r="32">
@@ -1316,19 +1316,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>242.0</v>
+        <v>251.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.03564327270049341</v>
+        <v>0.03594701038310061</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>225.18590240419422</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G32" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-10.253290091209834</v>
+        <v>-19.253290091209834</v>
       </c>
     </row>
     <row r="33">
@@ -1342,19 +1342,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>254.5</v>
+        <v>263.5</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.03748435083584947</v>
+        <v>0.03773720014321518</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>225.18590240419422</v>
+        <v>231.587092353971</v>
       </c>
       <c r="G33" t="n" s="2">
         <v>231.74670990879017</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-22.753290091209834</v>
+        <v>-31.753290091209834</v>
       </c>
     </row>
     <row r="34">
@@ -1368,19 +1368,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>267.0</v>
+        <v>284.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.039325428971205535</v>
+        <v>0.04067311134980308</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>270.2230828850331</v>
+        <v>277.9045108247652</v>
       </c>
       <c r="G34" t="n" s="2">
         <v>278.0960518905482</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>11.09605189054821</v>
+        <v>-5.90394810945179</v>
       </c>
     </row>
     <row r="35">
@@ -1394,19 +1394,19 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>6789.5</v>
+        <v>6982.5</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>6789.354957486456</v>
+        <v>6982.3508344722295</v>
       </c>
       <c r="G35" t="n" s="3">
         <v>6987.312572087659</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>197.81257208765874</v>
+        <v>4.812572087658737</v>
       </c>
     </row>
     <row r="36"/>
@@ -1500,16 +1500,16 @@
         <v>36.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.03748047891723061</v>
+        <v>0.036566785170137124</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>28.67102928541214</v>
+        <v>29.387431891190268</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>24.256471987635745</v>
+        <v>24.113786858296713</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-11.743528012364255</v>
+        <v>-11.886213141703287</v>
       </c>
     </row>
     <row r="5">
@@ -1526,16 +1526,16 @@
         <v>36.5</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.03800104112441437</v>
+        <v>0.03707465718638903</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>28.67102928541214</v>
+        <v>29.387431891190268</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>20.47531606015135</v>
+        <v>21.474111965524585</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-16.02468393984865</v>
+        <v>-15.025888034475415</v>
       </c>
     </row>
     <row r="6">
@@ -1552,16 +1552,16 @@
         <v>45.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.04685059864653826</v>
+        <v>0.0457084814626714</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>31.856699206013484</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>31.390728454587435</v>
+        <v>32.389524359960674</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-13.609271545412565</v>
+        <v>-12.610475640039326</v>
       </c>
     </row>
     <row r="7">
@@ -1578,10 +1578,10 @@
         <v>38.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.03956272774596564</v>
+        <v>0.038598273235144746</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>44.59937888841889</v>
+        <v>45.713782941851534</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>29.25045151450193</v>
@@ -1630,16 +1630,16 @@
         <v>38.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.03956272774596564</v>
+        <v>0.038598273235144746</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>35.04236912661484</v>
+        <v>35.91797231145477</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>27.110174574416423</v>
+        <v>28.96508125582386</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-10.889825425583577</v>
+        <v>-9.034918744176139</v>
       </c>
     </row>
     <row r="10">
@@ -1656,16 +1656,16 @@
         <v>36.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.03748047891723061</v>
+        <v>0.036566785170137124</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>31.856699206013484</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>22.79394941191065</v>
+        <v>24.113786858296713</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-13.20605058808935</v>
+        <v>-11.886213141703287</v>
       </c>
     </row>
     <row r="11">
@@ -1682,16 +1682,16 @@
         <v>30.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.031233732431025507</v>
+        <v>0.03047232097511427</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>31.856699206013484</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>25.148254046004705</v>
+        <v>25.826008410365116</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-4.8517459539952945</v>
+        <v>-4.173991589634884</v>
       </c>
     </row>
     <row r="12">
@@ -1705,19 +1705,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>35.5</v>
+        <v>43.5</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03695991671004685</v>
+        <v>0.04418486541391569</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>28.67102928541214</v>
+        <v>29.387431891190268</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>26.753461751068837</v>
+        <v>29.17910894983241</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-8.746538248931163</v>
+        <v>-14.320891050167589</v>
       </c>
     </row>
     <row r="13">
@@ -1734,16 +1734,16 @@
         <v>38.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.03956272774596564</v>
+        <v>0.038598273235144746</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>38.228039047216186</v>
+        <v>39.18324252158702</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>32.817579747977774</v>
+        <v>34.101745912029074</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-5.182420252022226</v>
+        <v>-3.898254087970926</v>
       </c>
     </row>
     <row r="14">
@@ -1760,16 +1760,16 @@
         <v>39.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.04060385216033316</v>
+        <v>0.03961401726764855</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>49.3778837693209</v>
+        <v>50.6116882570499</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>32.817579747977774</v>
+        <v>31.105358195909368</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-6.182420252022226</v>
+        <v>-7.894641804090632</v>
       </c>
     </row>
     <row r="15">
@@ -1812,16 +1812,16 @@
         <v>46.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.04789172306090578</v>
+        <v>0.046724225495175215</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>39.82087400751686</v>
+        <v>40.815877626653155</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>33.10295000665584</v>
+        <v>33.245635135994874</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-12.897049993344162</v>
+        <v>-12.754364864005126</v>
       </c>
     </row>
     <row r="17">
@@ -1838,16 +1838,16 @@
         <v>39.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.04060385216033316</v>
+        <v>0.03961401726764855</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>33.449534166314166</v>
+        <v>34.28533720638865</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>26.111378669043184</v>
+        <v>27.39554483309449</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-12.888621330956816</v>
+        <v>-11.60445516690551</v>
       </c>
     </row>
     <row r="18">
@@ -1864,16 +1864,16 @@
         <v>29.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.03019260801665799</v>
+        <v>0.029456576942610464</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>31.856699206013484</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>26.111378669043184</v>
+        <v>26.25406379838222</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-2.8886213309568163</v>
+        <v>-2.7459362016177806</v>
       </c>
     </row>
     <row r="19">
@@ -1890,16 +1890,16 @@
         <v>33.5</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.034877667881311816</v>
+        <v>0.0340274250888776</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>31.856699206013484</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>28.180313044459176</v>
+        <v>27.752257656442072</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-5.319686955540824</v>
+        <v>-5.747742343557928</v>
       </c>
     </row>
     <row r="20">
@@ -1916,16 +1916,16 @@
         <v>30.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.031233732431025507</v>
+        <v>0.03047232097511427</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>38.228039047216186</v>
+        <v>39.18324252158702</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>31.676098713265503</v>
+        <v>32.389524359960674</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>1.6760987132655032</v>
+        <v>2.3895243599606744</v>
       </c>
     </row>
     <row r="21">
@@ -1942,16 +1942,16 @@
         <v>44.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.045809474232170744</v>
+        <v>0.0446927374301676</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>44.59937888841889</v>
+        <v>45.713782941851534</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>33.959060782690045</v>
+        <v>33.10295000665584</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-10.040939217309955</v>
+        <v>-10.897049993344162</v>
       </c>
     </row>
     <row r="22">
@@ -1994,16 +1994,16 @@
         <v>30.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.031233732431025507</v>
+        <v>0.03047232097511427</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>39.82087400751686</v>
+        <v>40.815877626653155</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>27.110174574416423</v>
+        <v>28.394340738467726</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-2.8898254255835774</v>
+        <v>-1.6056592615322742</v>
       </c>
     </row>
     <row r="24">
@@ -2020,16 +2020,16 @@
         <v>30.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.031233732431025507</v>
+        <v>0.03047232097511427</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>31.856699206013484</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>20.974714012837968</v>
+        <v>22.25888017688927</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-9.025285987162032</v>
+        <v>-7.741119823110729</v>
       </c>
     </row>
     <row r="25">
@@ -2046,16 +2046,16 @@
         <v>38.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.03956272774596564</v>
+        <v>0.038598273235144746</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>31.856699206013484</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>21.402769400855068</v>
+        <v>22.686935564906374</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-16.597230599144932</v>
+        <v>-15.313064435093626</v>
       </c>
     </row>
     <row r="26">
@@ -2072,16 +2072,16 @@
         <v>33.5</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.034877667881311816</v>
+        <v>0.0340274250888776</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>31.856699206013484</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>25.611980716356566</v>
+        <v>26.89614688040787</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-7.888019283643434</v>
+        <v>-6.603853119592131</v>
       </c>
     </row>
     <row r="27">
@@ -2098,16 +2098,16 @@
         <v>31.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.032274856845393024</v>
+        <v>0.03148806500761808</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>38.228039047216186</v>
+        <v>39.18324252158702</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>29.963877161197097</v>
+        <v>31.2480433252484</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>-1.0361228388029033</v>
+        <v>0.24804332524839978</v>
       </c>
     </row>
     <row r="28">
@@ -2124,16 +2124,16 @@
         <v>43.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.04476834981780323</v>
+        <v>0.04367699339766379</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>44.59937888841889</v>
+        <v>45.713782941851534</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>32.24683923062164</v>
+        <v>31.676098713265503</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-10.753160769378361</v>
+        <v>-11.323901286734497</v>
       </c>
     </row>
     <row r="29">
@@ -2173,19 +2173,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>30.0</v>
+        <v>38.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.031233732431025507</v>
+        <v>0.038598273235144746</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>39.82087400751686</v>
+        <v>40.815877626653155</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>28.394340738467726</v>
+        <v>29.963877161197097</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-1.6056592615322742</v>
+        <v>-8.036122838802903</v>
       </c>
     </row>
     <row r="31">
@@ -2202,16 +2202,16 @@
         <v>30.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.031233732431025507</v>
+        <v>0.03047232097511427</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>31.856699206013484</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>25.397953022348016</v>
+        <v>24.969897634330913</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-4.602046977651984</v>
+        <v>-5.030102365669087</v>
       </c>
     </row>
     <row r="32">
@@ -2228,16 +2228,16 @@
         <v>34.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.035398230088495575</v>
+        <v>0.03453529710512951</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>31.856699206013484</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>25.25526789300898</v>
+        <v>26.539434057060287</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-8.74473210699102</v>
+        <v>-7.460565942939713</v>
       </c>
     </row>
     <row r="33">
@@ -2254,16 +2254,16 @@
         <v>34.5</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.03591879229567933</v>
+        <v>0.03504316912138141</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>31.856699206013484</v>
+        <v>32.65270210132251</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>27.181517139085937</v>
+        <v>28.465683303137244</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-7.318482860914063</v>
+        <v>-6.034316696862756</v>
       </c>
     </row>
     <row r="34">
@@ -2277,19 +2277,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>33.0</v>
+        <v>41.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.03435710567412806</v>
+        <v>0.04164550533265617</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>38.228039047216186</v>
+        <v>39.18324252158702</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>28.108970479789658</v>
+        <v>30.534617678553232</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-4.891029520210342</v>
+        <v>-10.465382321446768</v>
       </c>
     </row>
     <row r="35">
@@ -2303,19 +2303,19 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>960.5</v>
+        <v>984.5</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>960.4794810613063</v>
+        <v>984.4789683548734</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>743.6035515503746</v>
+        <v>764.2928953045346</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-216.89644844962538</v>
+        <v>-220.20710469546543</v>
       </c>
     </row>
     <row r="36">
@@ -2413,16 +2413,16 @@
         <v>28.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.0307776861775213</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>27.15613627527714</v>
+        <v>26.447196196642537</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>52.79349785544251</v>
+        <v>52.48294786805755</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>24.79349785544251</v>
+        <v>24.48294786805755</v>
       </c>
     </row>
     <row r="5">
@@ -2439,16 +2439,16 @@
         <v>12.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.013190436933223413</v>
+        <v>0.013544018058690745</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>27.15613627527714</v>
+        <v>26.447196196642537</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>44.563923189741175</v>
+        <v>46.73777310143587</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>32.563923189741175</v>
+        <v>34.73777310143587</v>
       </c>
     </row>
     <row r="6">
@@ -2465,16 +2465,16 @@
         <v>38.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.041769716955207474</v>
+        <v>0.04288939051918736</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>30.173484750307928</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>68.3209972246903</v>
+        <v>70.49484713638499</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>30.320997224690302</v>
+        <v>32.49484713638499</v>
       </c>
     </row>
     <row r="7">
@@ -2491,10 +2491,10 @@
         <v>38.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.041769716955207474</v>
+        <v>0.04288939051918736</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>42.24287865043111</v>
+        <v>41.14008297255506</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>63.662747413915966</v>
@@ -2543,16 +2543,16 @@
         <v>25.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.027480076944215445</v>
+        <v>0.028216704288939052</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>33.19083322533873</v>
+        <v>32.32435090700754</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>59.00449760314163</v>
+        <v>63.041647439146054</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>34.00449760314163</v>
+        <v>38.041647439146054</v>
       </c>
     </row>
     <row r="10">
@@ -2566,19 +2566,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>35.75</v>
+        <v>32.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.039296510030228084</v>
+        <v>0.03611738148984198</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>30.173484750307928</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>49.61036048474671</v>
+        <v>52.48294786805755</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>13.860360484746707</v>
+        <v>20.48294786805755</v>
       </c>
     </row>
     <row r="11">
@@ -2595,16 +2595,16 @@
         <v>34.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.037372904644133</v>
+        <v>0.03837471783295711</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>30.173484750307928</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>54.73443527659848</v>
+        <v>56.20954771667702</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>20.734435276598482</v>
+        <v>22.209547716677022</v>
       </c>
     </row>
     <row r="12">
@@ -2621,16 +2621,16 @@
         <v>28.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.0307776861775213</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>27.15613627527714</v>
+        <v>26.447196196642537</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>58.22812263467924</v>
+        <v>63.507472420223486</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>30.228122634679238</v>
+        <v>35.507472420223486</v>
       </c>
     </row>
     <row r="13">
@@ -2647,16 +2647,16 @@
         <v>44.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.04836493542181918</v>
+        <v>0.04966139954853273</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>36.208181700369515</v>
+        <v>35.262928262190044</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>71.42649709853987</v>
+        <v>74.22144698500446</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>27.42649709853987</v>
+        <v>30.221446985004462</v>
       </c>
     </row>
     <row r="14">
@@ -2673,16 +2673,16 @@
         <v>42.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.046166529266281946</v>
+        <v>0.04740406320541761</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>46.768901362977296</v>
+        <v>45.54794900532881</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>71.42649709853987</v>
+        <v>67.6998972499204</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>29.42649709853987</v>
+        <v>25.699897249920397</v>
       </c>
     </row>
     <row r="15">
@@ -2725,16 +2725,16 @@
         <v>35.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.03847210772190162</v>
+        <v>0.039503386004514675</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>37.71685593788492</v>
+        <v>36.7322169397813</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>72.04759707330977</v>
+        <v>72.35814706069473</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>37.047597073309774</v>
+        <v>37.35814706069473</v>
       </c>
     </row>
     <row r="17">
@@ -2751,16 +2751,16 @@
         <v>28.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.0307776861775213</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>31.682158987823335</v>
+        <v>30.855062229416294</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>56.830647691446934</v>
+        <v>59.625597577911535</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>28.830647691446934</v>
+        <v>31.625597577911535</v>
       </c>
     </row>
     <row r="18">
@@ -2777,16 +2777,16 @@
         <v>36.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.03957131079967024</v>
+        <v>0.040632054176072234</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>30.173484750307928</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>56.830647691446934</v>
+        <v>57.141197678831894</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>20.830647691446934</v>
+        <v>21.141197678831894</v>
       </c>
     </row>
     <row r="19">
@@ -2803,16 +2803,16 @@
         <v>34.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.037372904644133</v>
+        <v>0.03837471783295711</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>30.173484750307928</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>61.3336225085288</v>
+        <v>60.401972546373926</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>27.333622508528798</v>
+        <v>26.401972546373926</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +2826,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.041769716955207474</v>
+        <v>0.03837471783295711</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>36.208181700369515</v>
+        <v>35.262928262190044</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>68.94209719946022</v>
+        <v>70.49484713638499</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>30.94209719946022</v>
+        <v>36.49484713638499</v>
       </c>
     </row>
     <row r="21">
@@ -2852,19 +2852,19 @@
         <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>46.0</v>
+        <v>40.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.05056334157735642</v>
+        <v>0.045146726862302484</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>42.24287865043111</v>
+        <v>41.14008297255506</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>73.91089699761952</v>
+        <v>72.04759707330977</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>27.910896997619517</v>
+        <v>32.047597073309774</v>
       </c>
     </row>
     <row r="22">
@@ -2907,16 +2907,16 @@
         <v>32.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.035174498488595766</v>
+        <v>0.03611738148984198</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>37.71685593788492</v>
+        <v>36.7322169397813</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>59.00449760314163</v>
+        <v>61.79944748960623</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>27.00449760314163</v>
+        <v>29.79944748960623</v>
       </c>
     </row>
     <row r="24">
@@ -2933,16 +2933,16 @@
         <v>28.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0307776861775213</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>30.173484750307928</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>45.65084814558852</v>
+        <v>48.445798032053126</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>17.65084814558852</v>
+        <v>20.445798032053126</v>
       </c>
     </row>
     <row r="25">
@@ -2959,16 +2959,16 @@
         <v>32.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.035174498488595766</v>
+        <v>0.03611738148984198</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>30.173484750307928</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>46.58249810774339</v>
+        <v>49.37744799420799</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>14.58249810774339</v>
+        <v>17.37744799420799</v>
       </c>
     </row>
     <row r="26">
@@ -2985,16 +2985,16 @@
         <v>28.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.0307776861775213</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>30.173484750307928</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>55.74372273559959</v>
+        <v>58.53867262206419</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>27.74372273559959</v>
+        <v>30.53867262206419</v>
       </c>
     </row>
     <row r="27">
@@ -3011,16 +3011,16 @@
         <v>36.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.03957131079967024</v>
+        <v>0.040632054176072234</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>36.208181700369515</v>
+        <v>35.262928262190044</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>65.21549735084075</v>
+        <v>68.01044723730534</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>29.21549735084075</v>
+        <v>32.01044723730534</v>
       </c>
     </row>
     <row r="28">
@@ -3034,19 +3034,19 @@
         <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>40.0</v>
+        <v>36.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.04396812311074471</v>
+        <v>0.040632054176072234</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>42.24287865043111</v>
+        <v>41.14008297255506</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>70.18429714900005</v>
+        <v>68.94209719946022</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>30.184297149000045</v>
+        <v>32.94209719946022</v>
       </c>
     </row>
     <row r="29">
@@ -3086,19 +3086,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>34.0</v>
+        <v>28.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.037372904644133</v>
+        <v>0.03160270880361174</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>37.71685593788492</v>
+        <v>36.7322169397813</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>61.79944748960623</v>
+        <v>65.21549735084075</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>27.79944748960623</v>
+        <v>37.21549735084075</v>
       </c>
     </row>
     <row r="31">
@@ -3115,16 +3115,16 @@
         <v>34.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.037372904644133</v>
+        <v>0.03837471783295711</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>30.173484750307928</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>55.27789775452216</v>
+        <v>54.346247792367286</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>21.277897754522158</v>
+        <v>20.346247792367286</v>
       </c>
     </row>
     <row r="32">
@@ -3141,16 +3141,16 @@
         <v>36.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.03957131079967024</v>
+        <v>0.040632054176072234</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>30.173484750307928</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>54.9673477671372</v>
+        <v>57.762297653601806</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>18.9673477671372</v>
+        <v>21.762297653601806</v>
       </c>
     </row>
     <row r="33">
@@ -3167,16 +3167,16 @@
         <v>36.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.03957131079967024</v>
+        <v>0.040632054176072234</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>30.173484750307928</v>
+        <v>29.385773551825036</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>59.1597725968341</v>
+        <v>61.95472248329871</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>23.159772596834102</v>
+        <v>25.95472248329871</v>
       </c>
     </row>
     <row r="34">
@@ -3193,16 +3193,16 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.035174498488595766</v>
+        <v>0.03611738148984198</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>36.208181700369515</v>
+        <v>35.262928262190044</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>61.17834751483632</v>
+        <v>66.45769730038057</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>29.178347514836318</v>
+        <v>34.45769730038057</v>
       </c>
     </row>
     <row r="35">
@@ -3216,19 +3216,19 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>909.75</v>
+        <v>886.0</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>909.7305652217841</v>
+        <v>885.9810725875252</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>1618.4312592566978</v>
+        <v>1663.4610074275165</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>708.6812592566978</v>
+        <v>777.4610074275165</v>
       </c>
     </row>
     <row r="36">
@@ -3332,10 +3332,10 @@
         <v>26.506896413790713</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>28.679710997145794</v>
+        <v>28.51100681480964</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>1.6797109971457935</v>
+        <v>1.5110068148096403</v>
       </c>
     </row>
     <row r="5">
@@ -3358,10 +3358,10 @@
         <v>26.506896413790713</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>24.209050165237773</v>
+        <v>25.389979441590835</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-0.7909498347622268</v>
+        <v>0.3899794415908353</v>
       </c>
     </row>
     <row r="6">
@@ -3384,10 +3384,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>37.11492011395338</v>
+        <v>38.295849390306444</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>5.1149201139533815</v>
+        <v>6.295849390306444</v>
       </c>
     </row>
     <row r="7">
@@ -3462,10 +3462,10 @@
         <v>32.39731783907754</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>32.05379464386883</v>
+        <v>34.2469490142388</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-8.946205356131173</v>
+        <v>-6.753050985761199</v>
       </c>
     </row>
     <row r="10">
@@ -3488,10 +3488,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>26.95049312820024</v>
+        <v>28.51100681480964</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-3.0495068717997604</v>
+        <v>-1.4889931851903597</v>
       </c>
     </row>
     <row r="11">
@@ -3514,10 +3514,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>29.73411213674674</v>
+        <v>30.53545700284346</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-0.2658878632532584</v>
+        <v>0.5354570028434615</v>
       </c>
     </row>
     <row r="12">
@@ -3540,10 +3540,10 @@
         <v>26.506896413790713</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>31.63203418802845</v>
+        <v>34.50000528774303</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-1.3679658119715512</v>
+        <v>1.5000052877430292</v>
       </c>
     </row>
     <row r="13">
@@ -3566,10 +3566,10 @@
         <v>35.342528551720946</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>38.8019619373149</v>
+        <v>40.32029957834026</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>15.8019619373149</v>
+        <v>17.32029957834026</v>
       </c>
     </row>
     <row r="14">
@@ -3592,10 +3592,10 @@
         <v>45.650766045972894</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>38.8019619373149</v>
+        <v>36.777511749281075</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-0.19803806268510016</v>
+        <v>-2.222488250718925</v>
       </c>
     </row>
     <row r="15">
@@ -3644,10 +3644,10 @@
         <v>36.81513390804266</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>39.1393703019872</v>
+        <v>39.30807448432335</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-3.8606296980128008</v>
+        <v>-3.691925515676651</v>
       </c>
     </row>
     <row r="17">
@@ -3670,10 +3670,10 @@
         <v>30.924712482755837</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>30.872865367515764</v>
+        <v>32.39120300854113</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-2.1271346324842355</v>
+        <v>-0.6087969914588669</v>
       </c>
     </row>
     <row r="18">
@@ -3696,10 +3696,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>30.872865367515764</v>
+        <v>31.041569549851918</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>5.8728653675157645</v>
+        <v>6.041569549851918</v>
       </c>
     </row>
     <row r="19">
@@ -3722,10 +3722,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>33.31907601138997</v>
+        <v>32.81296346438151</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>2.319076011389967</v>
+        <v>1.812963464381511</v>
       </c>
     </row>
     <row r="20">
@@ -3748,10 +3748,10 @@
         <v>35.342528551720946</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>37.45232847862568</v>
+        <v>38.295849390306444</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>6.452328478625681</v>
+        <v>7.295849390306444</v>
       </c>
     </row>
     <row r="21">
@@ -3774,10 +3774,10 @@
         <v>41.23294997700778</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>40.15159539600411</v>
+        <v>39.1393703019872</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-6.848404603995888</v>
+        <v>-7.860629698012801</v>
       </c>
     </row>
     <row r="22">
@@ -3826,10 +3826,10 @@
         <v>36.81513390804266</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>32.05379464386883</v>
+        <v>33.572132284894195</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-11.946205356131173</v>
+        <v>-10.427867715105805</v>
       </c>
     </row>
     <row r="24">
@@ -3852,10 +3852,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>24.799514803414304</v>
+        <v>26.31785244443967</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-7.200485196585696</v>
+        <v>-5.682147555560331</v>
       </c>
     </row>
     <row r="25">
@@ -3878,10 +3878,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>25.30562735042276</v>
+        <v>26.823964991448126</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>4.3056273504227605</v>
+        <v>5.8239649914481255</v>
       </c>
     </row>
     <row r="26">
@@ -3904,10 +3904,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>30.282400729339233</v>
+        <v>31.800738370364602</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-1.7175992706607666</v>
+        <v>-0.19926162963539795</v>
       </c>
     </row>
     <row r="27">
@@ -3930,10 +3930,10 @@
         <v>35.342528551720946</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>35.42787829059186</v>
+        <v>36.946215931617225</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>3.427878290591863</v>
+        <v>4.946215931617225</v>
       </c>
     </row>
     <row r="28">
@@ -3956,10 +3956,10 @@
         <v>41.23294997700778</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>38.12714520797029</v>
+        <v>37.45232847862568</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>0.12714520797028683</v>
+        <v>-0.5476715213743191</v>
       </c>
     </row>
     <row r="29">
@@ -4008,10 +4008,10 @@
         <v>36.81513390804266</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>33.572132284894195</v>
+        <v>35.42787829059186</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-10.427867715105805</v>
+        <v>-8.572121709408137</v>
       </c>
     </row>
     <row r="31">
@@ -4034,10 +4034,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>30.02934445583501</v>
+        <v>29.523231908826553</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>0.029344455835008887</v>
+        <v>-0.4767680911734473</v>
       </c>
     </row>
     <row r="32">
@@ -4060,10 +4060,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>29.860640273498856</v>
+        <v>31.37897791452422</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-2.1393597265011444</v>
+        <v>-0.6210220854757793</v>
       </c>
     </row>
     <row r="33">
@@ -4086,10 +4086,10 @@
         <v>29.45210712643412</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>32.138146735036905</v>
+        <v>33.65648437606227</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>2.138146735036905</v>
+        <v>3.6564843760622665</v>
       </c>
     </row>
     <row r="34">
@@ -4112,10 +4112,10 @@
         <v>35.342528551720946</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>33.23472392022189</v>
+        <v>36.10269501993647</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>0.2347239202218887</v>
+        <v>3.102695019936469</v>
       </c>
     </row>
     <row r="35">
@@ -4138,10 +4138,10 @@
         <v>887.9810298619891</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>879.2018462448547</v>
+        <v>903.6639526835967</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-8.798153755145336</v>
+        <v>15.663952683596676</v>
       </c>
     </row>
     <row r="36">
@@ -4236,19 +4236,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.04898958971218616</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>13.788187446518148</v>
+        <v>14.95490439561841</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>17.869115098722162</v>
+        <v>17.764002656964973</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-2.130884901277838</v>
+        <v>-1.2359973430350273</v>
       </c>
     </row>
     <row r="5">
@@ -4262,19 +4262,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.04898958971218616</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>13.788187446518148</v>
+        <v>14.95490439561841</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>15.083635392156648</v>
+        <v>15.819422484456974</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-4.916364607843352</v>
+        <v>-11.180577515543026</v>
       </c>
     </row>
     <row r="6">
@@ -4288,19 +4288,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.05878750765462339</v>
+        <v>0.06187624750499002</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>15.320208273909051</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>23.124737186581623</v>
+        <v>23.860524278881947</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-0.8752628134183773</v>
+        <v>-7.139475721118053</v>
       </c>
     </row>
     <row r="7">
@@ -4317,10 +4317,10 @@
         <v>12.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.029393753827311696</v>
+        <v>0.023952095808383235</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>21.448291583472674</v>
+        <v>23.263184615406416</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>21.548050560223782</v>
@@ -4366,19 +4366,19 @@
         <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>8.0</v>
+        <v>15.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.019595835884874464</v>
+        <v>0.029940119760479042</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>16.852229101299958</v>
+        <v>18.278216483533612</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>19.971363933865945</v>
+        <v>21.337825676709404</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>11.971363933865945</v>
+        <v>6.337825676709404</v>
       </c>
     </row>
     <row r="10">
@@ -4392,19 +4392,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.0</v>
+        <v>0.013972055888223553</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>0.0</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>16.791712570710974</v>
+        <v>17.764002656964973</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>16.791712570710974</v>
+        <v>10.764002656964973</v>
       </c>
     </row>
     <row r="11">
@@ -4418,19 +4418,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>20.25</v>
+        <v>19.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.049601959583588484</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>15.320208273909051</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>18.526067859704593</v>
+        <v>19.025351958051242</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-1.7239321402954069</v>
+        <v>0.025351958051242462</v>
       </c>
     </row>
     <row r="12">
@@ -4444,19 +4444,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.029393753827311696</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>13.788187446518148</v>
+        <v>14.95490439561841</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>19.708582829472974</v>
+        <v>21.49549433934519</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>7.708582829472974</v>
+        <v>2.495494339345189</v>
       </c>
     </row>
     <row r="13">
@@ -4470,19 +4470,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.05878750765462339</v>
+        <v>0.06187624750499002</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>18.38424992869086</v>
+        <v>19.93987252749121</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>24.175861604153514</v>
+        <v>25.121873579968216</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>0.17586160415351415</v>
+        <v>-5.8781264200317835</v>
       </c>
     </row>
     <row r="14">
@@ -4496,19 +4496,19 @@
         <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.05878750765462339</v>
+        <v>0.023952095808383235</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>23.74632282455903</v>
+        <v>25.755668681342815</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>24.175861604153514</v>
+        <v>22.914512303067244</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>0.17586160415351415</v>
+        <v>10.914512303067244</v>
       </c>
     </row>
     <row r="15">
@@ -4548,19 +4548,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>28.0</v>
+        <v>27.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.06858542559706063</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>19.150260342386314</v>
+        <v>20.770700549470014</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>24.386086487667892</v>
+        <v>24.49119892942508</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-3.6139135123321076</v>
+        <v>-2.5088010705749184</v>
       </c>
     </row>
     <row r="17">
@@ -4574,19 +4574,19 @@
         <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.029393753827311696</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>16.086218687604507</v>
+        <v>17.447388461554812</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>19.23557684156562</v>
+        <v>20.181588817380323</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>7.235576841565621</v>
+        <v>1.181588817380323</v>
       </c>
     </row>
     <row r="18">
@@ -4600,19 +4600,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.04898958971218616</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>15.320208273909051</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>19.23557684156562</v>
+        <v>19.34068928332281</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-0.7644231584343792</v>
+        <v>0.3406892833228099</v>
       </c>
     </row>
     <row r="19">
@@ -4626,19 +4626,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.05878750765462339</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>15.320208273909051</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>20.759707247044865</v>
+        <v>20.444369921773298</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-3.240292752955135</v>
+        <v>1.4443699217732977</v>
       </c>
     </row>
     <row r="20">
@@ -4652,19 +4652,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.05878750765462339</v>
+        <v>0.06187624750499002</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>18.38424992869086</v>
+        <v>19.93987252749121</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>23.334962070096</v>
+        <v>23.860524278881947</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>-0.665037929903999</v>
+        <v>-7.139475721118053</v>
       </c>
     </row>
     <row r="21">
@@ -4681,16 +4681,16 @@
         <v>20.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.04898958971218616</v>
+        <v>0.03992015968063872</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>21.448291583472674</v>
+        <v>23.263184615406416</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>25.016761138211027</v>
+        <v>24.386086487667892</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>5.016761138211027</v>
+        <v>4.386086487667892</v>
       </c>
     </row>
     <row r="22">
@@ -4730,19 +4730,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.029393753827311696</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>19.150260342386314</v>
+        <v>20.770700549470014</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>19.971363933865945</v>
+        <v>20.917375909680647</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>7.971363933865945</v>
+        <v>1.917375909680647</v>
       </c>
     </row>
     <row r="24">
@@ -4756,19 +4756,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0</v>
+        <v>0.013972055888223553</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>0.0</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>15.45152893830681</v>
+        <v>16.397540914121514</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>15.45152893830681</v>
+        <v>9.397540914121514</v>
       </c>
     </row>
     <row r="25">
@@ -4782,19 +4782,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.0</v>
+        <v>0.013972055888223553</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>0.0</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>15.766866263578379</v>
+        <v>16.71287823939308</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>15.766866263578379</v>
+        <v>9.712878239393081</v>
       </c>
     </row>
     <row r="26">
@@ -4808,19 +4808,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.0</v>
+        <v>0.013972055888223553</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>0.0</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>18.86768329541546</v>
+        <v>19.813695271230163</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>18.86768329541546</v>
+        <v>12.813695271230163</v>
       </c>
     </row>
     <row r="27">
@@ -4834,19 +4834,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.029393753827311696</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>18.38424992869086</v>
+        <v>19.93987252749121</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>22.073612769009728</v>
+        <v>23.019624744824434</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>10.073612769009728</v>
+        <v>4.0196247448244335</v>
       </c>
     </row>
     <row r="28">
@@ -4863,16 +4863,16 @@
         <v>12.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.029393753827311696</v>
+        <v>0.023952095808383235</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>21.448291583472674</v>
+        <v>23.263184615406416</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>23.755411837124758</v>
+        <v>23.334962070096</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>11.755411837124758</v>
+        <v>11.334962070096001</v>
       </c>
     </row>
     <row r="29">
@@ -4912,19 +4912,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>24.0</v>
+        <v>31.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.05878750765462339</v>
+        <v>0.06187624750499002</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>19.150260342386314</v>
+        <v>20.770700549470014</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>20.917375909680647</v>
+        <v>22.073612769009728</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-3.082624090319353</v>
+        <v>-8.926387230990272</v>
       </c>
     </row>
     <row r="31">
@@ -4938,19 +4938,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>12.0</v>
+        <v>7.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.029393753827311696</v>
+        <v>0.013972055888223553</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>15.320208273909051</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>18.710014632779675</v>
+        <v>18.394677307508108</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>6.710014632779675</v>
+        <v>11.394677307508108</v>
       </c>
     </row>
     <row r="32">
@@ -4964,19 +4964,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.029393753827311696</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>15.320208273909051</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>18.604902191022486</v>
+        <v>19.550914166837188</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>6.604902191022486</v>
+        <v>0.5509141668371882</v>
       </c>
     </row>
     <row r="33">
@@ -4990,19 +4990,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.029393753827311696</v>
+        <v>0.03792415169660679</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>15.320208273909051</v>
+        <v>16.616560439576006</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>20.02392015474454</v>
+        <v>20.969932130559243</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>8.023920154744541</v>
+        <v>1.9699321305592434</v>
       </c>
     </row>
     <row r="34">
@@ -5016,19 +5016,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>20.0</v>
+        <v>27.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.04898958971218616</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>18.38424992869086</v>
+        <v>19.93987252749121</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>20.70715102616627</v>
+        <v>22.494062536038488</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>0.7071510261662688</v>
+        <v>-4.505937463961512</v>
       </c>
     </row>
     <row r="35">
@@ -5042,19 +5042,19 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>408.25</v>
+        <v>501.0</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>400.62344636272167</v>
+        <v>500.9892972532167</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>547.7934902175914</v>
+        <v>563.0347942723839</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>139.5434902175914</v>
+        <v>62.03479427238392</v>
       </c>
     </row>
     <row r="36">
@@ -5152,16 +5152,16 @@
         <v>30.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.031880977683315624</v>
+        <v>0.02827521206409048</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>28.08895216821741</v>
+        <v>31.67096519710805</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>18.691751943413426</v>
+        <v>18.58180046139335</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-11.308248056586574</v>
+        <v>-11.41819953860665</v>
       </c>
     </row>
     <row r="5">
@@ -5178,16 +5178,16 @@
         <v>23.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.024442082890541977</v>
+        <v>0.021677662582469368</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>28.08895216821741</v>
+        <v>31.67096519710805</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>15.778037669881334</v>
+        <v>16.547698044021885</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-7.221962330118666</v>
+        <v>-6.452301955978115</v>
       </c>
     </row>
     <row r="6">
@@ -5204,16 +5204,16 @@
         <v>38.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.040382571732199786</v>
+        <v>0.03581526861451461</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>31.209946853574895</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>24.189326044417378</v>
+        <v>24.95898641855793</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-13.810673955582622</v>
+        <v>-13.04101358144207</v>
       </c>
     </row>
     <row r="7">
@@ -5230,10 +5230,10 @@
         <v>34.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.036131774707757705</v>
+        <v>0.03204524033930255</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>43.69392559500486</v>
+        <v>49.26594586216808</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>22.54005381411619</v>
@@ -5279,19 +5279,19 @@
         <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.04144527098831031</v>
+        <v>0.04241281809613572</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>34.33094153893239</v>
+        <v>38.70895746313206</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>20.890781583815006</v>
+        <v>22.320150850076033</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-18.109218416184994</v>
+        <v>-22.679849149923967</v>
       </c>
     </row>
     <row r="10">
@@ -5305,19 +5305,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>35.0</v>
+        <v>41.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.03719447396386823</v>
+        <v>0.03864278982092366</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>31.209946853574895</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>17.564749252707617</v>
+        <v>18.58180046139335</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-17.435250747292383</v>
+        <v>-22.41819953860665</v>
       </c>
     </row>
     <row r="11">
@@ -5331,19 +5331,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.040382571732199786</v>
+        <v>0.04147031102733271</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>31.209946853574895</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>19.37894870603892</v>
+        <v>19.901218245634297</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-18.62105129396108</v>
+        <v>-24.098781754365703</v>
       </c>
     </row>
     <row r="12">
@@ -5357,19 +5357,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03400637619553666</v>
+        <v>0.03581526861451461</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>28.08895216821741</v>
+        <v>31.67096519710805</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>20.61590287876481</v>
+        <v>22.485078073106152</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-11.38409712123519</v>
+        <v>-15.514921926893848</v>
       </c>
     </row>
     <row r="13">
@@ -5383,19 +5383,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>38.0</v>
+        <v>44.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.040382571732199786</v>
+        <v>0.04147031102733271</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>37.45193622428988</v>
+        <v>42.22795359614406</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>25.288840864618166</v>
+        <v>26.27840420279888</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-12.711159135381834</v>
+        <v>-17.72159579720112</v>
       </c>
     </row>
     <row r="14">
@@ -5412,16 +5412,16 @@
         <v>29.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.030818278427205102</v>
+        <v>0.027332704995287466</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>48.375417623041095</v>
+        <v>54.54444006168608</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>25.288840864618166</v>
+        <v>23.96942308037722</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-3.711159135381834</v>
+        <v>-5.030576919622781</v>
       </c>
     </row>
     <row r="15">
@@ -5461,19 +5461,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.04144527098831031</v>
+        <v>0.04241281809613572</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>39.01243356696863</v>
+        <v>43.987451662650074</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>25.508743828658325</v>
+        <v>25.618695310678405</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-13.491256171341675</v>
+        <v>-19.381304689321595</v>
       </c>
     </row>
     <row r="17">
@@ -5487,19 +5487,19 @@
         <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.03825717321997875</v>
+        <v>0.03958529688972667</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>32.77044419625365</v>
+        <v>36.94945939662606</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>20.121121209674453</v>
+        <v>21.110684547855165</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-15.878878790325547</v>
+        <v>-20.889315452144835</v>
       </c>
     </row>
     <row r="18">
@@ -5513,19 +5513,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.039319872476089264</v>
+        <v>0.04052780395852969</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>31.209946853574895</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>20.121121209674453</v>
+        <v>20.231072691694532</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-16.878878790325547</v>
+        <v>-22.768927308305468</v>
       </c>
     </row>
     <row r="19">
@@ -5539,19 +5539,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.03825717321997875</v>
+        <v>0.03958529688972667</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>31.209946853574895</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>21.7154176989656</v>
+        <v>21.385563252905364</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-14.284582301034401</v>
+        <v>-20.614436747094636</v>
       </c>
     </row>
     <row r="20">
@@ -5565,19 +5565,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.04250797024442083</v>
+        <v>0.043355325164938736</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>37.45193622428988</v>
+        <v>42.22795359614406</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>24.409229008457533</v>
+        <v>24.95898641855793</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>-15.590770991542467</v>
+        <v>-21.04101358144207</v>
       </c>
     </row>
     <row r="21">
@@ -5594,16 +5594,16 @@
         <v>36.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.03825717321997875</v>
+        <v>0.033930254476908575</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>43.69392559500486</v>
+        <v>49.26594586216808</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>26.1684527207788</v>
+        <v>25.508743828658325</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-9.831547279221201</v>
+        <v>-10.491256171341675</v>
       </c>
     </row>
     <row r="22">
@@ -5643,19 +5643,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.04144527098831031</v>
+        <v>0.04241281809613572</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>39.01243356696863</v>
+        <v>43.987451662650074</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>20.890781583815006</v>
+        <v>21.880344921995718</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-18.109218416184994</v>
+        <v>-23.119655078004282</v>
       </c>
     </row>
     <row r="24">
@@ -5669,19 +5669,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.031880977683315624</v>
+        <v>0.033930254476908575</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>31.209946853574895</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>16.16286785695161</v>
+        <v>17.152431195132323</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-13.83713214304839</v>
+        <v>-18.847568804867677</v>
       </c>
     </row>
     <row r="25">
@@ -5695,19 +5695,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>23.0</v>
+        <v>29.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.024442082890541977</v>
+        <v>0.027332704995287466</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>31.209946853574895</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>16.49272230301185</v>
+        <v>17.482285641192558</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-6.507277696988151</v>
+        <v>-11.517714358807442</v>
       </c>
     </row>
     <row r="26">
@@ -5721,19 +5721,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.04144527098831031</v>
+        <v>0.04241281809613572</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>31.209946853574895</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>19.736291022604178</v>
+        <v>20.72585436078489</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-19.263708977395822</v>
+        <v>-24.27414563921511</v>
       </c>
     </row>
     <row r="27">
@@ -5747,19 +5747,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.04250797024442083</v>
+        <v>0.043355325164938736</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>37.45193622428988</v>
+        <v>42.22795359614406</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>23.089811224216586</v>
+        <v>24.079374562397298</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>-16.910188775783414</v>
+        <v>-21.920625437602702</v>
       </c>
     </row>
     <row r="28">
@@ -5776,16 +5776,16 @@
         <v>32.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.03400637619553666</v>
+        <v>0.030160226201696512</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>43.69392559500486</v>
+        <v>49.26594586216808</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>24.84903493653785</v>
+        <v>24.409229008457533</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-7.150965063462149</v>
+        <v>-7.590770991542467</v>
       </c>
     </row>
     <row r="29">
@@ -5825,19 +5825,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>32.0</v>
+        <v>38.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.03400637619553666</v>
+        <v>0.03581526861451461</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>39.01243356696863</v>
+        <v>43.987451662650074</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>21.880344921995718</v>
+        <v>23.089811224216586</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-10.119655078004282</v>
+        <v>-14.910188775783414</v>
       </c>
     </row>
     <row r="31">
@@ -5851,19 +5851,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>37.0</v>
+        <v>43.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.039319872476089264</v>
+        <v>0.04052780395852969</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>31.209946853574895</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>19.57136379957406</v>
+        <v>19.241509353513823</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-17.42863620042594</v>
+        <v>-23.758490646486177</v>
       </c>
     </row>
     <row r="32">
@@ -5877,19 +5877,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.031880977683315624</v>
+        <v>0.033930254476908575</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>31.209946853574895</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>19.46141231755398</v>
+        <v>20.45097565573469</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-10.538587682446021</v>
+        <v>-15.549024344265309</v>
       </c>
     </row>
     <row r="33">
@@ -5903,19 +5903,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>39.0</v>
+        <v>45.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.04144527098831031</v>
+        <v>0.04241281809613572</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>31.209946853574895</v>
+        <v>35.18996133012005</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>20.945757324825045</v>
+        <v>21.935320663005758</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-18.054242675174955</v>
+        <v>-23.064679336994242</v>
       </c>
     </row>
     <row r="34">
@@ -5929,19 +5929,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>40.0</v>
+        <v>46.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.04250797024442083</v>
+        <v>0.043355325164938736</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>37.45193622428988</v>
+        <v>42.22795359614406</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>21.66044195795556</v>
+        <v>23.529617152296904</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-18.33955804204444</v>
+        <v>-22.470382847703096</v>
       </c>
     </row>
     <row r="35">
@@ -5955,19 +5955,19 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>941.0</v>
+        <v>1061.0</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>940.9798976352835</v>
+        <v>1060.9773341031196</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>573.0121485476416</v>
+        <v>588.9551134405531</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-367.9878514523584</v>
+        <v>-472.0448865594469</v>
       </c>
     </row>
     <row r="36">
@@ -6065,16 +6065,16 @@
         <v>29.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.026268115942028984</v>
+        <v>0.027992277992277992</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>32.95451986579386</v>
+        <v>30.924712482755833</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>27.680915091772558</v>
+        <v>27.518086179468014</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-1.3190849082274418</v>
+        <v>-1.481913820531986</v>
       </c>
     </row>
     <row r="5">
@@ -6091,16 +6091,16 @@
         <v>27.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.024456521739130436</v>
+        <v>0.026061776061776062</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>32.95451986579386</v>
+        <v>30.924712482755833</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>23.36594891570213</v>
+        <v>24.505751301833943</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-3.6340510842978695</v>
+        <v>-2.494248698166057</v>
       </c>
     </row>
     <row r="6">
@@ -6117,16 +6117,16 @@
         <v>43.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.03894927536231884</v>
+        <v>0.041505791505791506</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>36.61613318421539</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>35.82236070699978</v>
+        <v>36.96216309313159</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-7.177639293000219</v>
+        <v>-6.037836906868407</v>
       </c>
     </row>
     <row r="7">
@@ -6143,10 +6143,10 @@
         <v>53.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.04800724637681159</v>
+        <v>0.05115830115830116</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>51.26258645790156</v>
+        <v>48.105108306509074</v>
       </c>
       <c r="G7" t="n" s="2">
         <v>33.379927022431616</v>
@@ -6195,16 +6195,16 @@
         <v>39.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.035326086956521736</v>
+        <v>0.037644787644787646</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>40.27774650263694</v>
+        <v>37.796870812257126</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>30.937493337863447</v>
+        <v>33.05426919782253</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-8.062506662136553</v>
+        <v>-5.945730802177472</v>
       </c>
     </row>
     <row r="10">
@@ -6221,16 +6221,16 @@
         <v>23.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.020833333333333332</v>
+        <v>0.0222007722007722</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>36.61613318421539</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>26.011918740650977</v>
+        <v>27.518086179468014</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>3.0119187406509766</v>
+        <v>4.518086179468014</v>
       </c>
     </row>
     <row r="11">
@@ -6247,16 +6247,16 @@
         <v>24.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.021739130434782608</v>
+        <v>0.023166023166023165</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>36.61613318421539</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>28.698595793675963</v>
+        <v>29.472033127122547</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>4.698595793675963</v>
+        <v>5.472033127122547</v>
       </c>
     </row>
     <row r="12">
@@ -6270,19 +6270,19 @@
         <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.042572463768115944</v>
+        <v>0.041505791505791506</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>32.95451986579386</v>
+        <v>30.924712482755833</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>30.53042105710209</v>
+        <v>33.29851256627934</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-16.46957894289791</v>
+        <v>-9.701487433720658</v>
       </c>
     </row>
     <row r="13">
@@ -6296,19 +6296,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>63.0</v>
+        <v>59.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.057065217391304345</v>
+        <v>0.05694980694980695</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>43.939359821058474</v>
+        <v>41.23294997700777</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>37.45064983004523</v>
+        <v>38.91611004078613</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-25.54935016995477</v>
+        <v>-20.08388995921387</v>
       </c>
     </row>
     <row r="14">
@@ -6325,16 +6325,16 @@
         <v>57.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.051630434782608696</v>
+        <v>0.05501930501930502</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>56.755006435533865</v>
+        <v>53.259227053635044</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>37.45064983004523</v>
+        <v>35.49670288239069</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-19.54935016995477</v>
+        <v>-21.503297117609307</v>
       </c>
     </row>
     <row r="15">
@@ -6374,19 +6374,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>41.0</v>
+        <v>37.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.03713768115942029</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>45.77016648026925</v>
+        <v>42.9509895593831</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>37.77630765465432</v>
+        <v>37.93913656695886</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-3.2236923453456825</v>
+        <v>0.939136566958858</v>
       </c>
     </row>
     <row r="17">
@@ -6400,19 +6400,19 @@
         <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.03170289855072464</v>
+        <v>0.029922779922779922</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>38.44693984342617</v>
+        <v>36.07883122988181</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>29.79769095173164</v>
+        <v>31.26315116247254</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-5.202309048268361</v>
+        <v>0.2631511624725391</v>
       </c>
     </row>
     <row r="18">
@@ -6426,19 +6426,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.03260869565217391</v>
+        <v>0.03088803088803089</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>36.61613318421539</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>29.79769095173164</v>
+        <v>29.960519864036183</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-6.202309048268361</v>
+        <v>-2.0394801359638173</v>
       </c>
     </row>
     <row r="19">
@@ -6452,19 +6452,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>39.0</v>
+        <v>35.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.035326086956521736</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>36.61613318421539</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>32.15871018014753</v>
+        <v>31.670223443233898</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-6.84128981985247</v>
+        <v>-3.3297765567661024</v>
       </c>
     </row>
     <row r="20">
@@ -6478,19 +6478,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>59.0</v>
+        <v>55.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.05344202898550725</v>
+        <v>0.05308880308880309</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>43.939359821058474</v>
+        <v>41.23294997700777</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>36.14801853160887</v>
+        <v>36.96216309313159</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>-22.85198146839113</v>
+        <v>-18.037836906868407</v>
       </c>
     </row>
     <row r="21">
@@ -6507,16 +6507,16 @@
         <v>45.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.04076086956521739</v>
+        <v>0.04343629343629344</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>51.26258645790156</v>
+        <v>48.105108306509074</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>38.75328112848158</v>
+        <v>37.77630765465432</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-6.246718871518418</v>
+        <v>-7.2236923453456825</v>
       </c>
     </row>
     <row r="22">
@@ -6556,19 +6556,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.029891304347826088</v>
+        <v>0.027992277992277992</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>45.77016648026925</v>
+        <v>42.9509895593831</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>30.937493337863447</v>
+        <v>32.40295354860435</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-2.0625066621365526</v>
+        <v>3.4029535486043514</v>
       </c>
     </row>
     <row r="24">
@@ -6582,19 +6582,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>27.0</v>
+        <v>23.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.024456521739130436</v>
+        <v>0.0222007722007722</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>36.61613318421539</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>23.935850108768037</v>
+        <v>25.401310319508937</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-3.0641498912319634</v>
+        <v>2.401310319508937</v>
       </c>
     </row>
     <row r="25">
@@ -6608,19 +6608,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.03260869565217391</v>
+        <v>0.03088803088803089</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>36.61613318421539</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>24.42433684568167</v>
+        <v>25.88979705642257</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-11.575663154318331</v>
+        <v>-6.1102029435774305</v>
       </c>
     </row>
     <row r="26">
@@ -6634,19 +6634,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>47.0</v>
+        <v>43.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.042572463768115944</v>
+        <v>0.041505791505791506</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>36.61613318421539</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>29.227789758665732</v>
+        <v>30.693249969406633</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-17.772210241334268</v>
+        <v>-12.306750030593367</v>
       </c>
     </row>
     <row r="27">
@@ -6660,19 +6660,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>59.0</v>
+        <v>55.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.05344202898550725</v>
+        <v>0.05308880308880309</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>43.939359821058474</v>
+        <v>41.23294997700777</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>34.19407158395434</v>
+        <v>35.65953179469524</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>-24.80592841604566</v>
+        <v>-19.34046820530476</v>
       </c>
     </row>
     <row r="28">
@@ -6689,16 +6689,16 @@
         <v>61.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.0552536231884058</v>
+        <v>0.05888030888030888</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>51.26258645790156</v>
+        <v>48.105108306509074</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>36.799334180827046</v>
+        <v>36.14801853160887</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-24.200665819172954</v>
+        <v>-24.85198146839113</v>
       </c>
     </row>
     <row r="29">
@@ -6738,19 +6738,19 @@
         <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.03170289855072464</v>
+        <v>0.029922779922779922</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>45.77016648026925</v>
+        <v>42.9509895593831</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>32.40295354860435</v>
+        <v>34.19407158395434</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-2.5970464513956486</v>
+        <v>3.19407158395434</v>
       </c>
     </row>
     <row r="31">
@@ -6764,19 +6764,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>35.0</v>
+        <v>31.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.03170289855072464</v>
+        <v>0.029922779922779922</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>36.61613318421539</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>28.983546390208915</v>
+        <v>28.495059653295282</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-6.0164536097910855</v>
+        <v>-2.5049403467047178</v>
       </c>
     </row>
     <row r="32">
@@ -6790,19 +6790,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.029891304347826088</v>
+        <v>0.027992277992277992</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>36.61613318421539</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>28.82071747790437</v>
+        <v>30.28617768864527</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-4.17928252209563</v>
+        <v>1.286177688645271</v>
       </c>
     </row>
     <row r="33">
@@ -6816,19 +6816,19 @@
         <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>39.0</v>
+        <v>35.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.035326086956521736</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>36.61613318421539</v>
+        <v>34.360791647506474</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>31.01890779401572</v>
+        <v>32.48436800475662</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-7.981092205984279</v>
+        <v>-2.515631995243382</v>
       </c>
     </row>
     <row r="34">
@@ -6842,19 +6842,19 @@
         <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>39.0</v>
+        <v>35.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.035326086956521736</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>43.939359821058474</v>
+        <v>41.23294997700777</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>32.07729572399526</v>
+        <v>34.84538723317252</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-6.922704276004737</v>
+        <v>-0.15461276682748348</v>
       </c>
     </row>
     <row r="35">
@@ -6868,19 +6868,19 @@
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>1104.0</v>
+        <v>1036.0</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>1103.9764155040943</v>
+        <v>1035.9778681723205</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>848.5828764751335</v>
+        <v>872.1930687592924</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-255.4171235248665</v>
+        <v>-163.80693124070763</v>
       </c>
     </row>
     <row r="36">

--- a/SampleOutputReport.xlsx
+++ b/SampleOutputReport.xlsx
@@ -23,97 +23,97 @@
     <t>Dzień</t>
   </si>
   <si>
-    <t>2020-07-01</t>
+    <t>2020-05-01</t>
   </si>
   <si>
-    <t>2020-07-02</t>
+    <t>2020-05-02</t>
   </si>
   <si>
-    <t>2020-07-03</t>
+    <t>2020-05-03</t>
   </si>
   <si>
-    <t>2020-07-04</t>
+    <t>2020-05-04</t>
   </si>
   <si>
-    <t>2020-07-05</t>
+    <t>2020-05-05</t>
   </si>
   <si>
-    <t>2020-07-06</t>
+    <t>2020-05-06</t>
   </si>
   <si>
-    <t>2020-07-07</t>
+    <t>2020-05-07</t>
   </si>
   <si>
-    <t>2020-07-08</t>
+    <t>2020-05-08</t>
   </si>
   <si>
-    <t>2020-07-09</t>
+    <t>2020-05-09</t>
   </si>
   <si>
-    <t>2020-07-10</t>
+    <t>2020-05-10</t>
   </si>
   <si>
-    <t>2020-07-11</t>
+    <t>2020-05-11</t>
   </si>
   <si>
-    <t>2020-07-12</t>
+    <t>2020-05-12</t>
   </si>
   <si>
-    <t>2020-07-13</t>
+    <t>2020-05-13</t>
   </si>
   <si>
-    <t>2020-07-14</t>
+    <t>2020-05-14</t>
   </si>
   <si>
-    <t>2020-07-15</t>
+    <t>2020-05-15</t>
   </si>
   <si>
-    <t>2020-07-16</t>
+    <t>2020-05-16</t>
   </si>
   <si>
-    <t>2020-07-17</t>
+    <t>2020-05-17</t>
   </si>
   <si>
-    <t>2020-07-18</t>
+    <t>2020-05-18</t>
   </si>
   <si>
-    <t>2020-07-19</t>
+    <t>2020-05-19</t>
   </si>
   <si>
-    <t>2020-07-20</t>
+    <t>2020-05-20</t>
   </si>
   <si>
-    <t>2020-07-21</t>
+    <t>2020-05-21</t>
   </si>
   <si>
-    <t>2020-07-22</t>
+    <t>2020-05-22</t>
   </si>
   <si>
-    <t>2020-07-23</t>
+    <t>2020-05-23</t>
   </si>
   <si>
-    <t>2020-07-24</t>
+    <t>2020-05-24</t>
   </si>
   <si>
-    <t>2020-07-25</t>
+    <t>2020-05-25</t>
   </si>
   <si>
-    <t>2020-07-26</t>
+    <t>2020-05-26</t>
   </si>
   <si>
-    <t>2020-07-27</t>
+    <t>2020-05-27</t>
   </si>
   <si>
-    <t>2020-07-28</t>
+    <t>2020-05-28</t>
   </si>
   <si>
-    <t>2020-07-29</t>
+    <t>2020-05-29</t>
   </si>
   <si>
-    <t>2020-07-30</t>
+    <t>2020-05-30</t>
   </si>
   <si>
-    <t>2020-07-31</t>
+    <t>2020-05-31</t>
   </si>
   <si>
     <t>Sumy:</t>
@@ -140,7 +140,7 @@
     <t>Godziny aby zrealizować</t>
   </si>
   <si>
-    <t>Cel produktywności: 867.0</t>
+    <t>Cel produktywności: 9999.0</t>
   </si>
   <si>
     <t>Różnica godzin do</t>
@@ -535,7 +535,7 @@
     <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.33984375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -582,25 +582,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>180000.0</v>
+        <v>25782.0</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.006727420985681203</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>241.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.03451485857500895</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>208.42838311857395</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>208.5720389179112</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-32.427961082088814</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -608,25 +608,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>180000.0</v>
+        <v>37363.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.009749306891940377</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>214.5</v>
+        <v>107.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.030719656283566057</v>
+        <v>0.020697993068429114</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>208.42838311857395</v>
+        <v>52.23356153417901</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>208.5720389179112</v>
+        <v>3.872625748291911</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-5.927961082088814</v>
+        <v>-103.12737425170809</v>
       </c>
     </row>
     <row r="6">
@@ -634,25 +634,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>200000.0</v>
+        <v>22131.0</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.005774748034834795</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>291.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.04167561761546724</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>231.74670990879017</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-59.253290091209834</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -660,25 +660,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>280000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>231.0</v>
+        <v>210.9</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.03308270676691729</v>
+        <v>0.04079632465543645</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>324.2219292955595</v>
+        <v>209.70035142057253</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>324.4453938723063</v>
+        <v>15.547302471530301</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>93.44539387230628</v>
+        <v>-195.35269752846972</v>
       </c>
     </row>
     <row r="8">
@@ -686,25 +686,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>7000.0</v>
+        <v>130000.0</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>0.0</v>
+        <v>177.5</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03433545579108568</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.0</v>
+        <v>181.7403045644962</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.0</v>
+        <v>13.474328808659594</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>0.0</v>
+        <v>-164.0256711913404</v>
       </c>
     </row>
     <row r="9">
@@ -712,25 +712,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>220000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.036315615714757346</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>251.0</v>
+        <v>206.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.03594701038310061</v>
+        <v>0.03984847263641493</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>254.74580158936814</v>
+        <v>167.76028113645802</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>254.9213808996692</v>
+        <v>12.43784197722424</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>3.9213808996692023</v>
+        <v>-193.56215802277575</v>
       </c>
     </row>
     <row r="10">
@@ -738,25 +738,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>200000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>233.0</v>
+        <v>215.4</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.03336913712853563</v>
+        <v>0.04166680099943581</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>167.76028113645802</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>231.74670990879017</v>
+        <v>12.43784197722424</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-1.2532900912098341</v>
+        <v>-202.96215802277575</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +764,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>200000.0</v>
+        <v>130000.0</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>246.0</v>
+        <v>201.2</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.03523093447905478</v>
+        <v>0.038919964536148946</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>181.7403045644962</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>231.74670990879017</v>
+        <v>13.474328808659594</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-14.253290091209834</v>
+        <v>-187.72567119134038</v>
       </c>
     </row>
     <row r="12">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>180000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>261.5</v>
+        <v>156.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03745076978159685</v>
+        <v>0.030176513258644316</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>208.42838311857395</v>
+        <v>209.70035142057253</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>208.5720389179112</v>
+        <v>15.547302471530301</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-52.927961082088814</v>
+        <v>-140.45269752846968</v>
       </c>
     </row>
     <row r="13">
@@ -816,25 +816,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>240000.0</v>
+        <v>26398.0</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006888156821814149</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>309.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.044253490870032226</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>277.9045108247652</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>278.0960518905482</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-30.90394810945179</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -842,25 +842,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>310000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.05117200396170353</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>251.0</v>
+        <v>222.5</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.03594701038310061</v>
+        <v>0.04304021923107923</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>358.9599931486551</v>
+        <v>209.70035142057253</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>359.2074003586248</v>
+        <v>15.547302471530301</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>108.2074003586248</v>
+        <v>-206.95269752846968</v>
       </c>
     </row>
     <row r="15">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>7000.0</v>
+        <v>130000.0</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>0.0</v>
+        <v>190.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.0</v>
+        <v>0.036753445635528334</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>0.0</v>
+        <v>181.7403045644962</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>0.0</v>
+        <v>13.474328808659594</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>0.0</v>
+        <v>-176.5256711913404</v>
       </c>
     </row>
     <row r="16">
@@ -894,25 +894,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>250000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>306.0</v>
+        <v>191.5</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.04382384532760473</v>
+        <v>0.03704360441686145</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>289.4838654424638</v>
+        <v>167.76028113645802</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>289.68338738598777</v>
+        <v>12.43784197722424</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-16.31661261401223</v>
+        <v>-179.06215802277575</v>
       </c>
     </row>
     <row r="17">
@@ -920,25 +920,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>210000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.034664905909541105</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>257.0</v>
+        <v>195.5</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.036806301467955604</v>
+        <v>0.0378173611670831</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>243.16644697166961</v>
+        <v>167.76028113645802</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>243.33404540422973</v>
+        <v>12.43784197722424</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-13.665954595770273</v>
+        <v>-183.06215802277575</v>
       </c>
     </row>
     <row r="18">
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>200000.0</v>
+        <v>130000.0</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>257.0</v>
+        <v>199.5</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.036806301467955604</v>
+        <v>0.03859111791730475</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>181.7403045644962</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>231.74670990879017</v>
+        <v>13.474328808659594</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-25.253290091209834</v>
+        <v>-186.0256711913404</v>
       </c>
     </row>
     <row r="19">
@@ -972,25 +972,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>200000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>259.5</v>
+        <v>250.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.037164339419978515</v>
+        <v>0.04835979688885307</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>209.70035142057253</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>231.74670990879017</v>
+        <v>15.547302471530301</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-27.753290091209834</v>
+        <v>-234.45269752846968</v>
       </c>
     </row>
     <row r="20">
@@ -998,25 +998,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>240000.0</v>
+        <v>20843.0</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.0054386640138295445</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>291.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.04167561761546724</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>277.9045108247652</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>278.0960518905482</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>-12.90394810945179</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -1024,25 +1024,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>280000.0</v>
+        <v>121000.0</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03157311066897159</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>265.0</v>
+        <v>255.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.03795202291442893</v>
+        <v>0.04932699282663013</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>324.2219292955595</v>
+        <v>169.1582834792618</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>324.4453938723063</v>
+        <v>12.541490660367772</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>59.44539387230628</v>
+        <v>-242.45850933963223</v>
       </c>
     </row>
     <row r="22">
@@ -1050,25 +1050,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>7000.0</v>
+        <v>121342.0</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.031662350370201243</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>0.0</v>
+        <v>174.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03365841863464174</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>0.0</v>
+        <v>169.63640028050074</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>0.0</v>
+        <v>12.576938510002863</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>0.0</v>
+        <v>-161.42306148999714</v>
       </c>
     </row>
     <row r="23">
@@ -1076,25 +1076,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>250000.0</v>
+        <v>139762.0</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03646876936625461</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>256.0</v>
+        <v>186.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.036663086287146436</v>
+        <v>0.035979688885306685</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>289.4838654424638</v>
+        <v>195.38760343494707</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>289.68338738598777</v>
+        <v>14.486147253506786</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>33.68338738598777</v>
+        <v>-171.51385274649323</v>
       </c>
     </row>
     <row r="24">
@@ -1102,25 +1102,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>200000.0</v>
+        <v>133237.0</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.034766169803320396</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>220.0</v>
+        <v>201.5</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.03150733977801647</v>
+        <v>0.03897799629241557</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>186.26563814815216</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>231.74670990879017</v>
+        <v>13.809839595995218</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>11.746709908790166</v>
+        <v>-187.69016040400479</v>
       </c>
     </row>
     <row r="25">
@@ -1128,25 +1128,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>200000.0</v>
+        <v>145290.0</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03791121693466845</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>223.0</v>
+        <v>217.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.031936985320443964</v>
+        <v>0.041976303699524466</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>203.11576038596658</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>231.74670990879017</v>
+        <v>15.05911717392425</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>8.746709908790166</v>
+        <v>-201.94088282607575</v>
       </c>
     </row>
     <row r="26">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>200000.0</v>
+        <v>220705.0</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.057589614795003095</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>252.5</v>
+        <v>239.5</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.03616183315431436</v>
+        <v>0.04632868541952124</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>308.54610706851633</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>231.74670990879017</v>
+        <v>22.875782613193962</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-20.753290091209834</v>
+        <v>-216.62421738680604</v>
       </c>
     </row>
     <row r="27">
@@ -1180,25 +1180,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>240000.0</v>
+        <v>24639.0</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006429172510518934</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>283.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.04052989616899391</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>277.9045108247652</v>
+        <v>0.0</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>278.0960518905482</v>
+        <v>0.0</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>-4.90394810945179</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1206,25 +1206,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>280000.0</v>
+        <v>154242.0</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.04024710525457451</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>254.0</v>
+        <v>231.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.036376655925528106</v>
+        <v>0.04468445232530024</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>324.2219292955595</v>
+        <v>215.63067735874634</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>324.4453938723063</v>
+        <v>15.986980185425177</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>70.44539387230628</v>
+        <v>-215.01301981457482</v>
       </c>
     </row>
     <row r="29">
@@ -1232,25 +1232,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>7000.0</v>
+        <v>140000.0</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>0.0</v>
+        <v>207.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04004191182397034</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>0.0</v>
+        <v>195.72032799253435</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>0.0</v>
+        <v>14.510815640094947</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>0.0</v>
+        <v>-192.48918435990504</v>
       </c>
     </row>
     <row r="30">
@@ -1258,25 +1258,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>250000.0</v>
+        <v>140000.0</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>283.0</v>
+        <v>189.5</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.04052989616899391</v>
+        <v>0.036656726041750624</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>289.4838654424638</v>
+        <v>195.72032799253435</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>289.68338738598777</v>
+        <v>14.510815640094947</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>6.683387385987771</v>
+        <v>-174.98918435990504</v>
       </c>
     </row>
     <row r="31">
@@ -1284,25 +1284,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>200000.0</v>
+        <v>150000.0</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>248.0</v>
+        <v>196.6</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.03551736484067311</v>
+        <v>0.03803014427339405</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>209.70035142057253</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>231.74670990879017</v>
+        <v>15.547302471530301</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-16.253290091209834</v>
+        <v>-181.0526975284697</v>
       </c>
     </row>
     <row r="32">
@@ -1310,25 +1310,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>200000.0</v>
+        <v>250000.0</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.06523369972928014</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>251.0</v>
+        <v>264.483333333333</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.03594701038310061</v>
+        <v>0.051161441121947225</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>349.5005857009542</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>231.74670990879017</v>
+        <v>25.912170785883834</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-19.253290091209834</v>
+        <v>-238.57116254744918</v>
       </c>
     </row>
     <row r="33">
@@ -1336,25 +1336,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>200000.0</v>
+        <v>340000.0</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.088717831631821</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>263.5</v>
+        <v>285.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.03773720014321518</v>
+        <v>0.0551301684532925</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>231.587092353971</v>
+        <v>475.32079655329767</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>231.74670990879017</v>
+        <v>35.240552268802006</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-31.753290091209834</v>
+        <v>-249.759447731198</v>
       </c>
     </row>
     <row r="34">
@@ -1362,25 +1362,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>240000.0</v>
+        <v>19641.0</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.005125020385531165</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>284.0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.04067311134980308</v>
+        <v>0.0</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>277.9045108247652</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>278.0960518905482</v>
+        <v>0.0</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-5.90394810945179</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -1388,25 +1388,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>6058000.0</v>
+        <v>3832375.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>6982.5</v>
+        <v>5169.583333333333</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>6982.3508344722295</v>
+        <v>5162.74016983627</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>6987.312572087659</v>
+        <v>383.27582758275827</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>4.812572087658737</v>
+        <v>-4786.307505750575</v>
       </c>
     </row>
     <row r="36"/>
@@ -1444,7 +1444,7 @@
     <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.33984375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -1491,25 +1491,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>25255.86001980852</v>
+        <v>6054.678887113083</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.006727420985681203</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.036566785170137124</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>29.387431891190268</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>24.113786858296713</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-11.886213141703287</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -1517,25 +1517,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>25255.86001980852</v>
+        <v>8774.37620274634</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.009749306891940377</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>36.5</v>
+        <v>8.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.03707465718638903</v>
+        <v>0.013061224489795919</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>29.387431891190268</v>
+        <v>6.188710845107049</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>21.474111965524585</v>
+        <v>21.004426488397</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-15.025888034475415</v>
+        <v>13.004426488397002</v>
       </c>
     </row>
     <row r="6">
@@ -1543,25 +1543,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>28062.06668867613</v>
+        <v>5197.273231351316</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.005774748034834795</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>45.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.0457084814626714</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>32.389524359960674</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-12.610475640039326</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -1569,25 +1569,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>39286.893364146585</v>
+        <v>35226.19785381128</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>38.0</v>
+        <v>26.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.038598273235144746</v>
+        <v>0.04244897959183674</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>45.713782941851534</v>
+        <v>24.845612685438997</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>29.25045151450193</v>
+        <v>33.52221601178511</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>-8.749548485498071</v>
+        <v>7.522216011785112</v>
       </c>
     </row>
     <row r="8">
@@ -1595,25 +1595,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>982.1723341036645</v>
+        <v>30529.371473303112</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.0</v>
+        <v>0.052244897959183675</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.0</v>
+        <v>21.532864327380466</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.0</v>
+        <v>25.99032570533972</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>0.0</v>
+        <v>-6.009674294660279</v>
       </c>
     </row>
     <row r="9">
@@ -1621,25 +1621,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>30868.273357543745</v>
+        <v>28180.95828304902</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.036315615714757346</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.038598273235144746</v>
+        <v>0.05061224489795919</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>35.91797231145477</v>
+        <v>19.8764901483512</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>28.96508125582386</v>
+        <v>31.824888618783334</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-9.034918744176139</v>
+        <v>0.8248886187833335</v>
       </c>
     </row>
     <row r="10">
@@ -1647,25 +1647,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>28062.06668867613</v>
+        <v>28180.95828304902</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.036566785170137124</v>
+        <v>0.04897959183673469</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>19.8764901483512</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>24.113786858296713</v>
+        <v>32.461386391159</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-11.886213141703287</v>
+        <v>2.461386391159003</v>
       </c>
     </row>
     <row r="11">
@@ -1673,25 +1673,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>28062.06668867613</v>
+        <v>30529.371473303112</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>30.0</v>
+        <v>27.5</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.03047232097511427</v>
+        <v>0.044897959183673466</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>21.532864327380466</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>25.826008410365116</v>
+        <v>29.448630268580843</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-4.173991589634884</v>
+        <v>1.9486302685808425</v>
       </c>
     </row>
     <row r="12">
@@ -1699,25 +1699,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>25255.86001980852</v>
+        <v>35226.19785381128</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>43.5</v>
+        <v>31.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.04418486541391569</v>
+        <v>0.05061224489795919</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>29.387431891190268</v>
+        <v>24.845612685438997</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>29.17910894983241</v>
+        <v>27.157238288028445</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-14.320891050167589</v>
+        <v>-3.842761711971555</v>
       </c>
     </row>
     <row r="13">
@@ -1725,25 +1725,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>33674.48002641135</v>
+        <v>6199.341139632735</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006888156821814149</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>38.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.038598273235144746</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>39.18324252158702</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>34.101745912029074</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-3.898254087970926</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1751,25 +1751,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>43496.203367448</v>
+        <v>35226.19785381128</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.05117200396170353</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>39.0</v>
+        <v>30.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.03961401726764855</v>
+        <v>0.04897959183673469</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>50.6116882570499</v>
+        <v>24.845612685438997</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>31.105358195909368</v>
+        <v>31.824888618783334</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-7.894641804090632</v>
+        <v>1.8248886187833335</v>
       </c>
     </row>
     <row r="15">
@@ -1777,25 +1777,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>982.1723341036645</v>
+        <v>30529.371473303112</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.0</v>
+        <v>0.027755102040816326</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>0.0</v>
+        <v>21.532864327380466</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>0.0</v>
+        <v>26.308574591527556</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>0.0</v>
+        <v>9.308574591527556</v>
       </c>
     </row>
     <row r="16">
@@ -1803,25 +1803,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>35077.583360845165</v>
+        <v>28180.95828304902</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>46.0</v>
+        <v>27.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.046724225495175215</v>
+        <v>0.044081632653061226</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>40.815877626653155</v>
+        <v>19.8764901483512</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>33.245635135994874</v>
+        <v>30.976224922282444</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-12.754364864005126</v>
+        <v>3.9762249222824444</v>
       </c>
     </row>
     <row r="17">
@@ -1829,25 +1829,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>29465.17002310994</v>
+        <v>28180.95828304902</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.034664905909541105</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>39.0</v>
+        <v>28.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.03961401726764855</v>
+        <v>0.045714285714285714</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>34.28533720638865</v>
+        <v>19.8764901483512</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>27.39554483309449</v>
+        <v>26.62682347771539</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-11.60445516690551</v>
+        <v>-1.3731765222846093</v>
       </c>
     </row>
     <row r="18">
@@ -1855,25 +1855,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>28062.06668867613</v>
+        <v>30529.371473303112</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>29.0</v>
+        <v>15.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.029456576942610464</v>
+        <v>0.024489795918367346</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>21.532864327380466</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>26.25406379838222</v>
+        <v>30.551893074032</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-2.7459362016177806</v>
+        <v>15.551893074032002</v>
       </c>
     </row>
     <row r="19">
@@ -1881,25 +1881,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>28062.06668867613</v>
+        <v>35226.19785381128</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>33.5</v>
+        <v>21.5</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.0340274250888776</v>
+        <v>0.03510204081632653</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>24.845612685438997</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>27.752257656442072</v>
+        <v>42.53926778710706</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-5.747742343557928</v>
+        <v>21.039267787107057</v>
       </c>
     </row>
     <row r="20">
@@ -1907,25 +1907,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>33674.48002641135</v>
+        <v>4894.79761244659</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.0054386640138295445</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.03047232097511427</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>39.18324252158702</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>32.389524359960674</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>2.3895243599606744</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -1933,25 +1933,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>39286.893364146585</v>
+        <v>28415.79960207443</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03157311066897159</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>44.0</v>
+        <v>21.5</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.0446927374301676</v>
+        <v>0.03510204081632653</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>45.713782941851534</v>
+        <v>20.04212756625412</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>33.10295000665584</v>
+        <v>39.99327669760439</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-10.897049993344162</v>
+        <v>18.493276697604387</v>
       </c>
     </row>
     <row r="22">
@@ -1959,25 +1959,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>982.1723341036645</v>
+        <v>28496.11533318112</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.031662350370201243</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>0.0</v>
+        <v>20.5</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03346938775510204</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>0.0</v>
+        <v>20.098775563176922</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>0.0</v>
+        <v>22.171339071085722</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>0.0</v>
+        <v>1.6713390710857219</v>
       </c>
     </row>
     <row r="23">
@@ -1985,25 +1985,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>35077.583360845165</v>
+        <v>32821.892429629144</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03646876936625461</v>
       </c>
       <c r="D23" t="n" s="2">
         <v>30.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.03047232097511427</v>
+        <v>0.04897959183673469</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>40.815877626653155</v>
+        <v>23.149816800948834</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>28.394340738467726</v>
+        <v>29.278897529280666</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-1.6056592615322742</v>
+        <v>-0.7211024707193339</v>
       </c>
     </row>
     <row r="24">
@@ -2011,25 +2011,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>28062.06668867613</v>
+        <v>31289.552822988357</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.034766169803320396</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.03047232097511427</v>
+        <v>0.0326530612244898</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>22.06903264913224</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>22.25888017688927</v>
+        <v>30.44581011196939</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-7.741119823110729</v>
+        <v>10.44581011196939</v>
       </c>
     </row>
     <row r="25">
@@ -2037,25 +2037,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>28062.06668867613</v>
+        <v>34120.095241201605</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03791121693466845</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>38.0</v>
+        <v>24.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.038598273235144746</v>
+        <v>0.03918367346938775</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>24.065460447116216</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>22.686935564906374</v>
+        <v>35.21954340478689</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-15.313064435093626</v>
+        <v>11.21954340478689</v>
       </c>
     </row>
     <row r="26">
@@ -2063,25 +2063,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>28062.06668867613</v>
+        <v>51830.65331550279</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.057589614795003095</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>33.5</v>
+        <v>22.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.0340274250888776</v>
+        <v>0.035918367346938776</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>36.55700631826542</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>26.89614688040787</v>
+        <v>42.85751667329489</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-6.603853119592131</v>
+        <v>20.85751667329489</v>
       </c>
     </row>
     <row r="27">
@@ -2089,25 +2089,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>33674.48002641135</v>
+        <v>5786.255259467041</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006429172510518934</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.03148806500761808</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>39.18324252158702</v>
+        <v>0.0</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>31.2480433252484</v>
+        <v>0.0</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>0.24804332524839978</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -2115,25 +2115,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>39286.893364146585</v>
+        <v>36222.39472911706</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.04024710525457451</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>43.0</v>
+        <v>14.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.04367699339766379</v>
+        <v>0.022857142857142857</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>45.713782941851534</v>
+        <v>25.548246612183213</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>31.676098713265503</v>
+        <v>35.643875253037336</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-11.323901286734497</v>
+        <v>21.643875253037336</v>
       </c>
     </row>
     <row r="29">
@@ -2141,25 +2141,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>982.1723341036645</v>
+        <v>32877.78466355719</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.0</v>
+        <v>0.022857142857142857</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>0.0</v>
+        <v>23.18923850640973</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>0.0</v>
+        <v>28.854565681030223</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>0.0</v>
+        <v>14.854565681030223</v>
       </c>
     </row>
     <row r="30">
@@ -2167,25 +2167,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>35077.583360845165</v>
+        <v>32877.78466355719</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.038598273235144746</v>
+        <v>0.0473469387755102</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>40.815877626653155</v>
+        <v>23.18923850640973</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>29.963877161197097</v>
+        <v>29.915395301656336</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-8.036122838802903</v>
+        <v>0.9153953016563356</v>
       </c>
     </row>
     <row r="31">
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>28062.06668867613</v>
+        <v>35226.19785381128</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.03047232097511427</v>
+        <v>0.04244897959183674</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>24.845612685438997</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>24.969897634330913</v>
+        <v>30.657976036094613</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-5.030102365669087</v>
+        <v>4.657976036094613</v>
       </c>
     </row>
     <row r="32">
@@ -2219,25 +2219,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>28062.06668867613</v>
+        <v>58710.32975635213</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.06523369972928014</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>34.0</v>
+        <v>20.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.03453529710512951</v>
+        <v>0.0326530612244898</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>41.40935447573166</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>26.539434057060287</v>
+        <v>42.21748280218373</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-7.460565942939713</v>
+        <v>22.21748280218373</v>
       </c>
     </row>
     <row r="33">
@@ -2245,25 +2245,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>28062.06668867613</v>
+        <v>79846.0484686389</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.088717831631821</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>34.5</v>
+        <v>47.5</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.03504316912138141</v>
+        <v>0.07755102040816327</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>32.65270210132251</v>
+        <v>56.31672208699506</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>28.465683303137244</v>
+        <v>52.72323214511772</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-6.034316696862756</v>
+        <v>5.22323214511772</v>
       </c>
     </row>
     <row r="34">
@@ -2271,25 +2271,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>33674.48002641135</v>
+        <v>4612.518346978049</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.005125020385531165</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>41.0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.04164550533265617</v>
+        <v>0.0</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>39.18324252158702</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>30.534617678553232</v>
+        <v>0.0</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-10.465382321446768</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -2297,25 +2297,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>850000.0</v>
+        <v>900000.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>984.5</v>
+        <v>612.5</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>984.4789683548734</v>
+        <v>611.6892117078518</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>764.2928953045346</v>
+        <v>810.2156949506631</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-220.20710469546543</v>
+        <v>197.71569495066308</v>
       </c>
     </row>
     <row r="36">
@@ -2357,7 +2357,7 @@
     <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.33984375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -2404,25 +2404,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>54968.63651370089</v>
+        <v>4372.823640692782</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.006727420985681203</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>28.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.03160270880361174</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>26.447196196642537</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>52.48294786805755</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>24.48294786805755</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -2430,25 +2430,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>54968.63651370089</v>
+        <v>6337.049479761245</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.009749306891940377</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.013544018058690745</v>
+        <v>0.03813155386081983</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>26.447196196642537</v>
+        <v>5.299557286952893</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>46.73777310143587</v>
+        <v>15.169863574953387</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>34.73777310143587</v>
+        <v>-4.830136425046613</v>
       </c>
     </row>
     <row r="6">
@@ -2456,25 +2456,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>61076.262793000984</v>
+        <v>3753.586222642617</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.005774748034834795</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>38.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.04288939051918736</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>70.49484713638499</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>32.49484713638499</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -2482,25 +2482,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>85506.7679102014</v>
+        <v>25441.142894419256</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>38.0</v>
+        <v>31.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.04288939051918736</v>
+        <v>0.05910390848427073</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>41.14008297255506</v>
+        <v>21.27595731185756</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>63.662747413915966</v>
+        <v>24.2104893418448</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>25.662747413915966</v>
+        <v>-6.789510658155201</v>
       </c>
     </row>
     <row r="8">
@@ -2508,25 +2508,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>2137.6691977550345</v>
+        <v>22048.990508496692</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>0.0</v>
+        <v>14.5</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.0</v>
+        <v>0.027645376549094377</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.0</v>
+        <v>18.439163003609885</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.0</v>
+        <v>18.770790787189796</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>0.0</v>
+        <v>4.270790787189796</v>
       </c>
     </row>
     <row r="9">
@@ -2534,25 +2534,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>67183.88907230108</v>
+        <v>20352.914315535407</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.036315615714757346</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>25.0</v>
+        <v>17.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.028216704288939052</v>
+        <v>0.032411820781696854</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>32.32435090700754</v>
+        <v>17.020765849486047</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>63.041647439146054</v>
+        <v>22.984641780232405</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>38.041647439146054</v>
+        <v>5.984641780232405</v>
       </c>
     </row>
     <row r="10">
@@ -2560,25 +2560,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>61076.262793000984</v>
+        <v>20352.914315535407</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.03611738148984198</v>
+        <v>0.047664442326024785</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>17.020765849486047</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>52.48294786805755</v>
+        <v>23.444334615837054</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>20.48294786805755</v>
+        <v>-1.5556653841629462</v>
       </c>
     </row>
     <row r="11">
@@ -2586,25 +2586,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>61076.262793000984</v>
+        <v>22048.990508496692</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>34.0</v>
+        <v>22.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.03837471783295711</v>
+        <v>0.04194470924690181</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>18.439163003609885</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>56.20954771667702</v>
+        <v>21.26845519397505</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>22.209547716677022</v>
+        <v>-0.7315448060249494</v>
       </c>
     </row>
     <row r="12">
@@ -2612,25 +2612,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>54968.63651370089</v>
+        <v>25441.142894419256</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03160270880361174</v>
+        <v>0.034318398474737846</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>26.447196196642537</v>
+        <v>21.27595731185756</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>63.507472420223486</v>
+        <v>19.61356098579832</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>35.507472420223486</v>
+        <v>1.613560985798319</v>
       </c>
     </row>
     <row r="13">
@@ -2638,25 +2638,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>73291.51535160118</v>
+        <v>4477.301934179197</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006888156821814149</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.04966139954853273</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>35.262928262190044</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>74.22144698500446</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>30.221446985004462</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -2664,25 +2664,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>94668.20732915153</v>
+        <v>25441.142894419256</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.05117200396170353</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>42.0</v>
+        <v>20.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.04740406320541761</v>
+        <v>0.03813155386081983</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>45.54794900532881</v>
+        <v>21.27595731185756</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>67.6998972499204</v>
+        <v>22.984641780232405</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>25.699897249920397</v>
+        <v>2.984641780232405</v>
       </c>
     </row>
     <row r="15">
@@ -2690,25 +2690,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>2137.6691977550345</v>
+        <v>22048.990508496692</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03813155386081983</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>0.0</v>
+        <v>18.439163003609885</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>0.0</v>
+        <v>19.00063720499212</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>0.0</v>
+        <v>-0.9993627950078796</v>
       </c>
     </row>
     <row r="16">
@@ -2716,25 +2716,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>76345.32849125125</v>
+        <v>20352.914315535407</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>35.0</v>
+        <v>14.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.039503386004514675</v>
+        <v>0.02669208770257388</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>36.7322169397813</v>
+        <v>17.020765849486047</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>72.35814706069473</v>
+        <v>22.371717999426206</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>37.35814706069473</v>
+        <v>8.371717999426206</v>
       </c>
     </row>
     <row r="17">
@@ -2742,25 +2742,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>64130.075932651045</v>
+        <v>20352.914315535407</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.034664905909541105</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>28.0</v>
+        <v>8.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.03160270880361174</v>
+        <v>0.015252621544327931</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>30.855062229416294</v>
+        <v>17.020765849486047</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>59.625597577911535</v>
+        <v>19.230483622794445</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>31.625597577911535</v>
+        <v>11.230483622794445</v>
       </c>
     </row>
     <row r="18">
@@ -2768,25 +2768,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>61076.262793000984</v>
+        <v>22048.990508496692</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>36.0</v>
+        <v>10.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.040632054176072234</v>
+        <v>0.019065776930409915</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>18.439163003609885</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>57.141197678831894</v>
+        <v>22.06525610902311</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>21.141197678831894</v>
+        <v>12.06525610902311</v>
       </c>
     </row>
     <row r="19">
@@ -2794,25 +2794,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>61076.262793000984</v>
+        <v>25441.142894419256</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>34.0</v>
+        <v>29.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.03837471783295711</v>
+        <v>0.055290753098188754</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>21.27595731185756</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>60.401972546373926</v>
+        <v>30.72280451291065</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>26.401972546373926</v>
+        <v>1.722804512910649</v>
       </c>
     </row>
     <row r="20">
@@ -2820,25 +2820,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>73291.51535160118</v>
+        <v>3535.131608989204</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.0054386640138295445</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.03837471783295711</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>35.262928262190044</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>70.49484713638499</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>36.49484713638499</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -2846,25 +2846,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>85506.7679102014</v>
+        <v>20522.521934831533</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03157311066897159</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>40.0</v>
+        <v>29.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.045146726862302484</v>
+        <v>0.055290753098188754</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>41.14008297255506</v>
+        <v>17.162605564898428</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>72.04759707330977</v>
+        <v>28.884033170492057</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>32.047597073309774</v>
+        <v>-0.11596682950794346</v>
       </c>
     </row>
     <row r="22">
@@ -2872,25 +2872,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>2137.6691977550345</v>
+        <v>20580.52774063081</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.031662350370201243</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.0</v>
+        <v>0.02669208770257388</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>0.0</v>
+        <v>17.211114747569464</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>0.0</v>
+        <v>16.01263377356191</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>0.0</v>
+        <v>2.012633773561909</v>
       </c>
     </row>
     <row r="23">
@@ -2898,25 +2898,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>76345.32849125125</v>
+        <v>23704.700088065496</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03646876936625461</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>32.0</v>
+        <v>20.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.03611738148984198</v>
+        <v>0.03813155386081983</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>36.7322169397813</v>
+        <v>19.823802305465573</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>61.79944748960623</v>
+        <v>21.145870437813812</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>29.79944748960623</v>
+        <v>1.1458704378138123</v>
       </c>
     </row>
     <row r="24">
@@ -2924,25 +2924,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>61076.262793000984</v>
+        <v>22598.010372158256</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.034766169803320396</v>
       </c>
       <c r="D24" t="n" s="2">
         <v>28.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.03160270880361174</v>
+        <v>0.05338417540514776</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>18.898298162399772</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>48.445798032053126</v>
+        <v>21.988640636422335</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>20.445798032053126</v>
+        <v>-6.0113593635776645</v>
       </c>
     </row>
     <row r="25">
@@ -2950,25 +2950,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>61076.262793000984</v>
+        <v>24642.29100753449</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03791121693466845</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>32.0</v>
+        <v>14.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.03611738148984198</v>
+        <v>0.02669208770257388</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>20.60789225226523</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>49.37744799420799</v>
+        <v>25.436336903457196</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>17.37744799420799</v>
+        <v>11.436336903457196</v>
       </c>
     </row>
     <row r="26">
@@ -2976,25 +2976,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>61076.262793000984</v>
+        <v>37433.249616752015</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.057589614795003095</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.03160270880361174</v>
+        <v>0.055290753098188754</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>31.304734390090143</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>58.53867262206419</v>
+        <v>30.952650930712974</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>30.53867262206419</v>
+        <v>1.9526509307129736</v>
       </c>
     </row>
     <row r="27">
@@ -3002,25 +3002,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>73291.51535160118</v>
+        <v>4178.962131837307</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006429172510518934</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>36.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.040632054176072234</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>35.262928262190044</v>
+        <v>0.0</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>68.01044723730534</v>
+        <v>0.0</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>32.01044723730534</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -3028,25 +3028,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>85506.7679102014</v>
+        <v>26160.618415473433</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.04024710525457451</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.040632054176072234</v>
+        <v>0.057197330791229746</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>41.14008297255506</v>
+        <v>21.87764138463689</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>68.94209719946022</v>
+        <v>25.742798793860295</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>32.94209719946022</v>
+        <v>-4.257201206139705</v>
       </c>
     </row>
     <row r="29">
@@ -3054,25 +3054,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>2137.6691977550345</v>
+        <v>23745.06670145797</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.0</v>
+        <v>0.022878932316491896</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>0.0</v>
+        <v>19.85756015773372</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>0.0</v>
+        <v>20.839408547410713</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>0.0</v>
+        <v>8.839408547410713</v>
       </c>
     </row>
     <row r="30">
@@ -3080,25 +3080,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>76345.32849125125</v>
+        <v>23745.06670145797</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.03160270880361174</v>
+        <v>0.03813155386081983</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>36.7322169397813</v>
+        <v>19.85756015773372</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>65.21549735084075</v>
+        <v>21.60556327341846</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>37.21549735084075</v>
+        <v>1.6055632734184613</v>
       </c>
     </row>
     <row r="31">
@@ -3106,25 +3106,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>61076.262793000984</v>
+        <v>25441.142894419256</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>34.0</v>
+        <v>16.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.03837471783295711</v>
+        <v>0.030505243088655862</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>21.27595731185756</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>54.346247792367286</v>
+        <v>22.141871581623885</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>20.346247792367286</v>
+        <v>6.141871581623885</v>
       </c>
     </row>
     <row r="32">
@@ -3132,25 +3132,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>61076.262793000984</v>
+        <v>42401.90482403209</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.06523369972928014</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>36.0</v>
+        <v>35.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.040632054176072234</v>
+        <v>0.0667302192564347</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>35.45992885309593</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>57.762297653601806</v>
+        <v>30.490404246021583</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>21.762297653601806</v>
+        <v>-4.509595753978417</v>
       </c>
     </row>
     <row r="33">
@@ -3158,25 +3158,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>61076.262793000984</v>
+        <v>57666.590560683646</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.088717831631821</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>36.0</v>
+        <v>29.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.040632054176072234</v>
+        <v>0.055290753098188754</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>29.385773551825036</v>
+        <v>48.22550324021046</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>61.95472248329871</v>
+        <v>38.07788988258502</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>25.95472248329871</v>
+        <v>9.07788988258502</v>
       </c>
     </row>
     <row r="34">
@@ -3184,25 +3184,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>73291.51535160118</v>
+        <v>3331.2632505952574</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.005125020385531165</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.03611738148984198</v>
+        <v>0.0</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>35.262928262190044</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>66.45769730038057</v>
+        <v>0.0</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>34.45769730038057</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -3210,25 +3210,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>1850000.0</v>
+        <v>650000.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>886.0</v>
+        <v>524.5</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>885.9810725875252</v>
+        <v>523.8057004747236</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>1663.4610074275165</v>
+        <v>585.15577968659</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>777.4610074275165</v>
+        <v>60.655779686589995</v>
       </c>
     </row>
     <row r="36">
@@ -3270,7 +3270,7 @@
     <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.33984375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3317,25 +3317,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>29861.340376361837</v>
+        <v>2354.597344988421</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.006727420985681203</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.030405405405405407</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>26.506896413790713</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>28.51100681480964</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>1.5110068148096403</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -3343,25 +3343,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>29861.340376361837</v>
+        <v>3412.2574121791317</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.009749306891940377</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.028153153153153154</v>
+        <v>0.043306968211482624</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>26.506896413790713</v>
+        <v>5.599478212534781</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>25.389979441590835</v>
+        <v>8.168388078821055</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>0.3899794415908353</v>
+        <v>-15.831611921178945</v>
       </c>
     </row>
     <row r="6">
@@ -3369,25 +3369,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>33179.267084846484</v>
+        <v>2021.1618121921783</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.005774748034834795</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.036036036036036036</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>29.45210712643412</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>38.295849390306444</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>6.295849390306444</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -3395,25 +3395,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>46450.97391878508</v>
+        <v>13699.076943148832</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>30.0</v>
+        <v>14.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.033783783783783786</v>
+        <v>0.025262398123364862</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>41.23294997700778</v>
+        <v>22.480039929347676</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>34.5843573789111</v>
+        <v>13.036417337916431</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>4.5843573789111005</v>
+        <v>-0.963582662083569</v>
       </c>
     </row>
     <row r="8">
@@ -3421,25 +3421,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>1161.274347969627</v>
+        <v>11872.533350728987</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.0</v>
+        <v>0.021653484105741312</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.0</v>
+        <v>19.48270127210132</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.0</v>
+        <v>10.107348885409891</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>0.0</v>
+        <v>-1.8926511145901088</v>
       </c>
     </row>
     <row r="9">
@@ -3447,25 +3447,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>36497.193793331135</v>
+        <v>10959.261554519064</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.036315615714757346</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>41.0</v>
+        <v>28.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.04617117117117117</v>
+        <v>0.050524796246729724</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>32.39731783907754</v>
+        <v>17.98403194347814</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>34.2469490142388</v>
+        <v>12.376345573971296</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-6.753050985761199</v>
+        <v>-15.623654426028704</v>
       </c>
     </row>
     <row r="10">
@@ -3473,25 +3473,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>33179.267084846484</v>
+        <v>10959.261554519064</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>30.0</v>
+        <v>28.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.033783783783783786</v>
+        <v>0.050524796246729724</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>29.45210712643412</v>
+        <v>17.98403194347814</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>28.51100681480964</v>
+        <v>12.623872485450722</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-1.4889931851903597</v>
+        <v>-15.376127514549278</v>
       </c>
     </row>
     <row r="11">
@@ -3499,25 +3499,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>33179.267084846484</v>
+        <v>11872.533350728987</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.033783783783783786</v>
+        <v>0.021653484105741312</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>29.45210712643412</v>
+        <v>19.48270127210132</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>30.53545700284346</v>
+        <v>11.452245104448105</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>0.5354570028434615</v>
+        <v>-0.5477548955518952</v>
       </c>
     </row>
     <row r="12">
@@ -3525,25 +3525,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>29861.340376361837</v>
+        <v>13699.076943148832</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.037162162162162164</v>
+        <v>0.03608914017623552</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>26.506896413790713</v>
+        <v>22.480039929347676</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>34.50000528774303</v>
+        <v>10.561148223122172</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>1.5000052877430292</v>
+        <v>-9.438851776877828</v>
       </c>
     </row>
     <row r="13">
@@ -3551,25 +3551,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>39815.12050181578</v>
+        <v>2410.8548876349523</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006888156821814149</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>23.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.0259009009009009</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>35.342528551720946</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>40.32029957834026</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>17.32029957834026</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -3577,25 +3577,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>51427.86398151205</v>
+        <v>13699.076943148832</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.05117200396170353</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>39.0</v>
+        <v>29.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.04391891891891892</v>
+        <v>0.052329253255541504</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>45.650766045972894</v>
+        <v>22.480039929347676</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>36.777511749281075</v>
+        <v>12.376345573971296</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-2.222488250718925</v>
+        <v>-16.623654426028704</v>
       </c>
     </row>
     <row r="15">
@@ -3603,25 +3603,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>1161.274347969627</v>
+        <v>11872.533350728987</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03969805419385907</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>0.0</v>
+        <v>19.48270127210132</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>0.0</v>
+        <v>10.231112341149604</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>0.0</v>
+        <v>-11.768887658850396</v>
       </c>
     </row>
     <row r="16">
@@ -3629,25 +3629,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>41474.0838560581</v>
+        <v>10959.261554519064</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>43.0</v>
+        <v>19.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.04842342342342342</v>
+        <v>0.034284683167423745</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>36.81513390804266</v>
+        <v>17.98403194347814</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>39.30807448432335</v>
+        <v>12.046309691998728</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-3.691925515676651</v>
+        <v>-6.953690308001272</v>
       </c>
     </row>
     <row r="17">
@@ -3655,25 +3655,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>34838.23043908881</v>
+        <v>10959.261554519064</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.034664905909541105</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>33.0</v>
+        <v>10.2</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.037162162162162164</v>
+        <v>0.018405461489880114</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>30.924712482755837</v>
+        <v>17.98403194347814</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>32.39120300854113</v>
+        <v>10.354875796889317</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-0.6087969914588669</v>
+        <v>0.15487579688931774</v>
       </c>
     </row>
     <row r="18">
@@ -3681,25 +3681,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>33179.267084846484</v>
+        <v>11872.533350728987</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>25.0</v>
+        <v>29.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.028153153153153154</v>
+        <v>0.052329253255541504</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>29.45210712643412</v>
+        <v>19.48270127210132</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>31.041569549851918</v>
+        <v>11.881291751012444</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>6.041569549851918</v>
+        <v>-17.118708248987556</v>
       </c>
     </row>
     <row r="19">
@@ -3707,25 +3707,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>33179.267084846484</v>
+        <v>13699.076943148832</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>31.0</v>
+        <v>36.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.03490990990990991</v>
+        <v>0.06496045231722393</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>29.45210712643412</v>
+        <v>22.480039929347676</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>32.81296346438151</v>
+        <v>16.543048583874967</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>1.812963464381511</v>
+        <v>-19.456951416125033</v>
       </c>
     </row>
     <row r="20">
@@ -3733,25 +3733,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>39815.12050181578</v>
+        <v>1903.5324048403406</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.0054386640138295445</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.03490990990990991</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>35.342528551720946</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>38.295849390306444</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>7.295849390306444</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -3759,25 +3759,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>46450.97391878508</v>
+        <v>11050.588734140056</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03157311066897159</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>47.0</v>
+        <v>19.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.05292792792792793</v>
+        <v>0.034284683167423745</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>41.23294997700778</v>
+        <v>18.133898876340456</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>39.1393703019872</v>
+        <v>15.552940937957262</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-7.860629698012801</v>
+        <v>-3.4470590620427384</v>
       </c>
     </row>
     <row r="22">
@@ -3785,25 +3785,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>1161.274347969627</v>
+        <v>11081.822629570435</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.031662350370201243</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.0</v>
+        <v>0.01804457008811776</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>0.0</v>
+        <v>18.18515336737937</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>0.0</v>
+        <v>8.622187416533336</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>0.0</v>
+        <v>-1.377812583466664</v>
       </c>
     </row>
     <row r="23">
@@ -3811,25 +3811,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>41474.0838560581</v>
+        <v>12764.069278189112</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03646876936625461</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>44.0</v>
+        <v>20.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.04954954954954955</v>
+        <v>0.03608914017623552</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>36.81513390804266</v>
+        <v>20.94570227070327</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>33.572132284894195</v>
+        <v>11.386237928053593</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-10.427867715105805</v>
+        <v>-8.613762071946407</v>
       </c>
     </row>
     <row r="24">
@@ -3837,25 +3837,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>33179.267084846484</v>
+        <v>12168.15943116214</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.034766169803320396</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>32.0</v>
+        <v>25.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.036036036036036036</v>
+        <v>0.0451114252202944</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>29.45210712643412</v>
+        <v>19.967820533776642</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>26.31785244443967</v>
+        <v>11.840037265765874</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-5.682147555560331</v>
+        <v>-13.159962734234126</v>
       </c>
     </row>
     <row r="25">
@@ -3863,25 +3863,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>33179.267084846484</v>
+        <v>13268.925927133958</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03791121693466845</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>21.0</v>
+        <v>17.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.02364864864864865</v>
+        <v>0.03067576914980019</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>29.45210712643412</v>
+        <v>21.77416667556616</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>26.823964991448126</v>
+        <v>13.696489101861568</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>5.8239649914481255</v>
+        <v>-3.3035108981384322</v>
       </c>
     </row>
     <row r="26">
@@ -3889,25 +3889,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>33179.267084846484</v>
+        <v>20156.365178251082</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.057589614795003095</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.036036036036036036</v>
+        <v>0.06496045231722393</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>29.45210712643412</v>
+        <v>33.07638141737785</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>31.800738370364602</v>
+        <v>16.66681203961468</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-0.19926162963539795</v>
+        <v>-19.33318796038532</v>
       </c>
     </row>
     <row r="27">
@@ -3915,25 +3915,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>39815.12050181578</v>
+        <v>2250.210378681627</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006429172510518934</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.036036036036036036</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>35.342528551720946</v>
+        <v>0.0</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>36.946215931617225</v>
+        <v>0.0</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>4.946215931617225</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -3941,25 +3941,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>46450.97391878508</v>
+        <v>14086.486839101079</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.04024710525457451</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>38.0</v>
+        <v>34.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.04279279279279279</v>
+        <v>0.06135153829960038</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>41.23294997700778</v>
+        <v>23.115775458549628</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>37.45232847862568</v>
+        <v>13.861507042847851</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-0.5476715213743191</v>
+        <v>-20.13849295715215</v>
       </c>
     </row>
     <row r="29">
@@ -3967,25 +3967,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>1161.274347969627</v>
+        <v>12785.805146938908</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.0</v>
+        <v>0.043306968211482624</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>0.0</v>
+        <v>20.981370600724496</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>0.0</v>
+        <v>11.221219987067307</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>0.0</v>
+        <v>-12.778780012932693</v>
       </c>
     </row>
     <row r="30">
@@ -3993,25 +3993,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>41474.0838560581</v>
+        <v>12785.805146938908</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>44.0</v>
+        <v>12.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.04954954954954955</v>
+        <v>0.021653484105741312</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>36.81513390804266</v>
+        <v>20.981370600724496</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>35.42787829059186</v>
+        <v>11.633764839533018</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-8.572121709408137</v>
+        <v>-0.36623516046698157</v>
       </c>
     </row>
     <row r="31">
@@ -4019,25 +4019,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>33179.267084846484</v>
+        <v>13699.076943148832</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>30.0</v>
+        <v>10.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.033783783783783786</v>
+        <v>0.01804457008811776</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>29.45210712643412</v>
+        <v>22.480039929347676</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>29.523231908826553</v>
+        <v>11.922546236259015</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-0.4767680911734473</v>
+        <v>1.9225462362590147</v>
       </c>
     </row>
     <row r="32">
@@ -4045,25 +4045,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>33179.267084846484</v>
+        <v>22831.79490524805</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.06523369972928014</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>32.0</v>
+        <v>27.983333333333</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.036036036036036036</v>
+        <v>0.05049472196324893</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>29.45210712643412</v>
+        <v>37.46673321557946</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>31.37897791452422</v>
+        <v>16.417909978627005</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-0.6210220854757793</v>
+        <v>-11.565423354705995</v>
       </c>
     </row>
     <row r="33">
@@ -4071,25 +4071,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>33179.267084846484</v>
+        <v>31051.24107113735</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.088717831631821</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.033783783783783786</v>
+        <v>0.06496045231722393</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>29.45210712643412</v>
+        <v>50.95475717318806</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>33.65648437606227</v>
+        <v>20.50347916754578</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>3.6564843760622665</v>
+        <v>-15.49652083245422</v>
       </c>
     </row>
     <row r="34">
@@ -4097,25 +4097,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>39815.12050181578</v>
+        <v>1793.7571349359077</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.005125020385531165</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>33.0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.037162162162162164</v>
+        <v>0.0</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>35.342528551720946</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>36.10269501993647</v>
+        <v>0.0</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>3.102695019936469</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -4123,25 +4123,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>1005000.0</v>
+        <v>350000.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>888.0</v>
+        <v>554.18333333333</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>887.9810298619891</v>
+        <v>553.449740911501</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>903.6639526835967</v>
+        <v>315.0838813697023</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>15.663952683596676</v>
+        <v>-239.0994519636277</v>
       </c>
     </row>
     <row r="36">
@@ -4183,7 +4183,7 @@
     <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.33984375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -4230,25 +4230,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>18605.33839551007</v>
+        <v>3302.9147893930003</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.006727420985681203</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>14.95490439561841</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>17.764002656964973</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-1.2359973430350273</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -4256,25 +4256,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>18605.33839551007</v>
+        <v>4786.548959587723</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.009749306891940377</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>27.0</v>
+        <v>7.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.05389221556886228</v>
+        <v>0.011772620248906828</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>14.95490439561841</v>
+        <v>6.007848928164329</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>15.819422484456974</v>
+        <v>11.458218046692062</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-11.180577515543026</v>
+        <v>4.458218046692062</v>
       </c>
     </row>
     <row r="6">
@@ -4282,25 +4282,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>20672.598217233408</v>
+        <v>2835.1876194265956</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.005774748034834795</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.06187624750499002</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>23.860524278881947</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-7.139475721118053</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -4308,25 +4308,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>28941.637504126775</v>
+        <v>19216.39975211194</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>12.0</v>
+        <v>31.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.023952095808383235</v>
+        <v>0.052135889673730236</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>23.263184615406416</v>
+        <v>24.11951233104005</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>21.548050560223782</v>
+        <v>18.286853044215615</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>9.548050560223782</v>
+        <v>-12.713146955784385</v>
       </c>
     </row>
     <row r="8">
@@ -4334,25 +4334,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>723.5409376031694</v>
+        <v>16654.213118497017</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.0</v>
+        <v>0.052135889673730236</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.0</v>
+        <v>20.903577353568043</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.0</v>
+        <v>14.178098088078562</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>0.0</v>
+        <v>-16.821901911921437</v>
       </c>
     </row>
     <row r="9">
@@ -4360,25 +4360,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>22739.85803895675</v>
+        <v>15373.119801689552</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.036315615714757346</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.029940119760479042</v>
+        <v>0.03195425496131853</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>18.278216483533612</v>
+        <v>19.295609864832038</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>21.337825676709404</v>
+        <v>17.360936434381912</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>6.337825676709404</v>
+        <v>-1.6390635656180876</v>
       </c>
     </row>
     <row r="10">
@@ -4386,25 +4386,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>20672.598217233408</v>
+        <v>15373.119801689552</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.013972055888223553</v>
+        <v>0.03195425496131853</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>19.295609864832038</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>17.764002656964973</v>
+        <v>17.70815516306955</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>10.764002656964973</v>
+        <v>-1.2918448369304514</v>
       </c>
     </row>
     <row r="11">
@@ -4412,25 +4412,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>20672.598217233408</v>
+        <v>16654.213118497017</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>19.0</v>
+        <v>28.3</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.04759502186343761</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>20.903577353568043</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>19.025351958051242</v>
+        <v>16.064653180614727</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>0.025351958051242462</v>
+        <v>-12.235346819385274</v>
       </c>
     </row>
     <row r="12">
@@ -4438,25 +4438,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>18605.33839551007</v>
+        <v>19216.39975211194</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>19.0</v>
+        <v>18.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.030272452068617558</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>14.95490439561841</v>
+        <v>24.11951233104005</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>21.49549433934519</v>
+        <v>14.814665757339231</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>2.495494339345189</v>
+        <v>-3.185334242660769</v>
       </c>
     </row>
     <row r="13">
@@ -4464,25 +4464,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>24807.11786068009</v>
+        <v>3381.8301377083403</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006888156821814149</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.06187624750499002</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>19.93987252749121</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>25.121873579968216</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-5.8781264200317835</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -4490,25 +4490,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>32042.527236711783</v>
+        <v>19216.39975211194</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.05117200396170353</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.023952095808383235</v>
+        <v>0.040363269424823406</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>25.755668681342815</v>
+        <v>24.11951233104005</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>22.914512303067244</v>
+        <v>17.360936434381912</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>10.914512303067244</v>
+        <v>-6.639063565618088</v>
       </c>
     </row>
     <row r="15">
@@ -4516,25 +4516,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>723.5409376031694</v>
+        <v>16654.213118497017</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03195425496131853</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>0.0</v>
+        <v>20.903577353568043</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>0.0</v>
+        <v>14.35170745242238</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>0.0</v>
+        <v>-4.64829254757762</v>
       </c>
     </row>
     <row r="16">
@@ -4542,25 +4542,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>25840.747771541763</v>
+        <v>15373.119801689552</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.05389221556886228</v>
+        <v>0.052135889673730236</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>20.770700549470014</v>
+        <v>19.295609864832038</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>24.49119892942508</v>
+        <v>16.89797812946506</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-2.5088010705749184</v>
+        <v>-14.10202187053494</v>
       </c>
     </row>
     <row r="17">
@@ -4568,25 +4568,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>21706.22812809508</v>
+        <v>15373.119801689552</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.034664905909541105</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>19.0</v>
+        <v>24.3</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.040867810292633706</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>17.447388461554812</v>
+        <v>19.295609864832038</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>20.181588817380323</v>
+        <v>14.5253168167662</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>1.181588817380323</v>
+        <v>-9.774683183233801</v>
       </c>
     </row>
     <row r="18">
@@ -4594,25 +4594,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>20672.598217233408</v>
+        <v>16654.213118497017</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>19.0</v>
+        <v>27.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.045408678102926335</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>20.903577353568043</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>19.34068928332281</v>
+        <v>16.666498977006636</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>0.3406892833228099</v>
+        <v>-10.333501022993364</v>
       </c>
     </row>
     <row r="19">
@@ -4620,25 +4620,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>20672.598217233408</v>
+        <v>19216.39975211194</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>19.0</v>
+        <v>32.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.053817692566431215</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>24.11951233104005</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>20.444369921773298</v>
+        <v>23.205785033957156</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>1.4443699217732977</v>
+        <v>-8.794214966042844</v>
       </c>
     </row>
     <row r="20">
@@ -4646,25 +4646,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>24807.11786068009</v>
+        <v>2670.1828002217944</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.0054386640138295445</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.06187624750499002</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>19.93987252749121</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>23.860524278881947</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>-7.139475721118053</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -4672,25 +4672,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>28941.637504126775</v>
+        <v>15501.229133370298</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03157311066897159</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.03992015968063872</v>
+        <v>0.047090480995627314</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>23.263184615406416</v>
+        <v>19.456406613705635</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>24.386086487667892</v>
+        <v>21.816910119206604</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>4.386086487667892</v>
+        <v>-6.183089880793396</v>
       </c>
     </row>
     <row r="22">
@@ -4698,25 +4698,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>723.5409376031694</v>
+        <v>15545.042524805112</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.031662350370201243</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.0</v>
+        <v>0.020181634712411703</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>0.0</v>
+        <v>19.511399101820405</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>0.0</v>
+        <v>12.094785715952732</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>0.0</v>
+        <v>0.09478571595273166</v>
       </c>
     </row>
     <row r="23">
@@ -4724,25 +4724,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>25840.747771541763</v>
+        <v>17904.81641436446</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03646876936625461</v>
       </c>
       <c r="D23" t="n" s="2">
         <v>19.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.03195425496131853</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>20.770700549470014</v>
+        <v>22.47327521607213</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>20.917375909680647</v>
+        <v>15.972061519631358</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>1.917375909680647</v>
+        <v>-3.0279384803686415</v>
       </c>
     </row>
     <row r="24">
@@ -4750,25 +4750,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>20672.598217233408</v>
+        <v>17068.903025147592</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.034766169803320396</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.013972055888223553</v>
+        <v>0.03195425496131853</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>21.424076429671885</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>16.397540914121514</v>
+        <v>16.608629188892028</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>9.397540914121514</v>
+        <v>-2.391370811107972</v>
       </c>
     </row>
     <row r="25">
@@ -4776,25 +4776,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>20672.598217233408</v>
+        <v>18613.004799895625</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03791121693466845</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.013972055888223553</v>
+        <v>0.040363269424823406</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>23.36215964384539</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>16.71287823939308</v>
+        <v>19.212769654049314</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>9.712878239393081</v>
+        <v>-4.787230345950686</v>
       </c>
     </row>
     <row r="26">
@@ -4802,25 +4802,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>20672.598217233408</v>
+        <v>28274.370048599103</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.057589614795003095</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>7.0</v>
+        <v>31.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.013972055888223553</v>
+        <v>0.052135889673730236</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>35.488646460147955</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>19.813695271230163</v>
+        <v>23.379394398300974</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>12.813695271230163</v>
+        <v>-7.620605601699026</v>
       </c>
     </row>
     <row r="27">
@@ -4828,25 +4828,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>24807.11786068009</v>
+        <v>3156.4858232819074</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006429172510518934</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>19.93987252749121</v>
+        <v>0.0</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>23.019624744824434</v>
+        <v>0.0</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>4.0196247448244335</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -4854,25 +4854,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>28941.637504126775</v>
+        <v>19759.839537101667</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.04024710525457451</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>12.0</v>
+        <v>22.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.023952095808383235</v>
+        <v>0.036999663639421455</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>23.263184615406416</v>
+        <v>24.801612139761858</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>23.334962070096</v>
+        <v>19.44424880650774</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>11.334962070096001</v>
+        <v>-2.5557511934922594</v>
       </c>
     </row>
     <row r="29">
@@ -4880,25 +4880,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>723.5409376031694</v>
+        <v>17935.306435304476</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>0.0</v>
+        <v>19.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03195425496131853</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>0.0</v>
+        <v>22.51154484230404</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>0.0</v>
+        <v>15.740582367172934</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>0.0</v>
+        <v>-3.2594176328270663</v>
       </c>
     </row>
     <row r="30">
@@ -4906,25 +4906,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>25840.747771541763</v>
+        <v>17935.306435304476</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>31.0</v>
+        <v>20.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.06187624750499002</v>
+        <v>0.033636057854019505</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>20.770700549470014</v>
+        <v>22.51154484230404</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>22.073612769009728</v>
+        <v>16.319280248318996</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-8.926387230990272</v>
+        <v>-3.6807197516810035</v>
       </c>
     </row>
     <row r="31">
@@ -4932,25 +4932,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>20672.598217233408</v>
+        <v>19216.39975211194</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>7.0</v>
+        <v>24.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.013972055888223553</v>
+        <v>0.040363269424823406</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>24.11951233104005</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>18.394677307508108</v>
+        <v>16.72436876512124</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>11.394677307508108</v>
+        <v>-7.275631234878759</v>
       </c>
     </row>
     <row r="32">
@@ -4958,25 +4958,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>20672.598217233408</v>
+        <v>32027.332920186567</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.06523369972928014</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>19.0</v>
+        <v>31.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.052135889673730236</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>40.19918721840008</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>19.550914166837188</v>
+        <v>23.030246676676146</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>0.5509141668371882</v>
+        <v>-7.969753323323854</v>
       </c>
     </row>
     <row r="33">
@@ -4984,25 +4984,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>20672.598217233408</v>
+        <v>43557.172771453734</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.088717831631821</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>19.0</v>
+        <v>35.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.03792415169660679</v>
+        <v>0.05886310124453414</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>16.616560439576006</v>
+        <v>54.670894617024096</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>20.969932130559243</v>
+        <v>28.761284692959368</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>1.9699321305592434</v>
+        <v>-6.238715307040632</v>
       </c>
     </row>
     <row r="34">
@@ -5010,25 +5010,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>24807.11786068009</v>
+        <v>2516.1953835415375</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.005125020385531165</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>27.0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.05389221556886228</v>
+        <v>0.0</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>19.93987252749121</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>22.494062536038488</v>
+        <v>0.0</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-4.505937463961512</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -5036,25 +5036,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>626173.0</v>
+        <v>490963.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>501.0</v>
+        <v>594.6</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>500.9892972532167</v>
+        <v>593.8129065820224</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>563.0347942723839</v>
+        <v>441.98436471118043</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>62.03479427238392</v>
+        <v>-152.6156352888196</v>
       </c>
     </row>
     <row r="36">
@@ -5096,7 +5096,7 @@
     <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.33984375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -5143,25 +5143,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>19461.868603499504</v>
+        <v>4036.4525914087217</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.006727420985681203</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>30.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.02827521206409048</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>31.67096519710805</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>18.58180046139335</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-11.41819953860665</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -5169,25 +5169,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>19461.868603499504</v>
+        <v>5849.584135164226</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.009749306891940377</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>23.0</v>
+        <v>8.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.021677662582469368</v>
+        <v>0.014184397163120567</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>31.67096519710805</v>
+        <v>5.698665986351633</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>16.547698044021885</v>
+        <v>14.002950992264667</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-6.452301955978115</v>
+        <v>6.002950992264667</v>
       </c>
     </row>
     <row r="6">
@@ -5195,25 +5195,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>21624.298448332782</v>
+        <v>3464.8488209008774</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.005774748034834795</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>38.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.03581526861451461</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>24.95898641855793</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-13.04101358144207</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -5221,25 +5221,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>30274.0178276659</v>
+        <v>23484.131902540852</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>34.0</v>
+        <v>27.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.03204524033930255</v>
+        <v>0.047872340425531915</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>49.26594586216808</v>
+        <v>22.87824580340832</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>22.54005381411619</v>
+        <v>22.348144007856742</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>-11.459946185883808</v>
+        <v>-4.651855992143258</v>
       </c>
     </row>
     <row r="8">
@@ -5247,25 +5247,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>756.8504456916473</v>
+        <v>20352.914315535407</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.0</v>
+        <v>19.827813029620543</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.0</v>
+        <v>17.326883803559816</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>0.0</v>
+        <v>-2.6731161964401835</v>
       </c>
     </row>
     <row r="9">
@@ -5273,25 +5273,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>23786.728293166063</v>
+        <v>18787.305522032682</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.036315615714757346</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>45.0</v>
+        <v>24.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.04241281809613572</v>
+        <v>0.0425531914893617</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>38.70895746313206</v>
+        <v>18.30259664272665</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>22.320150850076033</v>
+        <v>21.21659241252222</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-22.679849149923967</v>
+        <v>-2.783407587477779</v>
       </c>
     </row>
     <row r="10">
@@ -5299,25 +5299,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>21624.298448332782</v>
+        <v>18787.305522032682</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>41.0</v>
+        <v>20.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.03864278982092366</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>18.30259664272665</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>18.58180046139335</v>
+        <v>21.640924260772668</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-22.41819953860665</v>
+        <v>1.6409242607726675</v>
       </c>
     </row>
     <row r="11">
@@ -5325,25 +5325,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>21624.298448332782</v>
+        <v>20352.914315535407</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>44.0</v>
+        <v>22.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.04147031102733271</v>
+        <v>0.03900709219858156</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>19.827813029620543</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>19.901218245634297</v>
+        <v>19.632420179053895</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-24.098781754365703</v>
+        <v>-2.367579820946105</v>
       </c>
     </row>
     <row r="12">
@@ -5351,25 +5351,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>19461.868603499504</v>
+        <v>23484.131902540852</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>38.0</v>
+        <v>18.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03581526861451461</v>
+        <v>0.031914893617021274</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>31.67096519710805</v>
+        <v>22.87824580340832</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>22.485078073106152</v>
+        <v>18.104825525352297</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-15.514921926893848</v>
+        <v>0.10482552535229672</v>
       </c>
     </row>
     <row r="13">
@@ -5377,25 +5377,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>25949.158137999337</v>
+        <v>4132.894093088489</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006888156821814149</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.04147031102733271</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>42.22795359614406</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>26.27840420279888</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-17.72159579720112</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -5403,25 +5403,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>33517.66259491581</v>
+        <v>23484.131902540852</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.05117200396170353</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>29.0</v>
+        <v>22.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.027332704995287466</v>
+        <v>0.03900709219858156</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>54.54444006168608</v>
+        <v>22.87824580340832</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>23.96942308037722</v>
+        <v>21.21659241252222</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-5.030576919622781</v>
+        <v>-0.7834075874777788</v>
       </c>
     </row>
     <row r="15">
@@ -5429,25 +5429,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>756.8504456916473</v>
+        <v>20352.914315535407</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>0.0</v>
+        <v>19.827813029620543</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>0.0</v>
+        <v>17.539049727685036</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>0.0</v>
+        <v>-2.460950272314964</v>
       </c>
     </row>
     <row r="16">
@@ -5455,25 +5455,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>27030.37306041598</v>
+        <v>18787.305522032682</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>45.0</v>
+        <v>25.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.04241281809613572</v>
+        <v>0.044326241134751775</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>43.987451662650074</v>
+        <v>18.30259664272665</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>25.618695310678405</v>
+        <v>20.650816614854964</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-19.381304689321595</v>
+        <v>-4.349183385145036</v>
       </c>
     </row>
     <row r="17">
@@ -5481,25 +5481,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>22705.513370749424</v>
+        <v>18787.305522032682</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.034664905909541105</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>42.0</v>
+        <v>15.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.03958529688972667</v>
+        <v>0.026595744680851064</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>36.94945939662606</v>
+        <v>18.30259664272665</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>21.110684547855165</v>
+        <v>17.75121565181026</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-20.889315452144835</v>
+        <v>2.7512156518102593</v>
       </c>
     </row>
     <row r="18">
@@ -5507,25 +5507,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>21624.298448332782</v>
+        <v>20352.914315535407</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>43.0</v>
+        <v>16.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.04052780395852969</v>
+        <v>0.028368794326241134</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>19.827813029620543</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>20.231072691694532</v>
+        <v>20.367928716021332</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-22.768927308305468</v>
+        <v>4.367928716021332</v>
       </c>
     </row>
     <row r="19">
@@ -5533,25 +5533,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>21624.298448332782</v>
+        <v>23484.131902540852</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>42.0</v>
+        <v>35.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.03958529688972667</v>
+        <v>0.06205673758865248</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>22.87824580340832</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>21.385563252905364</v>
+        <v>28.35951185807137</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-20.614436747094636</v>
+        <v>-6.640488141928628</v>
       </c>
     </row>
     <row r="20">
@@ -5559,25 +5559,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>25949.158137999337</v>
+        <v>3263.1984082977265</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.0054386640138295445</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.043355325164938736</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>42.22795359614406</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>24.95898641855793</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>-21.04101358144207</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -5585,25 +5585,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>30274.0178276659</v>
+        <v>18943.86640138295</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03157311066897159</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>36.0</v>
+        <v>34.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.033930254476908575</v>
+        <v>0.06028368794326241</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>49.26594586216808</v>
+        <v>18.455118281416038</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>25.508743828658325</v>
+        <v>26.662184465069593</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-10.491256171341675</v>
+        <v>-7.337815534930407</v>
       </c>
     </row>
     <row r="22">
@@ -5611,25 +5611,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>756.8504456916473</v>
+        <v>18997.410222120747</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.031662350370201243</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>0.0</v>
+        <v>14.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.0</v>
+        <v>0.024822695035460994</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>0.0</v>
+        <v>18.50728068184781</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>0.0</v>
+        <v>14.780892714057149</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>0.0</v>
+        <v>0.7808927140571491</v>
       </c>
     </row>
     <row r="23">
@@ -5637,25 +5637,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>27030.37306041598</v>
+        <v>21881.261619752764</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03646876936625461</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>45.0</v>
+        <v>14.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.04241281809613572</v>
+        <v>0.024822695035460994</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>43.987451662650074</v>
+        <v>21.316729266506357</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>21.880344921995718</v>
+        <v>19.519265019520446</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-23.119655078004282</v>
+        <v>5.5192650195204465</v>
       </c>
     </row>
     <row r="24">
@@ -5663,25 +5663,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>21624.298448332782</v>
+        <v>20859.701881992238</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.034766169803320396</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.033930254476908575</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>20.321525574058093</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>17.152431195132323</v>
+        <v>20.297206741312927</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-18.847568804867677</v>
+        <v>0.2972067413129267</v>
       </c>
     </row>
     <row r="25">
@@ -5689,25 +5689,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>21624.298448332782</v>
+        <v>22746.73016080107</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03791121693466845</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>29.0</v>
+        <v>31.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.027332704995287466</v>
+        <v>0.0549645390070922</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>22.159868885181297</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>17.482285641192558</v>
+        <v>23.47969560319126</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-11.517714358807442</v>
+        <v>-7.52030439680874</v>
       </c>
     </row>
     <row r="26">
@@ -5715,25 +5715,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>21624.298448332782</v>
+        <v>34553.76887700186</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.057589614795003095</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>45.0</v>
+        <v>35.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.04241281809613572</v>
+        <v>0.06205673758865248</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>33.662288266941545</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>20.72585436078489</v>
+        <v>28.571677782196595</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-24.27414563921511</v>
+        <v>-6.428322217803405</v>
       </c>
     </row>
     <row r="27">
@@ -5741,25 +5741,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>25949.158137999337</v>
+        <v>3857.5035063113605</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006429172510518934</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.043355325164938736</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>42.22795359614406</v>
+        <v>0.0</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>24.079374562397298</v>
+        <v>0.0</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>-21.920625437602702</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -5767,25 +5767,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>30274.0178276659</v>
+        <v>24148.26315274471</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.04024710525457451</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>32.0</v>
+        <v>29.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.030160226201696512</v>
+        <v>0.051418439716312055</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>49.26594586216808</v>
+        <v>23.525242594728706</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>24.409229008457533</v>
+        <v>23.76258350202489</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-7.590770991542467</v>
+        <v>-5.237416497975111</v>
       </c>
     </row>
     <row r="29">
@@ -5793,25 +5793,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>756.8504456916473</v>
+        <v>21918.523109038128</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.0</v>
+        <v>0.044326241134751775</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>0.0</v>
+        <v>21.353029416514428</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>0.0</v>
+        <v>19.236377120686814</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>0.0</v>
+        <v>-5.763622879313186</v>
       </c>
     </row>
     <row r="30">
@@ -5819,25 +5819,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>27030.37306041598</v>
+        <v>21918.523109038128</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>38.0</v>
+        <v>22.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.03581526861451461</v>
+        <v>0.03900709219858156</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>43.987451662650074</v>
+        <v>21.353029416514428</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>23.089811224216586</v>
+        <v>19.94359686777089</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-14.910188775783414</v>
+        <v>-2.0564031322291108</v>
       </c>
     </row>
     <row r="31">
@@ -5845,25 +5845,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>21624.298448332782</v>
+        <v>23484.131902540852</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>43.0</v>
+        <v>14.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.04052780395852969</v>
+        <v>0.024822695035460994</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>22.87824580340832</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>19.241509353513823</v>
+        <v>20.43865069072974</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-23.758490646486177</v>
+        <v>6.438650690729741</v>
       </c>
     </row>
     <row r="32">
@@ -5871,25 +5871,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>21624.298448332782</v>
+        <v>39140.21983756808</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.06523369972928014</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>36.0</v>
+        <v>20.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.033930254476908575</v>
+        <v>0.03546099290780142</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>38.1304096723472</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>20.45097565573469</v>
+        <v>28.144988534789157</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-15.549024344265309</v>
+        <v>8.144988534789157</v>
       </c>
     </row>
     <row r="33">
@@ -5897,25 +5897,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>21624.298448332782</v>
+        <v>53230.698979092595</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.088717831631821</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>45.0</v>
+        <v>34.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.04241281809613572</v>
+        <v>0.06028368794326241</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>35.18996133012005</v>
+        <v>51.85735715439218</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>21.935320663005758</v>
+        <v>35.148821430078485</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-23.064679336994242</v>
+        <v>1.1488214300784847</v>
       </c>
     </row>
     <row r="34">
@@ -5923,25 +5923,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>25949.158137999337</v>
+        <v>3075.012231318699</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.005125020385531165</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>46.0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.043355325164938736</v>
+        <v>0.0</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>42.22795359614406</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>23.529617152296904</v>
+        <v>0.0</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-22.470382847703096</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -5949,25 +5949,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>655000.0</v>
+        <v>600000.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>1061.0</v>
+        <v>564.0</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>1060.9773341031196</v>
+        <v>563.2534129032301</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>588.9551134405531</v>
+        <v>540.1437966337754</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-472.0448865594469</v>
+        <v>-23.856203366224577</v>
       </c>
     </row>
     <row r="36">
@@ -6009,7 +6009,7 @@
     <col min="4" max="4" width="20.91796875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="18.578125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="23.546875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="25.2265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="26.33984375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="20.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -6056,25 +6056,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>28821.393199075603</v>
+        <v>8409.276232101503</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.006727420985681203</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>29.0</v>
+        <v>0.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.027992277992277992</v>
+        <v>0.0</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>30.924712482755833</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>27.518086179468014</v>
+        <v>0.0</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>-1.481913820531986</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -6082,25 +6082,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>28821.393199075603</v>
+        <v>12186.633614925471</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.009749306891940377</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>27.0</v>
+        <v>32.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.026061776061776062</v>
+        <v>0.033023735810113516</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>30.924712482755833</v>
+        <v>9.790793157402009</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>24.505751301833943</v>
+        <v>29.172814567218058</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-2.494248698166057</v>
+        <v>-2.827185432781942</v>
       </c>
     </row>
     <row r="6">
@@ -6108,25 +6108,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>32023.77022119511</v>
+        <v>7218.435043543494</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.005774748034834795</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>43.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.041505791505791506</v>
+        <v>0.0</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>36.96216309313159</v>
+        <v>0.0</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>-6.037836906868407</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -6134,25 +6134,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>44833.278309673165</v>
+        <v>48925.27479696011</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>53.0</v>
+        <v>29.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.05115830115830116</v>
+        <v>0.029927760577915376</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>48.105108306509074</v>
+        <v>39.30677337500472</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>33.379927022431616</v>
+        <v>46.558633349701545</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>-19.620072977568384</v>
+        <v>17.558633349701545</v>
       </c>
     </row>
     <row r="8">
@@ -6160,25 +6160,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>1120.831957741829</v>
+        <v>42401.9048240321</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>0.0</v>
+        <v>13.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.0</v>
+        <v>0.013415892672858616</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>0.0</v>
+        <v>34.06587025833742</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>0.0</v>
+        <v>36.09767459074962</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>0.0</v>
+        <v>23.09767459074962</v>
       </c>
     </row>
     <row r="9">
@@ -6186,25 +6186,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>35226.14724331463</v>
+        <v>39140.21983756809</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.036315615714757346</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>39.0</v>
+        <v>31.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.037644787644787646</v>
+        <v>0.03199174406604747</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>37.796870812257126</v>
+        <v>31.44541870000377</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>33.05426919782253</v>
+        <v>44.20123419275463</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-5.945730802177472</v>
+        <v>13.201234192754633</v>
       </c>
     </row>
     <row r="10">
@@ -6212,25 +6212,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>32023.77022119511</v>
+        <v>39140.21983756809</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>23.0</v>
+        <v>31.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.0222007722007722</v>
+        <v>0.03199174406604747</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>31.44541870000377</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>27.518086179468014</v>
+        <v>45.08525887660972</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>4.518086179468014</v>
+        <v>14.085258876609721</v>
       </c>
     </row>
     <row r="11">
@@ -6238,25 +6238,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>32023.77022119511</v>
+        <v>42401.9048240321</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.023166023166023165</v>
+        <v>0.02786377708978328</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>34.06587025833742</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>29.472033127122547</v>
+        <v>40.900875373028946</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>5.472033127122547</v>
+        <v>13.900875373028946</v>
       </c>
     </row>
     <row r="12">
@@ -6264,25 +6264,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>28821.393199075603</v>
+        <v>48925.27479696011</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.029712776493892375</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>43.0</v>
+        <v>23.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.041505791505791506</v>
+        <v>0.023735810113519093</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>30.924712482755833</v>
+        <v>39.30677337500472</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>33.29851256627934</v>
+        <v>37.71838651115062</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-9.701487433720658</v>
+        <v>14.71838651115062</v>
       </c>
     </row>
     <row r="13">
@@ -6290,25 +6290,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>38428.524265434135</v>
+        <v>8610.196027267686</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006888156821814149</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>59.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.05694980694980695</v>
+        <v>0.0</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>41.23294997700777</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>38.91611004078613</v>
+        <v>0.0</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>-20.08388995921387</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -6316,25 +6316,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>49636.843842852424</v>
+        <v>48925.27479696011</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.05117200396170353</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>57.0</v>
+        <v>25.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.05501930501930502</v>
+        <v>0.025799793601651185</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>53.259227053635044</v>
+        <v>39.30677337500472</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>35.49670288239069</v>
+        <v>44.20123419275463</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-21.503297117609307</v>
+        <v>19.201234192754633</v>
       </c>
     </row>
     <row r="15">
@@ -6342,25 +6342,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>1120.831957741829</v>
+        <v>42401.9048240321</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>0.0</v>
+        <v>26.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.0</v>
+        <v>0.026831785345717233</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>0.0</v>
+        <v>34.06587025833742</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>0.0</v>
+        <v>36.539686932677164</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>0.0</v>
+        <v>10.539686932677164</v>
       </c>
     </row>
     <row r="16">
@@ -6368,25 +6368,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>40029.71277649389</v>
+        <v>39140.21983756809</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>37.0</v>
+        <v>30.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.03571428571428571</v>
+        <v>0.030959752321981424</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>42.9509895593831</v>
+        <v>31.44541870000377</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>37.93913656695886</v>
+        <v>43.02253461428118</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>0.939136566958858</v>
+        <v>13.022534614281177</v>
       </c>
     </row>
     <row r="17">
@@ -6394,25 +6394,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>33624.95873225487</v>
+        <v>39140.21983756809</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.034664905909541105</v>
+        <v>0.03131217587005447</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>31.0</v>
+        <v>40.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.029922779922779922</v>
+        <v>0.0412796697626419</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>36.07883122988181</v>
+        <v>31.44541870000377</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>31.26315116247254</v>
+        <v>36.98169927460471</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>0.2631511624725391</v>
+        <v>-3.0183007253952923</v>
       </c>
     </row>
     <row r="18">
@@ -6420,25 +6420,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>32023.77022119511</v>
+        <v>42401.9048240321</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03392152385922568</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>32.0</v>
+        <v>47.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.03088803088803089</v>
+        <v>0.048503611971104234</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>34.06587025833742</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>29.960519864036183</v>
+        <v>42.43318482504445</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-2.0394801359638173</v>
+        <v>-4.566815174955551</v>
       </c>
     </row>
     <row r="19">
@@ -6446,25 +6446,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>32023.77022119511</v>
+        <v>48925.27479696011</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>35.0</v>
+        <v>47.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.033783783783783786</v>
+        <v>0.048503611971104234</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>39.30677337500472</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>31.670223443233898</v>
+        <v>59.08231637098203</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-3.3297765567661024</v>
+        <v>12.082316370982028</v>
       </c>
     </row>
     <row r="20">
@@ -6472,25 +6472,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>38428.524265434135</v>
+        <v>6798.33001728693</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.0054386640138295445</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>55.0</v>
+        <v>0.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.05308880308880309</v>
+        <v>0.0</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>41.23294997700777</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>36.96216309313159</v>
+        <v>0.0</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>-18.037836906868407</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -6498,25 +6498,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>44833.278309673165</v>
+        <v>39466.388336214484</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.03157311066897159</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>45.0</v>
+        <v>57.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.04343629343629344</v>
+        <v>0.058823529411764705</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>48.105108306509074</v>
+        <v>31.70746385583713</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>37.77630765465432</v>
+        <v>55.54621763556165</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-7.2236923453456825</v>
+        <v>-1.4537823644383465</v>
       </c>
     </row>
     <row r="22">
@@ -6524,25 +6524,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>1120.831957741829</v>
+        <v>39577.93796275155</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.031662350370201243</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>0.0</v>
+        <v>34.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03508771929824561</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>0.0</v>
+        <v>31.797083299132144</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>0.0</v>
+        <v>30.79352648761906</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>0.0</v>
+        <v>-3.2064735123809385</v>
       </c>
     </row>
     <row r="23">
@@ -6550,25 +6550,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>40029.71277649389</v>
+        <v>45585.961707818264</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03646876936625461</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>29.0</v>
+        <v>35.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.027992277992277992</v>
+        <v>0.03611971104231166</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>42.9509895593831</v>
+        <v>36.62395506958273</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>32.40295354860435</v>
+        <v>40.66513545733426</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>3.4029535486043514</v>
+        <v>5.665135457334259</v>
       </c>
     </row>
     <row r="24">
@@ -6576,25 +6576,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>32023.77022119511</v>
+        <v>43457.712254150494</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.034766169803320396</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>23.0</v>
+        <v>31.5</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0222007722007722</v>
+        <v>0.032507739938080496</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>34.91411042777003</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>25.401310319508937</v>
+        <v>42.285847377735266</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>2.401310319508937</v>
+        <v>10.785847377735266</v>
       </c>
     </row>
     <row r="25">
@@ -6602,25 +6602,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>32023.77022119511</v>
+        <v>47389.02116833557</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03791121693466845</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>32.0</v>
+        <v>56.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.03088803088803089</v>
+        <v>0.05779153766769866</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>38.07254069102957</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>25.88979705642257</v>
+        <v>48.916032506648456</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-6.1102029435774305</v>
+        <v>-7.083967493351544</v>
       </c>
     </row>
     <row r="26">
@@ -6628,25 +6628,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>32023.77022119511</v>
+        <v>71987.01849375387</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.057589614795003095</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>43.0</v>
+        <v>49.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.041505791505791506</v>
+        <v>0.05056759545923633</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>57.834676118202765</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>30.693249969406633</v>
+        <v>59.52432871290957</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-12.306750030593367</v>
+        <v>10.524328712909572</v>
       </c>
     </row>
     <row r="27">
@@ -6654,25 +6654,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>38428.524265434135</v>
+        <v>8036.4656381486675</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.006429172510518934</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>55.0</v>
+        <v>0.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.05308880308880309</v>
+        <v>0.0</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>41.23294997700777</v>
+        <v>0.0</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>35.65953179469524</v>
+        <v>0.0</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>-19.34046820530476</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -6680,25 +6680,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>44833.278309673165</v>
+        <v>50308.88156821814</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04621987454605481</v>
+        <v>0.04024710525457451</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>61.0</v>
+        <v>39.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.05888030888030888</v>
+        <v>0.04024767801857585</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>48.105108306509074</v>
+        <v>40.41836892604985</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>36.14801853160887</v>
+        <v>49.50538229588519</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-24.85198146839113</v>
+        <v>10.505382295885191</v>
       </c>
     </row>
     <row r="29">
@@ -6706,25 +6706,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>1120.831957741829</v>
+        <v>45663.5898104961</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.00115549686365137</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>0.0</v>
+        <v>42.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.0</v>
+        <v>0.043343653250773995</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>0.0</v>
+        <v>36.68632181667107</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>0.0</v>
+        <v>40.07578566809753</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>0.0</v>
+        <v>-1.9242143319024692</v>
       </c>
     </row>
     <row r="30">
@@ -6732,25 +6732,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>40029.71277649389</v>
+        <v>45663.5898104961</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.041267745130406076</v>
+        <v>0.03653087184839688</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>31.0</v>
+        <v>38.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.029922779922779922</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>42.9509895593831</v>
+        <v>36.68632181667107</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>34.19407158395434</v>
+        <v>41.549160141189354</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>3.19407158395434</v>
+        <v>3.549160141189354</v>
       </c>
     </row>
     <row r="31">
@@ -6758,25 +6758,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>32023.77022119511</v>
+        <v>48925.27479696011</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.03914021983756809</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>31.0</v>
+        <v>54.5</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.029922779922779922</v>
+        <v>0.05624355005159959</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>39.30677337500472</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>28.495059653295282</v>
+        <v>42.580522272353626</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-2.5049403467047178</v>
+        <v>-11.919477727646374</v>
       </c>
     </row>
     <row r="32">
@@ -6784,25 +6784,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>32023.77022119511</v>
+        <v>81542.12466160017</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.06523369972928014</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>29.0</v>
+        <v>65.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.027992277992277992</v>
+        <v>0.06707946336429309</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>65.5112889583412</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>30.28617768864527</v>
+        <v>58.63539278081074</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>1.286177688645271</v>
+        <v>-6.36460721918926</v>
       </c>
     </row>
     <row r="33">
@@ -6810,25 +6810,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>32023.77022119511</v>
+        <v>110897.28953977625</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.03301419610432486</v>
+        <v>0.088717831631821</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>35.0</v>
+        <v>67.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.033783783783783786</v>
+        <v>0.06914344685242518</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>34.360791647506474</v>
+        <v>89.09535298334401</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>32.48436800475662</v>
+        <v>73.22671131266351</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-2.515631995243382</v>
+        <v>6.226711312663511</v>
       </c>
     </row>
     <row r="34">
@@ -6836,25 +6836,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>38428.524265434135</v>
+        <v>6406.275481913956</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.03961703532518983</v>
+        <v>0.005125020385531165</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>35.0</v>
+        <v>0.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.033783783783783786</v>
+        <v>0.0</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>41.23294997700777</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>34.84538723317252</v>
+        <v>0.0</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>-0.15461276682748348</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -6862,25 +6862,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>970000.0</v>
+        <v>1250000.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>1036.0</v>
+        <v>969.0</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>1035.9778681723205</v>
+        <v>967.717299828422</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>872.1930687592924</v>
+        <v>1125.2995763203655</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-163.80693124070763</v>
+        <v>156.29957632036553</v>
       </c>
     </row>
     <row r="36">

--- a/SampleOutputReport.xlsx
+++ b/SampleOutputReport.xlsx
@@ -23,97 +23,97 @@
     <t>Dzień</t>
   </si>
   <si>
-    <t>2020-05-01</t>
+    <t>2020-07-01</t>
   </si>
   <si>
-    <t>2020-05-02</t>
+    <t>2020-07-02</t>
   </si>
   <si>
-    <t>2020-05-03</t>
+    <t>2020-07-03</t>
   </si>
   <si>
-    <t>2020-05-04</t>
+    <t>2020-07-04</t>
   </si>
   <si>
-    <t>2020-05-05</t>
+    <t>2020-07-05</t>
   </si>
   <si>
-    <t>2020-05-06</t>
+    <t>2020-07-06</t>
   </si>
   <si>
-    <t>2020-05-07</t>
+    <t>2020-07-07</t>
   </si>
   <si>
-    <t>2020-05-08</t>
+    <t>2020-07-08</t>
   </si>
   <si>
-    <t>2020-05-09</t>
+    <t>2020-07-09</t>
   </si>
   <si>
-    <t>2020-05-10</t>
+    <t>2020-07-10</t>
   </si>
   <si>
-    <t>2020-05-11</t>
+    <t>2020-07-11</t>
   </si>
   <si>
-    <t>2020-05-12</t>
+    <t>2020-07-12</t>
   </si>
   <si>
-    <t>2020-05-13</t>
+    <t>2020-07-13</t>
   </si>
   <si>
-    <t>2020-05-14</t>
+    <t>2020-07-14</t>
   </si>
   <si>
-    <t>2020-05-15</t>
+    <t>2020-07-15</t>
   </si>
   <si>
-    <t>2020-05-16</t>
+    <t>2020-07-16</t>
   </si>
   <si>
-    <t>2020-05-17</t>
+    <t>2020-07-17</t>
   </si>
   <si>
-    <t>2020-05-18</t>
+    <t>2020-07-18</t>
   </si>
   <si>
-    <t>2020-05-19</t>
+    <t>2020-07-19</t>
   </si>
   <si>
-    <t>2020-05-20</t>
+    <t>2020-07-20</t>
   </si>
   <si>
-    <t>2020-05-21</t>
+    <t>2020-07-21</t>
   </si>
   <si>
-    <t>2020-05-22</t>
+    <t>2020-07-22</t>
   </si>
   <si>
-    <t>2020-05-23</t>
+    <t>2020-07-23</t>
   </si>
   <si>
-    <t>2020-05-24</t>
+    <t>2020-07-24</t>
   </si>
   <si>
-    <t>2020-05-25</t>
+    <t>2020-07-25</t>
   </si>
   <si>
-    <t>2020-05-26</t>
+    <t>2020-07-26</t>
   </si>
   <si>
-    <t>2020-05-27</t>
+    <t>2020-07-27</t>
   </si>
   <si>
-    <t>2020-05-28</t>
+    <t>2020-07-28</t>
   </si>
   <si>
-    <t>2020-05-29</t>
+    <t>2020-07-29</t>
   </si>
   <si>
-    <t>2020-05-30</t>
+    <t>2020-07-30</t>
   </si>
   <si>
-    <t>2020-05-31</t>
+    <t>2020-07-31</t>
   </si>
   <si>
     <t>Sumy:</t>
@@ -140,7 +140,7 @@
     <t>Godziny aby zrealizować</t>
   </si>
   <si>
-    <t>Cel produktywności: 9999.0</t>
+    <t>Cel produktywności: 1000.0</t>
   </si>
   <si>
     <t>Różnica godzin do</t>
@@ -582,25 +582,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>25782.0</v>
+        <v>180000.0</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.006727420985681203</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>0.0</v>
+        <v>242.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03564327270049341</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>0.0</v>
+        <v>202.66731216377482</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>0.0</v>
+        <v>180.831957741829</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>0.0</v>
+        <v>-61.168042258171</v>
       </c>
     </row>
     <row r="5">
@@ -608,25 +608,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>37363.0</v>
+        <v>180000.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.009749306891940377</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>107.0</v>
+        <v>207.5</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.020697993068429114</v>
+        <v>0.03056189704691067</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>52.23356153417901</v>
+        <v>202.66731216377482</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>3.872625748291911</v>
+        <v>180.831957741829</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-103.12737425170809</v>
+        <v>-26.668042258171</v>
       </c>
     </row>
     <row r="6">
@@ -634,25 +634,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>22131.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.005774748034834795</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>0.0</v>
+        <v>284.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04182929523528978</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.0</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.0</v>
+        <v>200.92439749092105</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>0.0</v>
+        <v>-83.07560250907895</v>
       </c>
     </row>
     <row r="7">
@@ -660,25 +660,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>150000.0</v>
+        <v>280000.0</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>210.9</v>
+        <v>231.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.04079632465543645</v>
+        <v>0.03402312394138007</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>209.70035142057253</v>
+        <v>315.260263365872</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>15.547302471530301</v>
+        <v>281.29415648728957</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>-195.35269752846972</v>
+        <v>50.29415648728957</v>
       </c>
     </row>
     <row r="8">
@@ -686,25 +686,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>130000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>177.5</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.03433545579108568</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>181.7403045644962</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>13.474328808659594</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>-164.0256711913404</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -712,25 +712,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>120000.0</v>
+        <v>220000.0</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>206.0</v>
+        <v>238.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.03984847263641493</v>
+        <v>0.03505412769717947</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>167.76028113645802</v>
+        <v>247.70449264461368</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>12.43784197722424</v>
+        <v>221.0168372400132</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-193.56215802277575</v>
+        <v>-16.98316275998681</v>
       </c>
     </row>
     <row r="10">
@@ -738,25 +738,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>120000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>215.4</v>
+        <v>223.75</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.04166680099943581</v>
+        <v>0.03295529862287355</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>167.76028113645802</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>12.43784197722424</v>
+        <v>200.92439749092105</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-202.96215802277575</v>
+        <v>-22.825602509078948</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +764,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>130000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>201.2</v>
+        <v>241.25</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.038919964536148946</v>
+        <v>0.03553280801237205</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>181.7403045644962</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>13.474328808659594</v>
+        <v>200.92439749092105</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-187.72567119134038</v>
+        <v>-40.32560250907895</v>
       </c>
     </row>
     <row r="12">
@@ -790,25 +790,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>150000.0</v>
+        <v>180000.0</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>156.0</v>
+        <v>244.5</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.030176513258644316</v>
+        <v>0.03601148832756462</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>209.70035142057253</v>
+        <v>202.66731216377482</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>15.547302471530301</v>
+        <v>180.831957741829</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-140.45269752846968</v>
+        <v>-63.668042258171</v>
       </c>
     </row>
     <row r="13">
@@ -816,25 +816,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>26398.0</v>
+        <v>240000.0</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.006888156821814149</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>0.0</v>
+        <v>300.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04418587524854555</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>0.0</v>
+        <v>270.2230828850331</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>0.0</v>
+        <v>241.1092769891053</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>0.0</v>
+        <v>-58.8907230108947</v>
       </c>
     </row>
     <row r="14">
@@ -842,25 +842,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>150000.0</v>
+        <v>310000.0</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>222.5</v>
+        <v>263.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.04304021923107923</v>
+        <v>0.0387362839678916</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>209.70035142057253</v>
+        <v>349.03814872650105</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>15.547302471530301</v>
+        <v>311.43281611092766</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-206.95269752846968</v>
+        <v>48.43281611092766</v>
       </c>
     </row>
     <row r="15">
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>130000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>190.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.036753445635528334</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>181.7403045644962</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>13.474328808659594</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>-176.5256711913404</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -894,25 +894,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>120000.0</v>
+        <v>250000.0</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>191.5</v>
+        <v>305.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.03704360441686145</v>
+        <v>0.04492230650268798</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>167.76028113645802</v>
+        <v>281.4823780052429</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>12.43784197722424</v>
+        <v>251.1554968636514</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-179.06215802277575</v>
+        <v>-53.84450313634861</v>
       </c>
     </row>
     <row r="17">
@@ -920,25 +920,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>120000.0</v>
+        <v>210000.0</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>195.5</v>
+        <v>248.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.0378173611670831</v>
+        <v>0.03652699020546432</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>167.76028113645802</v>
+        <v>236.445197524404</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>12.43784197722424</v>
+        <v>210.97061736546718</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-183.06215802277575</v>
+        <v>-37.02938263453282</v>
       </c>
     </row>
     <row r="18">
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>130000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>199.5</v>
+        <v>256.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.03859111791730475</v>
+        <v>0.0377052802120922</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>181.7403045644962</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>13.474328808659594</v>
+        <v>200.92439749092105</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-186.0256711913404</v>
+        <v>-55.07560250907895</v>
       </c>
     </row>
     <row r="19">
@@ -972,25 +972,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>150000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>250.0</v>
+        <v>262.5</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.04835979688885307</v>
+        <v>0.03866264084247736</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>209.70035142057253</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>15.547302471530301</v>
+        <v>200.92439749092105</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-234.45269752846968</v>
+        <v>-61.57560250907895</v>
       </c>
     </row>
     <row r="20">
@@ -998,25 +998,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>20843.0</v>
+        <v>240000.0</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.0054386640138295445</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>0.0</v>
+        <v>278.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04094557773031887</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>0.0</v>
+        <v>270.2230828850331</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>0.0</v>
+        <v>241.1092769891053</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>0.0</v>
+        <v>-36.8907230108947</v>
       </c>
     </row>
     <row r="21">
@@ -1024,25 +1024,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>121000.0</v>
+        <v>280000.0</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.03157311066897159</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>255.0</v>
+        <v>271.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.04932699282663013</v>
+        <v>0.03991457397451948</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>169.1582834792618</v>
+        <v>315.260263365872</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>12.541490660367772</v>
+        <v>281.29415648728957</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-242.45850933963223</v>
+        <v>10.29415648728957</v>
       </c>
     </row>
     <row r="22">
@@ -1050,25 +1050,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>121342.0</v>
+        <v>7000.0</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.031662350370201243</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>174.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.03365841863464174</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>169.63640028050074</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>12.576938510002863</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>-161.42306148999714</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1076,25 +1076,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>139762.0</v>
+        <v>250000.0</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.03646876936625461</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>186.0</v>
+        <v>239.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.035979688885306685</v>
+        <v>0.03520141394800795</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>195.38760343494707</v>
+        <v>281.4823780052429</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>14.486147253506786</v>
+        <v>251.1554968636514</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-171.51385274649323</v>
+        <v>12.155496863651393</v>
       </c>
     </row>
     <row r="24">
@@ -1102,25 +1102,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>133237.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.034766169803320396</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>201.5</v>
+        <v>203.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.03897799629241557</v>
+        <v>0.02989910891818249</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>186.26563814815216</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>13.809839595995218</v>
+        <v>200.92439749092105</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-187.69016040400479</v>
+        <v>-2.075602509078948</v>
       </c>
     </row>
     <row r="25">
@@ -1128,25 +1128,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>145290.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03791121693466845</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>217.0</v>
+        <v>206.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.041976303699524466</v>
+        <v>0.030340967670667945</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>203.11576038596658</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>15.05911717392425</v>
+        <v>200.92439749092105</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-201.94088282607575</v>
+        <v>-5.075602509078948</v>
       </c>
     </row>
     <row r="26">
@@ -1154,25 +1154,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>220705.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.057589614795003095</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>239.5</v>
+        <v>235.5</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.04632868541952124</v>
+        <v>0.03468591207010826</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>308.54610706851633</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>22.875782613193962</v>
+        <v>200.92439749092105</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-216.62421738680604</v>
+        <v>-34.57560250907895</v>
       </c>
     </row>
     <row r="27">
@@ -1180,25 +1180,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>24639.0</v>
+        <v>240000.0</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.006429172510518934</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>0.0</v>
+        <v>266.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.0</v>
+        <v>0.039178142720377056</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>0.0</v>
+        <v>270.2230828850331</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>0.0</v>
+        <v>241.1092769891053</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>0.0</v>
+        <v>-24.890723010894703</v>
       </c>
     </row>
     <row r="28">
@@ -1206,25 +1206,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>154242.0</v>
+        <v>280000.0</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04024710525457451</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>231.0</v>
+        <v>258.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.04468445232530024</v>
+        <v>0.03799985271374917</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>215.63067735874634</v>
+        <v>315.260263365872</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>15.986980185425177</v>
+        <v>281.29415648728957</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-215.01301981457482</v>
+        <v>23.29415648728957</v>
       </c>
     </row>
     <row r="29">
@@ -1232,25 +1232,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>140000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>207.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.04004191182397034</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>195.72032799253435</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>14.510815640094947</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>-192.48918435990504</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1258,25 +1258,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>140000.0</v>
+        <v>250000.0</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>189.5</v>
+        <v>272.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.036656726041750624</v>
+        <v>0.04006186022534797</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>195.72032799253435</v>
+        <v>281.4823780052429</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>14.510815640094947</v>
+        <v>251.1554968636514</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-174.98918435990504</v>
+        <v>-20.844503136348607</v>
       </c>
     </row>
     <row r="31">
@@ -1284,25 +1284,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>150000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>196.6</v>
+        <v>251.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.03803014427339405</v>
+        <v>0.036968848957949774</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>209.70035142057253</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>15.547302471530301</v>
+        <v>200.92439749092105</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-181.0526975284697</v>
+        <v>-50.07560250907895</v>
       </c>
     </row>
     <row r="32">
@@ -1310,25 +1310,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>250000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.06523369972928014</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>264.483333333333</v>
+        <v>242.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.051161441121947225</v>
+        <v>0.03564327270049341</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>349.5005857009542</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>25.912170785883834</v>
+        <v>200.92439749092105</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-238.57116254744918</v>
+        <v>-41.07560250907895</v>
       </c>
     </row>
     <row r="33">
@@ -1336,25 +1336,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>340000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.088717831631821</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>285.0</v>
+        <v>254.5</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.0551301684532925</v>
+        <v>0.03748435083584947</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>475.32079655329767</v>
+        <v>225.18590240419422</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>35.240552268802006</v>
+        <v>200.92439749092105</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-249.759447731198</v>
+        <v>-53.57560250907895</v>
       </c>
     </row>
     <row r="34">
@@ -1362,25 +1362,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>19641.0</v>
+        <v>240000.0</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.005125020385531165</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>0.0</v>
+        <v>267.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.0</v>
+        <v>0.039325428971205535</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>0.0</v>
+        <v>270.2230828850331</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>0.0</v>
+        <v>241.1092769891053</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>0.0</v>
+        <v>-25.890723010894703</v>
       </c>
     </row>
     <row r="35">
@@ -1388,25 +1388,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>3832375.0</v>
+        <v>6058000.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>5169.583333333333</v>
+        <v>6789.5</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>5162.74016983627</v>
+        <v>6789.354957486456</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>383.27582758275827</v>
+        <v>6058.0</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-4786.307505750575</v>
+        <v>-731.5</v>
       </c>
     </row>
     <row r="36"/>
@@ -1491,25 +1491,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>6054.678887113083</v>
+        <v>25255.86001980852</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.006727420985681203</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03748047891723061</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>0.0</v>
+        <v>28.67102928541214</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>0.0</v>
+        <v>24.256471987635745</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>0.0</v>
+        <v>-11.743528012364255</v>
       </c>
     </row>
     <row r="5">
@@ -1517,25 +1517,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>8774.37620274634</v>
+        <v>25255.86001980852</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.009749306891940377</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>8.0</v>
+        <v>36.5</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.013061224489795919</v>
+        <v>0.03800104112441437</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>6.188710845107049</v>
+        <v>28.67102928541214</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>21.004426488397</v>
+        <v>20.47531606015135</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>13.004426488397002</v>
+        <v>-16.02468393984865</v>
       </c>
     </row>
     <row r="6">
@@ -1543,25 +1543,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>5197.273231351316</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.005774748034834795</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>0.0</v>
+        <v>45.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04685059864653826</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.0</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.0</v>
+        <v>31.390728454587435</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>0.0</v>
+        <v>-13.609271545412565</v>
       </c>
     </row>
     <row r="7">
@@ -1569,25 +1569,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>35226.19785381128</v>
+        <v>39286.893364146585</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>26.0</v>
+        <v>38.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.04244897959183674</v>
+        <v>0.03956272774596564</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>24.845612685438997</v>
+        <v>44.59937888841889</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>33.52221601178511</v>
+        <v>29.25045151450193</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>7.522216011785112</v>
+        <v>-8.749548485498071</v>
       </c>
     </row>
     <row r="8">
@@ -1595,25 +1595,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>30529.371473303112</v>
+        <v>982.1723341036645</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.052244897959183675</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>21.532864327380466</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>25.99032570533972</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>-6.009674294660279</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -1621,25 +1621,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>28180.95828304902</v>
+        <v>30868.273357543745</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>31.0</v>
+        <v>38.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.05061224489795919</v>
+        <v>0.03956272774596564</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>19.8764901483512</v>
+        <v>35.04236912661484</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>31.824888618783334</v>
+        <v>27.110174574416423</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>0.8248886187833335</v>
+        <v>-10.889825425583577</v>
       </c>
     </row>
     <row r="10">
@@ -1647,25 +1647,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>28180.95828304902</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.04897959183673469</v>
+        <v>0.03748047891723061</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>19.8764901483512</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>32.461386391159</v>
+        <v>22.79394941191065</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>2.461386391159003</v>
+        <v>-13.20605058808935</v>
       </c>
     </row>
     <row r="11">
@@ -1673,25 +1673,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>30529.371473303112</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>27.5</v>
+        <v>30.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.044897959183673466</v>
+        <v>0.031233732431025507</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>21.532864327380466</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>29.448630268580843</v>
+        <v>25.148254046004705</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>1.9486302685808425</v>
+        <v>-4.8517459539952945</v>
       </c>
     </row>
     <row r="12">
@@ -1699,25 +1699,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>35226.19785381128</v>
+        <v>25255.86001980852</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>31.0</v>
+        <v>35.5</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.05061224489795919</v>
+        <v>0.03695991671004685</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>24.845612685438997</v>
+        <v>28.67102928541214</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>27.157238288028445</v>
+        <v>26.753461751068837</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-3.842761711971555</v>
+        <v>-8.746538248931163</v>
       </c>
     </row>
     <row r="13">
@@ -1725,25 +1725,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>6199.341139632735</v>
+        <v>33674.48002641135</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.006888156821814149</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03956272774596564</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>0.0</v>
+        <v>38.228039047216186</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>0.0</v>
+        <v>32.817579747977774</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>0.0</v>
+        <v>-5.182420252022226</v>
       </c>
     </row>
     <row r="14">
@@ -1751,25 +1751,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>35226.19785381128</v>
+        <v>43496.203367448</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>30.0</v>
+        <v>39.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.04897959183673469</v>
+        <v>0.04060385216033316</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>24.845612685438997</v>
+        <v>49.3778837693209</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>31.824888618783334</v>
+        <v>32.817579747977774</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>1.8248886187833335</v>
+        <v>-6.182420252022226</v>
       </c>
     </row>
     <row r="15">
@@ -1777,25 +1777,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>30529.371473303112</v>
+        <v>982.1723341036645</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>17.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.027755102040816326</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>21.532864327380466</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>26.308574591527556</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>9.308574591527556</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -1803,25 +1803,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>28180.95828304902</v>
+        <v>35077.583360845165</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>27.0</v>
+        <v>46.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.044081632653061226</v>
+        <v>0.04789172306090578</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>19.8764901483512</v>
+        <v>39.82087400751686</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>30.976224922282444</v>
+        <v>33.10295000665584</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>3.9762249222824444</v>
+        <v>-12.897049993344162</v>
       </c>
     </row>
     <row r="17">
@@ -1829,25 +1829,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>28180.95828304902</v>
+        <v>29465.17002310994</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>28.0</v>
+        <v>39.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.045714285714285714</v>
+        <v>0.04060385216033316</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>19.8764901483512</v>
+        <v>33.449534166314166</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>26.62682347771539</v>
+        <v>26.111378669043184</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-1.3731765222846093</v>
+        <v>-12.888621330956816</v>
       </c>
     </row>
     <row r="18">
@@ -1855,25 +1855,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>30529.371473303112</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>15.0</v>
+        <v>29.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.024489795918367346</v>
+        <v>0.03019260801665799</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>21.532864327380466</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>30.551893074032</v>
+        <v>26.111378669043184</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>15.551893074032002</v>
+        <v>-2.8886213309568163</v>
       </c>
     </row>
     <row r="19">
@@ -1881,25 +1881,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>35226.19785381128</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>21.5</v>
+        <v>33.5</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.03510204081632653</v>
+        <v>0.034877667881311816</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>24.845612685438997</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>42.53926778710706</v>
+        <v>28.180313044459176</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>21.039267787107057</v>
+        <v>-5.319686955540824</v>
       </c>
     </row>
     <row r="20">
@@ -1907,25 +1907,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>4894.79761244659</v>
+        <v>33674.48002641135</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.0054386640138295445</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.0</v>
+        <v>0.031233732431025507</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>0.0</v>
+        <v>38.228039047216186</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>0.0</v>
+        <v>31.676098713265503</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>0.0</v>
+        <v>1.6760987132655032</v>
       </c>
     </row>
     <row r="21">
@@ -1933,25 +1933,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>28415.79960207443</v>
+        <v>39286.893364146585</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.03157311066897159</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>21.5</v>
+        <v>44.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.03510204081632653</v>
+        <v>0.045809474232170744</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>20.04212756625412</v>
+        <v>44.59937888841889</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>39.99327669760439</v>
+        <v>33.959060782690045</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>18.493276697604387</v>
+        <v>-10.040939217309955</v>
       </c>
     </row>
     <row r="22">
@@ -1959,25 +1959,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>28496.11533318112</v>
+        <v>982.1723341036645</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.031662350370201243</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>20.5</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.03346938775510204</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>20.098775563176922</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>22.171339071085722</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>1.6713390710857219</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1985,25 +1985,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>32821.892429629144</v>
+        <v>35077.583360845165</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.03646876936625461</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
         <v>30.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.04897959183673469</v>
+        <v>0.031233732431025507</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>23.149816800948834</v>
+        <v>39.82087400751686</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>29.278897529280666</v>
+        <v>27.110174574416423</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-0.7211024707193339</v>
+        <v>-2.8898254255835774</v>
       </c>
     </row>
     <row r="24">
@@ -2011,25 +2011,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>31289.552822988357</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.034766169803320396</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0326530612244898</v>
+        <v>0.031233732431025507</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>22.06903264913224</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>30.44581011196939</v>
+        <v>20.974714012837968</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>10.44581011196939</v>
+        <v>-9.025285987162032</v>
       </c>
     </row>
     <row r="25">
@@ -2037,25 +2037,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>34120.095241201605</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03791121693466845</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>24.0</v>
+        <v>38.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.03918367346938775</v>
+        <v>0.03956272774596564</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>24.065460447116216</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>35.21954340478689</v>
+        <v>21.402769400855068</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>11.21954340478689</v>
+        <v>-16.597230599144932</v>
       </c>
     </row>
     <row r="26">
@@ -2063,25 +2063,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>51830.65331550279</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.057589614795003095</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>22.0</v>
+        <v>33.5</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.035918367346938776</v>
+        <v>0.034877667881311816</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>36.55700631826542</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>42.85751667329489</v>
+        <v>25.611980716356566</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>20.85751667329489</v>
+        <v>-7.888019283643434</v>
       </c>
     </row>
     <row r="27">
@@ -2089,25 +2089,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>5786.255259467041</v>
+        <v>33674.48002641135</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.006429172510518934</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.0</v>
+        <v>0.032274856845393024</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>0.0</v>
+        <v>38.228039047216186</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>0.0</v>
+        <v>29.963877161197097</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>0.0</v>
+        <v>-1.0361228388029033</v>
       </c>
     </row>
     <row r="28">
@@ -2115,25 +2115,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>36222.39472911706</v>
+        <v>39286.893364146585</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04024710525457451</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>14.0</v>
+        <v>43.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.022857142857142857</v>
+        <v>0.04476834981780323</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>25.548246612183213</v>
+        <v>44.59937888841889</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>35.643875253037336</v>
+        <v>32.24683923062164</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>21.643875253037336</v>
+        <v>-10.753160769378361</v>
       </c>
     </row>
     <row r="29">
@@ -2141,25 +2141,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>32877.78466355719</v>
+        <v>982.1723341036645</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.022857142857142857</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>23.18923850640973</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>28.854565681030223</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>14.854565681030223</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -2167,25 +2167,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>32877.78466355719</v>
+        <v>35077.583360845165</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.0473469387755102</v>
+        <v>0.031233732431025507</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>23.18923850640973</v>
+        <v>39.82087400751686</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>29.915395301656336</v>
+        <v>28.394340738467726</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>0.9153953016563356</v>
+        <v>-1.6056592615322742</v>
       </c>
     </row>
     <row r="31">
@@ -2193,25 +2193,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>35226.19785381128</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.04244897959183674</v>
+        <v>0.031233732431025507</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>24.845612685438997</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>30.657976036094613</v>
+        <v>25.397953022348016</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>4.657976036094613</v>
+        <v>-4.602046977651984</v>
       </c>
     </row>
     <row r="32">
@@ -2219,25 +2219,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>58710.32975635213</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.06523369972928014</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>20.0</v>
+        <v>34.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.0326530612244898</v>
+        <v>0.035398230088495575</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>41.40935447573166</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>42.21748280218373</v>
+        <v>25.25526789300898</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>22.21748280218373</v>
+        <v>-8.74473210699102</v>
       </c>
     </row>
     <row r="33">
@@ -2245,25 +2245,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>79846.0484686389</v>
+        <v>28062.06668867613</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.088717831631821</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>47.5</v>
+        <v>34.5</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.07755102040816327</v>
+        <v>0.03591879229567933</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>56.31672208699506</v>
+        <v>31.856699206013484</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>52.72323214511772</v>
+        <v>27.181517139085937</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>5.22323214511772</v>
+        <v>-7.318482860914063</v>
       </c>
     </row>
     <row r="34">
@@ -2271,25 +2271,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>4612.518346978049</v>
+        <v>33674.48002641135</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.005125020385531165</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03435710567412806</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>0.0</v>
+        <v>38.228039047216186</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>0.0</v>
+        <v>28.108970479789658</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>0.0</v>
+        <v>-4.891029520210342</v>
       </c>
     </row>
     <row r="35">
@@ -2297,25 +2297,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>900000.0</v>
+        <v>850000.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>612.5</v>
+        <v>960.5</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>611.6892117078518</v>
+        <v>960.4794810613063</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>810.2156949506631</v>
+        <v>743.6035515503746</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>197.71569495066308</v>
+        <v>-216.89644844962538</v>
       </c>
     </row>
     <row r="36">
@@ -2404,25 +2404,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>4372.823640692782</v>
+        <v>54968.63651370089</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.006727420985681203</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>0.0</v>
+        <v>28.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.0</v>
+        <v>0.0307776861775213</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>0.0</v>
+        <v>27.15613627527714</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>0.0</v>
+        <v>52.79349785544251</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>0.0</v>
+        <v>24.79349785544251</v>
       </c>
     </row>
     <row r="5">
@@ -2430,25 +2430,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>6337.049479761245</v>
+        <v>54968.63651370089</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.009749306891940377</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.03813155386081983</v>
+        <v>0.013190436933223413</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>5.299557286952893</v>
+        <v>27.15613627527714</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>15.169863574953387</v>
+        <v>44.563923189741175</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-4.830136425046613</v>
+        <v>32.563923189741175</v>
       </c>
     </row>
     <row r="6">
@@ -2456,25 +2456,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>3753.586222642617</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.005774748034834795</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.0</v>
+        <v>0.041769716955207474</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.0</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.0</v>
+        <v>68.3209972246903</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>0.0</v>
+        <v>30.320997224690302</v>
       </c>
     </row>
     <row r="7">
@@ -2482,25 +2482,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>25441.142894419256</v>
+        <v>85506.7679102014</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>31.0</v>
+        <v>38.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.05910390848427073</v>
+        <v>0.041769716955207474</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>21.27595731185756</v>
+        <v>42.24287865043111</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>24.2104893418448</v>
+        <v>63.662747413915966</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>-6.789510658155201</v>
+        <v>25.662747413915966</v>
       </c>
     </row>
     <row r="8">
@@ -2508,25 +2508,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>22048.990508496692</v>
+        <v>2137.6691977550345</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>14.5</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.027645376549094377</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>18.439163003609885</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>18.770790787189796</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>4.270790787189796</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -2534,25 +2534,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>20352.914315535407</v>
+        <v>67183.88907230108</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>17.0</v>
+        <v>25.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.032411820781696854</v>
+        <v>0.027480076944215445</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>17.020765849486047</v>
+        <v>33.19083322533873</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>22.984641780232405</v>
+        <v>59.00449760314163</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>5.984641780232405</v>
+        <v>34.00449760314163</v>
       </c>
     </row>
     <row r="10">
@@ -2560,25 +2560,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>20352.914315535407</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>25.0</v>
+        <v>35.75</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.047664442326024785</v>
+        <v>0.039296510030228084</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>17.020765849486047</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>23.444334615837054</v>
+        <v>49.61036048474671</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-1.5556653841629462</v>
+        <v>13.860360484746707</v>
       </c>
     </row>
     <row r="11">
@@ -2586,25 +2586,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>22048.990508496692</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>22.0</v>
+        <v>34.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.04194470924690181</v>
+        <v>0.037372904644133</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>18.439163003609885</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>21.26845519397505</v>
+        <v>54.73443527659848</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-0.7315448060249494</v>
+        <v>20.734435276598482</v>
       </c>
     </row>
     <row r="12">
@@ -2612,25 +2612,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>25441.142894419256</v>
+        <v>54968.63651370089</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>18.0</v>
+        <v>28.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.034318398474737846</v>
+        <v>0.0307776861775213</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>21.27595731185756</v>
+        <v>27.15613627527714</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>19.61356098579832</v>
+        <v>58.22812263467924</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>1.613560985798319</v>
+        <v>30.228122634679238</v>
       </c>
     </row>
     <row r="13">
@@ -2638,25 +2638,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>4477.301934179197</v>
+        <v>73291.51535160118</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.006888156821814149</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>0.0</v>
+        <v>44.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04836493542181918</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>0.0</v>
+        <v>36.208181700369515</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>0.0</v>
+        <v>71.42649709853987</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>0.0</v>
+        <v>27.42649709853987</v>
       </c>
     </row>
     <row r="14">
@@ -2664,25 +2664,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>25441.142894419256</v>
+        <v>94668.20732915153</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>20.0</v>
+        <v>42.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.03813155386081983</v>
+        <v>0.046166529266281946</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>21.27595731185756</v>
+        <v>46.768901362977296</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>22.984641780232405</v>
+        <v>71.42649709853987</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>2.984641780232405</v>
+        <v>29.42649709853987</v>
       </c>
     </row>
     <row r="15">
@@ -2690,25 +2690,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>22048.990508496692</v>
+        <v>2137.6691977550345</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.03813155386081983</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>18.439163003609885</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>19.00063720499212</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>-0.9993627950078796</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -2716,25 +2716,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>20352.914315535407</v>
+        <v>76345.32849125125</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>14.0</v>
+        <v>35.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.02669208770257388</v>
+        <v>0.03847210772190162</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>17.020765849486047</v>
+        <v>37.71685593788492</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>22.371717999426206</v>
+        <v>72.04759707330977</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>8.371717999426206</v>
+        <v>37.047597073309774</v>
       </c>
     </row>
     <row r="17">
@@ -2742,25 +2742,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>20352.914315535407</v>
+        <v>64130.075932651045</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>8.0</v>
+        <v>28.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.015252621544327931</v>
+        <v>0.0307776861775213</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>17.020765849486047</v>
+        <v>31.682158987823335</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>19.230483622794445</v>
+        <v>56.830647691446934</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>11.230483622794445</v>
+        <v>28.830647691446934</v>
       </c>
     </row>
     <row r="18">
@@ -2768,25 +2768,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>22048.990508496692</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>10.0</v>
+        <v>36.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.019065776930409915</v>
+        <v>0.03957131079967024</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>18.439163003609885</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>22.06525610902311</v>
+        <v>56.830647691446934</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>12.06525610902311</v>
+        <v>20.830647691446934</v>
       </c>
     </row>
     <row r="19">
@@ -2794,25 +2794,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>25441.142894419256</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>29.0</v>
+        <v>34.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.055290753098188754</v>
+        <v>0.037372904644133</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>21.27595731185756</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>30.72280451291065</v>
+        <v>61.3336225085288</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>1.722804512910649</v>
+        <v>27.333622508528798</v>
       </c>
     </row>
     <row r="20">
@@ -2820,25 +2820,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>3535.131608989204</v>
+        <v>73291.51535160118</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.0054386640138295445</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.0</v>
+        <v>0.041769716955207474</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>0.0</v>
+        <v>36.208181700369515</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>0.0</v>
+        <v>68.94209719946022</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>0.0</v>
+        <v>30.94209719946022</v>
       </c>
     </row>
     <row r="21">
@@ -2846,25 +2846,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>20522.521934831533</v>
+        <v>85506.7679102014</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.03157311066897159</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>29.0</v>
+        <v>46.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.055290753098188754</v>
+        <v>0.05056334157735642</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>17.162605564898428</v>
+        <v>42.24287865043111</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>28.884033170492057</v>
+        <v>73.91089699761952</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-0.11596682950794346</v>
+        <v>27.910896997619517</v>
       </c>
     </row>
     <row r="22">
@@ -2872,25 +2872,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>20580.52774063081</v>
+        <v>2137.6691977550345</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.031662350370201243</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.02669208770257388</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>17.211114747569464</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>16.01263377356191</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>2.012633773561909</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -2898,25 +2898,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>23704.700088065496</v>
+        <v>76345.32849125125</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.03646876936625461</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>20.0</v>
+        <v>32.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.03813155386081983</v>
+        <v>0.035174498488595766</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>19.823802305465573</v>
+        <v>37.71685593788492</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>21.145870437813812</v>
+        <v>59.00449760314163</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>1.1458704378138123</v>
+        <v>27.00449760314163</v>
       </c>
     </row>
     <row r="24">
@@ -2924,25 +2924,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>22598.010372158256</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.034766169803320396</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
         <v>28.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.05338417540514776</v>
+        <v>0.0307776861775213</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>18.898298162399772</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>21.988640636422335</v>
+        <v>45.65084814558852</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-6.0113593635776645</v>
+        <v>17.65084814558852</v>
       </c>
     </row>
     <row r="25">
@@ -2950,25 +2950,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>24642.29100753449</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03791121693466845</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>14.0</v>
+        <v>32.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.02669208770257388</v>
+        <v>0.035174498488595766</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>20.60789225226523</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>25.436336903457196</v>
+        <v>46.58249810774339</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>11.436336903457196</v>
+        <v>14.58249810774339</v>
       </c>
     </row>
     <row r="26">
@@ -2976,25 +2976,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>37433.249616752015</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.057589614795003095</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>29.0</v>
+        <v>28.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.055290753098188754</v>
+        <v>0.0307776861775213</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>31.304734390090143</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>30.952650930712974</v>
+        <v>55.74372273559959</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>1.9526509307129736</v>
+        <v>27.74372273559959</v>
       </c>
     </row>
     <row r="27">
@@ -3002,25 +3002,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>4178.962131837307</v>
+        <v>73291.51535160118</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.006429172510518934</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>0.0</v>
+        <v>36.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03957131079967024</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>0.0</v>
+        <v>36.208181700369515</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>0.0</v>
+        <v>65.21549735084075</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>0.0</v>
+        <v>29.21549735084075</v>
       </c>
     </row>
     <row r="28">
@@ -3028,25 +3028,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>26160.618415473433</v>
+        <v>85506.7679102014</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04024710525457451</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.057197330791229746</v>
+        <v>0.04396812311074471</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>21.87764138463689</v>
+        <v>42.24287865043111</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>25.742798793860295</v>
+        <v>70.18429714900005</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-4.257201206139705</v>
+        <v>30.184297149000045</v>
       </c>
     </row>
     <row r="29">
@@ -3054,25 +3054,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>23745.06670145797</v>
+        <v>2137.6691977550345</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.022878932316491896</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>19.85756015773372</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>20.839408547410713</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>8.839408547410713</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -3080,25 +3080,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>23745.06670145797</v>
+        <v>76345.32849125125</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>20.0</v>
+        <v>34.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.03813155386081983</v>
+        <v>0.037372904644133</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>19.85756015773372</v>
+        <v>37.71685593788492</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>21.60556327341846</v>
+        <v>61.79944748960623</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>1.6055632734184613</v>
+        <v>27.79944748960623</v>
       </c>
     </row>
     <row r="31">
@@ -3106,25 +3106,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>25441.142894419256</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>16.0</v>
+        <v>34.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.030505243088655862</v>
+        <v>0.037372904644133</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>21.27595731185756</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>22.141871581623885</v>
+        <v>55.27789775452216</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>6.141871581623885</v>
+        <v>21.277897754522158</v>
       </c>
     </row>
     <row r="32">
@@ -3132,25 +3132,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>42401.90482403209</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.06523369972928014</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.0667302192564347</v>
+        <v>0.03957131079967024</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>35.45992885309593</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>30.490404246021583</v>
+        <v>54.9673477671372</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-4.509595753978417</v>
+        <v>18.9673477671372</v>
       </c>
     </row>
     <row r="33">
@@ -3158,25 +3158,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>57666.590560683646</v>
+        <v>61076.262793000984</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.088717831631821</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>29.0</v>
+        <v>36.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.055290753098188754</v>
+        <v>0.03957131079967024</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>48.22550324021046</v>
+        <v>30.173484750307928</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>38.07788988258502</v>
+        <v>59.1597725968341</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>9.07788988258502</v>
+        <v>23.159772596834102</v>
       </c>
     </row>
     <row r="34">
@@ -3184,25 +3184,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>3331.2632505952574</v>
+        <v>73291.51535160118</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.005125020385531165</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.0</v>
+        <v>0.035174498488595766</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>0.0</v>
+        <v>36.208181700369515</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>0.0</v>
+        <v>61.17834751483632</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>0.0</v>
+        <v>29.178347514836318</v>
       </c>
     </row>
     <row r="35">
@@ -3210,25 +3210,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>650000.0</v>
+        <v>1850000.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>524.5</v>
+        <v>909.75</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>523.8057004747236</v>
+        <v>909.7305652217841</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>585.15577968659</v>
+        <v>1618.4312592566978</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>60.655779686589995</v>
+        <v>708.6812592566978</v>
       </c>
     </row>
     <row r="36">
@@ -3317,25 +3317,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>2354.597344988421</v>
+        <v>29861.340376361837</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.006727420985681203</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>0.0</v>
+        <v>27.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.0</v>
+        <v>0.030405405405405407</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>0.0</v>
+        <v>26.506896413790713</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>0.0</v>
+        <v>28.679710997145794</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>0.0</v>
+        <v>1.6797109971457935</v>
       </c>
     </row>
     <row r="5">
@@ -3343,25 +3343,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>3412.2574121791317</v>
+        <v>29861.340376361837</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.009749306891940377</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.043306968211482624</v>
+        <v>0.028153153153153154</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>5.599478212534781</v>
+        <v>26.506896413790713</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>8.168388078821055</v>
+        <v>24.209050165237773</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-15.831611921178945</v>
+        <v>-0.7909498347622268</v>
       </c>
     </row>
     <row r="6">
@@ -3369,25 +3369,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>2021.1618121921783</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.005774748034834795</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.0</v>
+        <v>0.036036036036036036</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.0</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.0</v>
+        <v>37.11492011395338</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>0.0</v>
+        <v>5.1149201139533815</v>
       </c>
     </row>
     <row r="7">
@@ -3395,25 +3395,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>13699.076943148832</v>
+        <v>46450.97391878508</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>14.0</v>
+        <v>30.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.025262398123364862</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>22.480039929347676</v>
+        <v>41.23294997700778</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>13.036417337916431</v>
+        <v>34.5843573789111</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>-0.963582662083569</v>
+        <v>4.5843573789111005</v>
       </c>
     </row>
     <row r="8">
@@ -3421,25 +3421,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>11872.533350728987</v>
+        <v>1161.274347969627</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.021653484105741312</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>19.48270127210132</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>10.107348885409891</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>-1.8926511145901088</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -3447,25 +3447,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>10959.261554519064</v>
+        <v>36497.193793331135</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>28.0</v>
+        <v>41.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.050524796246729724</v>
+        <v>0.04617117117117117</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>17.98403194347814</v>
+        <v>32.39731783907754</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>12.376345573971296</v>
+        <v>32.05379464386883</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-15.623654426028704</v>
+        <v>-8.946205356131173</v>
       </c>
     </row>
     <row r="10">
@@ -3473,25 +3473,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>10959.261554519064</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>28.0</v>
+        <v>30.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.050524796246729724</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>17.98403194347814</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>12.623872485450722</v>
+        <v>26.95049312820024</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-15.376127514549278</v>
+        <v>-3.0495068717997604</v>
       </c>
     </row>
     <row r="11">
@@ -3499,25 +3499,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>11872.533350728987</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>12.0</v>
+        <v>30.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.021653484105741312</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>19.48270127210132</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>11.452245104448105</v>
+        <v>29.73411213674674</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-0.5477548955518952</v>
+        <v>-0.2658878632532584</v>
       </c>
     </row>
     <row r="12">
@@ -3525,25 +3525,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>13699.076943148832</v>
+        <v>29861.340376361837</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>20.0</v>
+        <v>33.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.03608914017623552</v>
+        <v>0.037162162162162164</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>22.480039929347676</v>
+        <v>26.506896413790713</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>10.561148223122172</v>
+        <v>31.63203418802845</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-9.438851776877828</v>
+        <v>-1.3679658119715512</v>
       </c>
     </row>
     <row r="13">
@@ -3551,25 +3551,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>2410.8548876349523</v>
+        <v>39815.12050181578</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.006888156821814149</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>0.0</v>
+        <v>23.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.0</v>
+        <v>0.0259009009009009</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>0.0</v>
+        <v>35.342528551720946</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>0.0</v>
+        <v>38.8019619373149</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>0.0</v>
+        <v>15.8019619373149</v>
       </c>
     </row>
     <row r="14">
@@ -3577,25 +3577,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>13699.076943148832</v>
+        <v>51427.86398151205</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>29.0</v>
+        <v>39.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.052329253255541504</v>
+        <v>0.04391891891891892</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>22.480039929347676</v>
+        <v>45.650766045972894</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>12.376345573971296</v>
+        <v>38.8019619373149</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-16.623654426028704</v>
+        <v>-0.19803806268510016</v>
       </c>
     </row>
     <row r="15">
@@ -3603,25 +3603,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>11872.533350728987</v>
+        <v>1161.274347969627</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.03969805419385907</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>19.48270127210132</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>10.231112341149604</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>-11.768887658850396</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -3629,25 +3629,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>10959.261554519064</v>
+        <v>41474.0838560581</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>19.0</v>
+        <v>43.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.034284683167423745</v>
+        <v>0.04842342342342342</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>17.98403194347814</v>
+        <v>36.81513390804266</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>12.046309691998728</v>
+        <v>39.1393703019872</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-6.953690308001272</v>
+        <v>-3.8606296980128008</v>
       </c>
     </row>
     <row r="17">
@@ -3655,25 +3655,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>10959.261554519064</v>
+        <v>34838.23043908881</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>10.2</v>
+        <v>33.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.018405461489880114</v>
+        <v>0.037162162162162164</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>17.98403194347814</v>
+        <v>30.924712482755837</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>10.354875796889317</v>
+        <v>30.872865367515764</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>0.15487579688931774</v>
+        <v>-2.1271346324842355</v>
       </c>
     </row>
     <row r="18">
@@ -3681,25 +3681,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>11872.533350728987</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>29.0</v>
+        <v>25.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.052329253255541504</v>
+        <v>0.028153153153153154</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>19.48270127210132</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>11.881291751012444</v>
+        <v>30.872865367515764</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-17.118708248987556</v>
+        <v>5.8728653675157645</v>
       </c>
     </row>
     <row r="19">
@@ -3707,25 +3707,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>13699.076943148832</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>36.0</v>
+        <v>31.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.06496045231722393</v>
+        <v>0.03490990990990991</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>22.480039929347676</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>16.543048583874967</v>
+        <v>33.31907601138997</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-19.456951416125033</v>
+        <v>2.319076011389967</v>
       </c>
     </row>
     <row r="20">
@@ -3733,25 +3733,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>1903.5324048403406</v>
+        <v>39815.12050181578</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.0054386640138295445</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>0.0</v>
+        <v>31.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03490990990990991</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>0.0</v>
+        <v>35.342528551720946</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>0.0</v>
+        <v>37.45232847862568</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>0.0</v>
+        <v>6.452328478625681</v>
       </c>
     </row>
     <row r="21">
@@ -3759,25 +3759,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>11050.588734140056</v>
+        <v>46450.97391878508</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.03157311066897159</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>19.0</v>
+        <v>47.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.034284683167423745</v>
+        <v>0.05292792792792793</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>18.133898876340456</v>
+        <v>41.23294997700778</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>15.552940937957262</v>
+        <v>40.15159539600411</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-3.4470590620427384</v>
+        <v>-6.848404603995888</v>
       </c>
     </row>
     <row r="22">
@@ -3785,25 +3785,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>11081.822629570435</v>
+        <v>1161.274347969627</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.031662350370201243</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>10.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.01804457008811776</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>18.18515336737937</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>8.622187416533336</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>-1.377812583466664</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -3811,25 +3811,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>12764.069278189112</v>
+        <v>41474.0838560581</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.03646876936625461</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>20.0</v>
+        <v>44.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.03608914017623552</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>20.94570227070327</v>
+        <v>36.81513390804266</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>11.386237928053593</v>
+        <v>32.05379464386883</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-8.613762071946407</v>
+        <v>-11.946205356131173</v>
       </c>
     </row>
     <row r="24">
@@ -3837,25 +3837,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>12168.15943116214</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.034766169803320396</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>25.0</v>
+        <v>32.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.0451114252202944</v>
+        <v>0.036036036036036036</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>19.967820533776642</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>11.840037265765874</v>
+        <v>24.799514803414304</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-13.159962734234126</v>
+        <v>-7.200485196585696</v>
       </c>
     </row>
     <row r="25">
@@ -3863,25 +3863,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>13268.925927133958</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03791121693466845</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>17.0</v>
+        <v>21.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.03067576914980019</v>
+        <v>0.02364864864864865</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>21.77416667556616</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>13.696489101861568</v>
+        <v>25.30562735042276</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-3.3035108981384322</v>
+        <v>4.3056273504227605</v>
       </c>
     </row>
     <row r="26">
@@ -3889,25 +3889,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>20156.365178251082</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.057589614795003095</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>36.0</v>
+        <v>32.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.06496045231722393</v>
+        <v>0.036036036036036036</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>33.07638141737785</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>16.66681203961468</v>
+        <v>30.282400729339233</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-19.33318796038532</v>
+        <v>-1.7175992706607666</v>
       </c>
     </row>
     <row r="27">
@@ -3915,25 +3915,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>2250.210378681627</v>
+        <v>39815.12050181578</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.006429172510518934</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>0.0</v>
+        <v>32.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.0</v>
+        <v>0.036036036036036036</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>0.0</v>
+        <v>35.342528551720946</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>0.0</v>
+        <v>35.42787829059186</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>0.0</v>
+        <v>3.427878290591863</v>
       </c>
     </row>
     <row r="28">
@@ -3941,25 +3941,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>14086.486839101079</v>
+        <v>46450.97391878508</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04024710525457451</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>34.0</v>
+        <v>38.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.06135153829960038</v>
+        <v>0.04279279279279279</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>23.115775458549628</v>
+        <v>41.23294997700778</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>13.861507042847851</v>
+        <v>38.12714520797029</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-20.13849295715215</v>
+        <v>0.12714520797028683</v>
       </c>
     </row>
     <row r="29">
@@ -3967,25 +3967,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>12785.805146938908</v>
+        <v>1161.274347969627</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.043306968211482624</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>20.981370600724496</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>11.221219987067307</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>-12.778780012932693</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -3993,25 +3993,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>12785.805146938908</v>
+        <v>41474.0838560581</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>12.0</v>
+        <v>44.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.021653484105741312</v>
+        <v>0.04954954954954955</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>20.981370600724496</v>
+        <v>36.81513390804266</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>11.633764839533018</v>
+        <v>33.572132284894195</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-0.36623516046698157</v>
+        <v>-10.427867715105805</v>
       </c>
     </row>
     <row r="31">
@@ -4019,25 +4019,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>13699.076943148832</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.01804457008811776</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>22.480039929347676</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>11.922546236259015</v>
+        <v>30.02934445583501</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>1.9225462362590147</v>
+        <v>0.029344455835008887</v>
       </c>
     </row>
     <row r="32">
@@ -4045,25 +4045,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>22831.79490524805</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.06523369972928014</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>27.983333333333</v>
+        <v>32.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.05049472196324893</v>
+        <v>0.036036036036036036</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>37.46673321557946</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>16.417909978627005</v>
+        <v>29.860640273498856</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-11.565423354705995</v>
+        <v>-2.1393597265011444</v>
       </c>
     </row>
     <row r="33">
@@ -4071,25 +4071,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>31051.24107113735</v>
+        <v>33179.267084846484</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.088717831631821</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>36.0</v>
+        <v>30.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.06496045231722393</v>
+        <v>0.033783783783783786</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>50.95475717318806</v>
+        <v>29.45210712643412</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>20.50347916754578</v>
+        <v>32.138146735036905</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-15.49652083245422</v>
+        <v>2.138146735036905</v>
       </c>
     </row>
     <row r="34">
@@ -4097,25 +4097,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>1793.7571349359077</v>
+        <v>39815.12050181578</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.005125020385531165</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>0.0</v>
+        <v>33.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.0</v>
+        <v>0.037162162162162164</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>0.0</v>
+        <v>35.342528551720946</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>0.0</v>
+        <v>33.23472392022189</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>0.0</v>
+        <v>0.2347239202218887</v>
       </c>
     </row>
     <row r="35">
@@ -4123,25 +4123,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>350000.0</v>
+        <v>1005000.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>554.18333333333</v>
+        <v>888.0</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>553.449740911501</v>
+        <v>887.9810298619891</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>315.0838813697023</v>
+        <v>879.2018462448547</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-239.0994519636277</v>
+        <v>-8.798153755145336</v>
       </c>
     </row>
     <row r="36">
@@ -4230,25 +4230,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>3302.9147893930003</v>
+        <v>18605.33839551007</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.006727420985681203</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04898958971218616</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>0.0</v>
+        <v>13.788187446518148</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>0.0</v>
+        <v>17.869115098722162</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>0.0</v>
+        <v>-2.130884901277838</v>
       </c>
     </row>
     <row r="5">
@@ -4256,25 +4256,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>4786.548959587723</v>
+        <v>18605.33839551007</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.009749306891940377</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.011772620248906828</v>
+        <v>0.04898958971218616</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>6.007848928164329</v>
+        <v>13.788187446518148</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>11.458218046692062</v>
+        <v>15.083635392156648</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>4.458218046692062</v>
+        <v>-4.916364607843352</v>
       </c>
     </row>
     <row r="6">
@@ -4282,25 +4282,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>2835.1876194265956</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.005774748034834795</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.0</v>
+        <v>0.05878750765462339</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.0</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.0</v>
+        <v>23.124737186581623</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>0.0</v>
+        <v>-0.8752628134183773</v>
       </c>
     </row>
     <row r="7">
@@ -4308,25 +4308,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>19216.39975211194</v>
+        <v>28941.637504126775</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>31.0</v>
+        <v>12.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.052135889673730236</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>24.11951233104005</v>
+        <v>21.448291583472674</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>18.286853044215615</v>
+        <v>21.548050560223782</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>-12.713146955784385</v>
+        <v>9.548050560223782</v>
       </c>
     </row>
     <row r="8">
@@ -4334,25 +4334,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>16654.213118497017</v>
+        <v>723.5409376031694</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.052135889673730236</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>20.903577353568043</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>14.178098088078562</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>-16.821901911921437</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -4360,25 +4360,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>15373.119801689552</v>
+        <v>22739.85803895675</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.03195425496131853</v>
+        <v>0.019595835884874464</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>19.295609864832038</v>
+        <v>16.852229101299958</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>17.360936434381912</v>
+        <v>19.971363933865945</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-1.6390635656180876</v>
+        <v>11.971363933865945</v>
       </c>
     </row>
     <row r="10">
@@ -4386,25 +4386,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>15373.119801689552</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.03195425496131853</v>
+        <v>0.0</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>19.295609864832038</v>
+        <v>0.0</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>17.70815516306955</v>
+        <v>16.791712570710974</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>-1.2918448369304514</v>
+        <v>16.791712570710974</v>
       </c>
     </row>
     <row r="11">
@@ -4412,25 +4412,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>16654.213118497017</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>28.3</v>
+        <v>20.25</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.04759502186343761</v>
+        <v>0.049601959583588484</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>20.903577353568043</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>16.064653180614727</v>
+        <v>18.526067859704593</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-12.235346819385274</v>
+        <v>-1.7239321402954069</v>
       </c>
     </row>
     <row r="12">
@@ -4438,25 +4438,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>19216.39975211194</v>
+        <v>18605.33839551007</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.030272452068617558</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>24.11951233104005</v>
+        <v>13.788187446518148</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>14.814665757339231</v>
+        <v>19.708582829472974</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>-3.185334242660769</v>
+        <v>7.708582829472974</v>
       </c>
     </row>
     <row r="13">
@@ -4464,25 +4464,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>3381.8301377083403</v>
+        <v>24807.11786068009</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.006888156821814149</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.0</v>
+        <v>0.05878750765462339</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>0.0</v>
+        <v>18.38424992869086</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>0.0</v>
+        <v>24.175861604153514</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>0.0</v>
+        <v>0.17586160415351415</v>
       </c>
     </row>
     <row r="14">
@@ -4490,25 +4490,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>19216.39975211194</v>
+        <v>32042.527236711783</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
         <v>24.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.040363269424823406</v>
+        <v>0.05878750765462339</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>24.11951233104005</v>
+        <v>23.74632282455903</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>17.360936434381912</v>
+        <v>24.175861604153514</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-6.639063565618088</v>
+        <v>0.17586160415351415</v>
       </c>
     </row>
     <row r="15">
@@ -4516,25 +4516,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>16654.213118497017</v>
+        <v>723.5409376031694</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.03195425496131853</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>20.903577353568043</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>14.35170745242238</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>-4.64829254757762</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -4542,25 +4542,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>15373.119801689552</v>
+        <v>25840.747771541763</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>31.0</v>
+        <v>28.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.052135889673730236</v>
+        <v>0.06858542559706063</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>19.295609864832038</v>
+        <v>19.150260342386314</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>16.89797812946506</v>
+        <v>24.386086487667892</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-14.10202187053494</v>
+        <v>-3.6139135123321076</v>
       </c>
     </row>
     <row r="17">
@@ -4568,25 +4568,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>15373.119801689552</v>
+        <v>21706.22812809508</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>24.3</v>
+        <v>12.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.040867810292633706</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>19.295609864832038</v>
+        <v>16.086218687604507</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>14.5253168167662</v>
+        <v>19.23557684156562</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-9.774683183233801</v>
+        <v>7.235576841565621</v>
       </c>
     </row>
     <row r="18">
@@ -4594,25 +4594,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>16654.213118497017</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.045408678102926335</v>
+        <v>0.04898958971218616</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>20.903577353568043</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>16.666498977006636</v>
+        <v>19.23557684156562</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-10.333501022993364</v>
+        <v>-0.7644231584343792</v>
       </c>
     </row>
     <row r="19">
@@ -4620,25 +4620,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>19216.39975211194</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>32.0</v>
+        <v>24.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.053817692566431215</v>
+        <v>0.05878750765462339</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>24.11951233104005</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>23.205785033957156</v>
+        <v>20.759707247044865</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-8.794214966042844</v>
+        <v>-3.240292752955135</v>
       </c>
     </row>
     <row r="20">
@@ -4646,25 +4646,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>2670.1828002217944</v>
+        <v>24807.11786068009</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.0054386640138295445</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>0.0</v>
+        <v>24.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.0</v>
+        <v>0.05878750765462339</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>0.0</v>
+        <v>18.38424992869086</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>0.0</v>
+        <v>23.334962070096</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>0.0</v>
+        <v>-0.665037929903999</v>
       </c>
     </row>
     <row r="21">
@@ -4672,25 +4672,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>15501.229133370298</v>
+        <v>28941.637504126775</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.03157311066897159</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.047090480995627314</v>
+        <v>0.04898958971218616</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>19.456406613705635</v>
+        <v>21.448291583472674</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>21.816910119206604</v>
+        <v>25.016761138211027</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-6.183089880793396</v>
+        <v>5.016761138211027</v>
       </c>
     </row>
     <row r="22">
@@ -4698,25 +4698,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>15545.042524805112</v>
+        <v>723.5409376031694</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.031662350370201243</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.020181634712411703</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>19.511399101820405</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>12.094785715952732</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>0.09478571595273166</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -4724,25 +4724,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>17904.81641436446</v>
+        <v>25840.747771541763</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.03646876936625461</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>19.0</v>
+        <v>12.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.03195425496131853</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>22.47327521607213</v>
+        <v>19.150260342386314</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>15.972061519631358</v>
+        <v>19.971363933865945</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>-3.0279384803686415</v>
+        <v>7.971363933865945</v>
       </c>
     </row>
     <row r="24">
@@ -4750,25 +4750,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>17068.903025147592</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.034766169803320396</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.03195425496131853</v>
+        <v>0.0</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>21.424076429671885</v>
+        <v>0.0</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>16.608629188892028</v>
+        <v>15.45152893830681</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>-2.391370811107972</v>
+        <v>15.45152893830681</v>
       </c>
     </row>
     <row r="25">
@@ -4776,25 +4776,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>18613.004799895625</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03791121693466845</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.040363269424823406</v>
+        <v>0.0</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>23.36215964384539</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>19.212769654049314</v>
+        <v>15.766866263578379</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-4.787230345950686</v>
+        <v>15.766866263578379</v>
       </c>
     </row>
     <row r="26">
@@ -4802,25 +4802,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>28274.370048599103</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.057589614795003095</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.052135889673730236</v>
+        <v>0.0</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>35.488646460147955</v>
+        <v>0.0</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>23.379394398300974</v>
+        <v>18.86768329541546</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-7.620605601699026</v>
+        <v>18.86768329541546</v>
       </c>
     </row>
     <row r="27">
@@ -4828,25 +4828,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>3156.4858232819074</v>
+        <v>24807.11786068009</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.006429172510518934</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.0</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>0.0</v>
+        <v>18.38424992869086</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>0.0</v>
+        <v>22.073612769009728</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>0.0</v>
+        <v>10.073612769009728</v>
       </c>
     </row>
     <row r="28">
@@ -4854,25 +4854,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>19759.839537101667</v>
+        <v>28941.637504126775</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04024710525457451</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.036999663639421455</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>24.801612139761858</v>
+        <v>21.448291583472674</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>19.44424880650774</v>
+        <v>23.755411837124758</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-2.5557511934922594</v>
+        <v>11.755411837124758</v>
       </c>
     </row>
     <row r="29">
@@ -4880,25 +4880,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>17935.306435304476</v>
+        <v>723.5409376031694</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.03195425496131853</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>22.51154484230404</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>15.740582367172934</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>-3.2594176328270663</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -4906,25 +4906,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>17935.306435304476</v>
+        <v>25840.747771541763</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.033636057854019505</v>
+        <v>0.05878750765462339</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>22.51154484230404</v>
+        <v>19.150260342386314</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>16.319280248318996</v>
+        <v>20.917375909680647</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-3.6807197516810035</v>
+        <v>-3.082624090319353</v>
       </c>
     </row>
     <row r="31">
@@ -4932,25 +4932,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>19216.39975211194</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>24.0</v>
+        <v>12.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.040363269424823406</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>24.11951233104005</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>16.72436876512124</v>
+        <v>18.710014632779675</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-7.275631234878759</v>
+        <v>6.710014632779675</v>
       </c>
     </row>
     <row r="32">
@@ -4958,25 +4958,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>32027.332920186567</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.06523369972928014</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>31.0</v>
+        <v>12.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.052135889673730236</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>40.19918721840008</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>23.030246676676146</v>
+        <v>18.604902191022486</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-7.969753323323854</v>
+        <v>6.604902191022486</v>
       </c>
     </row>
     <row r="33">
@@ -4984,25 +4984,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>43557.172771453734</v>
+        <v>20672.598217233408</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.088717831631821</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>35.0</v>
+        <v>12.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.05886310124453414</v>
+        <v>0.029393753827311696</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>54.670894617024096</v>
+        <v>15.320208273909051</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>28.761284692959368</v>
+        <v>20.02392015474454</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>-6.238715307040632</v>
+        <v>8.023920154744541</v>
       </c>
     </row>
     <row r="34">
@@ -5010,25 +5010,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>2516.1953835415375</v>
+        <v>24807.11786068009</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.005125020385531165</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04898958971218616</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>0.0</v>
+        <v>18.38424992869086</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>0.0</v>
+        <v>20.70715102616627</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>0.0</v>
+        <v>0.7071510261662688</v>
       </c>
     </row>
     <row r="35">
@@ -5036,25 +5036,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>490963.0</v>
+        <v>626173.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>594.6</v>
+        <v>408.25</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>593.8129065820224</v>
+        <v>400.62344636272167</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>441.98436471118043</v>
+        <v>547.7934902175914</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-152.6156352888196</v>
+        <v>139.5434902175914</v>
       </c>
     </row>
     <row r="36">
@@ -5143,25 +5143,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>4036.4525914087217</v>
+        <v>19461.868603499504</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.006727420985681203</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>0.0</v>
+        <v>30.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.0</v>
+        <v>0.031880977683315624</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>0.0</v>
+        <v>28.08895216821741</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>0.0</v>
+        <v>18.691751943413426</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>0.0</v>
+        <v>-11.308248056586574</v>
       </c>
     </row>
     <row r="5">
@@ -5169,25 +5169,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>5849.584135164226</v>
+        <v>19461.868603499504</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.009749306891940377</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>8.0</v>
+        <v>23.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.014184397163120567</v>
+        <v>0.024442082890541977</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>5.698665986351633</v>
+        <v>28.08895216821741</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>14.002950992264667</v>
+        <v>15.778037669881334</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>6.002950992264667</v>
+        <v>-7.221962330118666</v>
       </c>
     </row>
     <row r="6">
@@ -5195,25 +5195,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>3464.8488209008774</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.005774748034834795</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.0</v>
+        <v>0.040382571732199786</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.0</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.0</v>
+        <v>24.189326044417378</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>0.0</v>
+        <v>-13.810673955582622</v>
       </c>
     </row>
     <row r="7">
@@ -5221,25 +5221,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>23484.131902540852</v>
+        <v>30274.0178276659</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>27.0</v>
+        <v>34.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.047872340425531915</v>
+        <v>0.036131774707757705</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>22.87824580340832</v>
+        <v>43.69392559500486</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>22.348144007856742</v>
+        <v>22.54005381411619</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>-4.651855992143258</v>
+        <v>-11.459946185883808</v>
       </c>
     </row>
     <row r="8">
@@ -5247,25 +5247,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>20352.914315535407</v>
+        <v>756.8504456916473</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.03546099290780142</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>19.827813029620543</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>17.326883803559816</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>-2.6731161964401835</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -5273,25 +5273,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>18787.305522032682</v>
+        <v>23786.728293166063</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>24.0</v>
+        <v>39.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.0425531914893617</v>
+        <v>0.04144527098831031</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>18.30259664272665</v>
+        <v>34.33094153893239</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>21.21659241252222</v>
+        <v>20.890781583815006</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>-2.783407587477779</v>
+        <v>-18.109218416184994</v>
       </c>
     </row>
     <row r="10">
@@ -5299,25 +5299,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>18787.305522032682</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>20.0</v>
+        <v>35.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.03546099290780142</v>
+        <v>0.03719447396386823</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>18.30259664272665</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>21.640924260772668</v>
+        <v>17.564749252707617</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>1.6409242607726675</v>
+        <v>-17.435250747292383</v>
       </c>
     </row>
     <row r="11">
@@ -5325,25 +5325,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>20352.914315535407</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>22.0</v>
+        <v>38.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.03900709219858156</v>
+        <v>0.040382571732199786</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>19.827813029620543</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>19.632420179053895</v>
+        <v>19.37894870603892</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>-2.367579820946105</v>
+        <v>-18.62105129396108</v>
       </c>
     </row>
     <row r="12">
@@ -5351,25 +5351,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>23484.131902540852</v>
+        <v>19461.868603499504</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>18.0</v>
+        <v>32.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.031914893617021274</v>
+        <v>0.03400637619553666</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>22.87824580340832</v>
+        <v>28.08895216821741</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>18.104825525352297</v>
+        <v>20.61590287876481</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>0.10482552535229672</v>
+        <v>-11.38409712123519</v>
       </c>
     </row>
     <row r="13">
@@ -5377,25 +5377,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>4132.894093088489</v>
+        <v>25949.158137999337</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.006888156821814149</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>0.0</v>
+        <v>38.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.0</v>
+        <v>0.040382571732199786</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>0.0</v>
+        <v>37.45193622428988</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>0.0</v>
+        <v>25.288840864618166</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>0.0</v>
+        <v>-12.711159135381834</v>
       </c>
     </row>
     <row r="14">
@@ -5403,25 +5403,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>23484.131902540852</v>
+        <v>33517.66259491581</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>22.0</v>
+        <v>29.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.03900709219858156</v>
+        <v>0.030818278427205102</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>22.87824580340832</v>
+        <v>48.375417623041095</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>21.21659241252222</v>
+        <v>25.288840864618166</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>-0.7834075874777788</v>
+        <v>-3.711159135381834</v>
       </c>
     </row>
     <row r="15">
@@ -5429,25 +5429,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>20352.914315535407</v>
+        <v>756.8504456916473</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.03546099290780142</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>19.827813029620543</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>17.539049727685036</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>-2.460950272314964</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -5455,25 +5455,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>18787.305522032682</v>
+        <v>27030.37306041598</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>25.0</v>
+        <v>39.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.044326241134751775</v>
+        <v>0.04144527098831031</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>18.30259664272665</v>
+        <v>39.01243356696863</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>20.650816614854964</v>
+        <v>25.508743828658325</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>-4.349183385145036</v>
+        <v>-13.491256171341675</v>
       </c>
     </row>
     <row r="17">
@@ -5481,25 +5481,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>18787.305522032682</v>
+        <v>22705.513370749424</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>15.0</v>
+        <v>36.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.026595744680851064</v>
+        <v>0.03825717321997875</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>18.30259664272665</v>
+        <v>32.77044419625365</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>17.75121565181026</v>
+        <v>20.121121209674453</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>2.7512156518102593</v>
+        <v>-15.878878790325547</v>
       </c>
     </row>
     <row r="18">
@@ -5507,25 +5507,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>20352.914315535407</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>16.0</v>
+        <v>37.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.028368794326241134</v>
+        <v>0.039319872476089264</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>19.827813029620543</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>20.367928716021332</v>
+        <v>20.121121209674453</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>4.367928716021332</v>
+        <v>-16.878878790325547</v>
       </c>
     </row>
     <row r="19">
@@ -5533,25 +5533,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>23484.131902540852</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>35.0</v>
+        <v>36.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.06205673758865248</v>
+        <v>0.03825717321997875</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>22.87824580340832</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>28.35951185807137</v>
+        <v>21.7154176989656</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>-6.640488141928628</v>
+        <v>-14.284582301034401</v>
       </c>
     </row>
     <row r="20">
@@ -5559,25 +5559,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>3263.1984082977265</v>
+        <v>25949.158137999337</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.0054386640138295445</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04250797024442083</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>0.0</v>
+        <v>37.45193622428988</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>0.0</v>
+        <v>24.409229008457533</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>0.0</v>
+        <v>-15.590770991542467</v>
       </c>
     </row>
     <row r="21">
@@ -5585,25 +5585,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>18943.86640138295</v>
+        <v>30274.0178276659</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.03157311066897159</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>34.0</v>
+        <v>36.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.06028368794326241</v>
+        <v>0.03825717321997875</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>18.455118281416038</v>
+        <v>43.69392559500486</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>26.662184465069593</v>
+        <v>26.1684527207788</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-7.337815534930407</v>
+        <v>-9.831547279221201</v>
       </c>
     </row>
     <row r="22">
@@ -5611,25 +5611,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>18997.410222120747</v>
+        <v>756.8504456916473</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.031662350370201243</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>14.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.024822695035460994</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>18.50728068184781</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>14.780892714057149</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>0.7808927140571491</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -5637,25 +5637,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>21881.261619752764</v>
+        <v>27030.37306041598</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.03646876936625461</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>14.0</v>
+        <v>39.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.024822695035460994</v>
+        <v>0.04144527098831031</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>21.316729266506357</v>
+        <v>39.01243356696863</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>19.519265019520446</v>
+        <v>20.890781583815006</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>5.5192650195204465</v>
+        <v>-18.109218416184994</v>
       </c>
     </row>
     <row r="24">
@@ -5663,25 +5663,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>20859.701881992238</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.034766169803320396</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.03546099290780142</v>
+        <v>0.031880977683315624</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>20.321525574058093</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>20.297206741312927</v>
+        <v>16.16286785695161</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>0.2972067413129267</v>
+        <v>-13.83713214304839</v>
       </c>
     </row>
     <row r="25">
@@ -5689,25 +5689,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>22746.73016080107</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03791121693466845</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.0549645390070922</v>
+        <v>0.024442082890541977</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>22.159868885181297</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>23.47969560319126</v>
+        <v>16.49272230301185</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-7.52030439680874</v>
+        <v>-6.507277696988151</v>
       </c>
     </row>
     <row r="26">
@@ -5715,25 +5715,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>34553.76887700186</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.057589614795003095</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.06205673758865248</v>
+        <v>0.04144527098831031</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>33.662288266941545</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>28.571677782196595</v>
+        <v>19.736291022604178</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>-6.428322217803405</v>
+        <v>-19.263708977395822</v>
       </c>
     </row>
     <row r="27">
@@ -5741,25 +5741,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>3857.5035063113605</v>
+        <v>25949.158137999337</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.006429172510518934</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04250797024442083</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>0.0</v>
+        <v>37.45193622428988</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>0.0</v>
+        <v>23.089811224216586</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>0.0</v>
+        <v>-16.910188775783414</v>
       </c>
     </row>
     <row r="28">
@@ -5767,25 +5767,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>24148.26315274471</v>
+        <v>30274.0178276659</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04024710525457451</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.051418439716312055</v>
+        <v>0.03400637619553666</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>23.525242594728706</v>
+        <v>43.69392559500486</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>23.76258350202489</v>
+        <v>24.84903493653785</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>-5.237416497975111</v>
+        <v>-7.150965063462149</v>
       </c>
     </row>
     <row r="29">
@@ -5793,25 +5793,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>21918.523109038128</v>
+        <v>756.8504456916473</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.044326241134751775</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>21.353029416514428</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>19.236377120686814</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>-5.763622879313186</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -5819,25 +5819,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>21918.523109038128</v>
+        <v>27030.37306041598</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>22.0</v>
+        <v>32.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.03900709219858156</v>
+        <v>0.03400637619553666</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>21.353029416514428</v>
+        <v>39.01243356696863</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>19.94359686777089</v>
+        <v>21.880344921995718</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>-2.0564031322291108</v>
+        <v>-10.119655078004282</v>
       </c>
     </row>
     <row r="31">
@@ -5845,25 +5845,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>23484.131902540852</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>14.0</v>
+        <v>37.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.024822695035460994</v>
+        <v>0.039319872476089264</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>22.87824580340832</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>20.43865069072974</v>
+        <v>19.57136379957406</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>6.438650690729741</v>
+        <v>-17.42863620042594</v>
       </c>
     </row>
     <row r="32">
@@ -5871,25 +5871,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>39140.21983756808</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.06523369972928014</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.03546099290780142</v>
+        <v>0.031880977683315624</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>38.1304096723472</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>28.144988534789157</v>
+        <v>19.46141231755398</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>8.144988534789157</v>
+        <v>-10.538587682446021</v>
       </c>
     </row>
     <row r="33">
@@ -5897,25 +5897,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>53230.698979092595</v>
+        <v>21624.298448332782</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.088717831631821</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>34.0</v>
+        <v>39.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.06028368794326241</v>
+        <v>0.04144527098831031</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>51.85735715439218</v>
+        <v>31.209946853574895</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>35.148821430078485</v>
+        <v>20.945757324825045</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>1.1488214300784847</v>
+        <v>-18.054242675174955</v>
       </c>
     </row>
     <row r="34">
@@ -5923,25 +5923,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>3075.012231318699</v>
+        <v>25949.158137999337</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.005125020385531165</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>0.0</v>
+        <v>40.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.0</v>
+        <v>0.04250797024442083</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>0.0</v>
+        <v>37.45193622428988</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>0.0</v>
+        <v>21.66044195795556</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>0.0</v>
+        <v>-18.33955804204444</v>
       </c>
     </row>
     <row r="35">
@@ -5949,25 +5949,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>600000.0</v>
+        <v>655000.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>564.0</v>
+        <v>941.0</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>563.2534129032301</v>
+        <v>940.9798976352835</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>540.1437966337754</v>
+        <v>573.0121485476416</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>-23.856203366224577</v>
+        <v>-367.9878514523584</v>
       </c>
     </row>
     <row r="36">
@@ -6056,25 +6056,25 @@
         <v>1</v>
       </c>
       <c r="B4" t="n" s="6">
-        <v>8409.276232101503</v>
+        <v>28821.393199075603</v>
       </c>
       <c r="C4" t="n" s="5">
-        <v>0.006727420985681203</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D4" t="n" s="2">
-        <v>0.0</v>
+        <v>29.0</v>
       </c>
       <c r="E4" t="n" s="5">
-        <v>0.0</v>
+        <v>0.026268115942028984</v>
       </c>
       <c r="F4" t="n" s="2">
-        <v>0.0</v>
+        <v>32.95451986579386</v>
       </c>
       <c r="G4" t="n" s="2">
-        <v>0.0</v>
+        <v>27.680915091772558</v>
       </c>
       <c r="H4" t="n" s="2">
-        <v>0.0</v>
+        <v>-1.3190849082274418</v>
       </c>
     </row>
     <row r="5">
@@ -6082,25 +6082,25 @@
         <v>2</v>
       </c>
       <c r="B5" t="n" s="6">
-        <v>12186.633614925471</v>
+        <v>28821.393199075603</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>0.009749306891940377</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D5" t="n" s="2">
-        <v>32.0</v>
+        <v>27.0</v>
       </c>
       <c r="E5" t="n" s="5">
-        <v>0.033023735810113516</v>
+        <v>0.024456521739130436</v>
       </c>
       <c r="F5" t="n" s="2">
-        <v>9.790793157402009</v>
+        <v>32.95451986579386</v>
       </c>
       <c r="G5" t="n" s="2">
-        <v>29.172814567218058</v>
+        <v>23.36594891570213</v>
       </c>
       <c r="H5" t="n" s="2">
-        <v>-2.827185432781942</v>
+        <v>-3.6340510842978695</v>
       </c>
     </row>
     <row r="6">
@@ -6108,25 +6108,25 @@
         <v>3</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>7218.435043543494</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C6" t="n" s="5">
-        <v>0.005774748034834795</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D6" t="n" s="2">
-        <v>0.0</v>
+        <v>43.0</v>
       </c>
       <c r="E6" t="n" s="5">
-        <v>0.0</v>
+        <v>0.03894927536231884</v>
       </c>
       <c r="F6" t="n" s="2">
-        <v>0.0</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G6" t="n" s="2">
-        <v>0.0</v>
+        <v>35.82236070699978</v>
       </c>
       <c r="H6" t="n" s="2">
-        <v>0.0</v>
+        <v>-7.177639293000219</v>
       </c>
     </row>
     <row r="7">
@@ -6134,25 +6134,25 @@
         <v>4</v>
       </c>
       <c r="B7" t="n" s="6">
-        <v>48925.27479696011</v>
+        <v>44833.278309673165</v>
       </c>
       <c r="C7" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D7" t="n" s="2">
-        <v>29.0</v>
+        <v>53.0</v>
       </c>
       <c r="E7" t="n" s="5">
-        <v>0.029927760577915376</v>
+        <v>0.04800724637681159</v>
       </c>
       <c r="F7" t="n" s="2">
-        <v>39.30677337500472</v>
+        <v>51.26258645790156</v>
       </c>
       <c r="G7" t="n" s="2">
-        <v>46.558633349701545</v>
+        <v>33.379927022431616</v>
       </c>
       <c r="H7" t="n" s="2">
-        <v>17.558633349701545</v>
+        <v>-19.620072977568384</v>
       </c>
     </row>
     <row r="8">
@@ -6160,25 +6160,25 @@
         <v>5</v>
       </c>
       <c r="B8" t="n" s="6">
-        <v>42401.9048240321</v>
+        <v>1120.831957741829</v>
       </c>
       <c r="C8" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D8" t="n" s="2">
-        <v>13.0</v>
+        <v>0.0</v>
       </c>
       <c r="E8" t="n" s="5">
-        <v>0.013415892672858616</v>
+        <v>0.0</v>
       </c>
       <c r="F8" t="n" s="2">
-        <v>34.06587025833742</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="n" s="2">
-        <v>36.09767459074962</v>
+        <v>0.0</v>
       </c>
       <c r="H8" t="n" s="2">
-        <v>23.09767459074962</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -6186,25 +6186,25 @@
         <v>6</v>
       </c>
       <c r="B9" t="n" s="6">
-        <v>39140.21983756809</v>
+        <v>35226.14724331463</v>
       </c>
       <c r="C9" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.036315615714757346</v>
       </c>
       <c r="D9" t="n" s="2">
-        <v>31.0</v>
+        <v>39.0</v>
       </c>
       <c r="E9" t="n" s="5">
-        <v>0.03199174406604747</v>
+        <v>0.035326086956521736</v>
       </c>
       <c r="F9" t="n" s="2">
-        <v>31.44541870000377</v>
+        <v>40.27774650263694</v>
       </c>
       <c r="G9" t="n" s="2">
-        <v>44.20123419275463</v>
+        <v>30.937493337863447</v>
       </c>
       <c r="H9" t="n" s="2">
-        <v>13.201234192754633</v>
+        <v>-8.062506662136553</v>
       </c>
     </row>
     <row r="10">
@@ -6212,25 +6212,25 @@
         <v>7</v>
       </c>
       <c r="B10" t="n" s="6">
-        <v>39140.21983756809</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C10" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D10" t="n" s="2">
-        <v>31.0</v>
+        <v>23.0</v>
       </c>
       <c r="E10" t="n" s="5">
-        <v>0.03199174406604747</v>
+        <v>0.020833333333333332</v>
       </c>
       <c r="F10" t="n" s="2">
-        <v>31.44541870000377</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G10" t="n" s="2">
-        <v>45.08525887660972</v>
+        <v>26.011918740650977</v>
       </c>
       <c r="H10" t="n" s="2">
-        <v>14.085258876609721</v>
+        <v>3.0119187406509766</v>
       </c>
     </row>
     <row r="11">
@@ -6238,25 +6238,25 @@
         <v>8</v>
       </c>
       <c r="B11" t="n" s="6">
-        <v>42401.9048240321</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C11" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D11" t="n" s="2">
-        <v>27.0</v>
+        <v>24.0</v>
       </c>
       <c r="E11" t="n" s="5">
-        <v>0.02786377708978328</v>
+        <v>0.021739130434782608</v>
       </c>
       <c r="F11" t="n" s="2">
-        <v>34.06587025833742</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G11" t="n" s="2">
-        <v>40.900875373028946</v>
+        <v>28.698595793675963</v>
       </c>
       <c r="H11" t="n" s="2">
-        <v>13.900875373028946</v>
+        <v>4.698595793675963</v>
       </c>
     </row>
     <row r="12">
@@ -6264,25 +6264,25 @@
         <v>9</v>
       </c>
       <c r="B12" t="n" s="6">
-        <v>48925.27479696011</v>
+        <v>28821.393199075603</v>
       </c>
       <c r="C12" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.029712776493892375</v>
       </c>
       <c r="D12" t="n" s="2">
-        <v>23.0</v>
+        <v>47.0</v>
       </c>
       <c r="E12" t="n" s="5">
-        <v>0.023735810113519093</v>
+        <v>0.042572463768115944</v>
       </c>
       <c r="F12" t="n" s="2">
-        <v>39.30677337500472</v>
+        <v>32.95451986579386</v>
       </c>
       <c r="G12" t="n" s="2">
-        <v>37.71838651115062</v>
+        <v>30.53042105710209</v>
       </c>
       <c r="H12" t="n" s="2">
-        <v>14.71838651115062</v>
+        <v>-16.46957894289791</v>
       </c>
     </row>
     <row r="13">
@@ -6290,25 +6290,25 @@
         <v>10</v>
       </c>
       <c r="B13" t="n" s="6">
-        <v>8610.196027267686</v>
+        <v>38428.524265434135</v>
       </c>
       <c r="C13" t="n" s="5">
-        <v>0.006888156821814149</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D13" t="n" s="2">
-        <v>0.0</v>
+        <v>63.0</v>
       </c>
       <c r="E13" t="n" s="5">
-        <v>0.0</v>
+        <v>0.057065217391304345</v>
       </c>
       <c r="F13" t="n" s="2">
-        <v>0.0</v>
+        <v>43.939359821058474</v>
       </c>
       <c r="G13" t="n" s="2">
-        <v>0.0</v>
+        <v>37.45064983004523</v>
       </c>
       <c r="H13" t="n" s="2">
-        <v>0.0</v>
+        <v>-25.54935016995477</v>
       </c>
     </row>
     <row r="14">
@@ -6316,25 +6316,25 @@
         <v>11</v>
       </c>
       <c r="B14" t="n" s="6">
-        <v>48925.27479696011</v>
+        <v>49636.843842852424</v>
       </c>
       <c r="C14" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.05117200396170353</v>
       </c>
       <c r="D14" t="n" s="2">
-        <v>25.0</v>
+        <v>57.0</v>
       </c>
       <c r="E14" t="n" s="5">
-        <v>0.025799793601651185</v>
+        <v>0.051630434782608696</v>
       </c>
       <c r="F14" t="n" s="2">
-        <v>39.30677337500472</v>
+        <v>56.755006435533865</v>
       </c>
       <c r="G14" t="n" s="2">
-        <v>44.20123419275463</v>
+        <v>37.45064983004523</v>
       </c>
       <c r="H14" t="n" s="2">
-        <v>19.201234192754633</v>
+        <v>-19.54935016995477</v>
       </c>
     </row>
     <row r="15">
@@ -6342,25 +6342,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="n" s="6">
-        <v>42401.9048240321</v>
+        <v>1120.831957741829</v>
       </c>
       <c r="C15" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D15" t="n" s="2">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="E15" t="n" s="5">
-        <v>0.026831785345717233</v>
+        <v>0.0</v>
       </c>
       <c r="F15" t="n" s="2">
-        <v>34.06587025833742</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="n" s="2">
-        <v>36.539686932677164</v>
+        <v>0.0</v>
       </c>
       <c r="H15" t="n" s="2">
-        <v>10.539686932677164</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -6368,25 +6368,25 @@
         <v>13</v>
       </c>
       <c r="B16" t="n" s="6">
-        <v>39140.21983756809</v>
+        <v>40029.71277649389</v>
       </c>
       <c r="C16" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D16" t="n" s="2">
-        <v>30.0</v>
+        <v>41.0</v>
       </c>
       <c r="E16" t="n" s="5">
-        <v>0.030959752321981424</v>
+        <v>0.03713768115942029</v>
       </c>
       <c r="F16" t="n" s="2">
-        <v>31.44541870000377</v>
+        <v>45.77016648026925</v>
       </c>
       <c r="G16" t="n" s="2">
-        <v>43.02253461428118</v>
+        <v>37.77630765465432</v>
       </c>
       <c r="H16" t="n" s="2">
-        <v>13.022534614281177</v>
+        <v>-3.2236923453456825</v>
       </c>
     </row>
     <row r="17">
@@ -6394,25 +6394,25 @@
         <v>14</v>
       </c>
       <c r="B17" t="n" s="6">
-        <v>39140.21983756809</v>
+        <v>33624.95873225487</v>
       </c>
       <c r="C17" t="n" s="5">
-        <v>0.03131217587005447</v>
+        <v>0.034664905909541105</v>
       </c>
       <c r="D17" t="n" s="2">
-        <v>40.0</v>
+        <v>35.0</v>
       </c>
       <c r="E17" t="n" s="5">
-        <v>0.0412796697626419</v>
+        <v>0.03170289855072464</v>
       </c>
       <c r="F17" t="n" s="2">
-        <v>31.44541870000377</v>
+        <v>38.44693984342617</v>
       </c>
       <c r="G17" t="n" s="2">
-        <v>36.98169927460471</v>
+        <v>29.79769095173164</v>
       </c>
       <c r="H17" t="n" s="2">
-        <v>-3.0183007253952923</v>
+        <v>-5.202309048268361</v>
       </c>
     </row>
     <row r="18">
@@ -6420,25 +6420,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="n" s="6">
-        <v>42401.9048240321</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C18" t="n" s="5">
-        <v>0.03392152385922568</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D18" t="n" s="2">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
       <c r="E18" t="n" s="5">
-        <v>0.048503611971104234</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="F18" t="n" s="2">
-        <v>34.06587025833742</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G18" t="n" s="2">
-        <v>42.43318482504445</v>
+        <v>29.79769095173164</v>
       </c>
       <c r="H18" t="n" s="2">
-        <v>-4.566815174955551</v>
+        <v>-6.202309048268361</v>
       </c>
     </row>
     <row r="19">
@@ -6446,25 +6446,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="n" s="6">
-        <v>48925.27479696011</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C19" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D19" t="n" s="2">
-        <v>47.0</v>
+        <v>39.0</v>
       </c>
       <c r="E19" t="n" s="5">
-        <v>0.048503611971104234</v>
+        <v>0.035326086956521736</v>
       </c>
       <c r="F19" t="n" s="2">
-        <v>39.30677337500472</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G19" t="n" s="2">
-        <v>59.08231637098203</v>
+        <v>32.15871018014753</v>
       </c>
       <c r="H19" t="n" s="2">
-        <v>12.082316370982028</v>
+        <v>-6.84128981985247</v>
       </c>
     </row>
     <row r="20">
@@ -6472,25 +6472,25 @@
         <v>17</v>
       </c>
       <c r="B20" t="n" s="6">
-        <v>6798.33001728693</v>
+        <v>38428.524265434135</v>
       </c>
       <c r="C20" t="n" s="5">
-        <v>0.0054386640138295445</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D20" t="n" s="2">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="E20" t="n" s="5">
-        <v>0.0</v>
+        <v>0.05344202898550725</v>
       </c>
       <c r="F20" t="n" s="2">
-        <v>0.0</v>
+        <v>43.939359821058474</v>
       </c>
       <c r="G20" t="n" s="2">
-        <v>0.0</v>
+        <v>36.14801853160887</v>
       </c>
       <c r="H20" t="n" s="2">
-        <v>0.0</v>
+        <v>-22.85198146839113</v>
       </c>
     </row>
     <row r="21">
@@ -6498,25 +6498,25 @@
         <v>18</v>
       </c>
       <c r="B21" t="n" s="6">
-        <v>39466.388336214484</v>
+        <v>44833.278309673165</v>
       </c>
       <c r="C21" t="n" s="5">
-        <v>0.03157311066897159</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D21" t="n" s="2">
-        <v>57.0</v>
+        <v>45.0</v>
       </c>
       <c r="E21" t="n" s="5">
-        <v>0.058823529411764705</v>
+        <v>0.04076086956521739</v>
       </c>
       <c r="F21" t="n" s="2">
-        <v>31.70746385583713</v>
+        <v>51.26258645790156</v>
       </c>
       <c r="G21" t="n" s="2">
-        <v>55.54621763556165</v>
+        <v>38.75328112848158</v>
       </c>
       <c r="H21" t="n" s="2">
-        <v>-1.4537823644383465</v>
+        <v>-6.246718871518418</v>
       </c>
     </row>
     <row r="22">
@@ -6524,25 +6524,25 @@
         <v>19</v>
       </c>
       <c r="B22" t="n" s="6">
-        <v>39577.93796275155</v>
+        <v>1120.831957741829</v>
       </c>
       <c r="C22" t="n" s="5">
-        <v>0.031662350370201243</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D22" t="n" s="2">
-        <v>34.0</v>
+        <v>0.0</v>
       </c>
       <c r="E22" t="n" s="5">
-        <v>0.03508771929824561</v>
+        <v>0.0</v>
       </c>
       <c r="F22" t="n" s="2">
-        <v>31.797083299132144</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="n" s="2">
-        <v>30.79352648761906</v>
+        <v>0.0</v>
       </c>
       <c r="H22" t="n" s="2">
-        <v>-3.2064735123809385</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -6550,25 +6550,25 @@
         <v>20</v>
       </c>
       <c r="B23" t="n" s="6">
-        <v>45585.961707818264</v>
+        <v>40029.71277649389</v>
       </c>
       <c r="C23" t="n" s="5">
-        <v>0.03646876936625461</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D23" t="n" s="2">
-        <v>35.0</v>
+        <v>33.0</v>
       </c>
       <c r="E23" t="n" s="5">
-        <v>0.03611971104231166</v>
+        <v>0.029891304347826088</v>
       </c>
       <c r="F23" t="n" s="2">
-        <v>36.62395506958273</v>
+        <v>45.77016648026925</v>
       </c>
       <c r="G23" t="n" s="2">
-        <v>40.66513545733426</v>
+        <v>30.937493337863447</v>
       </c>
       <c r="H23" t="n" s="2">
-        <v>5.665135457334259</v>
+        <v>-2.0625066621365526</v>
       </c>
     </row>
     <row r="24">
@@ -6576,25 +6576,25 @@
         <v>21</v>
       </c>
       <c r="B24" t="n" s="6">
-        <v>43457.712254150494</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C24" t="n" s="5">
-        <v>0.034766169803320396</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D24" t="n" s="2">
-        <v>31.5</v>
+        <v>27.0</v>
       </c>
       <c r="E24" t="n" s="5">
-        <v>0.032507739938080496</v>
+        <v>0.024456521739130436</v>
       </c>
       <c r="F24" t="n" s="2">
-        <v>34.91411042777003</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G24" t="n" s="2">
-        <v>42.285847377735266</v>
+        <v>23.935850108768037</v>
       </c>
       <c r="H24" t="n" s="2">
-        <v>10.785847377735266</v>
+        <v>-3.0641498912319634</v>
       </c>
     </row>
     <row r="25">
@@ -6602,25 +6602,25 @@
         <v>22</v>
       </c>
       <c r="B25" t="n" s="6">
-        <v>47389.02116833557</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C25" t="n" s="5">
-        <v>0.03791121693466845</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D25" t="n" s="2">
-        <v>56.0</v>
+        <v>36.0</v>
       </c>
       <c r="E25" t="n" s="5">
-        <v>0.05779153766769866</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="F25" t="n" s="2">
-        <v>38.07254069102957</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G25" t="n" s="2">
-        <v>48.916032506648456</v>
+        <v>24.42433684568167</v>
       </c>
       <c r="H25" t="n" s="2">
-        <v>-7.083967493351544</v>
+        <v>-11.575663154318331</v>
       </c>
     </row>
     <row r="26">
@@ -6628,25 +6628,25 @@
         <v>23</v>
       </c>
       <c r="B26" t="n" s="6">
-        <v>71987.01849375387</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C26" t="n" s="5">
-        <v>0.057589614795003095</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D26" t="n" s="2">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
       <c r="E26" t="n" s="5">
-        <v>0.05056759545923633</v>
+        <v>0.042572463768115944</v>
       </c>
       <c r="F26" t="n" s="2">
-        <v>57.834676118202765</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G26" t="n" s="2">
-        <v>59.52432871290957</v>
+        <v>29.227789758665732</v>
       </c>
       <c r="H26" t="n" s="2">
-        <v>10.524328712909572</v>
+        <v>-17.772210241334268</v>
       </c>
     </row>
     <row r="27">
@@ -6654,25 +6654,25 @@
         <v>24</v>
       </c>
       <c r="B27" t="n" s="6">
-        <v>8036.4656381486675</v>
+        <v>38428.524265434135</v>
       </c>
       <c r="C27" t="n" s="5">
-        <v>0.006429172510518934</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D27" t="n" s="2">
-        <v>0.0</v>
+        <v>59.0</v>
       </c>
       <c r="E27" t="n" s="5">
-        <v>0.0</v>
+        <v>0.05344202898550725</v>
       </c>
       <c r="F27" t="n" s="2">
-        <v>0.0</v>
+        <v>43.939359821058474</v>
       </c>
       <c r="G27" t="n" s="2">
-        <v>0.0</v>
+        <v>34.19407158395434</v>
       </c>
       <c r="H27" t="n" s="2">
-        <v>0.0</v>
+        <v>-24.80592841604566</v>
       </c>
     </row>
     <row r="28">
@@ -6680,25 +6680,25 @@
         <v>25</v>
       </c>
       <c r="B28" t="n" s="6">
-        <v>50308.88156821814</v>
+        <v>44833.278309673165</v>
       </c>
       <c r="C28" t="n" s="5">
-        <v>0.04024710525457451</v>
+        <v>0.04621987454605481</v>
       </c>
       <c r="D28" t="n" s="2">
-        <v>39.0</v>
+        <v>61.0</v>
       </c>
       <c r="E28" t="n" s="5">
-        <v>0.04024767801857585</v>
+        <v>0.0552536231884058</v>
       </c>
       <c r="F28" t="n" s="2">
-        <v>40.41836892604985</v>
+        <v>51.26258645790156</v>
       </c>
       <c r="G28" t="n" s="2">
-        <v>49.50538229588519</v>
+        <v>36.799334180827046</v>
       </c>
       <c r="H28" t="n" s="2">
-        <v>10.505382295885191</v>
+        <v>-24.200665819172954</v>
       </c>
     </row>
     <row r="29">
@@ -6706,25 +6706,25 @@
         <v>26</v>
       </c>
       <c r="B29" t="n" s="6">
-        <v>45663.5898104961</v>
+        <v>1120.831957741829</v>
       </c>
       <c r="C29" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.00115549686365137</v>
       </c>
       <c r="D29" t="n" s="2">
-        <v>42.0</v>
+        <v>0.0</v>
       </c>
       <c r="E29" t="n" s="5">
-        <v>0.043343653250773995</v>
+        <v>0.0</v>
       </c>
       <c r="F29" t="n" s="2">
-        <v>36.68632181667107</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="n" s="2">
-        <v>40.07578566809753</v>
+        <v>0.0</v>
       </c>
       <c r="H29" t="n" s="2">
-        <v>-1.9242143319024692</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -6732,25 +6732,25 @@
         <v>27</v>
       </c>
       <c r="B30" t="n" s="6">
-        <v>45663.5898104961</v>
+        <v>40029.71277649389</v>
       </c>
       <c r="C30" t="n" s="5">
-        <v>0.03653087184839688</v>
+        <v>0.041267745130406076</v>
       </c>
       <c r="D30" t="n" s="2">
-        <v>38.0</v>
+        <v>35.0</v>
       </c>
       <c r="E30" t="n" s="5">
-        <v>0.0392156862745098</v>
+        <v>0.03170289855072464</v>
       </c>
       <c r="F30" t="n" s="2">
-        <v>36.68632181667107</v>
+        <v>45.77016648026925</v>
       </c>
       <c r="G30" t="n" s="2">
-        <v>41.549160141189354</v>
+        <v>32.40295354860435</v>
       </c>
       <c r="H30" t="n" s="2">
-        <v>3.549160141189354</v>
+        <v>-2.5970464513956486</v>
       </c>
     </row>
     <row r="31">
@@ -6758,25 +6758,25 @@
         <v>28</v>
       </c>
       <c r="B31" t="n" s="6">
-        <v>48925.27479696011</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C31" t="n" s="5">
-        <v>0.03914021983756809</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D31" t="n" s="2">
-        <v>54.5</v>
+        <v>35.0</v>
       </c>
       <c r="E31" t="n" s="5">
-        <v>0.05624355005159959</v>
+        <v>0.03170289855072464</v>
       </c>
       <c r="F31" t="n" s="2">
-        <v>39.30677337500472</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G31" t="n" s="2">
-        <v>42.580522272353626</v>
+        <v>28.983546390208915</v>
       </c>
       <c r="H31" t="n" s="2">
-        <v>-11.919477727646374</v>
+        <v>-6.0164536097910855</v>
       </c>
     </row>
     <row r="32">
@@ -6784,25 +6784,25 @@
         <v>29</v>
       </c>
       <c r="B32" t="n" s="6">
-        <v>81542.12466160017</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C32" t="n" s="5">
-        <v>0.06523369972928014</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D32" t="n" s="2">
-        <v>65.0</v>
+        <v>33.0</v>
       </c>
       <c r="E32" t="n" s="5">
-        <v>0.06707946336429309</v>
+        <v>0.029891304347826088</v>
       </c>
       <c r="F32" t="n" s="2">
-        <v>65.5112889583412</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G32" t="n" s="2">
-        <v>58.63539278081074</v>
+        <v>28.82071747790437</v>
       </c>
       <c r="H32" t="n" s="2">
-        <v>-6.36460721918926</v>
+        <v>-4.17928252209563</v>
       </c>
     </row>
     <row r="33">
@@ -6810,25 +6810,25 @@
         <v>30</v>
       </c>
       <c r="B33" t="n" s="6">
-        <v>110897.28953977625</v>
+        <v>32023.77022119511</v>
       </c>
       <c r="C33" t="n" s="5">
-        <v>0.088717831631821</v>
+        <v>0.03301419610432486</v>
       </c>
       <c r="D33" t="n" s="2">
-        <v>67.0</v>
+        <v>39.0</v>
       </c>
       <c r="E33" t="n" s="5">
-        <v>0.06914344685242518</v>
+        <v>0.035326086956521736</v>
       </c>
       <c r="F33" t="n" s="2">
-        <v>89.09535298334401</v>
+        <v>36.61613318421539</v>
       </c>
       <c r="G33" t="n" s="2">
-        <v>73.22671131266351</v>
+        <v>31.01890779401572</v>
       </c>
       <c r="H33" t="n" s="2">
-        <v>6.226711312663511</v>
+        <v>-7.981092205984279</v>
       </c>
     </row>
     <row r="34">
@@ -6836,25 +6836,25 @@
         <v>31</v>
       </c>
       <c r="B34" t="n" s="6">
-        <v>6406.275481913956</v>
+        <v>38428.524265434135</v>
       </c>
       <c r="C34" t="n" s="5">
-        <v>0.005125020385531165</v>
+        <v>0.03961703532518983</v>
       </c>
       <c r="D34" t="n" s="2">
-        <v>0.0</v>
+        <v>39.0</v>
       </c>
       <c r="E34" t="n" s="5">
-        <v>0.0</v>
+        <v>0.035326086956521736</v>
       </c>
       <c r="F34" t="n" s="2">
-        <v>0.0</v>
+        <v>43.939359821058474</v>
       </c>
       <c r="G34" t="n" s="2">
-        <v>0.0</v>
+        <v>32.07729572399526</v>
       </c>
       <c r="H34" t="n" s="2">
-        <v>0.0</v>
+        <v>-6.922704276004737</v>
       </c>
     </row>
     <row r="35">
@@ -6862,25 +6862,25 @@
         <v>32</v>
       </c>
       <c r="B35" t="n" s="3">
-        <v>1250000.0</v>
+        <v>970000.0</v>
       </c>
       <c r="C35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="D35" t="n" s="3">
-        <v>969.0</v>
+        <v>1104.0</v>
       </c>
       <c r="E35" t="n" s="3">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="3">
-        <v>967.717299828422</v>
+        <v>1103.9764155040943</v>
       </c>
       <c r="G35" t="n" s="3">
-        <v>1125.2995763203655</v>
+        <v>848.5828764751335</v>
       </c>
       <c r="H35" t="n" s="3">
-        <v>156.29957632036553</v>
+        <v>-255.4171235248665</v>
       </c>
     </row>
     <row r="36">
